--- a/src/main/resources/input_excel_file/booking/voucher.xlsx
+++ b/src/main/resources/input_excel_file/booking/voucher.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180"/>
+    <workbookView windowWidth="28800" windowHeight="12180" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Booking_Voucher_Check_Player1" sheetId="1" r:id="rId1"/>
-    <sheet name="CICO_Voucher_Check_Player1" sheetId="3" r:id="rId2"/>
-    <sheet name="Check_In_Ekyc_Player1" sheetId="2" r:id="rId3"/>
-    <sheet name="Check_In_Ekyc_Player2" sheetId="7" r:id="rId4"/>
-    <sheet name="Check_In_Ekyc_Player3" sheetId="8" r:id="rId5"/>
-    <sheet name="Check_In_Ekyc_Player4" sheetId="9" r:id="rId6"/>
+    <sheet name="Booking_Voucher_Check" sheetId="1" r:id="rId1"/>
+    <sheet name="CICO_Voucher_Check" sheetId="3" r:id="rId2"/>
+    <sheet name="Voucher_Apply_Player1" sheetId="2" r:id="rId3"/>
+    <sheet name="Voucher_Apply_Player2" sheetId="7" r:id="rId4"/>
+    <sheet name="Voucher_Apply_Player3" sheetId="8" r:id="rId5"/>
+    <sheet name="Voucher_Apply_Player4" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="87">
   <si>
     <t>tc_id</t>
   </si>
@@ -85,187 +85,214 @@
     <t>assert_size_data</t>
   </si>
   <si>
+    <t>CHECK_1_VC_CA_NHAN_01</t>
+  </si>
+  <si>
+    <t>Kiểm tra check voucher đủ điều kiện: Nhập 1 voucher</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>booking_voucher_check_1_voucher_request.json</t>
+  </si>
+  <si>
+    <t>{{CTX:PARTNER_UID}}</t>
+  </si>
+  <si>
+    <t>{{CTX:COURSE_UID}}</t>
+  </si>
+  <si>
+    <t>GR0001</t>
+  </si>
+  <si>
+    <t>{{TODAY}}</t>
+  </si>
+  <si>
+    <t>4D</t>
+  </si>
+  <si>
+    <t>18:08</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>voucher_check_pass_expect.json</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>CHECK_1_VC_CA_NHAN_02</t>
+  </si>
+  <si>
+    <t>Kiểm tra check voucher không  đủ điều kiện: Khác hole cấu hình</t>
+  </si>
+  <si>
+    <t>voucher_check_fail_expect.json</t>
+  </si>
+  <si>
+    <t>CHECK_1_VC_CA_NHAN_03</t>
+  </si>
+  <si>
+    <t>Kiểm tra check voucher không  đủ điều kiện: Khác guest style cấu hình</t>
+  </si>
+  <si>
+    <t>5D</t>
+  </si>
+  <si>
+    <t>CHECK_2_VC_CA_NHAN_01</t>
+  </si>
+  <si>
+    <t>Kiểm tra check voucher đủ điều kiện: Nhập 2 voucher</t>
+  </si>
+  <si>
+    <t>booking_voucher_check_2_voucher_request.json</t>
+  </si>
+  <si>
+    <t>CD0001</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>CHECK_2_VC_CA_NHAN_02</t>
+  </si>
+  <si>
+    <t>Kiểm tra check voucher đủ điều kiện: Nhập 2 voucher + 1 voucher khác hole cấu hình</t>
+  </si>
+  <si>
+    <t>CHECK_2_VC_CA_NHAN_03</t>
+  </si>
+  <si>
+    <t>Kiểm tra check voucher đủ điều kiện: Nhập 2 voucher + 1 voucher khác guest style cấu hình</t>
+  </si>
+  <si>
     <t>CHECK_3_VC_CA_NHAN_01</t>
   </si>
   <si>
     <t>Kiểm tra check voucher đủ điều kiện: Nhập 3 voucher</t>
   </si>
   <si>
-    <t>success</t>
-  </si>
-  <si>
     <t>booking_voucher_check_3_voucher_request.json</t>
   </si>
   <si>
-    <t>{{CTX:PARTNER_UID}}</t>
-  </si>
-  <si>
-    <t>{{CTX:COURSE_UID}}</t>
-  </si>
-  <si>
-    <t>GR0001</t>
-  </si>
-  <si>
-    <t>CD0001</t>
-  </si>
-  <si>
     <t>BG0001</t>
   </si>
   <si>
-    <t>28/11/2025</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>CHECK_3_VC_CA_NHAN_02</t>
+  </si>
+  <si>
+    <t>Kiểm tra check voucher không điều kiện: Nhập 3 voucher + 1 voucher khác hole cấu hình</t>
+  </si>
+  <si>
+    <t>CHECK_3_VC_CA_NHAN_03</t>
+  </si>
+  <si>
+    <t>Kiểm tra check voucher không điều kiện: Nhập 3 voucher + 1 voucher khác guest style cấu hình</t>
+  </si>
+  <si>
+    <t>cico_voucher_check_1_voucher_request.json</t>
+  </si>
+  <si>
+    <t>{{CTX:BOOKING_DATE_0}}</t>
   </si>
   <si>
     <t>{{CTX:HOLE_BOOKING_0}}</t>
   </si>
   <si>
-    <t>{{CTX:GUEST_STYLE_0}}</t>
-  </si>
-  <si>
-    <t>{{CTX:CTX:GUEST_STYLE_0}}</t>
-  </si>
-  <si>
-    <t>voucher_check_pass_expect.json</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>CHECK_3_VC_CA_NHAN_02</t>
-  </si>
-  <si>
-    <t>Kiểm tra check voucher không điều kiện: Nhập 3 voucher + 1 voucher khác hole cấu hình</t>
-  </si>
-  <si>
-    <t>voucher_check_fail_expect.json</t>
-  </si>
-  <si>
-    <t>CHECK_3_VC_CA_NHAN_03</t>
-  </si>
-  <si>
-    <t>Kiểm tra check voucher không điều kiện: Nhập 3 voucher + 1 voucher khác guest style cấu hình</t>
-  </si>
-  <si>
-    <t>CHECK_2_VC_CA_NHAN_01</t>
-  </si>
-  <si>
-    <t>Kiểm tra check voucher đủ điều kiện: Nhập 2 voucher</t>
-  </si>
-  <si>
-    <t>booking_voucher_check_2_voucher_request.json</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>CHECK_2_VC_CA_NHAN_02</t>
-  </si>
-  <si>
-    <t>Kiểm tra check voucher đủ điều kiện: Nhập 2 voucher + 1 voucher khác hole cấu hình</t>
-  </si>
-  <si>
-    <t>CHECK_2_VC_CA_NHAN_03</t>
-  </si>
-  <si>
-    <t>Kiểm tra check voucher đủ điều kiện: Nhập 2 voucher + 1 voucher khác guest style cấu hình</t>
-  </si>
-  <si>
-    <t>CHECK_1_VC_CA_NHAN_01</t>
-  </si>
-  <si>
-    <t>Kiểm tra check voucher đủ điều kiện: Nhập 1 voucher</t>
-  </si>
-  <si>
-    <t>booking_voucher_check_1_voucher_request.json</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>CHECK_1_VC_CA_NHAN_02</t>
-  </si>
-  <si>
-    <t>Kiểm tra check voucher không  đủ điều kiện: Khác hole cấu hình</t>
-  </si>
-  <si>
-    <t>CHECK_1_VC_CA_NHAN_03</t>
-  </si>
-  <si>
-    <t>Kiểm tra check voucher không  đủ điều kiện: Khác guest style cấu hình</t>
+    <t>cico_voucher_check_2_voucher_request.json</t>
   </si>
   <si>
     <t>cico_voucher_check_3_voucher_request.json</t>
   </si>
   <si>
-    <t>cico_voucher_check_2_voucher_request.json</t>
-  </si>
-  <si>
-    <t>cico_voucher_check_1_voucher_request.json</t>
-  </si>
-  <si>
-    <t>check_sum</t>
-  </si>
-  <si>
     <t>booking_uid</t>
   </si>
   <si>
-    <t>assert_code</t>
-  </si>
-  <si>
-    <t>assert_desc</t>
-  </si>
-  <si>
-    <t>CI_EKYC_PLAYER1</t>
-  </si>
-  <si>
-    <t>MB_Kiểm tra check in bag</t>
-  </si>
-  <si>
-    <t>check_in_ekyc_request.json</t>
-  </si>
-  <si>
-    <t>{{CHECKSUM_EKYC_0}}</t>
+    <t>round_id</t>
+  </si>
+  <si>
+    <t>voucher_apply[0].voucher_code</t>
+  </si>
+  <si>
+    <t>voucher_apply[0].id</t>
+  </si>
+  <si>
+    <t>voucher_apply[1].voucher_code</t>
+  </si>
+  <si>
+    <t>voucher_apply[1].id</t>
+  </si>
+  <si>
+    <t>voucher_apply[2].voucher_code</t>
+  </si>
+  <si>
+    <t>voucher_apply[2].id</t>
+  </si>
+  <si>
+    <t>assert_data</t>
+  </si>
+  <si>
+    <t>APPLY_1VC_CA_NHAN_PLAYER1</t>
+  </si>
+  <si>
+    <t>Kiểm tra apply 1 voucher</t>
+  </si>
+  <si>
+    <t>voucher_apply_1_voucher_request.json</t>
   </si>
   <si>
     <t>{{CTX:BOOKING_UID_0}}</t>
   </si>
   <si>
-    <t>{{TODAY}}</t>
-  </si>
-  <si>
-    <t>check_in_ekyc_expect.json</t>
-  </si>
-  <si>
-    <t>00</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>CI_EKYC_PLAYER2</t>
-  </si>
-  <si>
-    <t>{{CHECKSUM_EKYC_1}}</t>
+    <t>{{CTX:ROUND_1_ID_0}}</t>
+  </si>
+  <si>
+    <t>voucher_apply_expect.json</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>APPLY_2VC_CA_NHAN_PLAYER1</t>
+  </si>
+  <si>
+    <t>Kiểm tra apply 2 voucher</t>
+  </si>
+  <si>
+    <t>voucher_apply_2_voucher_request.json</t>
+  </si>
+  <si>
+    <t>APPLY_3VC_CA_NHAN_PLAYER1</t>
+  </si>
+  <si>
+    <t>Kiểm tra apply 3 voucher</t>
+  </si>
+  <si>
+    <t>voucher_apply_3_voucher_request.json</t>
   </si>
   <si>
     <t>{{CTX:BOOKING_UID_1}}</t>
   </si>
   <si>
-    <t>CI_EKYC_PLAYER3</t>
-  </si>
-  <si>
-    <t>{{CHECKSUM_EKYC_2}}</t>
+    <t>{{CTX:ROUND_1_ID_1}}</t>
   </si>
   <si>
     <t>{{CTX:BOOKING_UID_2}}</t>
   </si>
   <si>
-    <t>CI_EKYC_PLAYER4</t>
-  </si>
-  <si>
-    <t>{{CHECKSUM_EKYC_3}}</t>
+    <t>{{CTX:ROUND_1_ID_2}}</t>
   </si>
   <si>
     <t>{{CTX:BOOKING_UID_3}}</t>
+  </si>
+  <si>
+    <t>{{CTX:ROUND_1_ID_3}}</t>
   </si>
 </sst>
 </file>
@@ -273,10 +300,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -467,13 +494,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,16 +857,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -972,7 +999,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -982,58 +1009,67 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1571,8 +1607,8 @@
   <sheetPr/>
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
@@ -1587,8 +1623,8 @@
     <col min="11" max="11" width="26" style="1" customWidth="1"/>
     <col min="12" max="12" width="22" style="1" customWidth="1"/>
     <col min="13" max="13" width="27.1428571428571" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5714285714286" style="1" customWidth="1"/>
-    <col min="15" max="15" width="31" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5714285714286" style="20" customWidth="1"/>
+    <col min="15" max="15" width="31.9333333333333" style="1" customWidth="1"/>
     <col min="16" max="16" width="16.7142857142857" style="1" customWidth="1"/>
     <col min="17" max="17" width="19.3333333333333" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9.14285714285714" style="1"/>
@@ -1604,43 +1640,43 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="21" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="11" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="16" t="s">
@@ -1648,103 +1684,95 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:17">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="K2" s="12">
+        <v>18</v>
+      </c>
+      <c r="L2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="M2" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="N2" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="O2" s="17" t="s">
         <v>28</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>30</v>
       </c>
       <c r="P2" s="18">
         <v>200</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:17">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="12">
+        <v>9</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="P3" s="18">
         <v>400</v>
@@ -1752,50 +1780,46 @@
       <c r="Q3" s="19"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:17">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="12">
+        <v>18</v>
+      </c>
+      <c r="L4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="14" t="s">
+      <c r="M4" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="N4" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>34</v>
+      <c r="O4" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="P4" s="18">
         <v>400</v>
@@ -1803,48 +1827,48 @@
       <c r="Q4" s="19"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:17">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="E5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="14" t="s">
+      <c r="I5" s="12"/>
+      <c r="J5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14" t="s">
+      <c r="K5" s="12">
+        <v>18</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="N5" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="O5" s="17" t="s">
         <v>28</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="17" t="s">
-        <v>30</v>
       </c>
       <c r="P5" s="18">
         <v>200</v>
@@ -1854,48 +1878,48 @@
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:17">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="14" t="s">
+      <c r="I6" s="12"/>
+      <c r="J6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14" t="s">
+      <c r="K6" s="12">
+        <v>9</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="N6" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>34</v>
+      <c r="O6" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="P6" s="18">
         <v>400</v>
@@ -1903,48 +1927,48 @@
       <c r="Q6" s="19"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="69" customHeight="1" spans="1:17">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="14" t="s">
+      <c r="I7" s="12"/>
+      <c r="J7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14" t="s">
+      <c r="K7" s="12">
+        <v>18</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="N7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>34</v>
+      <c r="O7" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="P7" s="18">
         <v>400</v>
@@ -1952,95 +1976,103 @@
       <c r="Q7" s="19"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="69" customHeight="1" spans="1:17">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14" t="s">
+      <c r="H8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="12">
+        <v>18</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="N8" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="O8" s="17" t="s">
         <v>28</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="17" t="s">
-        <v>30</v>
       </c>
       <c r="P8" s="18">
         <v>200</v>
       </c>
       <c r="Q8" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="69" customHeight="1" spans="1:17">
-      <c r="A9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14" t="s">
+      <c r="H9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="12">
+        <v>9</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="N9" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>34</v>
+      <c r="O9" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="P9" s="18">
         <v>400</v>
@@ -2048,46 +2080,50 @@
       <c r="Q9" s="19"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="69" customHeight="1" spans="1:17">
-      <c r="A10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14" t="s">
+      <c r="H10" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="12">
+        <v>18</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="N10" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N10" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>34</v>
+      <c r="O10" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="P10" s="18">
         <v>400</v>
@@ -2105,21 +2141,22 @@
   <sheetPr/>
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.7142857142857" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.8571428571429" style="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="1" customWidth="1"/>
     <col min="4" max="4" width="31.1428571428571" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.1428571428571" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
-    <col min="7" max="10" width="17.5714285714286" style="1" customWidth="1"/>
+    <col min="7" max="9" width="17.5714285714286" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5714285714286" style="1" customWidth="1"/>
     <col min="11" max="11" width="26" style="1" customWidth="1"/>
-    <col min="12" max="12" width="31" style="1" customWidth="1"/>
+    <col min="12" max="12" width="31.9333333333333" style="1" customWidth="1"/>
     <col min="13" max="13" width="16.7142857142857" style="1" customWidth="1"/>
     <col min="14" max="14" width="19.3333333333333" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9.14285714285714" style="1"/>
@@ -2135,34 +2172,34 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="11" t="s">
         <v>15</v>
       </c>
       <c r="N1" s="16" t="s">
@@ -2170,85 +2207,77 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:14">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>27</v>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M2" s="18">
         <v>200</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:14">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="M3" s="18">
         <v>400</v>
@@ -2256,41 +2285,37 @@
       <c r="N3" s="19"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:14">
-      <c r="A4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="12" t="s">
+      <c r="A4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>34</v>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="M4" s="18">
         <v>400</v>
@@ -2298,39 +2323,39 @@
       <c r="N4" s="19"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:14">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>27</v>
+      <c r="H5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M5" s="18">
         <v>200</v>
@@ -2340,39 +2365,39 @@
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:14">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>34</v>
+      <c r="H6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="M6" s="18">
         <v>400</v>
@@ -2380,39 +2405,39 @@
       <c r="N6" s="19"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="69" customHeight="1" spans="1:14">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>34</v>
+      <c r="H7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="M7" s="18">
         <v>400</v>
@@ -2420,77 +2445,85 @@
       <c r="N7" s="19"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="69" customHeight="1" spans="1:14">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>27</v>
+      <c r="K8" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M8" s="18">
         <v>200</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="69" customHeight="1" spans="1:14">
-      <c r="A9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>34</v>
+      <c r="K9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="M9" s="18">
         <v>400</v>
@@ -2498,37 +2531,41 @@
       <c r="N9" s="19"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="69" customHeight="1" spans="1:14">
-      <c r="A10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>34</v>
+      <c r="K10" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="M10" s="18">
         <v>400</v>
@@ -2544,13 +2581,250 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:Q4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="19.4285714285714" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.4285714285714" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.8571428571429" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7142857142857" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.8571428571429" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.2857142857143" style="1" customWidth="1"/>
+    <col min="11" max="11" width="31.7142857142857" style="1" customWidth="1"/>
+    <col min="12" max="12" width="29.5714285714286" style="1" customWidth="1"/>
+    <col min="13" max="15" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5714285714286" style="1" customWidth="1"/>
+    <col min="18" max="18" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="19" max="19" width="17.4285714285714" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="9">
+        <v>35537</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P2" s="12">
+        <v>200</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="9">
+        <v>35537</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="9">
+        <v>35538</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P3" s="12">
+        <v>200</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="9">
+        <v>35537</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="9">
+        <v>35538</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="9">
+        <v>35539</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" s="12">
+        <v>200</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="19.4285714285714" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
@@ -2570,7 +2844,7 @@
     <col min="16" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:13">
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2580,76 +2854,194 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="8" t="s">
+      <c r="H1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="P1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>59</v>
+      <c r="Q1" s="11" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="6" t="s">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="D2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K2" s="7">
+      <c r="H2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="9">
+        <v>35537</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P2" s="12">
         <v>200</v>
       </c>
-      <c r="L2" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>68</v>
+      <c r="Q2" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:17">
+      <c r="A3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="9">
+        <v>35537</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="9">
+        <v>35538</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P3" s="12">
+        <v>200</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:17">
+      <c r="A4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="9">
+        <v>35537</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="9">
+        <v>35538</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="9">
+        <v>35539</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" s="12">
+        <v>200</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2658,16 +3050,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="19.4285714285714" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
@@ -2687,7 +3079,7 @@
     <col min="16" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:13">
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2697,76 +3089,194 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="8" t="s">
+      <c r="H1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="P1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>59</v>
+      <c r="Q1" s="11" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K2" s="7">
+      <c r="H2" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="9">
+        <v>35537</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P2" s="12">
         <v>200</v>
       </c>
-      <c r="L2" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>68</v>
+      <c r="Q2" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="9">
+        <v>35537</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="9">
+        <v>35538</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P3" s="12">
+        <v>200</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="9">
+        <v>35537</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="9">
+        <v>35538</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="9">
+        <v>35539</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" s="12">
+        <v>200</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2775,16 +3285,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="19.4285714285714" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
@@ -2804,7 +3314,7 @@
     <col min="16" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:13">
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2814,193 +3324,194 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="8" t="s">
+      <c r="H1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="P1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>59</v>
+      <c r="Q1" s="11" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="6" t="s">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="9">
+        <v>35537</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="P2" s="12">
+        <v>200</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H3" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="9">
+        <v>35537</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="9">
+        <v>35538</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P3" s="12">
+        <v>200</v>
+      </c>
+      <c r="Q3" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K2" s="7">
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="9">
+        <v>35537</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="9">
+        <v>35538</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="9">
+        <v>35539</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" s="12">
         <v>200</v>
       </c>
-      <c r="L2" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="19.4285714285714" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.4285714285714" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.8571428571429" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.7142857142857" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.8380952380952" style="1" customWidth="1"/>
-    <col min="10" max="10" width="31.4285714285714" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.2857142857143" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7142857142857" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5714285714286" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.7142857142857" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17.4285714285714" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.14285714285714" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:13">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K2" s="7">
-        <v>200</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>68</v>
+      <c r="Q4" s="12" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/input_excel_file/booking/voucher.xlsx
+++ b/src/main/resources/input_excel_file/booking/voucher.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Booking_Voucher_Check" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,9 @@
     <sheet name="Voucher_Apply_Player2" sheetId="7" r:id="rId4"/>
     <sheet name="Voucher_Apply_Player3" sheetId="8" r:id="rId5"/>
     <sheet name="Voucher_Apply_Player4" sheetId="9" r:id="rId6"/>
+    <sheet name="Voucher_Remove_Player1" sheetId="10" r:id="rId7"/>
+    <sheet name="Voucher_Apply_Bulk_Add" sheetId="11" r:id="rId8"/>
+    <sheet name="Voucher_Apply_Bulk_Remove" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,8 +34,132 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>tranp</author>
+  </authors>
+  <commentList>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>tranp:BE không dùng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>tranp:BE không dùng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>tranp:BE không dùng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>tranp:BE không dùng</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>tranp</author>
+  </authors>
+  <commentList>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>tranp:BE không dùng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>tranp:BE không dùng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>tranp:BE không dùng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>tranp:BE không dùng</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="188">
   <si>
     <t>tc_id</t>
   </si>
@@ -250,7 +377,7 @@
     <t>{{CTX:BOOKING_UID_0}}</t>
   </si>
   <si>
-    <t>{{CTX:ROUND_1_ID_0}}</t>
+    <t>{{CTX:ROUND_ID_0}}</t>
   </si>
   <si>
     <t>voucher_apply_expect.json</t>
@@ -280,19 +407,322 @@
     <t>{{CTX:BOOKING_UID_1}}</t>
   </si>
   <si>
-    <t>{{CTX:ROUND_1_ID_1}}</t>
+    <t>{{CTX:ROUND_ID_1}}</t>
   </si>
   <si>
     <t>{{CTX:BOOKING_UID_2}}</t>
   </si>
   <si>
-    <t>{{CTX:ROUND_1_ID_2}}</t>
+    <t>{{CTX:ROUND_ID_2}}</t>
   </si>
   <si>
     <t>{{CTX:BOOKING_UID_3}}</t>
   </si>
   <si>
-    <t>{{CTX:ROUND_1_ID_3}}</t>
+    <t>{{CTX:ROUND_ID_3}}</t>
+  </si>
+  <si>
+    <t>voucher_code</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>voucher_index</t>
+  </si>
+  <si>
+    <t>voucher_apply_uid</t>
+  </si>
+  <si>
+    <t>voucher_remove_voucher_request.json</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_CODE_BG0001}}</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_ID_BG0001}}</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_APPLY_UID_BG0001_0}}</t>
+  </si>
+  <si>
+    <t>voucher_remove_voucher_expect.json</t>
+  </si>
+  <si>
+    <t>data[0].course_uid</t>
+  </si>
+  <si>
+    <t>data[0].partner_uid</t>
+  </si>
+  <si>
+    <t>data[0].booking_uid</t>
+  </si>
+  <si>
+    <t>data[0].round_id</t>
+  </si>
+  <si>
+    <t>data[0].voucher_apply_old</t>
+  </si>
+  <si>
+    <t>data[0].voucher_apply[0].voucher_code</t>
+  </si>
+  <si>
+    <t>data[0].voucher_apply[0].id</t>
+  </si>
+  <si>
+    <t>data[0].is_change_voucher</t>
+  </si>
+  <si>
+    <t>data[0].vouchers_to_remove</t>
+  </si>
+  <si>
+    <t>data[1].course_uid</t>
+  </si>
+  <si>
+    <t>data[1].partner_uid</t>
+  </si>
+  <si>
+    <t>data[1].booking_uid</t>
+  </si>
+  <si>
+    <t>data[1].round_id</t>
+  </si>
+  <si>
+    <t>data[1].voucher_apply_old</t>
+  </si>
+  <si>
+    <t>data[1].voucher_apply[1].voucher_code</t>
+  </si>
+  <si>
+    <t>data[1].voucher_apply[1].id</t>
+  </si>
+  <si>
+    <t>data[1].is_change_voucher</t>
+  </si>
+  <si>
+    <t>data[1].vouchers_to_remove</t>
+  </si>
+  <si>
+    <t>data[2].course_uid</t>
+  </si>
+  <si>
+    <t>data[2].partner_uid</t>
+  </si>
+  <si>
+    <t>data[2].booking_uid</t>
+  </si>
+  <si>
+    <t>data[2].round_id</t>
+  </si>
+  <si>
+    <t>data[2].voucher_apply_old</t>
+  </si>
+  <si>
+    <t>data[2].voucher_apply[2].voucher_code</t>
+  </si>
+  <si>
+    <t>data[2].voucher_apply[2].id</t>
+  </si>
+  <si>
+    <t>data[2].is_change_voucher</t>
+  </si>
+  <si>
+    <t>data[2].vouchers_to_remove</t>
+  </si>
+  <si>
+    <t>data[3].course_uid</t>
+  </si>
+  <si>
+    <t>data[3].partner_uid</t>
+  </si>
+  <si>
+    <t>data[3].booking_uid</t>
+  </si>
+  <si>
+    <t>data[3].round_id</t>
+  </si>
+  <si>
+    <t>data[3].voucher_apply_old</t>
+  </si>
+  <si>
+    <t>data[3].voucher_apply[3].voucher_code</t>
+  </si>
+  <si>
+    <t>data[3].voucher_apply[3].id</t>
+  </si>
+  <si>
+    <t>data[3].is_change_voucher</t>
+  </si>
+  <si>
+    <t>data[3].vouchers_to_remove</t>
+  </si>
+  <si>
+    <t>APPLY_BULK_001</t>
+  </si>
+  <si>
+    <t>Add 1 voucher cho 1 player</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>GREEN1</t>
+  </si>
+  <si>
+    <t>APPLY_BULK_002</t>
+  </si>
+  <si>
+    <t>Add 1 voucher cho 2 player</t>
+  </si>
+  <si>
+    <t>APPLY_BULK_003</t>
+  </si>
+  <si>
+    <t>Add 1 voucher cho 3 player</t>
+  </si>
+  <si>
+    <t>APPLY_BULK_004</t>
+  </si>
+  <si>
+    <t>Add 1 voucher cho 4 player</t>
+  </si>
+  <si>
+    <t>data[0].voucher_apply</t>
+  </si>
+  <si>
+    <t>data[0].vouchers_to_remove[0].course_uid</t>
+  </si>
+  <si>
+    <t>data[0].vouchers_to_remove[0].partner_uid</t>
+  </si>
+  <si>
+    <t>data[0].vouchers_to_remove[0].booking_uid</t>
+  </si>
+  <si>
+    <t>data[0].vouchers_to_remove[0].round_id</t>
+  </si>
+  <si>
+    <t>data[0].vouchers_to_remove[0].voucher_index</t>
+  </si>
+  <si>
+    <t>data[0].vouchers_to_remove[0].voucher_apply_uid</t>
+  </si>
+  <si>
+    <t>data[0].vouchers_to_remove[0].id</t>
+  </si>
+  <si>
+    <t>data[0].vouchers_to_remove[0].voucher_code</t>
+  </si>
+  <si>
+    <t>data[1].voucher_apply</t>
+  </si>
+  <si>
+    <t>data[1].vouchers_to_remove[0].course_uid</t>
+  </si>
+  <si>
+    <t>data[1].vouchers_to_remove[0].partner_uid</t>
+  </si>
+  <si>
+    <t>data[1].vouchers_to_remove[0].booking_uid</t>
+  </si>
+  <si>
+    <t>data[1].vouchers_to_remove[0].round_id</t>
+  </si>
+  <si>
+    <t>data[1].vouchers_to_remove[0].voucher_index</t>
+  </si>
+  <si>
+    <t>data[1].vouchers_to_remove[0].voucher_apply_uid</t>
+  </si>
+  <si>
+    <t>data[1].vouchers_to_remove[0].id</t>
+  </si>
+  <si>
+    <t>data[1].vouchers_to_remove[0].voucher_code</t>
+  </si>
+  <si>
+    <t>data[2].voucher_apply</t>
+  </si>
+  <si>
+    <t>data[2].vouchers_to_remove[0].course_uid</t>
+  </si>
+  <si>
+    <t>data[2].vouchers_to_remove[0].partner_uid</t>
+  </si>
+  <si>
+    <t>data[2].vouchers_to_remove[0].booking_uid</t>
+  </si>
+  <si>
+    <t>data[2].vouchers_to_remove[0].round_id</t>
+  </si>
+  <si>
+    <t>data[2].vouchers_to_remove[0].voucher_index</t>
+  </si>
+  <si>
+    <t>data[2].vouchers_to_remove[0].voucher_apply_uid</t>
+  </si>
+  <si>
+    <t>data[2].vouchers_to_remove[0].id</t>
+  </si>
+  <si>
+    <t>data[2].vouchers_to_remove[0].voucher_code</t>
+  </si>
+  <si>
+    <t>data[3].voucher_apply</t>
+  </si>
+  <si>
+    <t>data[3].vouchers_to_remove[0].course_uid</t>
+  </si>
+  <si>
+    <t>data[3].vouchers_to_remove[0].partner_uid</t>
+  </si>
+  <si>
+    <t>data[3].vouchers_to_remove[0].booking_uid</t>
+  </si>
+  <si>
+    <t>data[3].vouchers_to_remove[0].round_id</t>
+  </si>
+  <si>
+    <t>data[3].vouchers_to_remove[0].voucher_index</t>
+  </si>
+  <si>
+    <t>data[3].vouchers_to_remove[0].voucher_apply_uid</t>
+  </si>
+  <si>
+    <t>data[3].vouchers_to_remove[0].id</t>
+  </si>
+  <si>
+    <t>data[3].vouchers_to_remove[0].voucher_code</t>
+  </si>
+  <si>
+    <t>CHI-LINH-123</t>
+  </si>
+  <si>
+    <t>CHI-LINH</t>
+  </si>
+  <si>
+    <t>CHI-LINH-123-147805298153122</t>
+  </si>
+  <si>
+    <t>CHI-LINH-123-147805298153122_133279_1452_GREEN1_IdToHBIEzy</t>
+  </si>
+  <si>
+    <t>CHI-LINH-123-374186772549878</t>
+  </si>
+  <si>
+    <t>CHI-LINH-123-374186772549878_133277_1452_GREEN1_R093lufLPt</t>
+  </si>
+  <si>
+    <t>CHI-LINH-323</t>
+  </si>
+  <si>
+    <t>CHI-LINH-323-374386772549878</t>
+  </si>
+  <si>
+    <t>CHI-LINH-323-374386772549878_333277_3452_GREEN3_R093lufLPt</t>
+  </si>
+  <si>
+    <t>GREEN3</t>
   </si>
 </sst>
 </file>
@@ -300,12 +730,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,8 +908,19 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -501,6 +942,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,16 +1304,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -875,7 +1322,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -899,16 +1346,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -917,89 +1364,89 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1009,35 +1456,50 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1623,7 +2085,7 @@
     <col min="11" max="11" width="26" style="1" customWidth="1"/>
     <col min="12" max="12" width="22" style="1" customWidth="1"/>
     <col min="13" max="13" width="27.1428571428571" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5714285714286" style="20" customWidth="1"/>
+    <col min="14" max="14" width="17.5714285714286" style="25" customWidth="1"/>
     <col min="15" max="15" width="31.9333333333333" style="1" customWidth="1"/>
     <col min="16" max="16" width="16.7142857142857" style="1" customWidth="1"/>
     <col min="17" max="17" width="19.3333333333333" style="1" customWidth="1"/>
@@ -1640,495 +2102,495 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:17">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="11">
         <v>18</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="18">
+      <c r="P2" s="23">
         <v>200</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="Q2" s="24" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:17">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12" t="s">
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="11">
         <v>9</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="N3" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="18">
+      <c r="P3" s="23">
         <v>400</v>
       </c>
-      <c r="Q3" s="19"/>
+      <c r="Q3" s="24"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:17">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12" t="s">
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="11">
         <v>18</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="23" t="s">
+      <c r="N4" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="18">
+      <c r="P4" s="23">
         <v>400</v>
       </c>
-      <c r="Q4" s="19"/>
+      <c r="Q4" s="24"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:17">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12" t="s">
+      <c r="I5" s="11"/>
+      <c r="J5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="11">
         <v>18</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="M5" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="23" t="s">
+      <c r="N5" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="17" t="s">
+      <c r="O5" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="18">
+      <c r="P5" s="23">
         <v>200</v>
       </c>
-      <c r="Q5" s="19" t="s">
+      <c r="Q5" s="24" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:17">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12" t="s">
+      <c r="I6" s="11"/>
+      <c r="J6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="11">
         <v>9</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="M6" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="23" t="s">
+      <c r="N6" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="18">
+      <c r="P6" s="23">
         <v>400</v>
       </c>
-      <c r="Q6" s="19"/>
+      <c r="Q6" s="24"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="69" customHeight="1" spans="1:17">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12" t="s">
+      <c r="I7" s="11"/>
+      <c r="J7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="11">
         <v>18</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="22" t="s">
+      <c r="M7" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="23" t="s">
+      <c r="N7" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="P7" s="18">
+      <c r="P7" s="23">
         <v>400</v>
       </c>
-      <c r="Q7" s="19"/>
+      <c r="Q7" s="24"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="69" customHeight="1" spans="1:17">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="11">
         <v>18</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="22" t="s">
+      <c r="M8" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="23" t="s">
+      <c r="N8" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="17" t="s">
+      <c r="O8" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="18">
+      <c r="P8" s="23">
         <v>200</v>
       </c>
-      <c r="Q8" s="19" t="s">
+      <c r="Q8" s="24" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="69" customHeight="1" spans="1:17">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="11">
         <v>9</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="22" t="s">
+      <c r="M9" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="23" t="s">
+      <c r="N9" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="O9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="P9" s="18">
+      <c r="P9" s="23">
         <v>400</v>
       </c>
-      <c r="Q9" s="19"/>
+      <c r="Q9" s="24"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="69" customHeight="1" spans="1:17">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="11">
         <v>18</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="22" t="s">
+      <c r="M10" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="23" t="s">
+      <c r="N10" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="O10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="18">
+      <c r="P10" s="23">
         <v>400</v>
       </c>
-      <c r="Q10" s="19"/>
+      <c r="Q10" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2141,8 +2603,8 @@
   <sheetPr/>
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
@@ -2172,405 +2634,405 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:14">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="18">
+      <c r="M2" s="23">
         <v>200</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="24" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:14">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12" t="s">
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="18">
+      <c r="M3" s="23">
         <v>400</v>
       </c>
-      <c r="N3" s="19"/>
+      <c r="N3" s="24"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:14">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12" t="s">
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="23">
         <v>400</v>
       </c>
-      <c r="N4" s="19"/>
+      <c r="N4" s="24"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:14">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12" t="s">
+      <c r="I5" s="11"/>
+      <c r="J5" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="23">
         <v>200</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="N5" s="24" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:14">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12" t="s">
+      <c r="I6" s="11"/>
+      <c r="J6" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="23">
         <v>400</v>
       </c>
-      <c r="N6" s="19"/>
+      <c r="N6" s="24"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="69" customHeight="1" spans="1:14">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12" t="s">
+      <c r="I7" s="11"/>
+      <c r="J7" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M7" s="23">
         <v>400</v>
       </c>
-      <c r="N7" s="19"/>
+      <c r="N7" s="24"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="69" customHeight="1" spans="1:14">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="L8" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M8" s="23">
         <v>200</v>
       </c>
-      <c r="N8" s="19" t="s">
+      <c r="N8" s="24" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="69" customHeight="1" spans="1:14">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="23">
         <v>400</v>
       </c>
-      <c r="N9" s="19"/>
+      <c r="N9" s="24"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="69" customHeight="1" spans="1:14">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="18">
+      <c r="M10" s="23">
         <v>400</v>
       </c>
-      <c r="N10" s="19"/>
+      <c r="N10" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2583,8 +3045,8 @@
   <sheetPr/>
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="3"/>
@@ -2619,193 +3081,193 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="11">
         <v>35537</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="6" t="s">
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="P2" s="12">
+      <c r="P2" s="11">
         <v>200</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="11">
         <v>35537</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="11">
         <v>35538</v>
       </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="6" t="s">
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="11">
         <v>200</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="11">
         <v>35537</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="11">
         <v>35538</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="11">
         <v>35539</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="11">
         <v>200</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="11" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2820,8 +3282,8 @@
   <sheetPr/>
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="3"/>
@@ -2834,6 +3296,241 @@
     <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.8571428571429" style="1" customWidth="1"/>
     <col min="8" max="8" width="25.7142857142857" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23" style="1" customWidth="1"/>
+    <col min="10" max="10" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.7142857142857" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5714285714286" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.4285714285714" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="11">
+        <v>35537</v>
+      </c>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P2" s="11">
+        <v>200</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:17">
+      <c r="A3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="11">
+        <v>35537</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="11">
+        <v>35538</v>
+      </c>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P3" s="11">
+        <v>200</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:17">
+      <c r="A4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="11">
+        <v>35537</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="11">
+        <v>35538</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="11">
+        <v>35539</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" s="11">
+        <v>200</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q4"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="19.4285714285714" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.4285714285714" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7142857142857" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5714285714286" style="1" customWidth="1"/>
     <col min="9" max="9" width="17.8380952380952" style="1" customWidth="1"/>
     <col min="10" max="10" width="31.4285714285714" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.2857142857143" style="1" customWidth="1"/>
@@ -2854,428 +3551,193 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I2" s="9" t="s">
+      <c r="H2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="11">
         <v>35537</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="6" t="s">
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="P2" s="12">
+      <c r="P2" s="11">
         <v>200</v>
       </c>
-      <c r="Q2" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:17">
-      <c r="A3" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="9">
-        <v>35537</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="9">
-        <v>35538</v>
-      </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="P3" s="12">
-        <v>200</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:17">
-      <c r="A4" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="9">
-        <v>35537</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="9">
-        <v>35538</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="N4" s="9">
-        <v>35539</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="P4" s="12">
-        <v>200</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:Q4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="3"/>
-  <cols>
-    <col min="1" max="1" width="19.4285714285714" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.4285714285714" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.8571428571429" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.7142857142857" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.8380952380952" style="1" customWidth="1"/>
-    <col min="10" max="10" width="31.4285714285714" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.2857142857143" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7142857142857" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5714285714286" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.7142857142857" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17.4285714285714" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.14285714285714" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:17">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A2" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="9">
-        <v>35537</v>
-      </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="P2" s="12">
-        <v>200</v>
-      </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="11">
         <v>35537</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="11">
         <v>35538</v>
       </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="6" t="s">
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="11">
         <v>200</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="11">
         <v>35537</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="11">
         <v>35538</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="11">
         <v>35539</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="11">
         <v>200</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="11" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3290,8 +3752,8 @@
   <sheetPr/>
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="3"/>
@@ -3301,15 +3763,15 @@
     <col min="3" max="3" width="20" style="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.4285714285714" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.8571428571429" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.7142857142857" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7142857142857" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7142857142857" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.4285714285714" style="1" customWidth="1"/>
     <col min="9" max="9" width="17.8380952380952" style="1" customWidth="1"/>
     <col min="10" max="10" width="31.4285714285714" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17" style="1" customWidth="1"/>
     <col min="12" max="12" width="19.7142857142857" style="1" customWidth="1"/>
     <col min="13" max="13" width="15.5714285714286" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="14" max="14" width="24.7142857142857" style="1" customWidth="1"/>
     <col min="15" max="15" width="17.4285714285714" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9.14285714285714" style="1"/>
   </cols>
@@ -3324,193 +3786,193 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="11">
         <v>35537</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="6" t="s">
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="P2" s="12">
+      <c r="P2" s="11">
         <v>200</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="11">
         <v>35537</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="11">
         <v>35538</v>
       </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="6" t="s">
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="11">
         <v>200</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="11">
         <v>35537</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="11">
         <v>35538</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="11">
         <v>35539</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="11">
         <v>200</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="11" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3518,4 +3980,1160 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="19.4285714285714" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.4285714285714" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7142857142857" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.4285714285714" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.1428571428571" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28.4285714285714" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.4285714285714" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5714285714286" style="1" customWidth="1"/>
+    <col min="12" max="12" width="46.2857142857143" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.7142857142857" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.2857142857143" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5714285714286" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="16">
+        <v>0</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="N2" s="11">
+        <v>200</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AQ5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="22.1428571428571" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.8571428571429" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.4285714285714" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7142857142857" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.4285714285714" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.4285714285714" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28.4285714285714" style="1" customWidth="1"/>
+    <col min="10" max="11" width="36.4285714285714" style="1" customWidth="1"/>
+    <col min="12" max="12" width="35.5714285714286" style="1" customWidth="1"/>
+    <col min="13" max="13" width="32.2857142857143" style="1" customWidth="1"/>
+    <col min="14" max="41" width="21.7142857142857" style="1" customWidth="1"/>
+    <col min="42" max="42" width="14.2857142857143" style="1" customWidth="1"/>
+    <col min="43" max="43" width="14.5714285714286" style="1" customWidth="1"/>
+    <col min="44" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:43">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF1" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG1" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH1" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI1" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ1" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK1" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL1" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM1" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN1" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ1" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:43">
+      <c r="A2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K2" s="7">
+        <v>61335</v>
+      </c>
+      <c r="L2" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP2" s="11">
+        <v>200</v>
+      </c>
+      <c r="AQ2" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:43">
+      <c r="A3" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K3" s="7">
+        <v>61335</v>
+      </c>
+      <c r="L3" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="T3" s="7">
+        <v>61335</v>
+      </c>
+      <c r="U3" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP3" s="11">
+        <v>200</v>
+      </c>
+      <c r="AQ3" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:43">
+      <c r="A4" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K4" s="7">
+        <v>61335</v>
+      </c>
+      <c r="L4" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="T4" s="7">
+        <v>61335</v>
+      </c>
+      <c r="U4" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y4" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z4" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>61335</v>
+      </c>
+      <c r="AD4" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="7"/>
+      <c r="AO4" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP4" s="11">
+        <v>200</v>
+      </c>
+      <c r="AQ4" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:43">
+      <c r="A5" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K5" s="7">
+        <v>61335</v>
+      </c>
+      <c r="L5" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="T5" s="7">
+        <v>61335</v>
+      </c>
+      <c r="U5" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y5" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z5" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>61335</v>
+      </c>
+      <c r="AD5" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH5" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL5" s="7">
+        <v>61335</v>
+      </c>
+      <c r="AM5" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AO5" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP5" s="11">
+        <v>200</v>
+      </c>
+      <c r="AQ5" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:BO2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="19.4285714285714" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.4285714285714" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7142857142857" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.4285714285714" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.4285714285714" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28.4285714285714" style="1" customWidth="1"/>
+    <col min="10" max="11" width="36.4285714285714" style="1" customWidth="1"/>
+    <col min="12" max="12" width="35.5714285714286" style="1" customWidth="1"/>
+    <col min="13" max="13" width="32.2857142857143" style="1" customWidth="1"/>
+    <col min="14" max="45" width="21.7142857142857" style="1" customWidth="1"/>
+    <col min="46" max="46" width="14.2857142857143" style="1" customWidth="1"/>
+    <col min="47" max="47" width="14.5714285714286" style="1" customWidth="1"/>
+    <col min="48" max="64" width="9.14285714285714" style="1"/>
+    <col min="65" max="65" width="21.7142857142857" style="1" customWidth="1"/>
+    <col min="66" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:67">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="BH1" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="BI1" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="BK1" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="BL1" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="BM1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BN1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO1" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:67">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H2" s="7">
+        <v>133279</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="O2" s="7">
+        <v>133279</v>
+      </c>
+      <c r="P2" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="R2" s="7">
+        <v>61335</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="W2" s="7">
+        <v>133277</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z2" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>133277</v>
+      </c>
+      <c r="AE2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG2" s="7">
+        <v>61335</v>
+      </c>
+      <c r="AH2" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="AK2" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AL2" s="7">
+        <v>133277</v>
+      </c>
+      <c r="AM2" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN2" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AO2" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="AQ2" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="AR2" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AS2" s="7">
+        <v>133277</v>
+      </c>
+      <c r="AT2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV2" s="7">
+        <v>61335</v>
+      </c>
+      <c r="AW2" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX2" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY2" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="AZ2" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="BA2" s="7">
+        <v>333277</v>
+      </c>
+      <c r="BB2" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="BC2" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="BD2" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE2" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF2" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="BG2" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="BH2" s="7">
+        <v>333277</v>
+      </c>
+      <c r="BI2" s="7">
+        <v>0</v>
+      </c>
+      <c r="BJ2" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="BK2" s="7">
+        <v>63335</v>
+      </c>
+      <c r="BL2" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="BM2" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN2" s="11">
+        <v>200</v>
+      </c>
+      <c r="BO2" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/src/main/resources/input_excel_file/booking/voucher.xlsx
+++ b/src/main/resources/input_excel_file/booking/voucher.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="3" activeTab="7"/>
+    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Booking_Voucher_Check" sheetId="1" r:id="rId1"/>
@@ -14,8 +14,11 @@
     <sheet name="Voucher_Apply_Player3" sheetId="8" r:id="rId5"/>
     <sheet name="Voucher_Apply_Player4" sheetId="9" r:id="rId6"/>
     <sheet name="Voucher_Remove_Player1" sheetId="10" r:id="rId7"/>
-    <sheet name="Voucher_Apply_Bulk_Add" sheetId="11" r:id="rId8"/>
-    <sheet name="Voucher_Apply_Bulk_Remove" sheetId="12" r:id="rId9"/>
+    <sheet name="Voucher_Remove_Player2" sheetId="15" r:id="rId8"/>
+    <sheet name="Voucher_Remove_Player3" sheetId="16" r:id="rId9"/>
+    <sheet name="Voucher_Remove_Player4" sheetId="17" r:id="rId10"/>
+    <sheet name="Voucher_Apply_Bulk_Add" sheetId="11" r:id="rId11"/>
+    <sheet name="Voucher_Apply_Bulk_Remove" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +43,7 @@
     <author>tranp</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -49,11 +52,20 @@
             <rFont val="Times New Roman"/>
             <charset val="0"/>
           </rPr>
-          <t>tranp:BE không dùng</t>
+          <t>tranp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Trường này k dùng</t>
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -62,11 +74,30 @@
             <rFont val="Times New Roman"/>
             <charset val="0"/>
           </rPr>
-          <t>tranp:BE không dùng</t>
+          <t>tranp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Lấy từ response của api fee_of_bag</t>
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0">
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>tranp</author>
+  </authors>
+  <commentList>
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -75,11 +106,20 @@
             <rFont val="Times New Roman"/>
             <charset val="0"/>
           </rPr>
-          <t>tranp:BE không dùng</t>
+          <t>tranp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Trường này k dùng</t>
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -88,7 +128,16 @@
             <rFont val="Times New Roman"/>
             <charset val="0"/>
           </rPr>
-          <t>tranp:BE không dùng</t>
+          <t>tranp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Lấy từ response của api fee_of_bag</t>
         </r>
       </text>
     </comment>
@@ -96,7 +145,115 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>tranp</author>
+  </authors>
+  <commentList>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>tranp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Trường này k dùng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>tranp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Lấy từ response của api fee_of_bag</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>tranp</author>
+  </authors>
+  <commentList>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>tranp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Trường này k dùng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>tranp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Lấy từ response của api fee_of_bag</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tranp</author>
@@ -115,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -125,6 +282,77 @@
             <charset val="0"/>
           </rPr>
           <t>tranp:BE không dùng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>tranp:BE không dùng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>tranp:BE không dùng</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>tranp</author>
+  </authors>
+  <commentList>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>tranp:BE không dùng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>tranp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Không dùng</t>
         </r>
       </text>
     </comment>
@@ -141,7 +369,46 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0">
+    <comment ref="AM1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>tranp:BE không dùng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>tranp:BE không dùng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BB1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>tranp:BE không dùng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BK1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -159,7 +426,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="210">
   <si>
     <t>tc_id</t>
   </si>
@@ -434,6 +701,12 @@
     <t>voucher_apply_uid</t>
   </si>
   <si>
+    <t>REMOVE_1VC_CA_NHAN_PLAYER1</t>
+  </si>
+  <si>
+    <t>Remove voucher player 1</t>
+  </si>
+  <si>
     <t>voucher_remove_voucher_request.json</t>
   </si>
   <si>
@@ -446,7 +719,25 @@
     <t>{{CTX:VOUCHER_APPLY_UID_BG0001_0}}</t>
   </si>
   <si>
-    <t>voucher_remove_voucher_expect.json</t>
+    <t>voucher_remove_expect.json</t>
+  </si>
+  <si>
+    <t>REMOVE_1VC_CA_NHAN_PLAYER2</t>
+  </si>
+  <si>
+    <t>Remove voucher player 2</t>
+  </si>
+  <si>
+    <t>REMOVE_1VC_CA_NHAN_PLAYER3</t>
+  </si>
+  <si>
+    <t>Remove voucher player 3</t>
+  </si>
+  <si>
+    <t>REMOVE_1VC_CA_NHAN_PLAYER4</t>
+  </si>
+  <si>
+    <t>Remove voucher player 4</t>
   </si>
   <si>
     <t>data[0].course_uid</t>
@@ -470,6 +761,12 @@
     <t>data[0].voucher_apply[0].id</t>
   </si>
   <si>
+    <t>data[0].voucher_apply[1].voucher_code</t>
+  </si>
+  <si>
+    <t>data[0].voucher_apply[1].id</t>
+  </si>
+  <si>
     <t>data[0].is_change_voucher</t>
   </si>
   <si>
@@ -491,10 +788,10 @@
     <t>data[1].voucher_apply_old</t>
   </si>
   <si>
-    <t>data[1].voucher_apply[1].voucher_code</t>
-  </si>
-  <si>
-    <t>data[1].voucher_apply[1].id</t>
+    <t>data[1].voucher_apply[0].voucher_code</t>
+  </si>
+  <si>
+    <t>data[1].voucher_apply[0].id</t>
   </si>
   <si>
     <t>data[1].is_change_voucher</t>
@@ -563,30 +860,60 @@
     <t>Add 1 voucher cho 1 player</t>
   </si>
   <si>
+    <t>voucher_apply_bulk_add_1_voucher_1_Player.json</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
     <t>GREEN1</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>voucher_apply_bulk_expect.json</t>
+  </si>
+  <si>
     <t>APPLY_BULK_002</t>
   </si>
   <si>
     <t>Add 1 voucher cho 2 player</t>
   </si>
   <si>
+    <t>voucher_apply_bulk_add_1_voucher_2_Player.json</t>
+  </si>
+  <si>
+    <t>VCTT0001</t>
+  </si>
+  <si>
     <t>APPLY_BULK_003</t>
   </si>
   <si>
     <t>Add 1 voucher cho 3 player</t>
   </si>
   <si>
+    <t>voucher_apply_bulk_add_1_voucher_3_Player.json</t>
+  </si>
+  <si>
     <t>APPLY_BULK_004</t>
   </si>
   <si>
     <t>Add 1 voucher cho 4 player</t>
   </si>
   <si>
+    <t>voucher_apply_bulk_add_1_voucher_4_Player.json</t>
+  </si>
+  <si>
+    <t>APPLY_BULK_005</t>
+  </si>
+  <si>
+    <t>Add 2 voucher cho 1 player</t>
+  </si>
+  <si>
+    <t>voucher_apply_bulk_add_2_voucher_1_Player.json</t>
+  </si>
+  <si>
     <t>data[0].voucher_apply</t>
   </si>
   <si>
@@ -695,34 +1022,40 @@
     <t>data[3].vouchers_to_remove[0].voucher_code</t>
   </si>
   <si>
-    <t>CHI-LINH-123</t>
-  </si>
-  <si>
-    <t>CHI-LINH</t>
-  </si>
-  <si>
-    <t>CHI-LINH-123-147805298153122</t>
-  </si>
-  <si>
-    <t>CHI-LINH-123-147805298153122_133279_1452_GREEN1_IdToHBIEzy</t>
-  </si>
-  <si>
-    <t>CHI-LINH-123-374186772549878</t>
-  </si>
-  <si>
-    <t>CHI-LINH-123-374186772549878_133277_1452_GREEN1_R093lufLPt</t>
-  </si>
-  <si>
-    <t>CHI-LINH-323</t>
-  </si>
-  <si>
-    <t>CHI-LINH-323-374386772549878</t>
-  </si>
-  <si>
-    <t>CHI-LINH-323-374386772549878_333277_3452_GREEN3_R093lufLPt</t>
-  </si>
-  <si>
-    <t>GREEN3</t>
+    <t>APPLY_BULK_REMOVE_001</t>
+  </si>
+  <si>
+    <t>Xóa 1 voucher cho 1 player</t>
+  </si>
+  <si>
+    <t>voucher_apply_bulk_remove_1_voucher_1_Player.json</t>
+  </si>
+  <si>
+    <t>APPLY_BULK_REMOVE_002</t>
+  </si>
+  <si>
+    <t>Xóa 1 voucher cho 2 player</t>
+  </si>
+  <si>
+    <t>voucher_apply_bulk_remove_1_voucher_2_Player.json</t>
+  </si>
+  <si>
+    <t>APPLY_BULK_REMOVE_003</t>
+  </si>
+  <si>
+    <t>Xóa 1 voucher cho 3 player</t>
+  </si>
+  <si>
+    <t>voucher_apply_bulk_remove_1_voucher_3_Player.json</t>
+  </si>
+  <si>
+    <t>APPLY_BULK_REMOVE_004</t>
+  </si>
+  <si>
+    <t>Xóa 1 voucher cho 4 player</t>
+  </si>
+  <si>
+    <t>voucher_apply_bulk_remove_1_voucher_4_Player.json</t>
   </si>
 </sst>
 </file>
@@ -909,12 +1242,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -941,13 +1274,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="4" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1446,13 +1779,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1471,46 +1810,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1522,17 +1885,8 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2075,526 +2429,2223 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.7142857142857" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.1428571428571" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.1428571428571" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
-    <col min="7" max="10" width="17.5714285714286" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22" style="1" customWidth="1"/>
-    <col min="13" max="13" width="27.1428571428571" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5714285714286" style="25" customWidth="1"/>
-    <col min="15" max="15" width="31.9333333333333" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.7142857142857" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.3333333333333" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="24.7142857142857" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.1428571428571" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.1428571428571" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.4285714285714" style="2" customWidth="1"/>
+    <col min="7" max="10" width="17.5714285714286" style="2" customWidth="1"/>
+    <col min="11" max="11" width="26" style="2" customWidth="1"/>
+    <col min="12" max="12" width="22" style="2" customWidth="1"/>
+    <col min="13" max="13" width="27.1428571428571" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.5714285714286" style="3" customWidth="1"/>
+    <col min="15" max="15" width="31.9333333333333" style="2" customWidth="1"/>
+    <col min="16" max="16" width="16.7142857142857" style="2" customWidth="1"/>
+    <col min="17" max="17" width="19.3333333333333" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9.14285714285714" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:17">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="2" customFormat="1" ht="46" customHeight="1" spans="1:17">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="24" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="31" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:17">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
+      <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="9">
         <v>18</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="23">
+      <c r="P2" s="33">
         <v>200</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="Q2" s="34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:17">
-      <c r="A3" s="4" t="s">
+    <row r="3" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
+      <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11" t="s">
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="9">
         <v>9</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="27" t="s">
+      <c r="M3" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="28" t="s">
+      <c r="N3" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="23">
+      <c r="P3" s="33">
         <v>400</v>
       </c>
-      <c r="Q3" s="24"/>
+      <c r="Q3" s="34"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:17">
-      <c r="A4" s="4" t="s">
+    <row r="4" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
+      <c r="A4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11" t="s">
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="9">
         <v>18</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="27" t="s">
+      <c r="M4" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="28" t="s">
+      <c r="N4" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="23">
+      <c r="P4" s="33">
         <v>400</v>
       </c>
-      <c r="Q4" s="24"/>
+      <c r="Q4" s="34"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:17">
-      <c r="A5" s="4" t="s">
+    <row r="5" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
+      <c r="A5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11" t="s">
+      <c r="I5" s="9"/>
+      <c r="J5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="9">
         <v>18</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="27" t="s">
+      <c r="M5" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="28" t="s">
+      <c r="N5" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="22" t="s">
+      <c r="O5" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="23">
+      <c r="P5" s="33">
         <v>200</v>
       </c>
-      <c r="Q5" s="24" t="s">
+      <c r="Q5" s="34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:17">
-      <c r="A6" s="4" t="s">
+    <row r="6" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
+      <c r="A6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11" t="s">
+      <c r="I6" s="9"/>
+      <c r="J6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="9">
         <v>9</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="27" t="s">
+      <c r="M6" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="28" t="s">
+      <c r="N6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="23">
+      <c r="P6" s="33">
         <v>400</v>
       </c>
-      <c r="Q6" s="24"/>
+      <c r="Q6" s="34"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="69" customHeight="1" spans="1:17">
-      <c r="A7" s="4" t="s">
+    <row r="7" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
+      <c r="A7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11" t="s">
+      <c r="I7" s="9"/>
+      <c r="J7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="9">
         <v>18</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="27" t="s">
+      <c r="M7" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="28" t="s">
+      <c r="N7" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="O7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P7" s="23">
+      <c r="P7" s="33">
         <v>400</v>
       </c>
-      <c r="Q7" s="24"/>
+      <c r="Q7" s="34"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="69" customHeight="1" spans="1:17">
-      <c r="A8" s="4" t="s">
+    <row r="8" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
+      <c r="A8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="9">
         <v>18</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="27" t="s">
+      <c r="M8" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="28" t="s">
+      <c r="N8" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="22" t="s">
+      <c r="O8" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="23">
+      <c r="P8" s="33">
         <v>200</v>
       </c>
-      <c r="Q8" s="24" t="s">
+      <c r="Q8" s="34" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="69" customHeight="1" spans="1:17">
-      <c r="A9" s="4" t="s">
+    <row r="9" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
+      <c r="A9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="9">
         <v>9</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="27" t="s">
+      <c r="M9" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="28" t="s">
+      <c r="N9" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="O9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P9" s="23">
+      <c r="P9" s="33">
         <v>400</v>
       </c>
-      <c r="Q9" s="24"/>
+      <c r="Q9" s="34"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="69" customHeight="1" spans="1:17">
-      <c r="A10" s="4" t="s">
+    <row r="10" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
+      <c r="A10" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="9">
         <v>18</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="27" t="s">
+      <c r="M10" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="28" t="s">
+      <c r="N10" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="23">
+      <c r="P10" s="33">
         <v>400</v>
       </c>
-      <c r="Q10" s="24"/>
+      <c r="Q10" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="19.4285714285714" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.4285714285714" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.7142857142857" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.4285714285714" style="2" customWidth="1"/>
+    <col min="8" max="8" width="30.1428571428571" style="2" customWidth="1"/>
+    <col min="9" max="9" width="28.4285714285714" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.4285714285714" style="2" customWidth="1"/>
+    <col min="11" max="11" width="23.5714285714286" style="2" customWidth="1"/>
+    <col min="12" max="12" width="36.6285714285714" style="2" customWidth="1"/>
+    <col min="13" max="13" width="36.1238095238095" style="2" customWidth="1"/>
+    <col min="14" max="14" width="14.2857142857143" style="2" customWidth="1"/>
+    <col min="15" max="15" width="14.5714285714286" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9.14285714285714" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="2" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="28">
+        <v>0</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" s="9">
+        <v>200</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AS6"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="18.6571428571429" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.9714285714286" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.4285714285714" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.7142857142857" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.4285714285714" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.4285714285714" style="2" customWidth="1"/>
+    <col min="9" max="9" width="28.4285714285714" style="2" customWidth="1"/>
+    <col min="10" max="11" width="36.4285714285714" style="2" customWidth="1"/>
+    <col min="12" max="14" width="35.5714285714286" style="3" customWidth="1"/>
+    <col min="15" max="15" width="32.2857142857143" style="2" customWidth="1"/>
+    <col min="16" max="22" width="21.7142857142857" style="2" customWidth="1"/>
+    <col min="23" max="23" width="21.7142857142857" style="3" customWidth="1"/>
+    <col min="24" max="31" width="21.7142857142857" style="2" customWidth="1"/>
+    <col min="32" max="32" width="21.7142857142857" style="3" customWidth="1"/>
+    <col min="33" max="40" width="21.7142857142857" style="2" customWidth="1"/>
+    <col min="41" max="41" width="21.7142857142857" style="3" customWidth="1"/>
+    <col min="42" max="43" width="21.7142857142857" style="2" customWidth="1"/>
+    <col min="44" max="44" width="14.2857142857143" style="2" customWidth="1"/>
+    <col min="45" max="45" width="14.5714285714286" style="2" customWidth="1"/>
+    <col min="46" max="16384" width="9.14285714285714" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="2" customFormat="1" ht="47" customHeight="1" spans="1:45">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q1" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="R1" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="S1" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="T1" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="U1" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="V1" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="W1" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="X1" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y1" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z1" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA1" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB1" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC1" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD1" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE1" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF1" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG1" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH1" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI1" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ1" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="AK1" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="AL1" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="AM1" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN1" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO1" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="AP1" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS1" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:45">
+      <c r="A2" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2" s="9">
+        <v>61335</v>
+      </c>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="9"/>
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="9"/>
+      <c r="AM2" s="9"/>
+      <c r="AN2" s="9"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="9"/>
+      <c r="AQ2" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR2" s="9">
+        <v>200</v>
+      </c>
+      <c r="AS2" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:45">
+      <c r="A3" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K3" s="9">
+        <v>61335</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="V3" s="9">
+        <v>60987</v>
+      </c>
+      <c r="W3" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="25"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="9"/>
+      <c r="AN3" s="9"/>
+      <c r="AO3" s="25"/>
+      <c r="AP3" s="9"/>
+      <c r="AQ3" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR3" s="9">
+        <v>200</v>
+      </c>
+      <c r="AS3" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" customHeight="1" spans="1:45">
+      <c r="A4" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K4" s="9">
+        <v>61335</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="V4" s="9">
+        <v>61335</v>
+      </c>
+      <c r="W4" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA4" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB4" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC4" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD4" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE4" s="9">
+        <v>61335</v>
+      </c>
+      <c r="AF4" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG4" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="9"/>
+      <c r="AJ4" s="9"/>
+      <c r="AK4" s="9"/>
+      <c r="AL4" s="9"/>
+      <c r="AM4" s="9"/>
+      <c r="AN4" s="9"/>
+      <c r="AO4" s="25"/>
+      <c r="AP4" s="9"/>
+      <c r="AQ4" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR4" s="9">
+        <v>200</v>
+      </c>
+      <c r="AS4" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" customHeight="1" spans="1:45">
+      <c r="A5" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K5" s="9">
+        <v>61335</v>
+      </c>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="V5" s="9">
+        <v>61335</v>
+      </c>
+      <c r="W5" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA5" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB5" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC5" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD5" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE5" s="9">
+        <v>61335</v>
+      </c>
+      <c r="AF5" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG5" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ5" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK5" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL5" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM5" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="AN5" s="9">
+        <v>61335</v>
+      </c>
+      <c r="AO5" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP5" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ5" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR5" s="9">
+        <v>200</v>
+      </c>
+      <c r="AS5" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" customHeight="1" spans="1:45">
+      <c r="A6" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K6" s="9">
+        <v>61335</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="M6" s="9">
+        <v>61335</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="25"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="9"/>
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="25"/>
+      <c r="AP6" s="9"/>
+      <c r="AQ6" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR6" s="9">
+        <v>200</v>
+      </c>
+      <c r="AS6" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:BO5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="18.6571428571429" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.7333333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.4285714285714" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.7142857142857" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.4285714285714" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.4285714285714" style="2" customWidth="1"/>
+    <col min="9" max="9" width="28.4285714285714" style="2" customWidth="1"/>
+    <col min="10" max="11" width="27.7238095238095" style="2" customWidth="1"/>
+    <col min="12" max="14" width="35.5714285714286" style="3" customWidth="1"/>
+    <col min="15" max="15" width="32.2857142857143" style="2" customWidth="1"/>
+    <col min="16" max="16" width="21.7142857142857" style="2" customWidth="1"/>
+    <col min="17" max="17" width="26.047619047619" style="2" customWidth="1"/>
+    <col min="18" max="22" width="21.7142857142857" style="2" customWidth="1"/>
+    <col min="23" max="23" width="21.7142857142857" style="3" customWidth="1"/>
+    <col min="24" max="31" width="21.7142857142857" style="2" customWidth="1"/>
+    <col min="32" max="32" width="21.7142857142857" style="3" customWidth="1"/>
+    <col min="33" max="40" width="21.7142857142857" style="2" customWidth="1"/>
+    <col min="41" max="41" width="21.7142857142857" style="3" customWidth="1"/>
+    <col min="42" max="43" width="21.7142857142857" style="2" customWidth="1"/>
+    <col min="44" max="44" width="14.2857142857143" style="2" customWidth="1"/>
+    <col min="45" max="45" width="14.5714285714286" style="2" customWidth="1"/>
+    <col min="46" max="64" width="9.14285714285714" style="2"/>
+    <col min="65" max="65" width="22.1714285714286" style="2" customWidth="1"/>
+    <col min="66" max="16384" width="9.14285714285714" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:67">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z1" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB1" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC1" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD1" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE1" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF1" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG1" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH1" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AO1" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS1" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT1" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="AU1" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AV1" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="AW1" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="AX1" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="AY1" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AZ1" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="BA1" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="BB1" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="BC1" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="BD1" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="BE1" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="BF1" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="BG1" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="BH1" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="BI1" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="BJ1" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="BK1" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="BL1" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="BM1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="BN1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO1" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:67">
+      <c r="A2" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="13"/>
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="12"/>
+      <c r="AY2" s="12"/>
+      <c r="AZ2" s="12"/>
+      <c r="BA2" s="12"/>
+      <c r="BB2" s="12"/>
+      <c r="BC2" s="12"/>
+      <c r="BD2" s="13"/>
+      <c r="BE2" s="12"/>
+      <c r="BF2" s="12"/>
+      <c r="BG2" s="12"/>
+      <c r="BH2" s="12"/>
+      <c r="BI2" s="12"/>
+      <c r="BJ2" s="12"/>
+      <c r="BK2" s="12"/>
+      <c r="BL2" s="12"/>
+      <c r="BM2" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="BN2" s="9">
+        <v>200</v>
+      </c>
+      <c r="BO2" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:67">
+      <c r="A3" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="P3" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z3" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC3" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG3" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH3" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="12"/>
+      <c r="AM3" s="12"/>
+      <c r="AN3" s="12"/>
+      <c r="AO3" s="13"/>
+      <c r="AP3" s="12"/>
+      <c r="AQ3" s="12"/>
+      <c r="AR3" s="12"/>
+      <c r="AS3" s="12"/>
+      <c r="AT3" s="12"/>
+      <c r="AU3" s="12"/>
+      <c r="AV3" s="12"/>
+      <c r="AW3" s="12"/>
+      <c r="AX3" s="12"/>
+      <c r="AY3" s="12"/>
+      <c r="AZ3" s="12"/>
+      <c r="BA3" s="12"/>
+      <c r="BB3" s="12"/>
+      <c r="BC3" s="12"/>
+      <c r="BD3" s="13"/>
+      <c r="BE3" s="12"/>
+      <c r="BF3" s="12"/>
+      <c r="BG3" s="12"/>
+      <c r="BH3" s="12"/>
+      <c r="BI3" s="12"/>
+      <c r="BJ3" s="12"/>
+      <c r="BK3" s="12"/>
+      <c r="BL3" s="12"/>
+      <c r="BM3" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="BN3" s="9">
+        <v>200</v>
+      </c>
+      <c r="BO3" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:67">
+      <c r="A4" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y4" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z4" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC4" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE4" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG4" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH4" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK4" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL4" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM4" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN4" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO4" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR4" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS4" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT4" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV4" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW4" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AX4" s="12"/>
+      <c r="AY4" s="12"/>
+      <c r="AZ4" s="12"/>
+      <c r="BA4" s="12"/>
+      <c r="BB4" s="12"/>
+      <c r="BC4" s="12"/>
+      <c r="BD4" s="13"/>
+      <c r="BE4" s="12"/>
+      <c r="BF4" s="12"/>
+      <c r="BG4" s="12"/>
+      <c r="BH4" s="12"/>
+      <c r="BI4" s="12"/>
+      <c r="BJ4" s="12"/>
+      <c r="BK4" s="12"/>
+      <c r="BL4" s="12"/>
+      <c r="BM4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="BN4" s="9">
+        <v>200</v>
+      </c>
+      <c r="BO4" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:67">
+      <c r="A5" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="S5" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y5" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z5" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC5" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG5" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH5" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK5" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL5" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM5" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN5" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO5" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR5" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS5" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV5" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW5" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AX5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ5" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA5" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB5" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="BC5" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="BD5" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="BE5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="BF5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="BG5" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH5" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI5" s="12">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="BK5" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="BL5" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="BM5" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="BN5" s="9">
+        <v>200</v>
+      </c>
+      <c r="BO5" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2609,430 +4660,430 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="26.8571428571429" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.1428571428571" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.1428571428571" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
-    <col min="7" max="9" width="17.5714285714286" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5714285714286" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26" style="1" customWidth="1"/>
-    <col min="12" max="12" width="31.9333333333333" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7142857142857" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.3333333333333" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="26.8571428571429" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.1428571428571" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.1428571428571" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.4285714285714" style="2" customWidth="1"/>
+    <col min="7" max="9" width="17.5714285714286" style="2" customWidth="1"/>
+    <col min="10" max="10" width="24.5714285714286" style="2" customWidth="1"/>
+    <col min="11" max="11" width="26" style="2" customWidth="1"/>
+    <col min="12" max="12" width="31.9333333333333" style="2" customWidth="1"/>
+    <col min="13" max="13" width="16.7142857142857" style="2" customWidth="1"/>
+    <col min="14" max="14" width="19.3333333333333" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.14285714285714" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:14">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="2" customFormat="1" ht="46" customHeight="1" spans="1:14">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="31" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:14">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
+      <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="23">
+      <c r="M2" s="33">
         <v>200</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:14">
-      <c r="A3" s="4" t="s">
+    <row r="3" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
+      <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11" t="s">
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="23">
+      <c r="M3" s="33">
         <v>400</v>
       </c>
-      <c r="N3" s="24"/>
+      <c r="N3" s="34"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:14">
-      <c r="A4" s="4" t="s">
+    <row r="4" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
+      <c r="A4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11" t="s">
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="23">
+      <c r="M4" s="33">
         <v>400</v>
       </c>
-      <c r="N4" s="24"/>
+      <c r="N4" s="34"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:14">
-      <c r="A5" s="4" t="s">
+    <row r="5" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
+      <c r="A5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11" t="s">
+      <c r="I5" s="9"/>
+      <c r="J5" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="22" t="s">
+      <c r="L5" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="33">
         <v>200</v>
       </c>
-      <c r="N5" s="24" t="s">
+      <c r="N5" s="34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:14">
-      <c r="A6" s="4" t="s">
+    <row r="6" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
+      <c r="A6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11" t="s">
+      <c r="I6" s="9"/>
+      <c r="J6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="23">
+      <c r="M6" s="33">
         <v>400</v>
       </c>
-      <c r="N6" s="24"/>
+      <c r="N6" s="34"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="69" customHeight="1" spans="1:14">
-      <c r="A7" s="4" t="s">
+    <row r="7" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
+      <c r="A7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11" t="s">
+      <c r="I7" s="9"/>
+      <c r="J7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="33">
         <v>400</v>
       </c>
-      <c r="N7" s="24"/>
+      <c r="N7" s="34"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="69" customHeight="1" spans="1:14">
-      <c r="A8" s="4" t="s">
+    <row r="8" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
+      <c r="A8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="33">
         <v>200</v>
       </c>
-      <c r="N8" s="24" t="s">
+      <c r="N8" s="34" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="69" customHeight="1" spans="1:14">
-      <c r="A9" s="4" t="s">
+    <row r="9" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
+      <c r="A9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="33">
         <v>400</v>
       </c>
-      <c r="N9" s="24"/>
+      <c r="N9" s="34"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="69" customHeight="1" spans="1:14">
-      <c r="A10" s="4" t="s">
+    <row r="10" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
+      <c r="A10" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="23">
+      <c r="M10" s="33">
         <v>400</v>
       </c>
-      <c r="N10" s="24"/>
+      <c r="N10" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3051,223 +5102,223 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="19.4285714285714" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.4285714285714" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.8571428571429" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.7142857142857" style="1" customWidth="1"/>
-    <col min="9" max="9" width="31.8571428571429" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.2857142857143" style="1" customWidth="1"/>
-    <col min="11" max="11" width="31.7142857142857" style="1" customWidth="1"/>
-    <col min="12" max="12" width="29.5714285714286" style="1" customWidth="1"/>
-    <col min="13" max="15" width="31.4285714285714" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.2857142857143" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5714285714286" style="1" customWidth="1"/>
-    <col min="18" max="18" width="17.7142857142857" style="1" customWidth="1"/>
-    <col min="19" max="19" width="17.4285714285714" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="19.4285714285714" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.4285714285714" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.4285714285714" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.8571428571429" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25.7142857142857" style="2" customWidth="1"/>
+    <col min="9" max="9" width="31.8571428571429" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.2857142857143" style="2" customWidth="1"/>
+    <col min="11" max="11" width="31.7142857142857" style="2" customWidth="1"/>
+    <col min="12" max="12" width="29.5714285714286" style="2" customWidth="1"/>
+    <col min="13" max="15" width="31.4285714285714" style="2" customWidth="1"/>
+    <col min="16" max="16" width="15.2857142857143" style="2" customWidth="1"/>
+    <col min="17" max="17" width="15.5714285714286" style="2" customWidth="1"/>
+    <col min="18" max="18" width="17.7142857142857" style="2" customWidth="1"/>
+    <col min="19" max="19" width="17.4285714285714" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="9.14285714285714" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:17">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="2" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="9">
         <v>35537</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="5" t="s">
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P2" s="11">
+      <c r="P2" s="9">
         <v>200</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A3" s="4" t="s">
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A3" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="9">
         <v>35537</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="9">
         <v>35538</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="5" t="s">
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P3" s="9">
         <v>200</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A4" s="4" t="s">
+    <row r="4" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A4" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="9">
         <v>35537</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="9">
         <v>35538</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="9">
         <v>35539</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="9">
         <v>200</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="9" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3288,221 +5339,221 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="19.4285714285714" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.4285714285714" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.8571428571429" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.7142857142857" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23" style="1" customWidth="1"/>
-    <col min="10" max="10" width="31.4285714285714" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.2857142857143" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7142857142857" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5714285714286" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.7142857142857" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17.4285714285714" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="19.4285714285714" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.4285714285714" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.4285714285714" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.8571428571429" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25.7142857142857" style="2" customWidth="1"/>
+    <col min="9" max="9" width="23" style="2" customWidth="1"/>
+    <col min="10" max="10" width="31.4285714285714" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.2857142857143" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.7142857142857" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.5714285714286" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.7142857142857" style="2" customWidth="1"/>
+    <col min="15" max="15" width="17.4285714285714" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9.14285714285714" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:17">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="2" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="9">
         <v>35537</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="5" t="s">
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P2" s="11">
+      <c r="P2" s="9">
         <v>200</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:17">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="9">
         <v>35537</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="9">
         <v>35538</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="5" t="s">
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P3" s="9">
         <v>200</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:17">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="9">
         <v>35537</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="9">
         <v>35538</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="9">
         <v>35539</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="9">
         <v>200</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="9" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3517,227 +5568,227 @@
   <sheetPr/>
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="19.4285714285714" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.4285714285714" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7142857142857" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5714285714286" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.8380952380952" style="1" customWidth="1"/>
-    <col min="10" max="10" width="31.4285714285714" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.2857142857143" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7142857142857" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5714285714286" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.7142857142857" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17.4285714285714" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="19.4285714285714" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.4285714285714" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.4285714285714" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.7142857142857" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.5714285714286" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.8380952380952" style="2" customWidth="1"/>
+    <col min="10" max="10" width="31.4285714285714" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.2857142857143" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.7142857142857" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.5714285714286" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.7142857142857" style="2" customWidth="1"/>
+    <col min="15" max="15" width="17.4285714285714" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9.14285714285714" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:17">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="2" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="9">
         <v>35537</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="5" t="s">
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P2" s="11">
+      <c r="P2" s="9">
         <v>200</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A3" s="4" t="s">
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A3" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="9">
         <v>35537</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="9">
         <v>35538</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="5" t="s">
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P3" s="9">
         <v>200</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A4" s="4" t="s">
+    <row r="4" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A4" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="9">
         <v>35537</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="9">
         <v>35538</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="9">
         <v>35539</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="9">
         <v>200</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="9" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3752,227 +5803,227 @@
   <sheetPr/>
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="19.4285714285714" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.4285714285714" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7142857142857" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7142857142857" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.4285714285714" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.8380952380952" style="1" customWidth="1"/>
-    <col min="10" max="10" width="31.4285714285714" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7142857142857" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5714285714286" style="1" customWidth="1"/>
-    <col min="14" max="14" width="24.7142857142857" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17.4285714285714" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="19.4285714285714" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.4285714285714" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.7142857142857" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.7142857142857" style="2" customWidth="1"/>
+    <col min="8" max="8" width="23.4285714285714" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.8380952380952" style="2" customWidth="1"/>
+    <col min="10" max="10" width="31.4285714285714" style="2" customWidth="1"/>
+    <col min="11" max="11" width="17" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.7142857142857" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.5714285714286" style="2" customWidth="1"/>
+    <col min="14" max="14" width="24.7142857142857" style="2" customWidth="1"/>
+    <col min="15" max="15" width="17.4285714285714" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9.14285714285714" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:17">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="2" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="9">
         <v>35537</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="5" t="s">
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P2" s="11">
+      <c r="P2" s="9">
         <v>200</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A3" s="4" t="s">
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A3" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="9">
         <v>35537</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="9">
         <v>35538</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="5" t="s">
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P3" s="9">
         <v>200</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A4" s="4" t="s">
+    <row r="4" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A4" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="9">
         <v>35537</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="9">
         <v>35538</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="9">
         <v>35539</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="9">
         <v>200</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="9" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3987,703 +6038,251 @@
   <sheetPr/>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="19.4285714285714" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.4285714285714" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7142857142857" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.4285714285714" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.1428571428571" style="1" customWidth="1"/>
-    <col min="9" max="9" width="28.4285714285714" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.4285714285714" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5714285714286" style="1" customWidth="1"/>
-    <col min="12" max="12" width="46.2857142857143" style="1" customWidth="1"/>
-    <col min="13" max="13" width="21.7142857142857" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.2857142857143" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5714285714286" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="19.4285714285714" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.4285714285714" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.7142857142857" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.4285714285714" style="2" customWidth="1"/>
+    <col min="8" max="8" width="30.1428571428571" style="2" customWidth="1"/>
+    <col min="9" max="9" width="28.4285714285714" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.4285714285714" style="2" customWidth="1"/>
+    <col min="11" max="11" width="23.5714285714286" style="2" customWidth="1"/>
+    <col min="12" max="12" width="36.6285714285714" style="2" customWidth="1"/>
+    <col min="13" max="13" width="36.1238095238095" style="2" customWidth="1"/>
+    <col min="14" max="14" width="14.2857142857143" style="2" customWidth="1"/>
+    <col min="15" max="15" width="14.5714285714286" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9.14285714285714" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="2" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="6" t="s">
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2" s="16">
+      <c r="H2" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="28">
         <v>0</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="L2" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="N2" s="11">
+      <c r="L2" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" s="9">
         <v>200</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="9" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="22.1428571428571" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.8571428571429" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.4285714285714" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7142857142857" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.4285714285714" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.4285714285714" style="1" customWidth="1"/>
-    <col min="9" max="9" width="28.4285714285714" style="1" customWidth="1"/>
-    <col min="10" max="11" width="36.4285714285714" style="1" customWidth="1"/>
-    <col min="12" max="12" width="35.5714285714286" style="1" customWidth="1"/>
-    <col min="13" max="13" width="32.2857142857143" style="1" customWidth="1"/>
-    <col min="14" max="41" width="21.7142857142857" style="1" customWidth="1"/>
-    <col min="42" max="42" width="14.2857142857143" style="1" customWidth="1"/>
-    <col min="43" max="43" width="14.5714285714286" style="1" customWidth="1"/>
-    <col min="44" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="19.4285714285714" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.4285714285714" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.7142857142857" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.4285714285714" style="2" customWidth="1"/>
+    <col min="8" max="8" width="30.1428571428571" style="2" customWidth="1"/>
+    <col min="9" max="9" width="28.4285714285714" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.4285714285714" style="2" customWidth="1"/>
+    <col min="11" max="11" width="23.5714285714286" style="2" customWidth="1"/>
+    <col min="12" max="12" width="36.6285714285714" style="2" customWidth="1"/>
+    <col min="13" max="13" width="36.1238095238095" style="2" customWidth="1"/>
+    <col min="14" max="14" width="14.2857142857143" style="2" customWidth="1"/>
+    <col min="15" max="15" width="14.5714285714286" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9.14285714285714" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:43">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="2" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="28">
+        <v>0</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="M2" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="T1" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="U1" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="V1" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB1" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC1" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AF1" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG1" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH1" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI1" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="AJ1" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK1" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL1" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="AM1" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="AN1" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="AO1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AP1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ1" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:43">
-      <c r="A2" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K2" s="7">
-        <v>61335</v>
-      </c>
-      <c r="L2" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="7"/>
-      <c r="AL2" s="7"/>
-      <c r="AM2" s="7"/>
-      <c r="AN2" s="7"/>
-      <c r="AO2" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="AP2" s="11">
+      <c r="N2" s="9">
         <v>200</v>
       </c>
-      <c r="AQ2" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:43">
-      <c r="A3" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K3" s="7">
-        <v>61335</v>
-      </c>
-      <c r="L3" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="T3" s="7">
-        <v>61335</v>
-      </c>
-      <c r="U3" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="7"/>
-      <c r="AJ3" s="7"/>
-      <c r="AK3" s="7"/>
-      <c r="AL3" s="7"/>
-      <c r="AM3" s="7"/>
-      <c r="AN3" s="7"/>
-      <c r="AO3" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="AP3" s="11">
-        <v>200</v>
-      </c>
-      <c r="AQ3" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:43">
-      <c r="A4" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K4" s="7">
-        <v>61335</v>
-      </c>
-      <c r="L4" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q4" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="T4" s="7">
-        <v>61335</v>
-      </c>
-      <c r="U4" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y4" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AB4" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC4" s="7">
-        <v>61335</v>
-      </c>
-      <c r="AD4" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="7"/>
-      <c r="AK4" s="7"/>
-      <c r="AL4" s="7"/>
-      <c r="AM4" s="7"/>
-      <c r="AN4" s="7"/>
-      <c r="AO4" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="AP4" s="11">
-        <v>200</v>
-      </c>
-      <c r="AQ4" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:43">
-      <c r="A5" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K5" s="7">
-        <v>61335</v>
-      </c>
-      <c r="L5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="T5" s="7">
-        <v>61335</v>
-      </c>
-      <c r="U5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y5" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z5" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AB5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC5" s="7">
-        <v>61335</v>
-      </c>
-      <c r="AD5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH5" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI5" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AK5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL5" s="7">
-        <v>61335</v>
-      </c>
-      <c r="AM5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO5" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="AP5" s="11">
-        <v>200</v>
-      </c>
-      <c r="AQ5" s="11" t="s">
+      <c r="O2" s="9" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4697,437 +6296,123 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BO2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="19.4285714285714" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.4285714285714" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7142857142857" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.4285714285714" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.4285714285714" style="1" customWidth="1"/>
-    <col min="9" max="9" width="28.4285714285714" style="1" customWidth="1"/>
-    <col min="10" max="11" width="36.4285714285714" style="1" customWidth="1"/>
-    <col min="12" max="12" width="35.5714285714286" style="1" customWidth="1"/>
-    <col min="13" max="13" width="32.2857142857143" style="1" customWidth="1"/>
-    <col min="14" max="45" width="21.7142857142857" style="1" customWidth="1"/>
-    <col min="46" max="46" width="14.2857142857143" style="1" customWidth="1"/>
-    <col min="47" max="47" width="14.5714285714286" style="1" customWidth="1"/>
-    <col min="48" max="64" width="9.14285714285714" style="1"/>
-    <col min="65" max="65" width="21.7142857142857" style="1" customWidth="1"/>
-    <col min="66" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="19.4285714285714" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.4285714285714" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.7142857142857" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.4285714285714" style="2" customWidth="1"/>
+    <col min="8" max="8" width="30.1428571428571" style="2" customWidth="1"/>
+    <col min="9" max="9" width="28.4285714285714" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.4285714285714" style="2" customWidth="1"/>
+    <col min="11" max="11" width="23.5714285714286" style="2" customWidth="1"/>
+    <col min="12" max="12" width="36.6285714285714" style="2" customWidth="1"/>
+    <col min="13" max="13" width="36.1238095238095" style="2" customWidth="1"/>
+    <col min="14" max="14" width="14.2857142857143" style="2" customWidth="1"/>
+    <col min="15" max="15" width="14.5714285714286" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9.14285714285714" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:67">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="2" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="28">
+        <v>0</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="M2" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX1" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AY1" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AZ1" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="BA1" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="BB1" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BC1" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="BD1" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="BE1" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="BF1" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG1" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="BH1" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="BI1" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="BJ1" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="BK1" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="BL1" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="BM1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="BN1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="BO1" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:67">
-      <c r="A2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H2" s="7">
-        <v>133279</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="K2" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="O2" s="7">
-        <v>133279</v>
-      </c>
-      <c r="P2" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="R2" s="7">
-        <v>61335</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="W2" s="7">
-        <v>133277</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z2" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD2" s="7">
-        <v>133277</v>
-      </c>
-      <c r="AE2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="AG2" s="7">
-        <v>61335</v>
-      </c>
-      <c r="AH2" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="AI2" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="AJ2" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="AK2" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="AL2" s="7">
-        <v>133277</v>
-      </c>
-      <c r="AM2" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AN2" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO2" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP2" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="AQ2" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="AR2" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="AS2" s="7">
-        <v>133277</v>
-      </c>
-      <c r="AT2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AU2" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="AV2" s="7">
-        <v>61335</v>
-      </c>
-      <c r="AW2" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="AX2" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="AY2" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="AZ2" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="BA2" s="7">
-        <v>333277</v>
-      </c>
-      <c r="BB2" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="BC2" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="BD2" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE2" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="BF2" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="BG2" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="BH2" s="7">
-        <v>333277</v>
-      </c>
-      <c r="BI2" s="7">
-        <v>0</v>
-      </c>
-      <c r="BJ2" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="BK2" s="7">
-        <v>63335</v>
-      </c>
-      <c r="BL2" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="BM2" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="BN2" s="11">
+      <c r="N2" s="9">
         <v>200</v>
       </c>
-      <c r="BO2" s="11" t="s">
+      <c r="O2" s="9" t="s">
         <v>74</v>
       </c>
     </row>

--- a/src/main/resources/input_excel_file/booking/voucher.xlsx
+++ b/src/main/resources/input_excel_file/booking/voucher.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="7" activeTab="11"/>
+    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Booking_Voucher_Check" sheetId="1" r:id="rId1"/>
@@ -426,7 +426,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="250">
   <si>
     <t>tc_id</t>
   </si>
@@ -611,66 +611,117 @@
     <t>round_id</t>
   </si>
   <si>
+    <t>voucher_apply[0].id</t>
+  </si>
+  <si>
     <t>voucher_apply[0].voucher_code</t>
   </si>
   <si>
-    <t>voucher_apply[0].id</t>
+    <t>voucher_apply[1].id</t>
   </si>
   <si>
     <t>voucher_apply[1].voucher_code</t>
   </si>
   <si>
-    <t>voucher_apply[1].id</t>
+    <t>voucher_apply[2].id</t>
   </si>
   <si>
     <t>voucher_apply[2].voucher_code</t>
   </si>
   <si>
-    <t>voucher_apply[2].id</t>
-  </si>
-  <si>
     <t>assert_data</t>
   </si>
   <si>
+    <t>Apply voucher giảm giá thông thường: Giảm 200k green fee</t>
+  </si>
+  <si>
+    <t>VST_ADD_VC_GREEN_001</t>
+  </si>
+  <si>
+    <t>Kiểm tra apply 1 voucher</t>
+  </si>
+  <si>
+    <t>voucher_apply_1_voucher_request.json</t>
+  </si>
+  <si>
+    <t>{{CTX:BOOKING_UID_0}}</t>
+  </si>
+  <si>
+    <t>{{CTX:ROUND_ID_0}}</t>
+  </si>
+  <si>
+    <t>voucher_apply_expect.json</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Apply voucher giảm giá thông thường: Giảm 2tr1 cho green + caddie + 1/2 xe + package</t>
+  </si>
+  <si>
+    <t>VST_ADD_VC_4FEE_001</t>
+  </si>
+  <si>
+    <t>CNTT4FEE1</t>
+  </si>
+  <si>
+    <t>Apply voucher giảm giá thông thường: Giảm 10% green</t>
+  </si>
+  <si>
+    <t>VST_ADD_VC_GREEN_10_001</t>
+  </si>
+  <si>
+    <t>GR10001</t>
+  </si>
+  <si>
+    <t>Apply voucher giảm giá thông thường: Giảm 10% all fee</t>
+  </si>
+  <si>
+    <t>VST_ADD_VC_ALL_10_001</t>
+  </si>
+  <si>
+    <t>CN10001</t>
+  </si>
+  <si>
+    <t>Apply voucher giảm giá cố định: Green + Caddie + 1/2 xe + Package</t>
+  </si>
+  <si>
+    <t>VST_ADD_VC_CD4FEE_001</t>
+  </si>
+  <si>
+    <t>CD4FEE1</t>
+  </si>
+  <si>
+    <t>Apply voucher trả trước: Green + Caddie + 1/2 xe + Package</t>
+  </si>
+  <si>
+    <t>VST_ADD_VC_TT4FEE_001</t>
+  </si>
+  <si>
+    <t>TT4FEE11</t>
+  </si>
+  <si>
+    <t>APPLY_2VC_CA_NHAN_PLAYER1</t>
+  </si>
+  <si>
+    <t>Kiểm tra apply 2 voucher</t>
+  </si>
+  <si>
+    <t>voucher_apply_2_voucher_request.json</t>
+  </si>
+  <si>
+    <t>APPLY_3VC_CA_NHAN_PLAYER1</t>
+  </si>
+  <si>
+    <t>Kiểm tra apply 3 voucher</t>
+  </si>
+  <si>
+    <t>voucher_apply_3_voucher_request.json</t>
+  </si>
+  <si>
     <t>APPLY_1VC_CA_NHAN_PLAYER1</t>
   </si>
   <si>
-    <t>Kiểm tra apply 1 voucher</t>
-  </si>
-  <si>
-    <t>voucher_apply_1_voucher_request.json</t>
-  </si>
-  <si>
-    <t>{{CTX:BOOKING_UID_0}}</t>
-  </si>
-  <si>
-    <t>{{CTX:ROUND_ID_0}}</t>
-  </si>
-  <si>
-    <t>voucher_apply_expect.json</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>APPLY_2VC_CA_NHAN_PLAYER1</t>
-  </si>
-  <si>
-    <t>Kiểm tra apply 2 voucher</t>
-  </si>
-  <si>
-    <t>voucher_apply_2_voucher_request.json</t>
-  </si>
-  <si>
-    <t>APPLY_3VC_CA_NHAN_PLAYER1</t>
-  </si>
-  <si>
-    <t>Kiểm tra apply 3 voucher</t>
-  </si>
-  <si>
-    <t>voucher_apply_3_voucher_request.json</t>
-  </si>
-  <si>
     <t>{{CTX:BOOKING_UID_1}}</t>
   </si>
   <si>
@@ -701,7 +752,7 @@
     <t>voucher_apply_uid</t>
   </si>
   <si>
-    <t>REMOVE_1VC_CA_NHAN_PLAYER1</t>
+    <t>VST_REMOVE_VC_GREEN_001</t>
   </si>
   <si>
     <t>Remove voucher player 1</t>
@@ -710,6 +761,84 @@
     <t>voucher_remove_voucher_request.json</t>
   </si>
   <si>
+    <t>{{CTX:VOUCHER_CODE_GR0001}}</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_ID_GR0001}}</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_APPLY_UID_GR0001_0}}</t>
+  </si>
+  <si>
+    <t>voucher_remove_expect.json</t>
+  </si>
+  <si>
+    <t>VST_REMOVE_VC_4FEE_001</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_CODE_CNTT4FEE1}}</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_ID_CNTT4FEE1}}</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_APPLY_UID_CNTT4FEE1_0}}</t>
+  </si>
+  <si>
+    <t>VST_REMOVE_VC_GREEN_10_001</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_CODE_GR10001}}</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_ID_GR10001}}</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_APPLY_UID_GR10001_0}}</t>
+  </si>
+  <si>
+    <t>VST_REMOVE_VC_ALL_10_001</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_CODE_CN10001}}</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_ID_CN10001}}</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_APPLY_UID_CN10001_0}}</t>
+  </si>
+  <si>
+    <t>VST_REMOVE_VC_CD4FEE_001</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_CODE_CD4FEE1}}</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_ID_CD4FEE1}}</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_APPLY_UID_CD4FEE1_0}}</t>
+  </si>
+  <si>
+    <t>VST_REMOVE_VC_TT4FEE_001</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_CODE_TT4FEE11}}</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_ID_TT4FEE11}}</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_APPLY_UID_TT4FEE11_0}}</t>
+  </si>
+  <si>
+    <t>REMOVE_1VC_CA_NHAN_PLAYER2</t>
+  </si>
+  <si>
+    <t>Remove voucher player 2</t>
+  </si>
+  <si>
     <t>{{CTX:VOUCHER_CODE_BG0001}}</t>
   </si>
   <si>
@@ -717,15 +846,6 @@
   </si>
   <si>
     <t>{{CTX:VOUCHER_APPLY_UID_BG0001_0}}</t>
-  </si>
-  <si>
-    <t>voucher_remove_expect.json</t>
-  </si>
-  <si>
-    <t>REMOVE_1VC_CA_NHAN_PLAYER2</t>
-  </si>
-  <si>
-    <t>Remove voucher player 2</t>
   </si>
   <si>
     <t>REMOVE_1VC_CA_NHAN_PLAYER3</t>
@@ -1068,7 +1188,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1095,6 +1215,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1242,18 +1368,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1281,6 +1407,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1509,9 +1647,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1522,7 +1658,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1649,76 +1787,70 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1727,10 +1859,10 @@
     <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1739,10 +1871,10 @@
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1751,10 +1883,10 @@
     <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1763,10 +1895,10 @@
     <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1775,11 +1907,17 @@
     <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1816,18 +1954,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1840,43 +1972,55 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2456,46 +2600,46 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="Q1" s="33" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2506,10 +2650,10 @@
       <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="18" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -2532,19 +2676,19 @@
       <c r="L2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="35" t="s">
+      <c r="M2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="33">
+      <c r="P2" s="35">
         <v>200</v>
       </c>
-      <c r="Q2" s="34" t="s">
+      <c r="Q2" s="36" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2555,10 +2699,10 @@
       <c r="B3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="18" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -2581,19 +2725,19 @@
       <c r="L3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="35" t="s">
+      <c r="M3" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="N3" s="12" t="s">
         <v>27</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="33">
+      <c r="P3" s="35">
         <v>400</v>
       </c>
-      <c r="Q3" s="34"/>
+      <c r="Q3" s="36"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
       <c r="A4" s="6" t="s">
@@ -2602,10 +2746,10 @@
       <c r="B4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="18" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -2628,19 +2772,19 @@
       <c r="L4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="35" t="s">
+      <c r="M4" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="25" t="s">
+      <c r="N4" s="12" t="s">
         <v>27</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="33">
+      <c r="P4" s="35">
         <v>400</v>
       </c>
-      <c r="Q4" s="34"/>
+      <c r="Q4" s="36"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
       <c r="A5" s="6" t="s">
@@ -2649,10 +2793,10 @@
       <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="18" t="s">
         <v>38</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -2677,19 +2821,19 @@
       <c r="L5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="35" t="s">
+      <c r="M5" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="N5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="32" t="s">
+      <c r="O5" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="33">
+      <c r="P5" s="35">
         <v>200</v>
       </c>
-      <c r="Q5" s="34" t="s">
+      <c r="Q5" s="36" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2700,10 +2844,10 @@
       <c r="B6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="18" t="s">
         <v>38</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -2728,19 +2872,19 @@
       <c r="L6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="35" t="s">
+      <c r="M6" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="25" t="s">
+      <c r="N6" s="12" t="s">
         <v>27</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="33">
+      <c r="P6" s="35">
         <v>400</v>
       </c>
-      <c r="Q6" s="34"/>
+      <c r="Q6" s="36"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
       <c r="A7" s="6" t="s">
@@ -2749,10 +2893,10 @@
       <c r="B7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="18" t="s">
         <v>38</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -2777,19 +2921,19 @@
       <c r="L7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="35" t="s">
+      <c r="M7" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="25" t="s">
+      <c r="N7" s="12" t="s">
         <v>27</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P7" s="33">
+      <c r="P7" s="35">
         <v>400</v>
       </c>
-      <c r="Q7" s="34"/>
+      <c r="Q7" s="36"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
       <c r="A8" s="6" t="s">
@@ -2798,10 +2942,10 @@
       <c r="B8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="18" t="s">
         <v>47</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -2828,19 +2972,19 @@
       <c r="L8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="35" t="s">
+      <c r="M8" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="25" t="s">
+      <c r="N8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="32" t="s">
+      <c r="O8" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="33">
+      <c r="P8" s="35">
         <v>200</v>
       </c>
-      <c r="Q8" s="34" t="s">
+      <c r="Q8" s="36" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2851,10 +2995,10 @@
       <c r="B9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="18" t="s">
         <v>47</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -2881,19 +3025,19 @@
       <c r="L9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="35" t="s">
+      <c r="M9" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="25" t="s">
+      <c r="N9" s="12" t="s">
         <v>27</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P9" s="33">
+      <c r="P9" s="35">
         <v>400</v>
       </c>
-      <c r="Q9" s="34"/>
+      <c r="Q9" s="36"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
       <c r="A10" s="6" t="s">
@@ -2902,10 +3046,10 @@
       <c r="B10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="18" t="s">
         <v>47</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -2932,19 +3076,19 @@
       <c r="L10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="35" t="s">
+      <c r="M10" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="25" t="s">
+      <c r="N10" s="12" t="s">
         <v>27</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="33">
+      <c r="P10" s="35">
         <v>400</v>
       </c>
-      <c r="Q10" s="34"/>
+      <c r="Q10" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2991,55 +3135,55 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="J1" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="K1" s="27" t="s">
+      <c r="H1" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="M1" s="17" t="s">
+      <c r="L1" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="M1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="16" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A2" s="6" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>93</v>
+      <c r="D2" s="18" t="s">
+        <v>110</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>22</v>
@@ -3048,31 +3192,31 @@
         <v>21</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="J2" s="28">
+        <v>103</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" s="9">
         <v>0</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="L2" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>97</v>
+        <v>102</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>114</v>
       </c>
       <c r="N2" s="9">
         <v>200</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3127,145 +3271,145 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="P1" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q1" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="R1" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="S1" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T1" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="U1" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="V1" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="W1" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="X1" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y1" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z1" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA1" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB1" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC1" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD1" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="AE1" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF1" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG1" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="AH1" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI1" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ1" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="AK1" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="AL1" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="AM1" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="AN1" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="AO1" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="AP1" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="AQ1" s="17" t="s">
+      <c r="E1" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD1" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE1" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF1" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="AH1" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI1" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="AJ1" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="AK1" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="AL1" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="AM1" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="AN1" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="AO1" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="AP1" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AR1" s="18" t="s">
+      <c r="AR1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AS1" s="18" t="s">
+      <c r="AS1" s="16" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:45">
       <c r="A2" s="6" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>144</v>
+      <c r="D2" s="18" t="s">
+        <v>184</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>22</v>
@@ -3274,27 +3418,27 @@
         <v>21</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="K2" s="9">
         <v>61335</v>
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
-      <c r="N2" s="25" t="s">
-        <v>147</v>
+      <c r="N2" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
@@ -3303,7 +3447,7 @@
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
-      <c r="W2" s="25"/>
+      <c r="W2" s="12"/>
       <c r="X2" s="9"/>
       <c r="Y2" s="9"/>
       <c r="Z2" s="9"/>
@@ -3312,7 +3456,7 @@
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
       <c r="AE2" s="9"/>
-      <c r="AF2" s="25"/>
+      <c r="AF2" s="12"/>
       <c r="AG2" s="9"/>
       <c r="AH2" s="9"/>
       <c r="AI2" s="9"/>
@@ -3321,30 +3465,30 @@
       <c r="AL2" s="9"/>
       <c r="AM2" s="9"/>
       <c r="AN2" s="9"/>
-      <c r="AO2" s="25"/>
+      <c r="AO2" s="12"/>
       <c r="AP2" s="9"/>
-      <c r="AQ2" s="21" t="s">
-        <v>148</v>
+      <c r="AQ2" s="18" t="s">
+        <v>188</v>
       </c>
       <c r="AR2" s="9">
         <v>200</v>
       </c>
       <c r="AS2" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:45">
       <c r="A3" s="6" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>151</v>
+      <c r="D3" s="18" t="s">
+        <v>191</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>22</v>
@@ -3353,27 +3497,27 @@
         <v>21</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="K3" s="9">
         <v>61335</v>
       </c>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
-      <c r="N3" s="25" t="s">
-        <v>147</v>
+      <c r="N3" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>22</v>
@@ -3382,25 +3526,25 @@
         <v>21</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="T3" s="9" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="V3" s="9">
         <v>60987</v>
       </c>
-      <c r="W3" s="25" t="s">
-        <v>147</v>
+      <c r="W3" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
@@ -3409,7 +3553,7 @@
       <c r="AC3" s="9"/>
       <c r="AD3" s="9"/>
       <c r="AE3" s="9"/>
-      <c r="AF3" s="25"/>
+      <c r="AF3" s="12"/>
       <c r="AG3" s="9"/>
       <c r="AH3" s="9"/>
       <c r="AI3" s="9"/>
@@ -3418,30 +3562,30 @@
       <c r="AL3" s="9"/>
       <c r="AM3" s="9"/>
       <c r="AN3" s="9"/>
-      <c r="AO3" s="25"/>
+      <c r="AO3" s="12"/>
       <c r="AP3" s="9"/>
-      <c r="AQ3" s="21" t="s">
-        <v>148</v>
+      <c r="AQ3" s="18" t="s">
+        <v>188</v>
       </c>
       <c r="AR3" s="9">
         <v>200</v>
       </c>
       <c r="AS3" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" customHeight="1" spans="1:45">
       <c r="A4" s="6" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>155</v>
+      <c r="D4" s="18" t="s">
+        <v>195</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>22</v>
@@ -3450,27 +3594,27 @@
         <v>21</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="K4" s="9">
         <v>61335</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
-      <c r="N4" s="25" t="s">
-        <v>147</v>
+      <c r="N4" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>22</v>
@@ -3479,25 +3623,25 @@
         <v>21</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="U4" s="9" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="V4" s="9">
         <v>61335</v>
       </c>
-      <c r="W4" s="25" t="s">
-        <v>147</v>
+      <c r="W4" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="X4" s="9" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="Y4" s="6" t="s">
         <v>22</v>
@@ -3506,25 +3650,25 @@
         <v>21</v>
       </c>
       <c r="AA4" s="9" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="AB4" s="9" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="AC4" s="9" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="AD4" s="9" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="AE4" s="9">
         <v>61335</v>
       </c>
-      <c r="AF4" s="25" t="s">
-        <v>147</v>
+      <c r="AF4" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="AG4" s="9" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="AH4" s="9"/>
       <c r="AI4" s="9"/>
@@ -3533,30 +3677,30 @@
       <c r="AL4" s="9"/>
       <c r="AM4" s="9"/>
       <c r="AN4" s="9"/>
-      <c r="AO4" s="25"/>
+      <c r="AO4" s="12"/>
       <c r="AP4" s="9"/>
-      <c r="AQ4" s="21" t="s">
-        <v>148</v>
+      <c r="AQ4" s="18" t="s">
+        <v>188</v>
       </c>
       <c r="AR4" s="9">
         <v>200</v>
       </c>
       <c r="AS4" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" customHeight="1" spans="1:45">
       <c r="A5" s="6" t="s">
-        <v>156</v>
+        <v>196</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>158</v>
+      <c r="D5" s="18" t="s">
+        <v>198</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>22</v>
@@ -3565,27 +3709,27 @@
         <v>21</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="K5" s="9">
         <v>61335</v>
       </c>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
-      <c r="N5" s="25" t="s">
-        <v>147</v>
+      <c r="N5" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>22</v>
@@ -3594,25 +3738,25 @@
         <v>21</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="V5" s="9">
         <v>61335</v>
       </c>
-      <c r="W5" s="25" t="s">
-        <v>147</v>
+      <c r="W5" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="X5" s="9" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="Y5" s="6" t="s">
         <v>22</v>
@@ -3621,25 +3765,25 @@
         <v>21</v>
       </c>
       <c r="AA5" s="9" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="AB5" s="9" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="AC5" s="9" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="AD5" s="9" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="AE5" s="9">
         <v>61335</v>
       </c>
-      <c r="AF5" s="25" t="s">
-        <v>147</v>
+      <c r="AF5" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="AG5" s="9" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="AH5" s="6" t="s">
         <v>22</v>
@@ -3648,48 +3792,48 @@
         <v>21</v>
       </c>
       <c r="AJ5" s="9" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="AK5" s="9" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="AL5" s="9" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="AM5" s="9" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="AN5" s="9">
         <v>61335</v>
       </c>
-      <c r="AO5" s="25" t="s">
-        <v>147</v>
+      <c r="AO5" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="AP5" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="AQ5" s="21" t="s">
-        <v>148</v>
+        <v>185</v>
+      </c>
+      <c r="AQ5" s="18" t="s">
+        <v>188</v>
       </c>
       <c r="AR5" s="9">
         <v>200</v>
       </c>
       <c r="AS5" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="1:45">
       <c r="A6" s="6" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>161</v>
+      <c r="D6" s="18" t="s">
+        <v>201</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>22</v>
@@ -3698,31 +3842,31 @@
         <v>21</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="K6" s="9">
         <v>61335</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="M6" s="9">
         <v>61335</v>
       </c>
-      <c r="N6" s="25" t="s">
-        <v>147</v>
+      <c r="N6" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
@@ -3731,7 +3875,7 @@
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
-      <c r="W6" s="25"/>
+      <c r="W6" s="12"/>
       <c r="X6" s="9"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
@@ -3740,7 +3884,7 @@
       <c r="AC6" s="9"/>
       <c r="AD6" s="9"/>
       <c r="AE6" s="9"/>
-      <c r="AF6" s="25"/>
+      <c r="AF6" s="12"/>
       <c r="AG6" s="9"/>
       <c r="AH6" s="6"/>
       <c r="AI6" s="6"/>
@@ -3749,16 +3893,16 @@
       <c r="AL6" s="9"/>
       <c r="AM6" s="9"/>
       <c r="AN6" s="9"/>
-      <c r="AO6" s="25"/>
+      <c r="AO6" s="12"/>
       <c r="AP6" s="9"/>
-      <c r="AQ6" s="21" t="s">
-        <v>148</v>
+      <c r="AQ6" s="18" t="s">
+        <v>188</v>
       </c>
       <c r="AR6" s="9">
         <v>200</v>
       </c>
       <c r="AS6" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3773,7 +3917,7 @@
   <sheetPr/>
   <dimension ref="A1:BO5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="J1" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="J1" workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
@@ -3821,207 +3965,207 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z1" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="K1" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="M1" s="11" t="s">
+      <c r="AA1" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE1" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="AF1" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG1" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH1" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="AI1" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="AK1" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="AL1" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="AM1" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="R1" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="S1" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="T1" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="U1" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="V1" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="W1" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="X1" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y1" s="14" t="s">
+      <c r="AN1" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="AO1" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="Z1" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA1" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AP1" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="AS1" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="AT1" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="AU1" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="AV1" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="AW1" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="AX1" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AY1" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AZ1" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="BA1" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="AF1" s="14" t="s">
+      <c r="BB1" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="AG1" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="AH1" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK1" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM1" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AN1" s="5" t="s">
+      <c r="BC1" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="BD1" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="AO1" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="AP1" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AQ1" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="AR1" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="AS1" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="AT1" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="AU1" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="AV1" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="AW1" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="AX1" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="AY1" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="AZ1" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="BA1" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="BB1" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="BC1" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="BD1" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="BE1" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="BF1" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="BG1" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="BH1" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="BI1" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="BJ1" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="BK1" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="BL1" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="BM1" s="17" t="s">
+      <c r="BE1" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF1" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="BG1" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="BH1" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="BI1" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="BJ1" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="BK1" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="BL1" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="BM1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="BN1" s="18" t="s">
+      <c r="BN1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="BO1" s="18" t="s">
+      <c r="BO1" s="16" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:67">
       <c r="A2" s="6" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>22</v>
@@ -4030,111 +4174,111 @@
         <v>21</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="O2" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="P2" s="12">
+        <v>73</v>
+      </c>
+      <c r="P2" s="9">
         <v>0</v>
       </c>
-      <c r="Q2" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="12"/>
-      <c r="AM2" s="12"/>
-      <c r="AN2" s="12"/>
-      <c r="AO2" s="13"/>
-      <c r="AP2" s="12"/>
-      <c r="AQ2" s="12"/>
-      <c r="AR2" s="12"/>
-      <c r="AS2" s="12"/>
-      <c r="AT2" s="12"/>
-      <c r="AU2" s="12"/>
-      <c r="AV2" s="12"/>
-      <c r="AW2" s="12"/>
-      <c r="AX2" s="12"/>
-      <c r="AY2" s="12"/>
-      <c r="AZ2" s="12"/>
-      <c r="BA2" s="12"/>
-      <c r="BB2" s="12"/>
-      <c r="BC2" s="12"/>
-      <c r="BD2" s="13"/>
-      <c r="BE2" s="12"/>
-      <c r="BF2" s="12"/>
-      <c r="BG2" s="12"/>
-      <c r="BH2" s="12"/>
-      <c r="BI2" s="12"/>
-      <c r="BJ2" s="12"/>
-      <c r="BK2" s="12"/>
-      <c r="BL2" s="12"/>
+      <c r="Q2" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="9"/>
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="9"/>
+      <c r="AM2" s="9"/>
+      <c r="AN2" s="9"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="9"/>
+      <c r="AQ2" s="9"/>
+      <c r="AR2" s="9"/>
+      <c r="AS2" s="9"/>
+      <c r="AT2" s="9"/>
+      <c r="AU2" s="9"/>
+      <c r="AV2" s="9"/>
+      <c r="AW2" s="9"/>
+      <c r="AX2" s="9"/>
+      <c r="AY2" s="9"/>
+      <c r="AZ2" s="9"/>
+      <c r="BA2" s="9"/>
+      <c r="BB2" s="9"/>
+      <c r="BC2" s="9"/>
+      <c r="BD2" s="12"/>
+      <c r="BE2" s="9"/>
+      <c r="BF2" s="9"/>
+      <c r="BG2" s="9"/>
+      <c r="BH2" s="9"/>
+      <c r="BI2" s="9"/>
+      <c r="BJ2" s="9"/>
+      <c r="BK2" s="9"/>
+      <c r="BL2" s="9"/>
       <c r="BM2" s="7" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="BN2" s="9">
         <v>200</v>
       </c>
       <c r="BO2" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:67">
       <c r="A3" s="6" t="s">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>22</v>
@@ -4143,43 +4287,43 @@
         <v>21</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="O3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="P3" s="12">
+        <v>73</v>
+      </c>
+      <c r="P3" s="9">
         <v>0</v>
       </c>
-      <c r="Q3" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="R3" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="S3" s="15" t="s">
-        <v>94</v>
+      <c r="Q3" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="T3" s="6" t="s">
         <v>22</v>
@@ -4188,19 +4332,19 @@
         <v>21</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="X3" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y3" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z3" s="13" t="s">
-        <v>147</v>
+        <v>99</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="AA3" s="6" t="s">
         <v>22</v>
@@ -4209,75 +4353,75 @@
         <v>21</v>
       </c>
       <c r="AC3" s="9" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE3" s="12">
+        <v>99</v>
+      </c>
+      <c r="AE3" s="9">
         <v>0</v>
       </c>
-      <c r="AF3" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG3" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH3" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="12"/>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="12"/>
-      <c r="AM3" s="12"/>
-      <c r="AN3" s="12"/>
-      <c r="AO3" s="13"/>
-      <c r="AP3" s="12"/>
-      <c r="AQ3" s="12"/>
-      <c r="AR3" s="12"/>
-      <c r="AS3" s="12"/>
-      <c r="AT3" s="12"/>
-      <c r="AU3" s="12"/>
-      <c r="AV3" s="12"/>
-      <c r="AW3" s="12"/>
-      <c r="AX3" s="12"/>
-      <c r="AY3" s="12"/>
-      <c r="AZ3" s="12"/>
-      <c r="BA3" s="12"/>
-      <c r="BB3" s="12"/>
-      <c r="BC3" s="12"/>
-      <c r="BD3" s="13"/>
-      <c r="BE3" s="12"/>
-      <c r="BF3" s="12"/>
-      <c r="BG3" s="12"/>
-      <c r="BH3" s="12"/>
-      <c r="BI3" s="12"/>
-      <c r="BJ3" s="12"/>
-      <c r="BK3" s="12"/>
-      <c r="BL3" s="12"/>
+      <c r="AF3" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG3" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH3" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="9"/>
+      <c r="AN3" s="9"/>
+      <c r="AO3" s="12"/>
+      <c r="AP3" s="9"/>
+      <c r="AQ3" s="9"/>
+      <c r="AR3" s="9"/>
+      <c r="AS3" s="9"/>
+      <c r="AT3" s="9"/>
+      <c r="AU3" s="9"/>
+      <c r="AV3" s="9"/>
+      <c r="AW3" s="9"/>
+      <c r="AX3" s="9"/>
+      <c r="AY3" s="9"/>
+      <c r="AZ3" s="9"/>
+      <c r="BA3" s="9"/>
+      <c r="BB3" s="9"/>
+      <c r="BC3" s="9"/>
+      <c r="BD3" s="12"/>
+      <c r="BE3" s="9"/>
+      <c r="BF3" s="9"/>
+      <c r="BG3" s="9"/>
+      <c r="BH3" s="9"/>
+      <c r="BI3" s="9"/>
+      <c r="BJ3" s="9"/>
+      <c r="BK3" s="9"/>
+      <c r="BL3" s="9"/>
       <c r="BM3" s="7" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="BN3" s="9">
         <v>200</v>
       </c>
       <c r="BO3" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:67">
       <c r="A4" s="6" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>22</v>
@@ -4286,43 +4430,43 @@
         <v>21</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="O4" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="P4" s="12">
+        <v>73</v>
+      </c>
+      <c r="P4" s="9">
         <v>0</v>
       </c>
-      <c r="Q4" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="R4" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="S4" s="15" t="s">
-        <v>94</v>
+      <c r="Q4" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="T4" s="6" t="s">
         <v>22</v>
@@ -4331,19 +4475,19 @@
         <v>21</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="X4" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y4" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z4" s="13" t="s">
-        <v>147</v>
+        <v>99</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y4" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="AA4" s="6" t="s">
         <v>22</v>
@@ -4352,22 +4496,22 @@
         <v>21</v>
       </c>
       <c r="AC4" s="9" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="AD4" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE4" s="12">
+        <v>99</v>
+      </c>
+      <c r="AE4" s="9">
         <v>0</v>
       </c>
-      <c r="AF4" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG4" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH4" s="15" t="s">
-        <v>94</v>
+      <c r="AF4" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG4" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH4" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="AI4" s="6" t="s">
         <v>22</v>
@@ -4376,19 +4520,19 @@
         <v>21</v>
       </c>
       <c r="AK4" s="9" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="AL4" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM4" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN4" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="AO4" s="13" t="s">
-        <v>147</v>
+        <v>101</v>
+      </c>
+      <c r="AM4" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="AN4" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="AO4" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="AP4" s="6" t="s">
         <v>22</v>
@@ -4397,60 +4541,60 @@
         <v>21</v>
       </c>
       <c r="AR4" s="9" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="AS4" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AT4" s="12">
+        <v>101</v>
+      </c>
+      <c r="AT4" s="9">
         <v>0</v>
       </c>
-      <c r="AU4" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AV4" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="AW4" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AX4" s="12"/>
-      <c r="AY4" s="12"/>
-      <c r="AZ4" s="12"/>
-      <c r="BA4" s="12"/>
-      <c r="BB4" s="12"/>
-      <c r="BC4" s="12"/>
-      <c r="BD4" s="13"/>
-      <c r="BE4" s="12"/>
-      <c r="BF4" s="12"/>
-      <c r="BG4" s="12"/>
-      <c r="BH4" s="12"/>
-      <c r="BI4" s="12"/>
-      <c r="BJ4" s="12"/>
-      <c r="BK4" s="12"/>
-      <c r="BL4" s="12"/>
+      <c r="AU4" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="AV4" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="AW4" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="AX4" s="9"/>
+      <c r="AY4" s="9"/>
+      <c r="AZ4" s="9"/>
+      <c r="BA4" s="9"/>
+      <c r="BB4" s="9"/>
+      <c r="BC4" s="9"/>
+      <c r="BD4" s="12"/>
+      <c r="BE4" s="9"/>
+      <c r="BF4" s="9"/>
+      <c r="BG4" s="9"/>
+      <c r="BH4" s="9"/>
+      <c r="BI4" s="9"/>
+      <c r="BJ4" s="9"/>
+      <c r="BK4" s="9"/>
+      <c r="BL4" s="9"/>
       <c r="BM4" s="7" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="BN4" s="9">
         <v>200</v>
       </c>
       <c r="BO4" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:67">
       <c r="A5" s="6" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>22</v>
@@ -4459,43 +4603,43 @@
         <v>21</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="O5" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="P5" s="12">
+        <v>73</v>
+      </c>
+      <c r="P5" s="9">
         <v>0</v>
       </c>
-      <c r="Q5" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="R5" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="S5" s="15" t="s">
-        <v>94</v>
+      <c r="Q5" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="T5" s="6" t="s">
         <v>22</v>
@@ -4504,19 +4648,19 @@
         <v>21</v>
       </c>
       <c r="V5" s="9" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="X5" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y5" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z5" s="13" t="s">
-        <v>147</v>
+        <v>99</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z5" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="AA5" s="6" t="s">
         <v>22</v>
@@ -4525,22 +4669,22 @@
         <v>21</v>
       </c>
       <c r="AC5" s="9" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="AD5" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE5" s="12">
+        <v>99</v>
+      </c>
+      <c r="AE5" s="9">
         <v>0</v>
       </c>
-      <c r="AF5" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG5" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH5" s="15" t="s">
-        <v>94</v>
+      <c r="AF5" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG5" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH5" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="AI5" s="6" t="s">
         <v>22</v>
@@ -4549,19 +4693,19 @@
         <v>21</v>
       </c>
       <c r="AK5" s="9" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="AL5" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM5" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN5" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="AO5" s="13" t="s">
-        <v>147</v>
+        <v>101</v>
+      </c>
+      <c r="AM5" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="AN5" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="AO5" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="AP5" s="6" t="s">
         <v>22</v>
@@ -4570,22 +4714,22 @@
         <v>21</v>
       </c>
       <c r="AR5" s="9" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="AS5" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AT5" s="12">
+        <v>101</v>
+      </c>
+      <c r="AT5" s="9">
         <v>0</v>
       </c>
-      <c r="AU5" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AV5" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="AW5" s="15" t="s">
-        <v>94</v>
+      <c r="AU5" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="AV5" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="AW5" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="AX5" s="6" t="s">
         <v>22</v>
@@ -4594,19 +4738,19 @@
         <v>21</v>
       </c>
       <c r="AZ5" s="9" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="BA5" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="BB5" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="BC5" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="BD5" s="13" t="s">
-        <v>147</v>
+        <v>103</v>
+      </c>
+      <c r="BB5" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="BC5" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="BD5" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="BE5" s="6" t="s">
         <v>22</v>
@@ -4615,31 +4759,31 @@
         <v>21</v>
       </c>
       <c r="BG5" s="9" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="BH5" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="BI5" s="12">
+        <v>103</v>
+      </c>
+      <c r="BI5" s="9">
         <v>0</v>
       </c>
-      <c r="BJ5" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="BK5" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="BL5" s="15" t="s">
-        <v>94</v>
+      <c r="BJ5" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="BK5" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="BL5" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="BM5" s="7" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="BN5" s="9">
         <v>200</v>
       </c>
       <c r="BO5" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -4685,37 +4829,37 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="33" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4726,10 +4870,10 @@
       <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="18" t="s">
         <v>54</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -4749,13 +4893,13 @@
       <c r="K2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="33">
+      <c r="M2" s="35">
         <v>200</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="N2" s="36" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4766,10 +4910,10 @@
       <c r="B3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="18" t="s">
         <v>54</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -4792,10 +4936,10 @@
       <c r="L3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="33">
+      <c r="M3" s="35">
         <v>400</v>
       </c>
-      <c r="N3" s="34"/>
+      <c r="N3" s="36"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
       <c r="A4" s="6" t="s">
@@ -4804,10 +4948,10 @@
       <c r="B4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="18" t="s">
         <v>54</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -4830,10 +4974,10 @@
       <c r="L4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="33">
+      <c r="M4" s="35">
         <v>400</v>
       </c>
-      <c r="N4" s="34"/>
+      <c r="N4" s="36"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
       <c r="A5" s="6" t="s">
@@ -4842,10 +4986,10 @@
       <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="18" t="s">
         <v>57</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -4867,13 +5011,13 @@
       <c r="K5" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="32" t="s">
+      <c r="L5" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="33">
+      <c r="M5" s="35">
         <v>200</v>
       </c>
-      <c r="N5" s="34" t="s">
+      <c r="N5" s="36" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4884,10 +5028,10 @@
       <c r="B6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="18" t="s">
         <v>57</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -4912,10 +5056,10 @@
       <c r="L6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="33">
+      <c r="M6" s="35">
         <v>400</v>
       </c>
-      <c r="N6" s="34"/>
+      <c r="N6" s="36"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
       <c r="A7" s="6" t="s">
@@ -4924,10 +5068,10 @@
       <c r="B7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="18" t="s">
         <v>57</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -4952,10 +5096,10 @@
       <c r="L7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="33">
+      <c r="M7" s="35">
         <v>400</v>
       </c>
-      <c r="N7" s="34"/>
+      <c r="N7" s="36"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
       <c r="A8" s="6" t="s">
@@ -4964,10 +5108,10 @@
       <c r="B8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="18" t="s">
         <v>58</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -4991,13 +5135,13 @@
       <c r="K8" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="32" t="s">
+      <c r="L8" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="33">
+      <c r="M8" s="35">
         <v>200</v>
       </c>
-      <c r="N8" s="34" t="s">
+      <c r="N8" s="36" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5008,10 +5152,10 @@
       <c r="B9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="18" t="s">
         <v>58</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -5038,10 +5182,10 @@
       <c r="L9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="33">
+      <c r="M9" s="35">
         <v>400</v>
       </c>
-      <c r="N9" s="34"/>
+      <c r="N9" s="36"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
       <c r="A10" s="6" t="s">
@@ -5050,10 +5194,10 @@
       <c r="B10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="18" t="s">
         <v>58</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -5080,10 +5224,10 @@
       <c r="L10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="33">
+      <c r="M10" s="35">
         <v>400</v>
       </c>
-      <c r="N10" s="34"/>
+      <c r="N10" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5094,15 +5238,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.4285714285714" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30.5809523809524" style="2" customWidth="1"/>
     <col min="2" max="2" width="24" style="2" customWidth="1"/>
     <col min="3" max="3" width="20" style="2" customWidth="1"/>
     <col min="4" max="4" width="30" style="2" customWidth="1"/>
@@ -5111,10 +5255,10 @@
     <col min="7" max="7" width="19.8571428571429" style="2" customWidth="1"/>
     <col min="8" max="8" width="25.7142857142857" style="2" customWidth="1"/>
     <col min="9" max="9" width="31.8571428571429" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.2857142857143" style="2" customWidth="1"/>
-    <col min="11" max="11" width="31.7142857142857" style="2" customWidth="1"/>
-    <col min="12" max="12" width="29.5714285714286" style="2" customWidth="1"/>
-    <col min="13" max="15" width="31.4285714285714" style="2" customWidth="1"/>
+    <col min="10" max="11" width="28.2857142857143" style="2" customWidth="1"/>
+    <col min="12" max="12" width="31.7142857142857" style="2" customWidth="1"/>
+    <col min="13" max="13" width="29.5714285714286" style="2" customWidth="1"/>
+    <col min="14" max="15" width="31.4285714285714" style="2" customWidth="1"/>
     <col min="16" max="16" width="15.2857142857143" style="2" customWidth="1"/>
     <col min="17" max="17" width="15.5714285714286" style="2" customWidth="1"/>
     <col min="18" max="18" width="17.7142857142857" style="2" customWidth="1"/>
@@ -5132,109 +5276,85 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A2" s="6" t="s">
+    <row r="2" s="19" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="9">
-        <v>35537</v>
-      </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="P2" s="9">
-        <v>200</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>74</v>
-      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A3" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>77</v>
+      <c r="D3" s="18" t="s">
+        <v>71</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>22</v>
@@ -5243,86 +5363,488 @@
         <v>21</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="28">
+        <v>35537</v>
+      </c>
+      <c r="J3" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="9">
-        <v>35537</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="9">
-        <v>35538</v>
-      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P3" s="9">
         <v>200</v>
       </c>
       <c r="Q3" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" s="19" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A4" s="20"/>
+      <c r="B4" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+    </row>
+    <row r="5" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A5" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="30">
+        <v>61351</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" s="2" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="P5" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" s="19" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+    </row>
+    <row r="7" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="D7" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="9" t="s">
+      <c r="E7" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="F7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="30">
+        <v>35541</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" s="19" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+    </row>
+    <row r="9" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="30">
+        <v>35540</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" s="19" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="30">
+        <v>61353</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" s="19" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+    </row>
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A13" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="30">
+        <v>61357</v>
+      </c>
+      <c r="J13" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+    </row>
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A15" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="9">
+        <v>35537</v>
+      </c>
+      <c r="J15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="9">
+      <c r="K15" s="9">
+        <v>35538</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P15" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A16" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" s="9">
         <v>35537</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="J16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="9">
+        <v>35538</v>
+      </c>
+      <c r="L16" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="9">
-        <v>35538</v>
-      </c>
-      <c r="M4" s="9" t="s">
+      <c r="M16" s="9">
+        <v>35539</v>
+      </c>
+      <c r="N16" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="N4" s="9">
-        <v>35539</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="P4" s="9">
+      <c r="O16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P16" s="9">
         <v>200</v>
       </c>
-      <c r="Q4" s="9" t="s">
-        <v>74</v>
+      <c r="Q16" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B12:D12"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -5367,64 +5889,64 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="16" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A2" s="6" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>70</v>
+      <c r="D2" s="18" t="s">
+        <v>71</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>22</v>
@@ -5433,7 +5955,7 @@
         <v>21</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>23</v>
@@ -5446,30 +5968,30 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P2" s="9">
         <v>200</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:17">
       <c r="A3" s="6" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>77</v>
+      <c r="D3" s="18" t="s">
+        <v>93</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>22</v>
@@ -5478,7 +6000,7 @@
         <v>21</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>23</v>
@@ -5495,30 +6017,30 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P3" s="9">
         <v>200</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:17">
       <c r="A4" s="6" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>80</v>
+      <c r="D4" s="18" t="s">
+        <v>96</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>22</v>
@@ -5527,7 +6049,7 @@
         <v>21</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>23</v>
@@ -5548,13 +6070,13 @@
         <v>35539</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P4" s="9">
         <v>200</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -5602,64 +6124,64 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="16" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A2" s="6" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>70</v>
+      <c r="D2" s="18" t="s">
+        <v>71</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>22</v>
@@ -5668,7 +6190,7 @@
         <v>21</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>23</v>
@@ -5681,30 +6203,30 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P2" s="9">
         <v>200</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A3" s="6" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>77</v>
+      <c r="D3" s="18" t="s">
+        <v>93</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>22</v>
@@ -5713,7 +6235,7 @@
         <v>21</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>23</v>
@@ -5730,30 +6252,30 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P3" s="9">
         <v>200</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A4" s="6" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>80</v>
+      <c r="D4" s="18" t="s">
+        <v>96</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>22</v>
@@ -5762,7 +6284,7 @@
         <v>21</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>23</v>
@@ -5783,13 +6305,13 @@
         <v>35539</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P4" s="9">
         <v>200</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -5837,64 +6359,64 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="16" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A2" s="6" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>70</v>
+      <c r="D2" s="18" t="s">
+        <v>71</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>22</v>
@@ -5903,7 +6425,7 @@
         <v>21</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>23</v>
@@ -5916,30 +6438,30 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P2" s="9">
         <v>200</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A3" s="6" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>77</v>
+      <c r="D3" s="18" t="s">
+        <v>93</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>22</v>
@@ -5948,7 +6470,7 @@
         <v>21</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>23</v>
@@ -5965,30 +6487,30 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P3" s="9">
         <v>200</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A4" s="6" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>80</v>
+      <c r="D4" s="18" t="s">
+        <v>96</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>22</v>
@@ -5997,7 +6519,7 @@
         <v>21</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>23</v>
@@ -6018,13 +6540,13 @@
         <v>35539</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P4" s="9">
         <v>200</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -6034,6 +6556,493 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="31.9333333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.4285714285714" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.7142857142857" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.4285714285714" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24.7047619047619" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.8190476190476" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.4285714285714" style="2" customWidth="1"/>
+    <col min="11" max="11" width="23.5714285714286" style="2" customWidth="1"/>
+    <col min="12" max="12" width="25.2095238095238" style="2" customWidth="1"/>
+    <col min="13" max="13" width="36.1238095238095" style="2" customWidth="1"/>
+    <col min="14" max="14" width="14.2857142857143" style="2" customWidth="1"/>
+    <col min="15" max="15" width="14.5714285714286" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9.14285714285714" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="2" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" s="19" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+    </row>
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A3" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="N3" s="9">
+        <v>200</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" s="19" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A4" s="20"/>
+      <c r="B4" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+    </row>
+    <row r="5" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A5" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="N5" s="9">
+        <v>200</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" s="19" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+    </row>
+    <row r="7" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A7" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="N7" s="9">
+        <v>200</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" s="19" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+    </row>
+    <row r="9" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A9" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="N9" s="9">
+        <v>200</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" s="19" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A11" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="N11" s="9">
+        <v>200</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" s="19" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+    </row>
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A13" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="N13" s="9">
+        <v>200</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B12:D12"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:O2"/>
@@ -6072,55 +7081,55 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="J1" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="K1" s="27" t="s">
+      <c r="H1" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="M1" s="17" t="s">
+      <c r="L1" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="M1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="16" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A2" s="6" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>93</v>
+      <c r="D2" s="18" t="s">
+        <v>110</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>22</v>
@@ -6129,161 +7138,31 @@
         <v>21</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="J2" s="28">
+        <v>99</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" s="9">
         <v>0</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="L2" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>114</v>
       </c>
       <c r="N2" s="9">
         <v>200</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:O2"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="19.4285714285714" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.4285714285714" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.7142857142857" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.4285714285714" style="2" customWidth="1"/>
-    <col min="8" max="8" width="30.1428571428571" style="2" customWidth="1"/>
-    <col min="9" max="9" width="28.4285714285714" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.4285714285714" style="2" customWidth="1"/>
-    <col min="11" max="11" width="23.5714285714286" style="2" customWidth="1"/>
-    <col min="12" max="12" width="36.6285714285714" style="2" customWidth="1"/>
-    <col min="13" max="13" width="36.1238095238095" style="2" customWidth="1"/>
-    <col min="14" max="14" width="14.2857142857143" style="2" customWidth="1"/>
-    <col min="15" max="15" width="14.5714285714286" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9.14285714285714" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="2" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="J1" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="K1" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A2" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="J2" s="28">
-        <v>0</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="L2" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="N2" s="9">
-        <v>200</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -6332,55 +7211,55 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="J1" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="K1" s="27" t="s">
+      <c r="H1" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="M1" s="17" t="s">
+      <c r="L1" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="M1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="16" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A2" s="6" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>93</v>
+      <c r="D2" s="18" t="s">
+        <v>110</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>22</v>
@@ -6389,31 +7268,31 @@
         <v>21</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="J2" s="28">
+        <v>101</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" s="9">
         <v>0</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="L2" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>97</v>
+        <v>100</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>114</v>
       </c>
       <c r="N2" s="9">
         <v>200</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/input_excel_file/booking/voucher.xlsx
+++ b/src/main/resources/input_excel_file/booking/voucher.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="2" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Booking_Voucher_Check" sheetId="1" r:id="rId1"/>
@@ -5240,8 +5240,8 @@
   <sheetPr/>
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
@@ -6560,8 +6560,8 @@
   <sheetPr/>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>

--- a/src/main/resources/input_excel_file/booking/voucher.xlsx
+++ b/src/main/resources/input_excel_file/booking/voucher.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="2" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Booking_Voucher_Check" sheetId="1" r:id="rId1"/>
@@ -1379,7 +1379,7 @@
       <charset val="0"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1407,12 +1407,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1793,7 +1787,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1817,16 +1811,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1835,89 +1829,89 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1975,7 +1969,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1987,11 +1981,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
@@ -2005,10 +1996,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2633,13 +2624,13 @@
       <c r="N1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="31" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="Q1" s="32" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2650,7 +2641,7 @@
       <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="18" t="s">
@@ -2676,19 +2667,19 @@
       <c r="L2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="M2" s="36" t="s">
         <v>26</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="O2" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="35">
+      <c r="P2" s="34">
         <v>200</v>
       </c>
-      <c r="Q2" s="36" t="s">
+      <c r="Q2" s="35" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2699,7 +2690,7 @@
       <c r="B3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="30" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="18" t="s">
@@ -2725,7 +2716,7 @@
       <c r="L3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="36" t="s">
         <v>26</v>
       </c>
       <c r="N3" s="12" t="s">
@@ -2734,10 +2725,10 @@
       <c r="O3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="35">
+      <c r="P3" s="34">
         <v>400</v>
       </c>
-      <c r="Q3" s="36"/>
+      <c r="Q3" s="35"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
       <c r="A4" s="6" t="s">
@@ -2746,7 +2737,7 @@
       <c r="B4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="30" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="18" t="s">
@@ -2772,7 +2763,7 @@
       <c r="L4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="37" t="s">
+      <c r="M4" s="36" t="s">
         <v>26</v>
       </c>
       <c r="N4" s="12" t="s">
@@ -2781,10 +2772,10 @@
       <c r="O4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="35">
+      <c r="P4" s="34">
         <v>400</v>
       </c>
-      <c r="Q4" s="36"/>
+      <c r="Q4" s="35"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
       <c r="A5" s="6" t="s">
@@ -2793,7 +2784,7 @@
       <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="30" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="18" t="s">
@@ -2821,19 +2812,19 @@
       <c r="L5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="37" t="s">
+      <c r="M5" s="36" t="s">
         <v>26</v>
       </c>
       <c r="N5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="34" t="s">
+      <c r="O5" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="35">
+      <c r="P5" s="34">
         <v>200</v>
       </c>
-      <c r="Q5" s="36" t="s">
+      <c r="Q5" s="35" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2844,7 +2835,7 @@
       <c r="B6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="30" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="18" t="s">
@@ -2872,7 +2863,7 @@
       <c r="L6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="37" t="s">
+      <c r="M6" s="36" t="s">
         <v>26</v>
       </c>
       <c r="N6" s="12" t="s">
@@ -2881,10 +2872,10 @@
       <c r="O6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="35">
+      <c r="P6" s="34">
         <v>400</v>
       </c>
-      <c r="Q6" s="36"/>
+      <c r="Q6" s="35"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
       <c r="A7" s="6" t="s">
@@ -2893,7 +2884,7 @@
       <c r="B7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="30" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="18" t="s">
@@ -2921,7 +2912,7 @@
       <c r="L7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="37" t="s">
+      <c r="M7" s="36" t="s">
         <v>26</v>
       </c>
       <c r="N7" s="12" t="s">
@@ -2930,10 +2921,10 @@
       <c r="O7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P7" s="35">
+      <c r="P7" s="34">
         <v>400</v>
       </c>
-      <c r="Q7" s="36"/>
+      <c r="Q7" s="35"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
       <c r="A8" s="6" t="s">
@@ -2942,7 +2933,7 @@
       <c r="B8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="30" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="18" t="s">
@@ -2972,19 +2963,19 @@
       <c r="L8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="37" t="s">
+      <c r="M8" s="36" t="s">
         <v>26</v>
       </c>
       <c r="N8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="34" t="s">
+      <c r="O8" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="35">
+      <c r="P8" s="34">
         <v>200</v>
       </c>
-      <c r="Q8" s="36" t="s">
+      <c r="Q8" s="35" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2995,7 +2986,7 @@
       <c r="B9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="30" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="18" t="s">
@@ -3025,7 +3016,7 @@
       <c r="L9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="37" t="s">
+      <c r="M9" s="36" t="s">
         <v>26</v>
       </c>
       <c r="N9" s="12" t="s">
@@ -3034,10 +3025,10 @@
       <c r="O9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P9" s="35">
+      <c r="P9" s="34">
         <v>400</v>
       </c>
-      <c r="Q9" s="36"/>
+      <c r="Q9" s="35"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
       <c r="A10" s="6" t="s">
@@ -3046,7 +3037,7 @@
       <c r="B10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="30" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="18" t="s">
@@ -3076,7 +3067,7 @@
       <c r="L10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="37" t="s">
+      <c r="M10" s="36" t="s">
         <v>26</v>
       </c>
       <c r="N10" s="12" t="s">
@@ -3085,10 +3076,10 @@
       <c r="O10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="35">
+      <c r="P10" s="34">
         <v>400</v>
       </c>
-      <c r="Q10" s="36"/>
+      <c r="Q10" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4853,13 +4844,13 @@
       <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="31" t="s">
         <v>14</v>
       </c>
       <c r="M1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="32" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4870,7 +4861,7 @@
       <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="18" t="s">
@@ -4893,13 +4884,13 @@
       <c r="K2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="L2" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="35">
+      <c r="M2" s="34">
         <v>200</v>
       </c>
-      <c r="N2" s="36" t="s">
+      <c r="N2" s="35" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4910,7 +4901,7 @@
       <c r="B3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="30" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="18" t="s">
@@ -4936,10 +4927,10 @@
       <c r="L3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="35">
+      <c r="M3" s="34">
         <v>400</v>
       </c>
-      <c r="N3" s="36"/>
+      <c r="N3" s="35"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
       <c r="A4" s="6" t="s">
@@ -4948,7 +4939,7 @@
       <c r="B4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="30" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="18" t="s">
@@ -4974,10 +4965,10 @@
       <c r="L4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="35">
+      <c r="M4" s="34">
         <v>400</v>
       </c>
-      <c r="N4" s="36"/>
+      <c r="N4" s="35"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
       <c r="A5" s="6" t="s">
@@ -4986,7 +4977,7 @@
       <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="30" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="18" t="s">
@@ -5011,13 +5002,13 @@
       <c r="K5" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="34" t="s">
+      <c r="L5" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="35">
+      <c r="M5" s="34">
         <v>200</v>
       </c>
-      <c r="N5" s="36" t="s">
+      <c r="N5" s="35" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5028,7 +5019,7 @@
       <c r="B6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="30" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="18" t="s">
@@ -5056,10 +5047,10 @@
       <c r="L6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="35">
+      <c r="M6" s="34">
         <v>400</v>
       </c>
-      <c r="N6" s="36"/>
+      <c r="N6" s="35"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
       <c r="A7" s="6" t="s">
@@ -5068,7 +5059,7 @@
       <c r="B7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="30" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="18" t="s">
@@ -5096,10 +5087,10 @@
       <c r="L7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="35">
+      <c r="M7" s="34">
         <v>400</v>
       </c>
-      <c r="N7" s="36"/>
+      <c r="N7" s="35"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
       <c r="A8" s="6" t="s">
@@ -5108,7 +5099,7 @@
       <c r="B8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="30" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="18" t="s">
@@ -5135,13 +5126,13 @@
       <c r="K8" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="34" t="s">
+      <c r="L8" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="35">
+      <c r="M8" s="34">
         <v>200</v>
       </c>
-      <c r="N8" s="36" t="s">
+      <c r="N8" s="35" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5152,7 +5143,7 @@
       <c r="B9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="30" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="18" t="s">
@@ -5182,10 +5173,10 @@
       <c r="L9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="35">
+      <c r="M9" s="34">
         <v>400</v>
       </c>
-      <c r="N9" s="36"/>
+      <c r="N9" s="35"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
       <c r="A10" s="6" t="s">
@@ -5194,7 +5185,7 @@
       <c r="B10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="30" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="18" t="s">
@@ -5224,10 +5215,10 @@
       <c r="L10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="35">
+      <c r="M10" s="34">
         <v>400</v>
       </c>
-      <c r="N10" s="36"/>
+      <c r="N10" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5240,7 +5231,7 @@
   <sheetPr/>
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -5336,9 +5327,9 @@
       <c r="L2" s="23"/>
       <c r="M2" s="23"/>
       <c r="N2" s="23"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A3" s="6" t="s">
@@ -5365,10 +5356,10 @@
       <c r="H3" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="27">
         <v>35537</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="28" t="s">
         <v>23</v>
       </c>
       <c r="K3" s="9"/>
@@ -5402,9 +5393,9 @@
       <c r="L4" s="23"/>
       <c r="M4" s="23"/>
       <c r="N4" s="23"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
     </row>
     <row r="5" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A5" s="6" t="s">
@@ -5431,10 +5422,10 @@
       <c r="H5" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="29">
         <v>61351</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="J5" s="28" t="s">
         <v>78</v>
       </c>
       <c r="K5" s="9"/>
@@ -5468,9 +5459,9 @@
       <c r="L6" s="23"/>
       <c r="M6" s="23"/>
       <c r="N6" s="23"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A7" s="6" t="s">
@@ -5497,10 +5488,10 @@
       <c r="H7" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="29">
         <v>35541</v>
       </c>
-      <c r="J7" s="29" t="s">
+      <c r="J7" s="28" t="s">
         <v>81</v>
       </c>
       <c r="K7" s="9"/>
@@ -5534,9 +5525,9 @@
       <c r="L8" s="23"/>
       <c r="M8" s="23"/>
       <c r="N8" s="23"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A9" s="6" t="s">
@@ -5563,10 +5554,10 @@
       <c r="H9" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="29">
         <v>35540</v>
       </c>
-      <c r="J9" s="29" t="s">
+      <c r="J9" s="28" t="s">
         <v>84</v>
       </c>
       <c r="K9" s="9"/>
@@ -5600,9 +5591,9 @@
       <c r="L10" s="23"/>
       <c r="M10" s="23"/>
       <c r="N10" s="23"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A11" s="6" t="s">
@@ -5629,10 +5620,10 @@
       <c r="H11" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="29">
         <v>61353</v>
       </c>
-      <c r="J11" s="29" t="s">
+      <c r="J11" s="28" t="s">
         <v>87</v>
       </c>
       <c r="K11" s="9"/>
@@ -5666,9 +5657,9 @@
       <c r="L12" s="23"/>
       <c r="M12" s="23"/>
       <c r="N12" s="23"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A13" s="6" t="s">
@@ -5695,10 +5686,10 @@
       <c r="H13" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="29">
         <v>61357</v>
       </c>
-      <c r="J13" s="29" t="s">
+      <c r="J13" s="28" t="s">
         <v>90</v>
       </c>
       <c r="K13" s="9"/>
@@ -6560,8 +6551,8 @@
   <sheetPr/>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
@@ -6646,12 +6637,12 @@
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
       <c r="L2" s="23"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="6" t="s">
         <v>108</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -6712,12 +6703,12 @@
       <c r="J4" s="23"/>
       <c r="K4" s="23"/>
       <c r="L4" s="23"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
     </row>
     <row r="5" s="2" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="6" t="s">
         <v>115</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -6778,12 +6769,12 @@
       <c r="J6" s="23"/>
       <c r="K6" s="23"/>
       <c r="L6" s="23"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="6" t="s">
         <v>119</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -6844,12 +6835,12 @@
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
       <c r="L8" s="23"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="6" t="s">
         <v>123</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -6910,12 +6901,12 @@
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
       <c r="L10" s="23"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="6" t="s">
         <v>127</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -6976,12 +6967,12 @@
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
       <c r="L12" s="23"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="6" t="s">
         <v>131</v>
       </c>
       <c r="B13" s="7" t="s">

--- a/src/main/resources/input_excel_file/booking/voucher.xlsx
+++ b/src/main/resources/input_excel_file/booking/voucher.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="2" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Booking_Voucher_Check" sheetId="1" r:id="rId1"/>
@@ -426,7 +426,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="282">
   <si>
     <t>tc_id</t>
   </si>
@@ -632,6 +632,9 @@
     <t>assert_data</t>
   </si>
   <si>
+    <t>Khách lẻ</t>
+  </si>
+  <si>
     <t>Apply voucher giảm giá thông thường: Giảm 200k green fee</t>
   </si>
   <si>
@@ -701,6 +704,27 @@
     <t>TT4FEE11</t>
   </si>
   <si>
+    <t>Đại lý</t>
+  </si>
+  <si>
+    <t>GREEN21</t>
+  </si>
+  <si>
+    <t>4FEE11</t>
+  </si>
+  <si>
+    <t>GREEN31</t>
+  </si>
+  <si>
+    <t>ALL11</t>
+  </si>
+  <si>
+    <t>CD4FEE11</t>
+  </si>
+  <si>
+    <t>TT4FEE21</t>
+  </si>
+  <si>
     <t>APPLY_2VC_CA_NHAN_PLAYER1</t>
   </si>
   <si>
@@ -831,6 +855,78 @@
   </si>
   <si>
     <t>{{CTX:VOUCHER_APPLY_UID_TT4FEE11_0}}</t>
+  </si>
+  <si>
+    <t>AGENT_REMOVE_VC_GREEN_001</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_CODE_GREEN21}}</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_ID_GREEN21}}</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_APPLY_UID_GREEN21_0}}</t>
+  </si>
+  <si>
+    <t>AGENT_REMOVE_VC_4FEE_001</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_CODE_4FEE11}}</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_ID_4FEE11}}</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_APPLY_UID_4FEE11_0}}</t>
+  </si>
+  <si>
+    <t>AGENT_REMOVE_VC_GREEN_10_001</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_CODE_GREEN31}}</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_ID_GREEN31}}</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_APPLY_UID_GREEN31_0}}</t>
+  </si>
+  <si>
+    <t>AGENT_REMOVE_VC_ALL_10_001</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_CODE_ALL11}}</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_ID_ALL11}}</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_APPLY_UID_ALL11_0}}</t>
+  </si>
+  <si>
+    <t>AGENT_REMOVE_VC_CD4FEE_001</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_CODE_CD4FEE11}}</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_ID_CD4FEE11}}</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_APPLY_UID_CD4FEE11_0}}</t>
+  </si>
+  <si>
+    <t>AGENT_REMOVE_VC_TT4FEE_001</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_CODE_TT4FEE21}}</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_ID_TT4FEE21}}</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_APPLY_UID_TT4FEE21_0}}</t>
   </si>
   <si>
     <t>REMOVE_1VC_CA_NHAN_PLAYER2</t>
@@ -1379,7 +1475,7 @@
       <charset val="0"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1407,6 +1503,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1484,12 +1598,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1527,12 +1635,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1603,7 +1705,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1648,6 +1750,19 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1787,7 +1902,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1799,119 +1914,119 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1969,9 +2084,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1990,22 +2123,43 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2624,13 +2778,13 @@
       <c r="N1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="O1" s="44" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="32" t="s">
+      <c r="Q1" s="45" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2641,7 +2795,7 @@
       <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="18" t="s">
@@ -2667,19 +2821,19 @@
       <c r="L2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="M2" s="49" t="s">
         <v>26</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="O2" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="34">
+      <c r="P2" s="47">
         <v>200</v>
       </c>
-      <c r="Q2" s="35" t="s">
+      <c r="Q2" s="48" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2690,7 +2844,7 @@
       <c r="B3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="18" t="s">
@@ -2716,7 +2870,7 @@
       <c r="L3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="M3" s="49" t="s">
         <v>26</v>
       </c>
       <c r="N3" s="12" t="s">
@@ -2725,10 +2879,10 @@
       <c r="O3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="34">
+      <c r="P3" s="47">
         <v>400</v>
       </c>
-      <c r="Q3" s="35"/>
+      <c r="Q3" s="48"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
       <c r="A4" s="6" t="s">
@@ -2737,7 +2891,7 @@
       <c r="B4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="18" t="s">
@@ -2763,7 +2917,7 @@
       <c r="L4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="M4" s="49" t="s">
         <v>26</v>
       </c>
       <c r="N4" s="12" t="s">
@@ -2772,10 +2926,10 @@
       <c r="O4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="34">
+      <c r="P4" s="47">
         <v>400</v>
       </c>
-      <c r="Q4" s="35"/>
+      <c r="Q4" s="48"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
       <c r="A5" s="6" t="s">
@@ -2784,7 +2938,7 @@
       <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="18" t="s">
@@ -2812,19 +2966,19 @@
       <c r="L5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="36" t="s">
+      <c r="M5" s="49" t="s">
         <v>26</v>
       </c>
       <c r="N5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="33" t="s">
+      <c r="O5" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="34">
+      <c r="P5" s="47">
         <v>200</v>
       </c>
-      <c r="Q5" s="35" t="s">
+      <c r="Q5" s="48" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2835,7 +2989,7 @@
       <c r="B6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="18" t="s">
@@ -2863,7 +3017,7 @@
       <c r="L6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="36" t="s">
+      <c r="M6" s="49" t="s">
         <v>26</v>
       </c>
       <c r="N6" s="12" t="s">
@@ -2872,10 +3026,10 @@
       <c r="O6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="34">
+      <c r="P6" s="47">
         <v>400</v>
       </c>
-      <c r="Q6" s="35"/>
+      <c r="Q6" s="48"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
       <c r="A7" s="6" t="s">
@@ -2884,7 +3038,7 @@
       <c r="B7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="18" t="s">
@@ -2912,7 +3066,7 @@
       <c r="L7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="36" t="s">
+      <c r="M7" s="49" t="s">
         <v>26</v>
       </c>
       <c r="N7" s="12" t="s">
@@ -2921,10 +3075,10 @@
       <c r="O7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P7" s="34">
+      <c r="P7" s="47">
         <v>400</v>
       </c>
-      <c r="Q7" s="35"/>
+      <c r="Q7" s="48"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
       <c r="A8" s="6" t="s">
@@ -2933,7 +3087,7 @@
       <c r="B8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="18" t="s">
@@ -2963,19 +3117,19 @@
       <c r="L8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="36" t="s">
+      <c r="M8" s="49" t="s">
         <v>26</v>
       </c>
       <c r="N8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="33" t="s">
+      <c r="O8" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="34">
+      <c r="P8" s="47">
         <v>200</v>
       </c>
-      <c r="Q8" s="35" t="s">
+      <c r="Q8" s="48" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2986,7 +3140,7 @@
       <c r="B9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="18" t="s">
@@ -3016,7 +3170,7 @@
       <c r="L9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="36" t="s">
+      <c r="M9" s="49" t="s">
         <v>26</v>
       </c>
       <c r="N9" s="12" t="s">
@@ -3025,10 +3179,10 @@
       <c r="O9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P9" s="34">
+      <c r="P9" s="47">
         <v>400</v>
       </c>
-      <c r="Q9" s="35"/>
+      <c r="Q9" s="48"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
       <c r="A10" s="6" t="s">
@@ -3037,7 +3191,7 @@
       <c r="B10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="18" t="s">
@@ -3067,7 +3221,7 @@
       <c r="L10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="36" t="s">
+      <c r="M10" s="49" t="s">
         <v>26</v>
       </c>
       <c r="N10" s="12" t="s">
@@ -3076,10 +3230,10 @@
       <c r="O10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="34">
+      <c r="P10" s="47">
         <v>400</v>
       </c>
-      <c r="Q10" s="35"/>
+      <c r="Q10" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3139,19 +3293,19 @@
         <v>60</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>59</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M1" s="15" t="s">
         <v>14</v>
@@ -3165,16 +3319,16 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A2" s="6" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>22</v>
@@ -3183,31 +3337,31 @@
         <v>21</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="J2" s="9">
         <v>0</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="N2" s="9">
         <v>200</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3266,118 +3420,118 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="U1" s="13" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="V1" s="13" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="X1" s="13" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="AD1" s="11" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="AE1" s="11" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="AF1" s="10" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="AH1" s="13" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="AI1" s="13" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="AJ1" s="13" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="AK1" s="13" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="AL1" s="13" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="AM1" s="13" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="AN1" s="13" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="AO1" s="14" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="AP1" s="13" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="AQ1" s="15" t="s">
         <v>14</v>
@@ -3391,16 +3545,16 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:45">
       <c r="A2" s="6" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>22</v>
@@ -3409,16 +3563,16 @@
         <v>21</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="K2" s="9">
         <v>61335</v>
@@ -3426,10 +3580,10 @@
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="12" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
@@ -3459,27 +3613,27 @@
       <c r="AO2" s="12"/>
       <c r="AP2" s="9"/>
       <c r="AQ2" s="18" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="AR2" s="9">
         <v>200</v>
       </c>
       <c r="AS2" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:45">
       <c r="A3" s="6" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>22</v>
@@ -3488,16 +3642,16 @@
         <v>21</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="K3" s="9">
         <v>61335</v>
@@ -3505,10 +3659,10 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
       <c r="N3" s="12" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>22</v>
@@ -3517,25 +3671,25 @@
         <v>21</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="T3" s="9" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="V3" s="9">
         <v>60987</v>
       </c>
       <c r="W3" s="12" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
@@ -3556,27 +3710,27 @@
       <c r="AO3" s="12"/>
       <c r="AP3" s="9"/>
       <c r="AQ3" s="18" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="AR3" s="9">
         <v>200</v>
       </c>
       <c r="AS3" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" customHeight="1" spans="1:45">
       <c r="A4" s="6" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>22</v>
@@ -3585,16 +3739,16 @@
         <v>21</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="K4" s="9">
         <v>61335</v>
@@ -3602,10 +3756,10 @@
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="12" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>22</v>
@@ -3614,25 +3768,25 @@
         <v>21</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="U4" s="9" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="V4" s="9">
         <v>61335</v>
       </c>
       <c r="W4" s="12" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="X4" s="9" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="Y4" s="6" t="s">
         <v>22</v>
@@ -3641,25 +3795,25 @@
         <v>21</v>
       </c>
       <c r="AA4" s="9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="AB4" s="9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="AC4" s="9" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="AD4" s="9" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="AE4" s="9">
         <v>61335</v>
       </c>
       <c r="AF4" s="12" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="AG4" s="9" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="AH4" s="9"/>
       <c r="AI4" s="9"/>
@@ -3671,27 +3825,27 @@
       <c r="AO4" s="12"/>
       <c r="AP4" s="9"/>
       <c r="AQ4" s="18" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="AR4" s="9">
         <v>200</v>
       </c>
       <c r="AS4" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" customHeight="1" spans="1:45">
       <c r="A5" s="6" t="s">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>22</v>
@@ -3700,16 +3854,16 @@
         <v>21</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="K5" s="9">
         <v>61335</v>
@@ -3717,10 +3871,10 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="12" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>22</v>
@@ -3729,25 +3883,25 @@
         <v>21</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="V5" s="9">
         <v>61335</v>
       </c>
       <c r="W5" s="12" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="X5" s="9" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="Y5" s="6" t="s">
         <v>22</v>
@@ -3756,25 +3910,25 @@
         <v>21</v>
       </c>
       <c r="AA5" s="9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="AB5" s="9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="AC5" s="9" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="AD5" s="9" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="AE5" s="9">
         <v>61335</v>
       </c>
       <c r="AF5" s="12" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="AG5" s="9" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="AH5" s="6" t="s">
         <v>22</v>
@@ -3783,48 +3937,48 @@
         <v>21</v>
       </c>
       <c r="AJ5" s="9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="AK5" s="9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="AL5" s="9" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="AM5" s="9" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="AN5" s="9">
         <v>61335</v>
       </c>
       <c r="AO5" s="12" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="AP5" s="9" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="AQ5" s="18" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="AR5" s="9">
         <v>200</v>
       </c>
       <c r="AS5" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="1:45">
       <c r="A6" s="6" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>22</v>
@@ -3833,31 +3987,31 @@
         <v>21</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="K6" s="9">
         <v>61335</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="M6" s="9">
         <v>61335</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
@@ -3887,13 +4041,13 @@
       <c r="AO6" s="12"/>
       <c r="AP6" s="9"/>
       <c r="AQ6" s="18" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="AR6" s="9">
         <v>200</v>
       </c>
       <c r="AS6" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3956,184 +4110,184 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="L1" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="AE1" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="AF1" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="AG1" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH1" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="AO1" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="M1" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="N1" s="11" t="s">
+      <c r="AP1" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS1" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="AT1" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="AU1" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="AV1" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW1" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="AX1" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="AY1" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="AZ1" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="BA1" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="BB1" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="S1" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="X1" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y1" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z1" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="AA1" s="13" t="s">
+      <c r="BC1" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="BD1" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="AB1" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="AC1" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="AD1" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="AE1" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="AF1" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="AG1" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="AH1" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="AK1" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="AM1" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="AO1" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP1" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="AQ1" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="AR1" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="AS1" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="AT1" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="AU1" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="AV1" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="AW1" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="AX1" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="AY1" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="AZ1" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="BA1" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="BB1" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="BC1" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="BD1" s="14" t="s">
-        <v>180</v>
-      </c>
       <c r="BE1" s="13" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="BF1" s="13" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="BG1" s="13" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="BH1" s="13" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="BI1" s="13" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="BJ1" s="13" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="BK1" s="13" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="BL1" s="13" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="BM1" s="15" t="s">
         <v>14</v>
@@ -4147,16 +4301,16 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:67">
       <c r="A2" s="6" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>22</v>
@@ -4165,43 +4319,43 @@
         <v>21</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>72</v>
-      </c>
       <c r="O2" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P2" s="9">
         <v>0</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
@@ -4249,27 +4403,27 @@
       <c r="BK2" s="9"/>
       <c r="BL2" s="9"/>
       <c r="BM2" s="7" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="BN2" s="9">
         <v>200</v>
       </c>
       <c r="BO2" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:67">
       <c r="A3" s="6" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>22</v>
@@ -4278,43 +4432,43 @@
         <v>21</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>72</v>
-      </c>
       <c r="O3" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P3" s="9">
         <v>0</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="T3" s="6" t="s">
         <v>22</v>
@@ -4323,19 +4477,19 @@
         <v>21</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="Z3" s="12" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="AA3" s="6" t="s">
         <v>22</v>
@@ -4344,22 +4498,22 @@
         <v>21</v>
       </c>
       <c r="AC3" s="9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="AE3" s="9">
         <v>0</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="AG3" s="9" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="AH3" s="9" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="AI3" s="9"/>
       <c r="AJ3" s="9"/>
@@ -4392,27 +4546,27 @@
       <c r="BK3" s="9"/>
       <c r="BL3" s="9"/>
       <c r="BM3" s="7" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="BN3" s="9">
         <v>200</v>
       </c>
       <c r="BO3" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:67">
       <c r="A4" s="6" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>22</v>
@@ -4421,43 +4575,43 @@
         <v>21</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>72</v>
-      </c>
       <c r="O4" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P4" s="9">
         <v>0</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="T4" s="6" t="s">
         <v>22</v>
@@ -4466,19 +4620,19 @@
         <v>21</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="X4" s="9" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="Y4" s="9" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="Z4" s="12" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="AA4" s="6" t="s">
         <v>22</v>
@@ -4487,22 +4641,22 @@
         <v>21</v>
       </c>
       <c r="AC4" s="9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="AD4" s="9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="AE4" s="9">
         <v>0</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="AG4" s="9" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="AH4" s="9" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="AI4" s="6" t="s">
         <v>22</v>
@@ -4511,19 +4665,19 @@
         <v>21</v>
       </c>
       <c r="AK4" s="9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="AL4" s="9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="AM4" s="9" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="AN4" s="9" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="AO4" s="12" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="AP4" s="6" t="s">
         <v>22</v>
@@ -4532,22 +4686,22 @@
         <v>21</v>
       </c>
       <c r="AR4" s="9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="AS4" s="9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="AT4" s="9">
         <v>0</v>
       </c>
       <c r="AU4" s="9" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="AV4" s="9" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="AW4" s="9" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="AX4" s="9"/>
       <c r="AY4" s="9"/>
@@ -4565,27 +4719,27 @@
       <c r="BK4" s="9"/>
       <c r="BL4" s="9"/>
       <c r="BM4" s="7" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="BN4" s="9">
         <v>200</v>
       </c>
       <c r="BO4" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:67">
       <c r="A5" s="6" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>22</v>
@@ -4594,43 +4748,43 @@
         <v>21</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H5" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>72</v>
-      </c>
       <c r="O5" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P5" s="9">
         <v>0</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="T5" s="6" t="s">
         <v>22</v>
@@ -4639,19 +4793,19 @@
         <v>21</v>
       </c>
       <c r="V5" s="9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="X5" s="9" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="Y5" s="9" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="Z5" s="12" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="AA5" s="6" t="s">
         <v>22</v>
@@ -4660,22 +4814,22 @@
         <v>21</v>
       </c>
       <c r="AC5" s="9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="AD5" s="9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="AE5" s="9">
         <v>0</v>
       </c>
       <c r="AF5" s="9" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="AG5" s="9" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="AH5" s="9" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="AI5" s="6" t="s">
         <v>22</v>
@@ -4684,19 +4838,19 @@
         <v>21</v>
       </c>
       <c r="AK5" s="9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="AL5" s="9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="AM5" s="9" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="AN5" s="9" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="AO5" s="12" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="AP5" s="6" t="s">
         <v>22</v>
@@ -4705,22 +4859,22 @@
         <v>21</v>
       </c>
       <c r="AR5" s="9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="AS5" s="9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="AT5" s="9">
         <v>0</v>
       </c>
       <c r="AU5" s="9" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="AV5" s="9" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="AW5" s="9" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="AX5" s="6" t="s">
         <v>22</v>
@@ -4729,19 +4883,19 @@
         <v>21</v>
       </c>
       <c r="AZ5" s="9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="BA5" s="9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="BB5" s="9" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="BC5" s="9" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="BD5" s="12" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="BE5" s="6" t="s">
         <v>22</v>
@@ -4750,31 +4904,31 @@
         <v>21</v>
       </c>
       <c r="BG5" s="9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="BH5" s="9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="BI5" s="9">
         <v>0</v>
       </c>
       <c r="BJ5" s="9" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="BK5" s="9" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="BL5" s="9" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="BM5" s="7" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="BN5" s="9">
         <v>200</v>
       </c>
       <c r="BO5" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -4844,13 +4998,13 @@
       <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="44" t="s">
         <v>14</v>
       </c>
       <c r="M1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="45" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4861,7 +5015,7 @@
       <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="18" t="s">
@@ -4884,13 +5038,13 @@
       <c r="K2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="34">
+      <c r="M2" s="47">
         <v>200</v>
       </c>
-      <c r="N2" s="35" t="s">
+      <c r="N2" s="48" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4901,7 +5055,7 @@
       <c r="B3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="18" t="s">
@@ -4927,10 +5081,10 @@
       <c r="L3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="34">
+      <c r="M3" s="47">
         <v>400</v>
       </c>
-      <c r="N3" s="35"/>
+      <c r="N3" s="48"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
       <c r="A4" s="6" t="s">
@@ -4939,7 +5093,7 @@
       <c r="B4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="18" t="s">
@@ -4965,10 +5119,10 @@
       <c r="L4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="34">
+      <c r="M4" s="47">
         <v>400</v>
       </c>
-      <c r="N4" s="35"/>
+      <c r="N4" s="48"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
       <c r="A5" s="6" t="s">
@@ -4977,7 +5131,7 @@
       <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="18" t="s">
@@ -5002,13 +5156,13 @@
       <c r="K5" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="L5" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="34">
+      <c r="M5" s="47">
         <v>200</v>
       </c>
-      <c r="N5" s="35" t="s">
+      <c r="N5" s="48" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5019,7 +5173,7 @@
       <c r="B6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="18" t="s">
@@ -5047,10 +5201,10 @@
       <c r="L6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="34">
+      <c r="M6" s="47">
         <v>400</v>
       </c>
-      <c r="N6" s="35"/>
+      <c r="N6" s="48"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
       <c r="A7" s="6" t="s">
@@ -5059,7 +5213,7 @@
       <c r="B7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="18" t="s">
@@ -5087,10 +5241,10 @@
       <c r="L7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="34">
+      <c r="M7" s="47">
         <v>400</v>
       </c>
-      <c r="N7" s="35"/>
+      <c r="N7" s="48"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
       <c r="A8" s="6" t="s">
@@ -5099,7 +5253,7 @@
       <c r="B8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="18" t="s">
@@ -5126,13 +5280,13 @@
       <c r="K8" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="33" t="s">
+      <c r="L8" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="34">
+      <c r="M8" s="47">
         <v>200</v>
       </c>
-      <c r="N8" s="35" t="s">
+      <c r="N8" s="48" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5143,7 +5297,7 @@
       <c r="B9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="18" t="s">
@@ -5173,10 +5327,10 @@
       <c r="L9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="34">
+      <c r="M9" s="47">
         <v>400</v>
       </c>
-      <c r="N9" s="35"/>
+      <c r="N9" s="48"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
       <c r="A10" s="6" t="s">
@@ -5185,7 +5339,7 @@
       <c r="B10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="18" t="s">
@@ -5215,10 +5369,10 @@
       <c r="L10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="34">
+      <c r="M10" s="47">
         <v>400</v>
       </c>
-      <c r="N10" s="35"/>
+      <c r="N10" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5229,10 +5383,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:AZ30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
@@ -5310,531 +5464,1047 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" s="19" customFormat="1" ht="47" customHeight="1" spans="1:17">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21" t="s">
+    <row r="2" s="19" customFormat="1" ht="21" customHeight="1" spans="1:52">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="26"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
       <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-    </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A3" s="6" t="s">
+      <c r="Q2" s="32"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="36"/>
+      <c r="AP2" s="36"/>
+      <c r="AQ2" s="36"/>
+      <c r="AR2" s="36"/>
+      <c r="AS2" s="36"/>
+      <c r="AT2" s="36"/>
+      <c r="AU2" s="36"/>
+      <c r="AV2" s="36"/>
+      <c r="AW2" s="36"/>
+      <c r="AX2" s="36"/>
+      <c r="AY2" s="36"/>
+      <c r="AZ2" s="36"/>
+    </row>
+    <row r="3" s="20" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+    </row>
+    <row r="4" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A4" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="B4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D4" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="38">
+        <v>35537</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P4" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" s="20" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A5" s="26"/>
+      <c r="B5" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+    </row>
+    <row r="6" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A6" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="C6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="27">
-        <v>35537</v>
-      </c>
-      <c r="J3" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="7" t="s">
+      <c r="F6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="P3" s="9">
+      <c r="I6" s="40">
+        <v>61351</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="9">
         <v>200</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q6" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" s="20" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+    </row>
+    <row r="8" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A8" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="40">
+        <v>35541</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" s="19" customFormat="1" ht="47" customHeight="1" spans="1:17">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21" t="s">
+      <c r="P8" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q8" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-    </row>
-    <row r="5" s="2" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A5" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="8" t="s">
+    </row>
+    <row r="9" s="20" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+    </row>
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D10" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="40">
+        <v>35540</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" s="20" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A11" s="26"/>
+      <c r="B11" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+    </row>
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A12" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="C12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="29">
-        <v>61351</v>
-      </c>
-      <c r="J5" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="7" t="s">
+      <c r="F12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="P5" s="9">
+      <c r="I12" s="40">
+        <v>61353</v>
+      </c>
+      <c r="J12" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="9">
         <v>200</v>
       </c>
-      <c r="Q5" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" s="19" customFormat="1" ht="47" customHeight="1" spans="1:17">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-    </row>
-    <row r="7" s="2" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A7" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="Q12" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" s="20" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+    </row>
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A14" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="D14" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="9" t="s">
+      <c r="E14" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I7" s="29">
-        <v>35541</v>
-      </c>
-      <c r="J7" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="7" t="s">
+      <c r="F14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="P7" s="9">
-        <v>200</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" s="19" customFormat="1" ht="47" customHeight="1" spans="1:17">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-    </row>
-    <row r="9" s="2" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A9" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I9" s="29">
-        <v>35540</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P9" s="9">
-        <v>200</v>
-      </c>
-      <c r="Q9" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" s="19" customFormat="1" ht="47" customHeight="1" spans="1:17">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-    </row>
-    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A11" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I11" s="29">
-        <v>61353</v>
-      </c>
-      <c r="J11" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P11" s="9">
-        <v>200</v>
-      </c>
-      <c r="Q11" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" s="19" customFormat="1" ht="47" customHeight="1" spans="1:17">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-    </row>
-    <row r="13" s="2" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A13" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I13" s="29">
+      <c r="I14" s="40">
         <v>61357</v>
       </c>
-      <c r="J13" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P13" s="9">
-        <v>200</v>
-      </c>
-      <c r="Q13" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="J14" s="39" t="s">
+        <v>91</v>
+      </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-    </row>
-    <row r="15" s="2" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A15" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="7" t="s">
+      <c r="O14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" s="19" customFormat="1" ht="21" customHeight="1" spans="1:52">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="36"/>
+      <c r="AD15" s="36"/>
+      <c r="AE15" s="36"/>
+      <c r="AF15" s="36"/>
+      <c r="AG15" s="36"/>
+      <c r="AH15" s="36"/>
+      <c r="AI15" s="36"/>
+      <c r="AJ15" s="36"/>
+      <c r="AK15" s="36"/>
+      <c r="AL15" s="36"/>
+      <c r="AM15" s="36"/>
+      <c r="AN15" s="36"/>
+      <c r="AO15" s="36"/>
+      <c r="AP15" s="36"/>
+      <c r="AQ15" s="36"/>
+      <c r="AR15" s="36"/>
+      <c r="AS15" s="36"/>
+      <c r="AT15" s="36"/>
+      <c r="AU15" s="36"/>
+      <c r="AV15" s="36"/>
+      <c r="AW15" s="36"/>
+      <c r="AX15" s="36"/>
+      <c r="AY15" s="36"/>
+      <c r="AZ15" s="36"/>
+    </row>
+    <row r="16" s="20" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A16" s="26"/>
+      <c r="B16" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+    </row>
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D17" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="41">
+        <v>61361</v>
+      </c>
+      <c r="J17" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P17" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" s="20" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A18" s="26"/>
+      <c r="B18" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+    </row>
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A19" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="9" t="s">
+      <c r="E19" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I15" s="9">
+      <c r="F19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19" s="41">
+        <v>61362</v>
+      </c>
+      <c r="J19" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P19" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" s="20" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A20" s="26"/>
+      <c r="B20" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+    </row>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A21" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="41">
+        <v>61363</v>
+      </c>
+      <c r="J21" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P21" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" s="20" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A22" s="26"/>
+      <c r="B22" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+    </row>
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A23" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" s="41">
+        <v>61364</v>
+      </c>
+      <c r="J23" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P23" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" s="20" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A24" s="26"/>
+      <c r="B24" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+    </row>
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A25" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25" s="41">
+        <v>61365</v>
+      </c>
+      <c r="J25" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P25" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" s="20" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A26" s="26"/>
+      <c r="B26" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+    </row>
+    <row r="27" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A27" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I27" s="41">
+        <v>61366</v>
+      </c>
+      <c r="J27" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P27" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+    </row>
+    <row r="29" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A29" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I29" s="9">
         <v>35537</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J29" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K29" s="9">
         <v>35538</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="L29" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="7" t="s">
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P29" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q29" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A30" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="P15" s="9">
+      <c r="I30" s="9">
+        <v>35537</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" s="9">
+        <v>35538</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M30" s="9">
+        <v>35539</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P30" s="9">
         <v>200</v>
       </c>
-      <c r="Q15" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A16" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I16" s="9">
-        <v>35537</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="9">
-        <v>35538</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M16" s="9">
-        <v>35539</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P16" s="9">
-        <v>200</v>
-      </c>
-      <c r="Q16" s="9" t="s">
-        <v>75</v>
+      <c r="Q30" s="9" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="14">
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5925,19 +6595,19 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A2" s="6" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>22</v>
@@ -5946,7 +6616,7 @@
         <v>21</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>23</v>
@@ -5959,30 +6629,30 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P2" s="9">
         <v>200</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:17">
       <c r="A3" s="6" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>22</v>
@@ -5991,7 +6661,7 @@
         <v>21</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>23</v>
@@ -6008,30 +6678,30 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P3" s="9">
         <v>200</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:17">
       <c r="A4" s="6" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>22</v>
@@ -6040,7 +6710,7 @@
         <v>21</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>23</v>
@@ -6061,13 +6731,13 @@
         <v>35539</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P4" s="9">
         <v>200</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -6160,19 +6830,19 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A2" s="6" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>22</v>
@@ -6181,7 +6851,7 @@
         <v>21</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>23</v>
@@ -6194,30 +6864,30 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P2" s="9">
         <v>200</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A3" s="6" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>22</v>
@@ -6226,7 +6896,7 @@
         <v>21</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>23</v>
@@ -6243,30 +6913,30 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P3" s="9">
         <v>200</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A4" s="6" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>22</v>
@@ -6275,7 +6945,7 @@
         <v>21</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>23</v>
@@ -6296,13 +6966,13 @@
         <v>35539</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P4" s="9">
         <v>200</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -6395,19 +7065,19 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A2" s="6" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>22</v>
@@ -6416,7 +7086,7 @@
         <v>21</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>23</v>
@@ -6429,30 +7099,30 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P2" s="9">
         <v>200</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A3" s="6" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>22</v>
@@ -6461,7 +7131,7 @@
         <v>21</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>23</v>
@@ -6478,30 +7148,30 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P3" s="9">
         <v>200</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A4" s="6" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>22</v>
@@ -6510,7 +7180,7 @@
         <v>21</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>23</v>
@@ -6531,13 +7201,13 @@
         <v>35539</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P4" s="9">
         <v>200</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -6549,10 +7219,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:AZ27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
@@ -6588,29 +7258,29 @@
       <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="K1" s="5" t="s">
+      <c r="H1" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>107</v>
+      <c r="L1" s="21" t="s">
+        <v>115</v>
       </c>
       <c r="M1" s="15" t="s">
         <v>14</v>
@@ -6622,410 +7292,926 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" s="19" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21" t="s">
+    <row r="2" s="19" customFormat="1" ht="21" customHeight="1" spans="1:52">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
       <c r="N2" s="25"/>
       <c r="O2" s="25"/>
-    </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A3" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="P2" s="25"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="36"/>
+      <c r="AP2" s="36"/>
+      <c r="AQ2" s="36"/>
+      <c r="AR2" s="36"/>
+      <c r="AS2" s="36"/>
+      <c r="AT2" s="36"/>
+      <c r="AU2" s="36"/>
+      <c r="AV2" s="36"/>
+      <c r="AW2" s="36"/>
+      <c r="AX2" s="36"/>
+      <c r="AY2" s="36"/>
+      <c r="AZ2" s="36"/>
+    </row>
+    <row r="3" s="20" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+    </row>
+    <row r="4" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A4" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="D4" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="J3" s="9">
+      <c r="L4" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="N4" s="9">
+        <v>200</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" s="20" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A5" s="26"/>
+      <c r="B5" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+    </row>
+    <row r="6" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A6" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="J6" s="9">
         <v>0</v>
       </c>
-      <c r="K3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="N3" s="9">
+      <c r="K6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="N6" s="9">
         <v>200</v>
       </c>
-      <c r="O3" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" s="19" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21" t="s">
+      <c r="O6" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-    </row>
-    <row r="5" s="2" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A5" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="8" t="s">
+    </row>
+    <row r="7" s="20" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+    </row>
+    <row r="8" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A8" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="9" t="s">
+      <c r="D8" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I5" s="9" t="s">
+      <c r="L8" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="N8" s="9">
+        <v>200</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" s="20" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+    </row>
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A10" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="9">
+      <c r="C10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="J10" s="9">
         <v>0</v>
       </c>
-      <c r="K5" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="L5" s="9" t="s">
+      <c r="K10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="N10" s="9">
+        <v>200</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" s="20" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A11" s="26"/>
+      <c r="B11" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+    </row>
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A12" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="M5" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="N5" s="9">
+      <c r="E12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="N12" s="9">
         <v>200</v>
       </c>
-      <c r="O5" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" s="19" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-    </row>
-    <row r="7" s="2" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A7" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="O12" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" s="20" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+    </row>
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A14" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="9" t="s">
+      <c r="D14" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="J7" s="9">
+      <c r="L14" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="N14" s="9">
+        <v>200</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" s="19" customFormat="1" ht="21" customHeight="1" spans="1:52">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="36"/>
+      <c r="AD15" s="36"/>
+      <c r="AE15" s="36"/>
+      <c r="AF15" s="36"/>
+      <c r="AG15" s="36"/>
+      <c r="AH15" s="36"/>
+      <c r="AI15" s="36"/>
+      <c r="AJ15" s="36"/>
+      <c r="AK15" s="36"/>
+      <c r="AL15" s="36"/>
+      <c r="AM15" s="36"/>
+      <c r="AN15" s="36"/>
+      <c r="AO15" s="36"/>
+      <c r="AP15" s="36"/>
+      <c r="AQ15" s="36"/>
+      <c r="AR15" s="36"/>
+      <c r="AS15" s="36"/>
+      <c r="AT15" s="36"/>
+      <c r="AU15" s="36"/>
+      <c r="AV15" s="36"/>
+      <c r="AW15" s="36"/>
+      <c r="AX15" s="36"/>
+      <c r="AY15" s="36"/>
+      <c r="AZ15" s="36"/>
+    </row>
+    <row r="16" s="20" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A16" s="26"/>
+      <c r="B16" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+    </row>
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A17" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17" s="9">
         <v>0</v>
       </c>
-      <c r="K7" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="L7" s="9" t="s">
+      <c r="K17" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="M17" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="M7" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="N7" s="9">
+      <c r="N17" s="9">
         <v>200</v>
       </c>
-      <c r="O7" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" s="19" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-    </row>
-    <row r="9" s="2" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A9" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="O17" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" s="20" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A18" s="26"/>
+      <c r="B18" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+    </row>
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A19" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="9" t="s">
+      <c r="D19" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="J9" s="9">
+      <c r="L19" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="M19" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="N19" s="9">
+        <v>200</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" s="20" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A20" s="26"/>
+      <c r="B20" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+    </row>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A21" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="J21" s="9">
         <v>0</v>
       </c>
-      <c r="K9" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="M9" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="N9" s="9">
+      <c r="K21" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="M21" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="N21" s="9">
         <v>200</v>
       </c>
-      <c r="O9" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" s="19" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-    </row>
-    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A11" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="O21" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" s="20" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A22" s="26"/>
+      <c r="B22" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+    </row>
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A23" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="9" t="s">
+      <c r="D23" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="J23" s="9">
+        <v>0</v>
+      </c>
+      <c r="K23" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="J11" s="9">
+      <c r="L23" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="M23" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="N23" s="9">
+        <v>200</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" s="20" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A24" s="26"/>
+      <c r="B24" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+    </row>
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A25" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="J25" s="9">
         <v>0</v>
       </c>
-      <c r="K11" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="M11" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="N11" s="9">
+      <c r="K25" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="M25" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="N25" s="9">
         <v>200</v>
       </c>
-      <c r="O11" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" s="19" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-    </row>
-    <row r="13" s="2" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A13" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="O25" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" s="20" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A26" s="26"/>
+      <c r="B26" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+    </row>
+    <row r="27" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A27" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="9" t="s">
+      <c r="D27" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="J27" s="9">
+        <v>0</v>
+      </c>
+      <c r="K27" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="J13" s="9">
-        <v>0</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="M13" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="N13" s="9">
+      <c r="L27" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="M27" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="N27" s="9">
         <v>200</v>
       </c>
-      <c r="O13" s="9" t="s">
-        <v>75</v>
+      <c r="O27" s="9" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="14">
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -7085,19 +8271,19 @@
         <v>60</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>59</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M1" s="15" t="s">
         <v>14</v>
@@ -7111,16 +8297,16 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A2" s="6" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>22</v>
@@ -7129,31 +8315,31 @@
         <v>21</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="J2" s="9">
         <v>0</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="N2" s="9">
         <v>200</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -7215,19 +8401,19 @@
         <v>60</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>59</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M1" s="15" t="s">
         <v>14</v>
@@ -7241,16 +8427,16 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A2" s="6" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>22</v>
@@ -7259,31 +8445,31 @@
         <v>21</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="J2" s="9">
         <v>0</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="N2" s="9">
         <v>200</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/input_excel_file/booking/voucher.xlsx
+++ b/src/main/resources/input_excel_file/booking/voucher.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="2" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Booking_Voucher_Check" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Voucher_Remove_Player2" sheetId="15" r:id="rId8"/>
     <sheet name="Voucher_Remove_Player3" sheetId="16" r:id="rId9"/>
     <sheet name="Voucher_Remove_Player4" sheetId="17" r:id="rId10"/>
-    <sheet name="Voucher_Apply_Bulk_Add" sheetId="11" r:id="rId11"/>
+    <sheet name="Voucher_Apply_Bulk" sheetId="11" r:id="rId11"/>
     <sheet name="Voucher_Apply_Bulk_Remove" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -272,7 +272,51 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="U1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>tranp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Không dùng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>tranp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Không dùng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -285,7 +329,51 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0">
+    <comment ref="AW1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>tranp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Không dùng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BE1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>tranp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Không dùng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BM1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -298,7 +386,51 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0">
+    <comment ref="BY1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>tranp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Không dùng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CG1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>tranp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Không dùng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CO1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -308,6 +440,50 @@
             <charset val="0"/>
           </rPr>
           <t>tranp:BE không dùng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DA1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>tranp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Không dùng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DI1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>tranp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Không dùng</t>
         </r>
       </text>
     </comment>
@@ -426,7 +602,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="340">
   <si>
     <t>tc_id</t>
   </si>
@@ -707,21 +883,39 @@
     <t>Đại lý</t>
   </si>
   <si>
+    <t>AGENT_ADD_VC_GREEN_001</t>
+  </si>
+  <si>
     <t>GREEN21</t>
   </si>
   <si>
+    <t>AGENT_ADD_VC_4FEE_001</t>
+  </si>
+  <si>
     <t>4FEE11</t>
   </si>
   <si>
+    <t>AGENT_ADD_VC_GREEN_10_001</t>
+  </si>
+  <si>
     <t>GREEN31</t>
   </si>
   <si>
+    <t>AGENT_ADD_VC_ALL_10_001</t>
+  </si>
+  <si>
     <t>ALL11</t>
   </si>
   <si>
+    <t>AGENT_ADD_VC_CD4FEE_001</t>
+  </si>
+  <si>
     <t>CD4FEE11</t>
   </si>
   <si>
+    <t>AGENT_ADD_VC_TT4FEE_001</t>
+  </si>
+  <si>
     <t>TT4FEE21</t>
   </si>
   <si>
@@ -971,6 +1165,9 @@
     <t>data[0].voucher_apply_old</t>
   </si>
   <si>
+    <t>data[0].voucher_apply</t>
+  </si>
+  <si>
     <t>data[0].voucher_apply[0].voucher_code</t>
   </si>
   <si>
@@ -989,6 +1186,54 @@
     <t>data[0].vouchers_to_remove</t>
   </si>
   <si>
+    <t>data[0].vouchers_to_remove[0].course_uid</t>
+  </si>
+  <si>
+    <t>data[0].vouchers_to_remove[0].partner_uid</t>
+  </si>
+  <si>
+    <t>data[0].vouchers_to_remove[0].booking_uid</t>
+  </si>
+  <si>
+    <t>data[0].vouchers_to_remove[0].round_id</t>
+  </si>
+  <si>
+    <t>data[0].vouchers_to_remove[0].voucher_index</t>
+  </si>
+  <si>
+    <t>data[0].vouchers_to_remove[0].voucher_apply_uid</t>
+  </si>
+  <si>
+    <t>data[0].vouchers_to_remove[0].id</t>
+  </si>
+  <si>
+    <t>data[0].vouchers_to_remove[0].voucher_code</t>
+  </si>
+  <si>
+    <t>data[0].vouchers_to_remove[1].course_uid</t>
+  </si>
+  <si>
+    <t>data[0].vouchers_to_remove[1].partner_uid</t>
+  </si>
+  <si>
+    <t>data[0].vouchers_to_remove[1].booking_uid</t>
+  </si>
+  <si>
+    <t>data[0].vouchers_to_remove[1].round_id</t>
+  </si>
+  <si>
+    <t>data[0].vouchers_to_remove[1].voucher_index</t>
+  </si>
+  <si>
+    <t>data[0].vouchers_to_remove[1].voucher_apply_uid</t>
+  </si>
+  <si>
+    <t>data[0].vouchers_to_remove[1].id</t>
+  </si>
+  <si>
+    <t>data[0].vouchers_to_remove[1].voucher_code</t>
+  </si>
+  <si>
     <t>data[1].course_uid</t>
   </si>
   <si>
@@ -1004,18 +1249,75 @@
     <t>data[1].voucher_apply_old</t>
   </si>
   <si>
+    <t>data[1].voucher_apply</t>
+  </si>
+  <si>
     <t>data[1].voucher_apply[0].voucher_code</t>
   </si>
   <si>
     <t>data[1].voucher_apply[0].id</t>
   </si>
   <si>
+    <t>data[1].voucher_apply[1].voucher_code</t>
+  </si>
+  <si>
+    <t>data[1].voucher_apply[1].id</t>
+  </si>
+  <si>
     <t>data[1].is_change_voucher</t>
   </si>
   <si>
     <t>data[1].vouchers_to_remove</t>
   </si>
   <si>
+    <t>data[1].vouchers_to_remove[0].course_uid</t>
+  </si>
+  <si>
+    <t>data[1].vouchers_to_remove[0].partner_uid</t>
+  </si>
+  <si>
+    <t>data[1].vouchers_to_remove[0].booking_uid</t>
+  </si>
+  <si>
+    <t>data[1].vouchers_to_remove[0].round_id</t>
+  </si>
+  <si>
+    <t>data[1].vouchers_to_remove[0].voucher_index</t>
+  </si>
+  <si>
+    <t>data[1].vouchers_to_remove[0].voucher_apply_uid</t>
+  </si>
+  <si>
+    <t>data[1].vouchers_to_remove[0].id</t>
+  </si>
+  <si>
+    <t>data[1].vouchers_to_remove[0].voucher_code</t>
+  </si>
+  <si>
+    <t>data[1].vouchers_to_remove[1].course_uid</t>
+  </si>
+  <si>
+    <t>data[1].vouchers_to_remove[1].partner_uid</t>
+  </si>
+  <si>
+    <t>data[1].vouchers_to_remove[1].booking_uid</t>
+  </si>
+  <si>
+    <t>data[1].vouchers_to_remove[1].round_id</t>
+  </si>
+  <si>
+    <t>data[1].vouchers_to_remove[1].voucher_index</t>
+  </si>
+  <si>
+    <t>data[1].vouchers_to_remove[1].voucher_apply_uid</t>
+  </si>
+  <si>
+    <t>data[1].vouchers_to_remove[1].id</t>
+  </si>
+  <si>
+    <t>data[1].vouchers_to_remove[1].voucher_code</t>
+  </si>
+  <si>
     <t>data[2].course_uid</t>
   </si>
   <si>
@@ -1031,10 +1333,19 @@
     <t>data[2].voucher_apply_old</t>
   </si>
   <si>
-    <t>data[2].voucher_apply[2].voucher_code</t>
-  </si>
-  <si>
-    <t>data[2].voucher_apply[2].id</t>
+    <t>data[2].voucher_apply</t>
+  </si>
+  <si>
+    <t>data[2].voucher_apply[0].voucher_code</t>
+  </si>
+  <si>
+    <t>data[2].voucher_apply[0].id</t>
+  </si>
+  <si>
+    <t>data[2].voucher_apply[1].voucher_code</t>
+  </si>
+  <si>
+    <t>data[2].voucher_apply[1].id</t>
   </si>
   <si>
     <t>data[2].is_change_voucher</t>
@@ -1043,6 +1354,54 @@
     <t>data[2].vouchers_to_remove</t>
   </si>
   <si>
+    <t>data[2].vouchers_to_remove[0].course_uid</t>
+  </si>
+  <si>
+    <t>data[2].vouchers_to_remove[0].partner_uid</t>
+  </si>
+  <si>
+    <t>data[2].vouchers_to_remove[0].booking_uid</t>
+  </si>
+  <si>
+    <t>data[2].vouchers_to_remove[0].round_id</t>
+  </si>
+  <si>
+    <t>data[2].vouchers_to_remove[0].voucher_index</t>
+  </si>
+  <si>
+    <t>data[2].vouchers_to_remove[0].voucher_apply_uid</t>
+  </si>
+  <si>
+    <t>data[2].vouchers_to_remove[0].id</t>
+  </si>
+  <si>
+    <t>data[2].vouchers_to_remove[0].voucher_code</t>
+  </si>
+  <si>
+    <t>data[2].vouchers_to_remove[1].course_uid</t>
+  </si>
+  <si>
+    <t>data[2].vouchers_to_remove[1].partner_uid</t>
+  </si>
+  <si>
+    <t>data[2].vouchers_to_remove[1].booking_uid</t>
+  </si>
+  <si>
+    <t>data[2].vouchers_to_remove[1].round_id</t>
+  </si>
+  <si>
+    <t>data[2].vouchers_to_remove[1].voucher_index</t>
+  </si>
+  <si>
+    <t>data[2].vouchers_to_remove[1].voucher_apply_uid</t>
+  </si>
+  <si>
+    <t>data[2].vouchers_to_remove[1].id</t>
+  </si>
+  <si>
+    <t>data[2].vouchers_to_remove[1].voucher_code</t>
+  </si>
+  <si>
     <t>data[3].course_uid</t>
   </si>
   <si>
@@ -1058,10 +1417,19 @@
     <t>data[3].voucher_apply_old</t>
   </si>
   <si>
-    <t>data[3].voucher_apply[3].voucher_code</t>
-  </si>
-  <si>
-    <t>data[3].voucher_apply[3].id</t>
+    <t>data[3].voucher_apply</t>
+  </si>
+  <si>
+    <t>data[3].voucher_apply[0].voucher_code</t>
+  </si>
+  <si>
+    <t>data[3].voucher_apply[0].id</t>
+  </si>
+  <si>
+    <t>data[3].voucher_apply[1].voucher_code</t>
+  </si>
+  <si>
+    <t>data[3].voucher_apply[1].id</t>
   </si>
   <si>
     <t>data[3].is_change_voucher</t>
@@ -1070,27 +1438,123 @@
     <t>data[3].vouchers_to_remove</t>
   </si>
   <si>
+    <t>data[3].vouchers_to_remove[0].course_uid</t>
+  </si>
+  <si>
+    <t>data[3].vouchers_to_remove[0].partner_uid</t>
+  </si>
+  <si>
+    <t>data[3].vouchers_to_remove[0].booking_uid</t>
+  </si>
+  <si>
+    <t>data[3].vouchers_to_remove[0].round_id</t>
+  </si>
+  <si>
+    <t>data[3].vouchers_to_remove[0].voucher_index</t>
+  </si>
+  <si>
+    <t>data[3].vouchers_to_remove[0].voucher_apply_uid</t>
+  </si>
+  <si>
+    <t>data[3].vouchers_to_remove[0].id</t>
+  </si>
+  <si>
+    <t>data[3].vouchers_to_remove[0].voucher_code</t>
+  </si>
+  <si>
+    <t>data[3].vouchers_to_remove[1].course_uid</t>
+  </si>
+  <si>
+    <t>data[3].vouchers_to_remove[1].partner_uid</t>
+  </si>
+  <si>
+    <t>data[3].vouchers_to_remove[1].booking_uid</t>
+  </si>
+  <si>
+    <t>data[3].vouchers_to_remove[1].round_id</t>
+  </si>
+  <si>
+    <t>data[3].vouchers_to_remove[1].voucher_index</t>
+  </si>
+  <si>
+    <t>data[3].vouchers_to_remove[1].voucher_apply_uid</t>
+  </si>
+  <si>
+    <t>data[3].vouchers_to_remove[1].id</t>
+  </si>
+  <si>
+    <t>data[3].vouchers_to_remove[1].voucher_code</t>
+  </si>
+  <si>
+    <t>Đại lý: Add voucher</t>
+  </si>
+  <si>
+    <t>APPLY_BULK_VC_GREEN_1_PLAYER_001</t>
+  </si>
+  <si>
+    <t>Apply voucher giảm giá thông thường: Giảm 200k green</t>
+  </si>
+  <si>
+    <t>voucher_apply_bulk_add_1_voucher_1_Player.json</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>voucher_apply_bulk_expect.json</t>
+  </si>
+  <si>
+    <t>APPLY_BULK_VC_4FEE_1_PLAYER_001</t>
+  </si>
+  <si>
+    <t>Apply voucher giảm giá thông thường: Giảm 2tr1 cho green + caddie + 1/2 xe + packge</t>
+  </si>
+  <si>
+    <t>APPLY_BULK_VC_GREEN_10_1_PLAYER_001</t>
+  </si>
+  <si>
+    <t>APPLY_BULK_VC_ALL_10_1_PLAYER_001</t>
+  </si>
+  <si>
+    <t>APPLY_BULK_VC_CD4FEE_1_PLAYER_001</t>
+  </si>
+  <si>
+    <t>APPLY_BULK_VC_TT4FEE_1_PLAYER_001</t>
+  </si>
+  <si>
+    <t>Đại lý: Remove voucher</t>
+  </si>
+  <si>
+    <t>REMOVE_BULK_VC_GREEN_1_PLAYER_001</t>
+  </si>
+  <si>
+    <t>voucher_apply_bulk_remove_1_voucher_1_Player.json</t>
+  </si>
+  <si>
+    <t>REMOVE_BULK_VC_4FEE_1_PLAYER_001</t>
+  </si>
+  <si>
+    <t>REMOVE_BULK_VC_GREEN_10_1_PLAYER_001</t>
+  </si>
+  <si>
+    <t>REMOVE_BULK_VC_ALL_10_1_PLAYER_001</t>
+  </si>
+  <si>
+    <t>REMOVE_BULK_VC_CD4FEE_1_PLAYER_001</t>
+  </si>
+  <si>
+    <t>REMOVE_BULK_VC_TT4FEE_1_PLAYER_001</t>
+  </si>
+  <si>
     <t>APPLY_BULK_001</t>
   </si>
   <si>
     <t>Add 1 voucher cho 1 player</t>
   </si>
   <si>
-    <t>voucher_apply_bulk_add_1_voucher_1_Player.json</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>GREEN1</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>voucher_apply_bulk_expect.json</t>
-  </si>
-  <si>
     <t>APPLY_BULK_002</t>
   </si>
   <si>
@@ -1100,9 +1564,6 @@
     <t>voucher_apply_bulk_add_1_voucher_2_Player.json</t>
   </si>
   <si>
-    <t>VCTT0001</t>
-  </si>
-  <si>
     <t>APPLY_BULK_003</t>
   </si>
   <si>
@@ -1130,121 +1591,10 @@
     <t>voucher_apply_bulk_add_2_voucher_1_Player.json</t>
   </si>
   <si>
-    <t>data[0].voucher_apply</t>
-  </si>
-  <si>
-    <t>data[0].vouchers_to_remove[0].course_uid</t>
-  </si>
-  <si>
-    <t>data[0].vouchers_to_remove[0].partner_uid</t>
-  </si>
-  <si>
-    <t>data[0].vouchers_to_remove[0].booking_uid</t>
-  </si>
-  <si>
-    <t>data[0].vouchers_to_remove[0].round_id</t>
-  </si>
-  <si>
-    <t>data[0].vouchers_to_remove[0].voucher_index</t>
-  </si>
-  <si>
-    <t>data[0].vouchers_to_remove[0].voucher_apply_uid</t>
-  </si>
-  <si>
-    <t>data[0].vouchers_to_remove[0].id</t>
-  </si>
-  <si>
-    <t>data[0].vouchers_to_remove[0].voucher_code</t>
-  </si>
-  <si>
-    <t>data[1].voucher_apply</t>
-  </si>
-  <si>
-    <t>data[1].vouchers_to_remove[0].course_uid</t>
-  </si>
-  <si>
-    <t>data[1].vouchers_to_remove[0].partner_uid</t>
-  </si>
-  <si>
-    <t>data[1].vouchers_to_remove[0].booking_uid</t>
-  </si>
-  <si>
-    <t>data[1].vouchers_to_remove[0].round_id</t>
-  </si>
-  <si>
-    <t>data[1].vouchers_to_remove[0].voucher_index</t>
-  </si>
-  <si>
-    <t>data[1].vouchers_to_remove[0].voucher_apply_uid</t>
-  </si>
-  <si>
-    <t>data[1].vouchers_to_remove[0].id</t>
-  </si>
-  <si>
-    <t>data[1].vouchers_to_remove[0].voucher_code</t>
-  </si>
-  <si>
-    <t>data[2].voucher_apply</t>
-  </si>
-  <si>
-    <t>data[2].vouchers_to_remove[0].course_uid</t>
-  </si>
-  <si>
-    <t>data[2].vouchers_to_remove[0].partner_uid</t>
-  </si>
-  <si>
-    <t>data[2].vouchers_to_remove[0].booking_uid</t>
-  </si>
-  <si>
-    <t>data[2].vouchers_to_remove[0].round_id</t>
-  </si>
-  <si>
-    <t>data[2].vouchers_to_remove[0].voucher_index</t>
-  </si>
-  <si>
-    <t>data[2].vouchers_to_remove[0].voucher_apply_uid</t>
-  </si>
-  <si>
-    <t>data[2].vouchers_to_remove[0].id</t>
-  </si>
-  <si>
-    <t>data[2].vouchers_to_remove[0].voucher_code</t>
-  </si>
-  <si>
-    <t>data[3].voucher_apply</t>
-  </si>
-  <si>
-    <t>data[3].vouchers_to_remove[0].course_uid</t>
-  </si>
-  <si>
-    <t>data[3].vouchers_to_remove[0].partner_uid</t>
-  </si>
-  <si>
-    <t>data[3].vouchers_to_remove[0].booking_uid</t>
-  </si>
-  <si>
-    <t>data[3].vouchers_to_remove[0].round_id</t>
-  </si>
-  <si>
-    <t>data[3].vouchers_to_remove[0].voucher_index</t>
-  </si>
-  <si>
-    <t>data[3].vouchers_to_remove[0].voucher_apply_uid</t>
-  </si>
-  <si>
-    <t>data[3].vouchers_to_remove[0].id</t>
-  </si>
-  <si>
-    <t>data[3].vouchers_to_remove[0].voucher_code</t>
-  </si>
-  <si>
     <t>APPLY_BULK_REMOVE_001</t>
   </si>
   <si>
     <t>Xóa 1 voucher cho 1 player</t>
-  </si>
-  <si>
-    <t>voucher_apply_bulk_remove_1_voucher_1_Player.json</t>
   </si>
   <si>
     <t>APPLY_BULK_REMOVE_002</t>
@@ -1284,7 +1634,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1312,6 +1662,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1475,7 +1833,7 @@
       <charset val="0"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1515,12 +1873,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1896,16 +2248,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1914,119 +2263,122 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2078,31 +2430,76 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2123,16 +2520,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2141,20 +2535,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
@@ -2745,7 +3133,7 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="13" t="s">
@@ -2778,13 +3166,13 @@
       <c r="N1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="O1" s="56" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="45" t="s">
+      <c r="Q1" s="57" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2795,10 +3183,10 @@
       <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="23" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -2821,19 +3209,19 @@
       <c r="L2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="49" t="s">
+      <c r="M2" s="61" t="s">
         <v>26</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="46" t="s">
+      <c r="O2" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="47">
+      <c r="P2" s="59">
         <v>200</v>
       </c>
-      <c r="Q2" s="48" t="s">
+      <c r="Q2" s="60" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2844,10 +3232,10 @@
       <c r="B3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="23" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -2870,7 +3258,7 @@
       <c r="L3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="49" t="s">
+      <c r="M3" s="61" t="s">
         <v>26</v>
       </c>
       <c r="N3" s="12" t="s">
@@ -2879,10 +3267,10 @@
       <c r="O3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="47">
+      <c r="P3" s="59">
         <v>400</v>
       </c>
-      <c r="Q3" s="48"/>
+      <c r="Q3" s="60"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
       <c r="A4" s="6" t="s">
@@ -2891,10 +3279,10 @@
       <c r="B4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="23" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -2917,7 +3305,7 @@
       <c r="L4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="49" t="s">
+      <c r="M4" s="61" t="s">
         <v>26</v>
       </c>
       <c r="N4" s="12" t="s">
@@ -2926,10 +3314,10 @@
       <c r="O4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="47">
+      <c r="P4" s="59">
         <v>400</v>
       </c>
-      <c r="Q4" s="48"/>
+      <c r="Q4" s="60"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
       <c r="A5" s="6" t="s">
@@ -2938,10 +3326,10 @@
       <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -2966,19 +3354,19 @@
       <c r="L5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="49" t="s">
+      <c r="M5" s="61" t="s">
         <v>26</v>
       </c>
       <c r="N5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="46" t="s">
+      <c r="O5" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="47">
+      <c r="P5" s="59">
         <v>200</v>
       </c>
-      <c r="Q5" s="48" t="s">
+      <c r="Q5" s="60" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2989,10 +3377,10 @@
       <c r="B6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -3017,7 +3405,7 @@
       <c r="L6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="49" t="s">
+      <c r="M6" s="61" t="s">
         <v>26</v>
       </c>
       <c r="N6" s="12" t="s">
@@ -3026,10 +3414,10 @@
       <c r="O6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="47">
+      <c r="P6" s="59">
         <v>400</v>
       </c>
-      <c r="Q6" s="48"/>
+      <c r="Q6" s="60"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
       <c r="A7" s="6" t="s">
@@ -3038,10 +3426,10 @@
       <c r="B7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -3066,7 +3454,7 @@
       <c r="L7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="49" t="s">
+      <c r="M7" s="61" t="s">
         <v>26</v>
       </c>
       <c r="N7" s="12" t="s">
@@ -3075,10 +3463,10 @@
       <c r="O7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P7" s="47">
+      <c r="P7" s="59">
         <v>400</v>
       </c>
-      <c r="Q7" s="48"/>
+      <c r="Q7" s="60"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
       <c r="A8" s="6" t="s">
@@ -3087,10 +3475,10 @@
       <c r="B8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="23" t="s">
         <v>47</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -3117,19 +3505,19 @@
       <c r="L8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="49" t="s">
+      <c r="M8" s="61" t="s">
         <v>26</v>
       </c>
       <c r="N8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="46" t="s">
+      <c r="O8" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="47">
+      <c r="P8" s="59">
         <v>200</v>
       </c>
-      <c r="Q8" s="48" t="s">
+      <c r="Q8" s="60" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3140,10 +3528,10 @@
       <c r="B9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="23" t="s">
         <v>47</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -3170,7 +3558,7 @@
       <c r="L9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="49" t="s">
+      <c r="M9" s="61" t="s">
         <v>26</v>
       </c>
       <c r="N9" s="12" t="s">
@@ -3179,10 +3567,10 @@
       <c r="O9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P9" s="47">
+      <c r="P9" s="59">
         <v>400</v>
       </c>
-      <c r="Q9" s="48"/>
+      <c r="Q9" s="60"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
       <c r="A10" s="6" t="s">
@@ -3191,10 +3579,10 @@
       <c r="B10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="23" t="s">
         <v>47</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -3221,7 +3609,7 @@
       <c r="L10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="49" t="s">
+      <c r="M10" s="61" t="s">
         <v>26</v>
       </c>
       <c r="N10" s="12" t="s">
@@ -3230,10 +3618,10 @@
       <c r="O10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="47">
+      <c r="P10" s="59">
         <v>400</v>
       </c>
-      <c r="Q10" s="48"/>
+      <c r="Q10" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3280,7 +3668,7 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -3293,19 +3681,19 @@
         <v>60</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>59</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="M1" s="15" t="s">
         <v>14</v>
@@ -3319,16 +3707,16 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A2" s="6" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>118</v>
+      <c r="D2" s="23" t="s">
+        <v>124</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>22</v>
@@ -3337,25 +3725,25 @@
         <v>21</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="J2" s="9">
         <v>0</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>122</v>
+        <v>177</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="N2" s="9">
         <v>200</v>
@@ -3374,15 +3762,17 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AS6"/>
+  <dimension ref="A1:DO21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.6571428571429" style="2" customWidth="1"/>
+    <col min="1" max="1" width="43.1904761904762" style="2" customWidth="1"/>
     <col min="2" max="2" width="36.9714285714286" style="2" customWidth="1"/>
     <col min="3" max="3" width="20" style="2" customWidth="1"/>
     <col min="4" max="4" width="30" style="2" customWidth="1"/>
@@ -3391,22 +3781,29 @@
     <col min="7" max="7" width="23.4285714285714" style="2" customWidth="1"/>
     <col min="8" max="8" width="20.4285714285714" style="2" customWidth="1"/>
     <col min="9" max="9" width="28.4285714285714" style="2" customWidth="1"/>
-    <col min="10" max="11" width="36.4285714285714" style="2" customWidth="1"/>
-    <col min="12" max="14" width="35.5714285714286" style="3" customWidth="1"/>
-    <col min="15" max="15" width="32.2857142857143" style="2" customWidth="1"/>
-    <col min="16" max="22" width="21.7142857142857" style="2" customWidth="1"/>
-    <col min="23" max="23" width="21.7142857142857" style="3" customWidth="1"/>
-    <col min="24" max="31" width="21.7142857142857" style="2" customWidth="1"/>
-    <col min="32" max="32" width="21.7142857142857" style="3" customWidth="1"/>
-    <col min="33" max="40" width="21.7142857142857" style="2" customWidth="1"/>
-    <col min="41" max="41" width="21.7142857142857" style="3" customWidth="1"/>
-    <col min="42" max="43" width="21.7142857142857" style="2" customWidth="1"/>
-    <col min="44" max="44" width="14.2857142857143" style="2" customWidth="1"/>
-    <col min="45" max="45" width="14.5714285714286" style="2" customWidth="1"/>
-    <col min="46" max="16384" width="9.14285714285714" style="2"/>
+    <col min="10" max="10" width="33.6095238095238" style="2" customWidth="1"/>
+    <col min="11" max="12" width="36.4285714285714" style="2" customWidth="1"/>
+    <col min="13" max="15" width="35.5714285714286" style="3" customWidth="1"/>
+    <col min="16" max="16" width="32.2857142857143" style="2" customWidth="1"/>
+    <col min="17" max="21" width="21.7142857142857" style="2" customWidth="1"/>
+    <col min="22" max="22" width="41.6761904761905" style="2" customWidth="1"/>
+    <col min="23" max="23" width="36.9714285714286" style="2" customWidth="1"/>
+    <col min="24" max="24" width="32.7714285714286" style="2" customWidth="1"/>
+    <col min="25" max="39" width="21.7142857142857" style="2" customWidth="1"/>
+    <col min="40" max="40" width="21.7142857142857" style="3" customWidth="1"/>
+    <col min="41" max="48" width="21.7142857142857" style="2" customWidth="1"/>
+    <col min="49" max="49" width="21.7142857142857" style="3" customWidth="1"/>
+    <col min="50" max="57" width="21.7142857142857" style="2" customWidth="1"/>
+    <col min="58" max="58" width="21.7142857142857" style="3" customWidth="1"/>
+    <col min="59" max="60" width="21.7142857142857" style="2" customWidth="1"/>
+    <col min="61" max="61" width="14.2857142857143" style="2" customWidth="1"/>
+    <col min="62" max="62" width="14.5714285714286" style="2" customWidth="1"/>
+    <col min="63" max="116" width="9.14285714285714" style="2"/>
+    <col min="117" max="117" width="21.3428571428571" style="2" customWidth="1"/>
+    <col min="118" max="16384" width="9.14285714285714" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="47" customHeight="1" spans="1:45">
+    <row r="1" s="2" customFormat="1" ht="47" customHeight="1" spans="1:119">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3416,224 +3813,490 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>181</v>
+        <v>186</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>187</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="S1" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="N1" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="O1" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="P1" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="Q1" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="R1" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="S1" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="T1" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="U1" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="V1" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="W1" s="11" t="s">
         <v>200</v>
       </c>
+      <c r="X1" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB1" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC1" s="11" t="s">
+        <v>206</v>
+      </c>
       <c r="AD1" s="11" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="AE1" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="AF1" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>204</v>
+        <v>208</v>
+      </c>
+      <c r="AF1" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="AG1" s="13" t="s">
+        <v>210</v>
       </c>
       <c r="AH1" s="13" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="AI1" s="13" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="AJ1" s="13" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="AK1" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="AL1" s="13" t="s">
-        <v>209</v>
+        <v>214</v>
+      </c>
+      <c r="AL1" s="32" t="s">
+        <v>215</v>
       </c>
       <c r="AM1" s="13" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="AN1" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO1" s="14" t="s">
-        <v>212</v>
+        <v>217</v>
+      </c>
+      <c r="AO1" s="13" t="s">
+        <v>218</v>
       </c>
       <c r="AP1" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="AQ1" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="AQ1" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="AR1" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="AS1" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="AT1" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="AU1" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="AV1" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="AW1" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="AX1" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="AY1" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="AZ1" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="BA1" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="BB1" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="BC1" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="BD1" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="BE1" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="BF1" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="BG1" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="BH1" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="BI1" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="BJ1" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="BK1" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="BL1" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="BM1" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="BN1" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="BO1" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="BP1" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BQ1" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="BR1" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="BS1" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="BT1" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="BU1" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="BV1" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="BW1" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="BX1" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="BY1" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="BZ1" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="CA1" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="CB1" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="CC1" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="CD1" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="CE1" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="CF1" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="CG1" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="CH1" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="CI1" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="CJ1" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="CK1" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="CL1" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="CM1" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="CN1" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="CO1" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="CP1" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="CQ1" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="CR1" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="CS1" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="CT1" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="CU1" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="CV1" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="CW1" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="CX1" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="CY1" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="CZ1" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="DA1" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="DB1" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="DC1" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="DD1" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="DE1" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="DF1" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="DG1" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="DH1" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="DI1" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="DJ1" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="DK1" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="DL1" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="DM1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AR1" s="16" t="s">
+      <c r="DN1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AS1" s="16" t="s">
+      <c r="DO1" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:45">
-      <c r="A2" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="K2" s="9">
-        <v>61335</v>
-      </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="9"/>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="9"/>
-      <c r="AO2" s="12"/>
-      <c r="AP2" s="9"/>
-      <c r="AQ2" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="AR2" s="9">
-        <v>200</v>
-      </c>
-      <c r="AS2" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:45">
+    <row r="2" s="17" customFormat="1" ht="21" customHeight="1" spans="1:119">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="35"/>
+      <c r="AQ2" s="35"/>
+      <c r="AR2" s="35"/>
+      <c r="AS2" s="36"/>
+      <c r="AT2" s="35"/>
+      <c r="AU2" s="35"/>
+      <c r="AV2" s="35"/>
+      <c r="AW2" s="35"/>
+      <c r="AX2" s="35"/>
+      <c r="AY2" s="35"/>
+      <c r="AZ2" s="35"/>
+      <c r="BA2" s="35"/>
+      <c r="BB2" s="35"/>
+      <c r="BC2" s="35"/>
+      <c r="BD2" s="35"/>
+      <c r="BE2" s="35"/>
+      <c r="BF2" s="35"/>
+      <c r="BG2" s="35"/>
+      <c r="BH2" s="35"/>
+      <c r="BI2" s="35"/>
+      <c r="BJ2" s="35"/>
+      <c r="BK2" s="35"/>
+      <c r="BL2" s="35"/>
+      <c r="BM2" s="35"/>
+      <c r="BN2" s="35"/>
+      <c r="BO2" s="35"/>
+      <c r="BP2" s="35"/>
+      <c r="BQ2" s="35"/>
+      <c r="BR2" s="38"/>
+      <c r="BS2" s="38"/>
+      <c r="BT2" s="38"/>
+      <c r="BU2" s="38"/>
+      <c r="BV2" s="38"/>
+      <c r="BW2" s="38"/>
+      <c r="BX2" s="38"/>
+      <c r="BY2" s="38"/>
+      <c r="BZ2" s="38"/>
+      <c r="CA2" s="38"/>
+      <c r="CB2" s="38"/>
+      <c r="CC2" s="38"/>
+      <c r="CD2" s="38"/>
+      <c r="CE2" s="38"/>
+      <c r="CF2" s="38"/>
+      <c r="CG2" s="38"/>
+      <c r="CH2" s="38"/>
+      <c r="CI2" s="38"/>
+      <c r="CJ2" s="38"/>
+      <c r="CK2" s="38"/>
+      <c r="CL2" s="38"/>
+      <c r="CM2" s="38"/>
+      <c r="CN2" s="38"/>
+      <c r="CO2" s="38"/>
+      <c r="CP2" s="38"/>
+      <c r="CQ2" s="38"/>
+      <c r="CR2" s="38"/>
+      <c r="CS2" s="38"/>
+      <c r="CT2" s="38"/>
+      <c r="CU2" s="38"/>
+      <c r="CV2" s="38"/>
+      <c r="CW2" s="38"/>
+      <c r="CX2" s="38"/>
+      <c r="CY2" s="38"/>
+      <c r="CZ2" s="38"/>
+      <c r="DA2" s="38"/>
+      <c r="DB2" s="38"/>
+      <c r="DC2" s="38"/>
+      <c r="DD2" s="38"/>
+      <c r="DE2" s="38"/>
+      <c r="DF2" s="38"/>
+      <c r="DG2" s="38"/>
+      <c r="DH2" s="38"/>
+      <c r="DI2" s="38"/>
+      <c r="DJ2" s="38"/>
+      <c r="DK2" s="38"/>
+      <c r="DL2" s="38"/>
+      <c r="DM2" s="38"/>
+      <c r="DN2" s="38"/>
+      <c r="DO2" s="38"/>
+    </row>
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:119">
       <c r="A3" s="6" t="s">
-        <v>221</v>
+        <v>295</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>222</v>
+        <v>296</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>223</v>
+      <c r="D3" s="23" t="s">
+        <v>297</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>22</v>
@@ -3648,49 +4311,31 @@
         <v>74</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="K3" s="9">
-        <v>61335</v>
-      </c>
-      <c r="L3" s="9"/>
+        <v>298</v>
+      </c>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" s="30">
+        <v>61361</v>
+      </c>
       <c r="M3" s="9"/>
-      <c r="N3" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="V3" s="9">
-        <v>60987</v>
-      </c>
-      <c r="W3" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="X3" s="9" t="s">
-        <v>217</v>
-      </c>
+      <c r="N3" s="9"/>
+      <c r="O3" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
       <c r="AA3" s="9"/>
@@ -3698,7 +4343,7 @@
       <c r="AC3" s="9"/>
       <c r="AD3" s="9"/>
       <c r="AE3" s="9"/>
-      <c r="AF3" s="12"/>
+      <c r="AF3" s="9"/>
       <c r="AG3" s="9"/>
       <c r="AH3" s="9"/>
       <c r="AI3" s="9"/>
@@ -3706,31 +4351,105 @@
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
       <c r="AM3" s="9"/>
-      <c r="AN3" s="9"/>
-      <c r="AO3" s="12"/>
+      <c r="AN3" s="12"/>
+      <c r="AO3" s="9"/>
       <c r="AP3" s="9"/>
-      <c r="AQ3" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="AR3" s="9">
+      <c r="AQ3" s="9"/>
+      <c r="AR3" s="9"/>
+      <c r="AS3" s="9"/>
+      <c r="AT3" s="9"/>
+      <c r="AU3" s="9"/>
+      <c r="AV3" s="9"/>
+      <c r="AW3" s="12"/>
+      <c r="AX3" s="9"/>
+      <c r="AY3" s="9"/>
+      <c r="AZ3" s="9"/>
+      <c r="BA3" s="9"/>
+      <c r="BB3" s="9"/>
+      <c r="BC3" s="9"/>
+      <c r="BD3" s="9"/>
+      <c r="BE3" s="9"/>
+      <c r="BF3" s="12"/>
+      <c r="BG3" s="9"/>
+      <c r="BH3" s="7"/>
+      <c r="BI3" s="9"/>
+      <c r="BJ3" s="9"/>
+      <c r="BK3" s="37"/>
+      <c r="BL3" s="37"/>
+      <c r="BM3" s="37"/>
+      <c r="BN3" s="37"/>
+      <c r="BO3" s="37"/>
+      <c r="BP3" s="37"/>
+      <c r="BQ3" s="37"/>
+      <c r="BR3" s="37"/>
+      <c r="BS3" s="37"/>
+      <c r="BT3" s="37"/>
+      <c r="BU3" s="37"/>
+      <c r="BV3" s="37"/>
+      <c r="BW3" s="37"/>
+      <c r="BX3" s="37"/>
+      <c r="BY3" s="37"/>
+      <c r="BZ3" s="37"/>
+      <c r="CA3" s="37"/>
+      <c r="CB3" s="37"/>
+      <c r="CC3" s="37"/>
+      <c r="CD3" s="37"/>
+      <c r="CE3" s="37"/>
+      <c r="CF3" s="37"/>
+      <c r="CG3" s="37"/>
+      <c r="CH3" s="37"/>
+      <c r="CI3" s="37"/>
+      <c r="CJ3" s="37"/>
+      <c r="CK3" s="37"/>
+      <c r="CL3" s="37"/>
+      <c r="CM3" s="37"/>
+      <c r="CN3" s="37"/>
+      <c r="CO3" s="37"/>
+      <c r="CP3" s="37"/>
+      <c r="CQ3" s="37"/>
+      <c r="CR3" s="37"/>
+      <c r="CS3" s="37"/>
+      <c r="CT3" s="37"/>
+      <c r="CU3" s="37"/>
+      <c r="CV3" s="37"/>
+      <c r="CW3" s="37"/>
+      <c r="CX3" s="37"/>
+      <c r="CY3" s="37"/>
+      <c r="CZ3" s="37"/>
+      <c r="DA3" s="37"/>
+      <c r="DB3" s="37"/>
+      <c r="DC3" s="37"/>
+      <c r="DD3" s="37"/>
+      <c r="DE3" s="37"/>
+      <c r="DF3" s="37"/>
+      <c r="DG3" s="37"/>
+      <c r="DH3" s="37"/>
+      <c r="DI3" s="37"/>
+      <c r="DJ3" s="37"/>
+      <c r="DK3" s="37"/>
+      <c r="DL3" s="37"/>
+      <c r="DM3" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="DN3" s="9">
         <v>200</v>
       </c>
-      <c r="AS3" s="9" t="s">
+      <c r="DO3" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" customHeight="1" spans="1:45">
+    <row r="4" s="2" customFormat="1" ht="48" customHeight="1" spans="1:119">
       <c r="A4" s="6" t="s">
-        <v>225</v>
+        <v>301</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>226</v>
+        <v>302</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>227</v>
+      <c r="D4" s="23" t="s">
+        <v>297</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>22</v>
@@ -3745,107 +4464,145 @@
         <v>74</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="K4" s="9">
-        <v>61335</v>
-      </c>
-      <c r="L4" s="9"/>
+        <v>298</v>
+      </c>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="L4" s="30">
+        <v>61362</v>
+      </c>
       <c r="M4" s="9"/>
-      <c r="N4" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="V4" s="9">
-        <v>61335</v>
-      </c>
-      <c r="W4" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA4" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB4" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC4" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="AD4" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="AE4" s="9">
-        <v>61335</v>
-      </c>
-      <c r="AF4" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="AG4" s="9" t="s">
-        <v>217</v>
-      </c>
+      <c r="N4" s="9"/>
+      <c r="O4" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
       <c r="AH4" s="9"/>
       <c r="AI4" s="9"/>
       <c r="AJ4" s="9"/>
       <c r="AK4" s="9"/>
       <c r="AL4" s="9"/>
       <c r="AM4" s="9"/>
-      <c r="AN4" s="9"/>
-      <c r="AO4" s="12"/>
+      <c r="AN4" s="12"/>
+      <c r="AO4" s="9"/>
       <c r="AP4" s="9"/>
-      <c r="AQ4" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="AR4" s="9">
+      <c r="AQ4" s="9"/>
+      <c r="AR4" s="9"/>
+      <c r="AS4" s="9"/>
+      <c r="AT4" s="9"/>
+      <c r="AU4" s="9"/>
+      <c r="AV4" s="9"/>
+      <c r="AW4" s="12"/>
+      <c r="AX4" s="9"/>
+      <c r="AY4" s="9"/>
+      <c r="AZ4" s="9"/>
+      <c r="BA4" s="9"/>
+      <c r="BB4" s="9"/>
+      <c r="BC4" s="9"/>
+      <c r="BD4" s="9"/>
+      <c r="BE4" s="9"/>
+      <c r="BF4" s="12"/>
+      <c r="BG4" s="9"/>
+      <c r="BH4" s="7"/>
+      <c r="BI4" s="9"/>
+      <c r="BJ4" s="9"/>
+      <c r="BK4" s="37"/>
+      <c r="BL4" s="37"/>
+      <c r="BM4" s="37"/>
+      <c r="BN4" s="37"/>
+      <c r="BO4" s="37"/>
+      <c r="BP4" s="37"/>
+      <c r="BQ4" s="37"/>
+      <c r="BR4" s="37"/>
+      <c r="BS4" s="37"/>
+      <c r="BT4" s="37"/>
+      <c r="BU4" s="37"/>
+      <c r="BV4" s="37"/>
+      <c r="BW4" s="37"/>
+      <c r="BX4" s="37"/>
+      <c r="BY4" s="37"/>
+      <c r="BZ4" s="37"/>
+      <c r="CA4" s="37"/>
+      <c r="CB4" s="37"/>
+      <c r="CC4" s="37"/>
+      <c r="CD4" s="37"/>
+      <c r="CE4" s="37"/>
+      <c r="CF4" s="37"/>
+      <c r="CG4" s="37"/>
+      <c r="CH4" s="37"/>
+      <c r="CI4" s="37"/>
+      <c r="CJ4" s="37"/>
+      <c r="CK4" s="37"/>
+      <c r="CL4" s="37"/>
+      <c r="CM4" s="37"/>
+      <c r="CN4" s="37"/>
+      <c r="CO4" s="37"/>
+      <c r="CP4" s="37"/>
+      <c r="CQ4" s="37"/>
+      <c r="CR4" s="37"/>
+      <c r="CS4" s="37"/>
+      <c r="CT4" s="37"/>
+      <c r="CU4" s="37"/>
+      <c r="CV4" s="37"/>
+      <c r="CW4" s="37"/>
+      <c r="CX4" s="37"/>
+      <c r="CY4" s="37"/>
+      <c r="CZ4" s="37"/>
+      <c r="DA4" s="37"/>
+      <c r="DB4" s="37"/>
+      <c r="DC4" s="37"/>
+      <c r="DD4" s="37"/>
+      <c r="DE4" s="37"/>
+      <c r="DF4" s="37"/>
+      <c r="DG4" s="37"/>
+      <c r="DH4" s="37"/>
+      <c r="DI4" s="37"/>
+      <c r="DJ4" s="37"/>
+      <c r="DK4" s="37"/>
+      <c r="DL4" s="37"/>
+      <c r="DM4" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="DN4" s="9">
         <v>200</v>
       </c>
-      <c r="AS4" s="9" t="s">
+      <c r="DO4" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" customHeight="1" spans="1:45">
+    <row r="5" s="2" customFormat="1" customHeight="1" spans="1:119">
       <c r="A5" s="6" t="s">
-        <v>228</v>
+        <v>303</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>230</v>
+      <c r="D5" s="23" t="s">
+        <v>297</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>22</v>
@@ -3860,125 +4617,145 @@
         <v>74</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="K5" s="9">
-        <v>61335</v>
-      </c>
-      <c r="L5" s="9"/>
+        <v>298</v>
+      </c>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" s="30">
+        <v>61363</v>
+      </c>
       <c r="M5" s="9"/>
-      <c r="N5" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="U5" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="V5" s="9">
-        <v>61335</v>
-      </c>
-      <c r="W5" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="X5" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA5" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB5" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC5" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="AD5" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="AE5" s="9">
-        <v>61335</v>
-      </c>
-      <c r="AF5" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="AG5" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="AH5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ5" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK5" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL5" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="AM5" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="AN5" s="9">
-        <v>61335</v>
-      </c>
-      <c r="AO5" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="AP5" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="AQ5" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="AR5" s="9">
+      <c r="N5" s="9"/>
+      <c r="O5" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
+      <c r="AN5" s="12"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="9"/>
+      <c r="AW5" s="12"/>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="9"/>
+      <c r="BA5" s="9"/>
+      <c r="BB5" s="9"/>
+      <c r="BC5" s="9"/>
+      <c r="BD5" s="9"/>
+      <c r="BE5" s="9"/>
+      <c r="BF5" s="12"/>
+      <c r="BG5" s="9"/>
+      <c r="BH5" s="7"/>
+      <c r="BI5" s="9"/>
+      <c r="BJ5" s="9"/>
+      <c r="BK5" s="37"/>
+      <c r="BL5" s="37"/>
+      <c r="BM5" s="37"/>
+      <c r="BN5" s="37"/>
+      <c r="BO5" s="37"/>
+      <c r="BP5" s="37"/>
+      <c r="BQ5" s="37"/>
+      <c r="BR5" s="37"/>
+      <c r="BS5" s="37"/>
+      <c r="BT5" s="37"/>
+      <c r="BU5" s="37"/>
+      <c r="BV5" s="37"/>
+      <c r="BW5" s="37"/>
+      <c r="BX5" s="37"/>
+      <c r="BY5" s="37"/>
+      <c r="BZ5" s="37"/>
+      <c r="CA5" s="37"/>
+      <c r="CB5" s="37"/>
+      <c r="CC5" s="37"/>
+      <c r="CD5" s="37"/>
+      <c r="CE5" s="37"/>
+      <c r="CF5" s="37"/>
+      <c r="CG5" s="37"/>
+      <c r="CH5" s="37"/>
+      <c r="CI5" s="37"/>
+      <c r="CJ5" s="37"/>
+      <c r="CK5" s="37"/>
+      <c r="CL5" s="37"/>
+      <c r="CM5" s="37"/>
+      <c r="CN5" s="37"/>
+      <c r="CO5" s="37"/>
+      <c r="CP5" s="37"/>
+      <c r="CQ5" s="37"/>
+      <c r="CR5" s="37"/>
+      <c r="CS5" s="37"/>
+      <c r="CT5" s="37"/>
+      <c r="CU5" s="37"/>
+      <c r="CV5" s="37"/>
+      <c r="CW5" s="37"/>
+      <c r="CX5" s="37"/>
+      <c r="CY5" s="37"/>
+      <c r="CZ5" s="37"/>
+      <c r="DA5" s="37"/>
+      <c r="DB5" s="37"/>
+      <c r="DC5" s="37"/>
+      <c r="DD5" s="37"/>
+      <c r="DE5" s="37"/>
+      <c r="DF5" s="37"/>
+      <c r="DG5" s="37"/>
+      <c r="DH5" s="37"/>
+      <c r="DI5" s="37"/>
+      <c r="DJ5" s="37"/>
+      <c r="DK5" s="37"/>
+      <c r="DL5" s="37"/>
+      <c r="DM5" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="DN5" s="9">
         <v>200</v>
       </c>
-      <c r="AS5" s="9" t="s">
+      <c r="DO5" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" customHeight="1" spans="1:45">
+    <row r="6" s="2" customFormat="1" customHeight="1" spans="1:119">
       <c r="A6" s="6" t="s">
-        <v>231</v>
+        <v>304</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>232</v>
+        <v>83</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>233</v>
+      <c r="D6" s="23" t="s">
+        <v>297</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>22</v>
@@ -3993,64 +4770,2353 @@
         <v>74</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="K6" s="9">
-        <v>61335</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="M6" s="9">
-        <v>61335</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="P6" s="6"/>
+        <v>298</v>
+      </c>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="L6" s="30">
+        <v>61364</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>298</v>
+      </c>
       <c r="Q6" s="6"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="9"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="9"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
       <c r="AH6" s="6"/>
-      <c r="AI6" s="6"/>
+      <c r="AI6" s="9"/>
       <c r="AJ6" s="9"/>
       <c r="AK6" s="9"/>
       <c r="AL6" s="9"/>
       <c r="AM6" s="9"/>
-      <c r="AN6" s="9"/>
-      <c r="AO6" s="12"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="9"/>
       <c r="AP6" s="9"/>
-      <c r="AQ6" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="AR6" s="9">
+      <c r="AQ6" s="9"/>
+      <c r="AR6" s="9"/>
+      <c r="AS6" s="9"/>
+      <c r="AT6" s="9"/>
+      <c r="AU6" s="9"/>
+      <c r="AV6" s="9"/>
+      <c r="AW6" s="12"/>
+      <c r="AX6" s="9"/>
+      <c r="AY6" s="9"/>
+      <c r="AZ6" s="9"/>
+      <c r="BA6" s="9"/>
+      <c r="BB6" s="9"/>
+      <c r="BC6" s="9"/>
+      <c r="BD6" s="9"/>
+      <c r="BE6" s="9"/>
+      <c r="BF6" s="12"/>
+      <c r="BG6" s="9"/>
+      <c r="BH6" s="7"/>
+      <c r="BI6" s="9"/>
+      <c r="BJ6" s="9"/>
+      <c r="BK6" s="37"/>
+      <c r="BL6" s="37"/>
+      <c r="BM6" s="37"/>
+      <c r="BN6" s="37"/>
+      <c r="BO6" s="37"/>
+      <c r="BP6" s="37"/>
+      <c r="BQ6" s="37"/>
+      <c r="BR6" s="37"/>
+      <c r="BS6" s="37"/>
+      <c r="BT6" s="37"/>
+      <c r="BU6" s="37"/>
+      <c r="BV6" s="37"/>
+      <c r="BW6" s="37"/>
+      <c r="BX6" s="37"/>
+      <c r="BY6" s="37"/>
+      <c r="BZ6" s="37"/>
+      <c r="CA6" s="37"/>
+      <c r="CB6" s="37"/>
+      <c r="CC6" s="37"/>
+      <c r="CD6" s="37"/>
+      <c r="CE6" s="37"/>
+      <c r="CF6" s="37"/>
+      <c r="CG6" s="37"/>
+      <c r="CH6" s="37"/>
+      <c r="CI6" s="37"/>
+      <c r="CJ6" s="37"/>
+      <c r="CK6" s="37"/>
+      <c r="CL6" s="37"/>
+      <c r="CM6" s="37"/>
+      <c r="CN6" s="37"/>
+      <c r="CO6" s="37"/>
+      <c r="CP6" s="37"/>
+      <c r="CQ6" s="37"/>
+      <c r="CR6" s="37"/>
+      <c r="CS6" s="37"/>
+      <c r="CT6" s="37"/>
+      <c r="CU6" s="37"/>
+      <c r="CV6" s="37"/>
+      <c r="CW6" s="37"/>
+      <c r="CX6" s="37"/>
+      <c r="CY6" s="37"/>
+      <c r="CZ6" s="37"/>
+      <c r="DA6" s="37"/>
+      <c r="DB6" s="37"/>
+      <c r="DC6" s="37"/>
+      <c r="DD6" s="37"/>
+      <c r="DE6" s="37"/>
+      <c r="DF6" s="37"/>
+      <c r="DG6" s="37"/>
+      <c r="DH6" s="37"/>
+      <c r="DI6" s="37"/>
+      <c r="DJ6" s="37"/>
+      <c r="DK6" s="37"/>
+      <c r="DL6" s="37"/>
+      <c r="DM6" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="DN6" s="9">
         <v>200</v>
       </c>
-      <c r="AS6" s="9" t="s">
+      <c r="DO6" s="9" t="s">
         <v>76</v>
       </c>
     </row>
+    <row r="7" s="2" customFormat="1" customHeight="1" spans="1:119">
+      <c r="A7" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="L7" s="30">
+        <v>61365</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="9"/>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="9"/>
+      <c r="AM7" s="9"/>
+      <c r="AN7" s="12"/>
+      <c r="AO7" s="9"/>
+      <c r="AP7" s="9"/>
+      <c r="AQ7" s="9"/>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="9"/>
+      <c r="AT7" s="9"/>
+      <c r="AU7" s="9"/>
+      <c r="AV7" s="9"/>
+      <c r="AW7" s="12"/>
+      <c r="AX7" s="9"/>
+      <c r="AY7" s="9"/>
+      <c r="AZ7" s="9"/>
+      <c r="BA7" s="9"/>
+      <c r="BB7" s="9"/>
+      <c r="BC7" s="9"/>
+      <c r="BD7" s="9"/>
+      <c r="BE7" s="9"/>
+      <c r="BF7" s="12"/>
+      <c r="BG7" s="9"/>
+      <c r="BH7" s="7"/>
+      <c r="BI7" s="9"/>
+      <c r="BJ7" s="9"/>
+      <c r="BK7" s="37"/>
+      <c r="BL7" s="37"/>
+      <c r="BM7" s="37"/>
+      <c r="BN7" s="37"/>
+      <c r="BO7" s="37"/>
+      <c r="BP7" s="37"/>
+      <c r="BQ7" s="37"/>
+      <c r="BR7" s="37"/>
+      <c r="BS7" s="37"/>
+      <c r="BT7" s="37"/>
+      <c r="BU7" s="37"/>
+      <c r="BV7" s="37"/>
+      <c r="BW7" s="37"/>
+      <c r="BX7" s="37"/>
+      <c r="BY7" s="37"/>
+      <c r="BZ7" s="37"/>
+      <c r="CA7" s="37"/>
+      <c r="CB7" s="37"/>
+      <c r="CC7" s="37"/>
+      <c r="CD7" s="37"/>
+      <c r="CE7" s="37"/>
+      <c r="CF7" s="37"/>
+      <c r="CG7" s="37"/>
+      <c r="CH7" s="37"/>
+      <c r="CI7" s="37"/>
+      <c r="CJ7" s="37"/>
+      <c r="CK7" s="37"/>
+      <c r="CL7" s="37"/>
+      <c r="CM7" s="37"/>
+      <c r="CN7" s="37"/>
+      <c r="CO7" s="37"/>
+      <c r="CP7" s="37"/>
+      <c r="CQ7" s="37"/>
+      <c r="CR7" s="37"/>
+      <c r="CS7" s="37"/>
+      <c r="CT7" s="37"/>
+      <c r="CU7" s="37"/>
+      <c r="CV7" s="37"/>
+      <c r="CW7" s="37"/>
+      <c r="CX7" s="37"/>
+      <c r="CY7" s="37"/>
+      <c r="CZ7" s="37"/>
+      <c r="DA7" s="37"/>
+      <c r="DB7" s="37"/>
+      <c r="DC7" s="37"/>
+      <c r="DD7" s="37"/>
+      <c r="DE7" s="37"/>
+      <c r="DF7" s="37"/>
+      <c r="DG7" s="37"/>
+      <c r="DH7" s="37"/>
+      <c r="DI7" s="37"/>
+      <c r="DJ7" s="37"/>
+      <c r="DK7" s="37"/>
+      <c r="DL7" s="37"/>
+      <c r="DM7" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="DN7" s="9">
+        <v>200</v>
+      </c>
+      <c r="DO7" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" customHeight="1" spans="1:119">
+      <c r="A8" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" s="30">
+        <v>61366</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="9"/>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="9"/>
+      <c r="AM8" s="9"/>
+      <c r="AN8" s="12"/>
+      <c r="AO8" s="9"/>
+      <c r="AP8" s="9"/>
+      <c r="AQ8" s="9"/>
+      <c r="AR8" s="9"/>
+      <c r="AS8" s="9"/>
+      <c r="AT8" s="9"/>
+      <c r="AU8" s="9"/>
+      <c r="AV8" s="9"/>
+      <c r="AW8" s="12"/>
+      <c r="AX8" s="9"/>
+      <c r="AY8" s="9"/>
+      <c r="AZ8" s="9"/>
+      <c r="BA8" s="9"/>
+      <c r="BB8" s="9"/>
+      <c r="BC8" s="9"/>
+      <c r="BD8" s="9"/>
+      <c r="BE8" s="9"/>
+      <c r="BF8" s="12"/>
+      <c r="BG8" s="9"/>
+      <c r="BH8" s="7"/>
+      <c r="BI8" s="9"/>
+      <c r="BJ8" s="9"/>
+      <c r="BK8" s="37"/>
+      <c r="BL8" s="37"/>
+      <c r="BM8" s="37"/>
+      <c r="BN8" s="37"/>
+      <c r="BO8" s="37"/>
+      <c r="BP8" s="37"/>
+      <c r="BQ8" s="37"/>
+      <c r="BR8" s="37"/>
+      <c r="BS8" s="37"/>
+      <c r="BT8" s="37"/>
+      <c r="BU8" s="37"/>
+      <c r="BV8" s="37"/>
+      <c r="BW8" s="37"/>
+      <c r="BX8" s="37"/>
+      <c r="BY8" s="37"/>
+      <c r="BZ8" s="37"/>
+      <c r="CA8" s="37"/>
+      <c r="CB8" s="37"/>
+      <c r="CC8" s="37"/>
+      <c r="CD8" s="37"/>
+      <c r="CE8" s="37"/>
+      <c r="CF8" s="37"/>
+      <c r="CG8" s="37"/>
+      <c r="CH8" s="37"/>
+      <c r="CI8" s="37"/>
+      <c r="CJ8" s="37"/>
+      <c r="CK8" s="37"/>
+      <c r="CL8" s="37"/>
+      <c r="CM8" s="37"/>
+      <c r="CN8" s="37"/>
+      <c r="CO8" s="37"/>
+      <c r="CP8" s="37"/>
+      <c r="CQ8" s="37"/>
+      <c r="CR8" s="37"/>
+      <c r="CS8" s="37"/>
+      <c r="CT8" s="37"/>
+      <c r="CU8" s="37"/>
+      <c r="CV8" s="37"/>
+      <c r="CW8" s="37"/>
+      <c r="CX8" s="37"/>
+      <c r="CY8" s="37"/>
+      <c r="CZ8" s="37"/>
+      <c r="DA8" s="37"/>
+      <c r="DB8" s="37"/>
+      <c r="DC8" s="37"/>
+      <c r="DD8" s="37"/>
+      <c r="DE8" s="37"/>
+      <c r="DF8" s="37"/>
+      <c r="DG8" s="37"/>
+      <c r="DH8" s="37"/>
+      <c r="DI8" s="37"/>
+      <c r="DJ8" s="37"/>
+      <c r="DK8" s="37"/>
+      <c r="DL8" s="37"/>
+      <c r="DM8" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="DN8" s="9">
+        <v>200</v>
+      </c>
+      <c r="DO8" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" s="17" customFormat="1" ht="21" customHeight="1" spans="1:119">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="33"/>
+      <c r="AH9" s="34"/>
+      <c r="AI9" s="35"/>
+      <c r="AJ9" s="35"/>
+      <c r="AK9" s="35"/>
+      <c r="AL9" s="35"/>
+      <c r="AM9" s="35"/>
+      <c r="AN9" s="36"/>
+      <c r="AO9" s="35"/>
+      <c r="AP9" s="35"/>
+      <c r="AQ9" s="35"/>
+      <c r="AR9" s="35"/>
+      <c r="AS9" s="36"/>
+      <c r="AT9" s="35"/>
+      <c r="AU9" s="35"/>
+      <c r="AV9" s="35"/>
+      <c r="AW9" s="35"/>
+      <c r="AX9" s="35"/>
+      <c r="AY9" s="35"/>
+      <c r="AZ9" s="35"/>
+      <c r="BA9" s="35"/>
+      <c r="BB9" s="35"/>
+      <c r="BC9" s="35"/>
+      <c r="BD9" s="35"/>
+      <c r="BE9" s="35"/>
+      <c r="BF9" s="35"/>
+      <c r="BG9" s="35"/>
+      <c r="BH9" s="35"/>
+      <c r="BI9" s="35"/>
+      <c r="BJ9" s="35"/>
+      <c r="BK9" s="35"/>
+      <c r="BL9" s="35"/>
+      <c r="BM9" s="35"/>
+      <c r="BN9" s="35"/>
+      <c r="BO9" s="35"/>
+      <c r="BP9" s="35"/>
+      <c r="BQ9" s="35"/>
+      <c r="BR9" s="38"/>
+      <c r="BS9" s="38"/>
+      <c r="BT9" s="38"/>
+      <c r="BU9" s="38"/>
+      <c r="BV9" s="38"/>
+      <c r="BW9" s="38"/>
+      <c r="BX9" s="38"/>
+      <c r="BY9" s="38"/>
+      <c r="BZ9" s="38"/>
+      <c r="CA9" s="38"/>
+      <c r="CB9" s="38"/>
+      <c r="CC9" s="38"/>
+      <c r="CD9" s="38"/>
+      <c r="CE9" s="38"/>
+      <c r="CF9" s="38"/>
+      <c r="CG9" s="38"/>
+      <c r="CH9" s="38"/>
+      <c r="CI9" s="38"/>
+      <c r="CJ9" s="38"/>
+      <c r="CK9" s="38"/>
+      <c r="CL9" s="38"/>
+      <c r="CM9" s="38"/>
+      <c r="CN9" s="38"/>
+      <c r="CO9" s="38"/>
+      <c r="CP9" s="38"/>
+      <c r="CQ9" s="38"/>
+      <c r="CR9" s="38"/>
+      <c r="CS9" s="38"/>
+      <c r="CT9" s="38"/>
+      <c r="CU9" s="38"/>
+      <c r="CV9" s="38"/>
+      <c r="CW9" s="38"/>
+      <c r="CX9" s="38"/>
+      <c r="CY9" s="38"/>
+      <c r="CZ9" s="38"/>
+      <c r="DA9" s="38"/>
+      <c r="DB9" s="38"/>
+      <c r="DC9" s="38"/>
+      <c r="DD9" s="38"/>
+      <c r="DE9" s="38"/>
+      <c r="DF9" s="38"/>
+      <c r="DG9" s="38"/>
+      <c r="DH9" s="38"/>
+      <c r="DI9" s="38"/>
+      <c r="DJ9" s="38"/>
+      <c r="DK9" s="38"/>
+      <c r="DL9" s="38"/>
+      <c r="DM9" s="38"/>
+      <c r="DN9" s="38"/>
+      <c r="DO9" s="38"/>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:119">
+      <c r="A10" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="U10" s="9">
+        <v>0</v>
+      </c>
+      <c r="V10" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="W10" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="X10" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="9"/>
+      <c r="AJ10" s="9"/>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="9"/>
+      <c r="AM10" s="9"/>
+      <c r="AN10" s="9"/>
+      <c r="AO10" s="9"/>
+      <c r="AP10" s="9"/>
+      <c r="AQ10" s="12"/>
+      <c r="AR10" s="9"/>
+      <c r="AS10" s="9"/>
+      <c r="AT10" s="9"/>
+      <c r="AU10" s="9"/>
+      <c r="AV10" s="9"/>
+      <c r="AW10" s="9"/>
+      <c r="AX10" s="9"/>
+      <c r="AY10" s="9"/>
+      <c r="AZ10" s="9"/>
+      <c r="BA10" s="9"/>
+      <c r="BB10" s="9"/>
+      <c r="BC10" s="9"/>
+      <c r="BD10" s="9"/>
+      <c r="BE10" s="9"/>
+      <c r="BF10" s="12"/>
+      <c r="BG10" s="9"/>
+      <c r="BH10" s="9"/>
+      <c r="BI10" s="9"/>
+      <c r="BJ10" s="9"/>
+      <c r="BK10" s="9"/>
+      <c r="BL10" s="9"/>
+      <c r="BM10" s="9"/>
+      <c r="BN10" s="9"/>
+      <c r="BO10" s="9"/>
+      <c r="BP10" s="9"/>
+      <c r="BQ10" s="9"/>
+      <c r="BR10" s="9"/>
+      <c r="BS10" s="9"/>
+      <c r="BT10" s="9"/>
+      <c r="BU10" s="12"/>
+      <c r="BV10" s="9"/>
+      <c r="BW10" s="9"/>
+      <c r="BX10" s="9"/>
+      <c r="BY10" s="9"/>
+      <c r="BZ10" s="9"/>
+      <c r="CA10" s="9"/>
+      <c r="CB10" s="9"/>
+      <c r="CC10" s="9"/>
+      <c r="CD10" s="7"/>
+      <c r="CE10" s="9"/>
+      <c r="CF10" s="9"/>
+      <c r="CG10" s="9"/>
+      <c r="CH10" s="9"/>
+      <c r="CI10" s="9"/>
+      <c r="CJ10" s="9"/>
+      <c r="CK10" s="9"/>
+      <c r="CL10" s="9"/>
+      <c r="CM10" s="9"/>
+      <c r="CN10" s="9"/>
+      <c r="CO10" s="9"/>
+      <c r="CP10" s="9"/>
+      <c r="CQ10" s="9"/>
+      <c r="CR10" s="9"/>
+      <c r="CS10" s="9"/>
+      <c r="CT10" s="9"/>
+      <c r="CU10" s="9"/>
+      <c r="CV10" s="9"/>
+      <c r="CW10" s="9"/>
+      <c r="CX10" s="9"/>
+      <c r="CY10" s="9"/>
+      <c r="CZ10" s="9"/>
+      <c r="DA10" s="9"/>
+      <c r="DB10" s="9"/>
+      <c r="DC10" s="9"/>
+      <c r="DD10" s="9"/>
+      <c r="DE10" s="9"/>
+      <c r="DF10" s="9"/>
+      <c r="DG10" s="9"/>
+      <c r="DH10" s="9"/>
+      <c r="DI10" s="9"/>
+      <c r="DJ10" s="9"/>
+      <c r="DK10" s="9"/>
+      <c r="DL10" s="9"/>
+      <c r="DM10" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="DN10" s="9">
+        <v>200</v>
+      </c>
+      <c r="DO10" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:119">
+      <c r="A11" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="U11" s="9">
+        <v>0</v>
+      </c>
+      <c r="V11" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="W11" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="X11" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="9"/>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="9"/>
+      <c r="AJ11" s="9"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="9"/>
+      <c r="AN11" s="9"/>
+      <c r="AO11" s="9"/>
+      <c r="AP11" s="9"/>
+      <c r="AQ11" s="12"/>
+      <c r="AR11" s="6"/>
+      <c r="AS11" s="6"/>
+      <c r="AT11" s="9"/>
+      <c r="AU11" s="9"/>
+      <c r="AV11" s="9"/>
+      <c r="AW11" s="9"/>
+      <c r="AX11" s="9"/>
+      <c r="AY11" s="9"/>
+      <c r="AZ11" s="9"/>
+      <c r="BA11" s="9"/>
+      <c r="BB11" s="9"/>
+      <c r="BC11" s="9"/>
+      <c r="BD11" s="9"/>
+      <c r="BE11" s="9"/>
+      <c r="BF11" s="12"/>
+      <c r="BG11" s="9"/>
+      <c r="BH11" s="9"/>
+      <c r="BI11" s="9"/>
+      <c r="BJ11" s="9"/>
+      <c r="BK11" s="9"/>
+      <c r="BL11" s="9"/>
+      <c r="BM11" s="9"/>
+      <c r="BN11" s="9"/>
+      <c r="BO11" s="9"/>
+      <c r="BP11" s="9"/>
+      <c r="BQ11" s="9"/>
+      <c r="BR11" s="9"/>
+      <c r="BS11" s="9"/>
+      <c r="BT11" s="9"/>
+      <c r="BU11" s="12"/>
+      <c r="BV11" s="9"/>
+      <c r="BW11" s="9"/>
+      <c r="BX11" s="9"/>
+      <c r="BY11" s="9"/>
+      <c r="BZ11" s="9"/>
+      <c r="CA11" s="9"/>
+      <c r="CB11" s="9"/>
+      <c r="CC11" s="9"/>
+      <c r="CD11" s="7"/>
+      <c r="CE11" s="9"/>
+      <c r="CF11" s="9"/>
+      <c r="CG11" s="9"/>
+      <c r="CH11" s="9"/>
+      <c r="CI11" s="9"/>
+      <c r="CJ11" s="9"/>
+      <c r="CK11" s="9"/>
+      <c r="CL11" s="9"/>
+      <c r="CM11" s="9"/>
+      <c r="CN11" s="9"/>
+      <c r="CO11" s="9"/>
+      <c r="CP11" s="9"/>
+      <c r="CQ11" s="9"/>
+      <c r="CR11" s="9"/>
+      <c r="CS11" s="9"/>
+      <c r="CT11" s="9"/>
+      <c r="CU11" s="9"/>
+      <c r="CV11" s="9"/>
+      <c r="CW11" s="9"/>
+      <c r="CX11" s="9"/>
+      <c r="CY11" s="9"/>
+      <c r="CZ11" s="9"/>
+      <c r="DA11" s="9"/>
+      <c r="DB11" s="9"/>
+      <c r="DC11" s="9"/>
+      <c r="DD11" s="9"/>
+      <c r="DE11" s="9"/>
+      <c r="DF11" s="9"/>
+      <c r="DG11" s="9"/>
+      <c r="DH11" s="9"/>
+      <c r="DI11" s="9"/>
+      <c r="DJ11" s="9"/>
+      <c r="DK11" s="9"/>
+      <c r="DL11" s="9"/>
+      <c r="DM11" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="DN11" s="9">
+        <v>200</v>
+      </c>
+      <c r="DO11" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="1:119">
+      <c r="A12" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="T12" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="U12" s="9">
+        <v>0</v>
+      </c>
+      <c r="V12" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="W12" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="X12" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="9"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="9"/>
+      <c r="AN12" s="9"/>
+      <c r="AO12" s="9"/>
+      <c r="AP12" s="9"/>
+      <c r="AQ12" s="12"/>
+      <c r="AR12" s="6"/>
+      <c r="AS12" s="6"/>
+      <c r="AT12" s="9"/>
+      <c r="AU12" s="9"/>
+      <c r="AV12" s="9"/>
+      <c r="AW12" s="9"/>
+      <c r="AX12" s="9"/>
+      <c r="AY12" s="9"/>
+      <c r="AZ12" s="6"/>
+      <c r="BA12" s="6"/>
+      <c r="BB12" s="9"/>
+      <c r="BC12" s="9"/>
+      <c r="BD12" s="9"/>
+      <c r="BE12" s="9"/>
+      <c r="BF12" s="12"/>
+      <c r="BG12" s="6"/>
+      <c r="BH12" s="6"/>
+      <c r="BI12" s="9"/>
+      <c r="BJ12" s="9"/>
+      <c r="BK12" s="9"/>
+      <c r="BL12" s="9"/>
+      <c r="BM12" s="9"/>
+      <c r="BN12" s="9"/>
+      <c r="BO12" s="9"/>
+      <c r="BP12" s="9"/>
+      <c r="BQ12" s="9"/>
+      <c r="BR12" s="9"/>
+      <c r="BS12" s="9"/>
+      <c r="BT12" s="9"/>
+      <c r="BU12" s="12"/>
+      <c r="BV12" s="9"/>
+      <c r="BW12" s="9"/>
+      <c r="BX12" s="9"/>
+      <c r="BY12" s="9"/>
+      <c r="BZ12" s="9"/>
+      <c r="CA12" s="9"/>
+      <c r="CB12" s="9"/>
+      <c r="CC12" s="9"/>
+      <c r="CD12" s="7"/>
+      <c r="CE12" s="9"/>
+      <c r="CF12" s="9"/>
+      <c r="CG12" s="9"/>
+      <c r="CH12" s="9"/>
+      <c r="CI12" s="9"/>
+      <c r="CJ12" s="9"/>
+      <c r="CK12" s="9"/>
+      <c r="CL12" s="9"/>
+      <c r="CM12" s="9"/>
+      <c r="CN12" s="9"/>
+      <c r="CO12" s="9"/>
+      <c r="CP12" s="9"/>
+      <c r="CQ12" s="9"/>
+      <c r="CR12" s="9"/>
+      <c r="CS12" s="9"/>
+      <c r="CT12" s="9"/>
+      <c r="CU12" s="9"/>
+      <c r="CV12" s="9"/>
+      <c r="CW12" s="9"/>
+      <c r="CX12" s="9"/>
+      <c r="CY12" s="9"/>
+      <c r="CZ12" s="9"/>
+      <c r="DA12" s="9"/>
+      <c r="DB12" s="9"/>
+      <c r="DC12" s="9"/>
+      <c r="DD12" s="9"/>
+      <c r="DE12" s="9"/>
+      <c r="DF12" s="9"/>
+      <c r="DG12" s="9"/>
+      <c r="DH12" s="9"/>
+      <c r="DI12" s="9"/>
+      <c r="DJ12" s="9"/>
+      <c r="DK12" s="9"/>
+      <c r="DL12" s="9"/>
+      <c r="DM12" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="DN12" s="9">
+        <v>200</v>
+      </c>
+      <c r="DO12" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:119">
+      <c r="A13" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="T13" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="U13" s="9">
+        <v>0</v>
+      </c>
+      <c r="V13" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="W13" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="X13" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="9"/>
+      <c r="AN13" s="9"/>
+      <c r="AO13" s="9"/>
+      <c r="AP13" s="9"/>
+      <c r="AQ13" s="12"/>
+      <c r="AR13" s="6"/>
+      <c r="AS13" s="6"/>
+      <c r="AT13" s="9"/>
+      <c r="AU13" s="9"/>
+      <c r="AV13" s="9"/>
+      <c r="AW13" s="9"/>
+      <c r="AX13" s="9"/>
+      <c r="AY13" s="9"/>
+      <c r="AZ13" s="6"/>
+      <c r="BA13" s="6"/>
+      <c r="BB13" s="9"/>
+      <c r="BC13" s="9"/>
+      <c r="BD13" s="9"/>
+      <c r="BE13" s="9"/>
+      <c r="BF13" s="12"/>
+      <c r="BG13" s="6"/>
+      <c r="BH13" s="6"/>
+      <c r="BI13" s="9"/>
+      <c r="BJ13" s="9"/>
+      <c r="BK13" s="9"/>
+      <c r="BL13" s="9"/>
+      <c r="BM13" s="9"/>
+      <c r="BN13" s="9"/>
+      <c r="BO13" s="6"/>
+      <c r="BP13" s="6"/>
+      <c r="BQ13" s="9"/>
+      <c r="BR13" s="9"/>
+      <c r="BS13" s="9"/>
+      <c r="BT13" s="9"/>
+      <c r="BU13" s="12"/>
+      <c r="BV13" s="6"/>
+      <c r="BW13" s="6"/>
+      <c r="BX13" s="9"/>
+      <c r="BY13" s="9"/>
+      <c r="BZ13" s="9"/>
+      <c r="CA13" s="9"/>
+      <c r="CB13" s="9"/>
+      <c r="CC13" s="9"/>
+      <c r="CD13" s="7"/>
+      <c r="CE13" s="9"/>
+      <c r="CF13" s="9"/>
+      <c r="CG13" s="9"/>
+      <c r="CH13" s="9"/>
+      <c r="CI13" s="9"/>
+      <c r="CJ13" s="9"/>
+      <c r="CK13" s="9"/>
+      <c r="CL13" s="9"/>
+      <c r="CM13" s="9"/>
+      <c r="CN13" s="9"/>
+      <c r="CO13" s="9"/>
+      <c r="CP13" s="9"/>
+      <c r="CQ13" s="9"/>
+      <c r="CR13" s="9"/>
+      <c r="CS13" s="9"/>
+      <c r="CT13" s="9"/>
+      <c r="CU13" s="9"/>
+      <c r="CV13" s="9"/>
+      <c r="CW13" s="9"/>
+      <c r="CX13" s="9"/>
+      <c r="CY13" s="9"/>
+      <c r="CZ13" s="9"/>
+      <c r="DA13" s="9"/>
+      <c r="DB13" s="9"/>
+      <c r="DC13" s="9"/>
+      <c r="DD13" s="9"/>
+      <c r="DE13" s="9"/>
+      <c r="DF13" s="9"/>
+      <c r="DG13" s="9"/>
+      <c r="DH13" s="9"/>
+      <c r="DI13" s="9"/>
+      <c r="DJ13" s="9"/>
+      <c r="DK13" s="9"/>
+      <c r="DL13" s="9"/>
+      <c r="DM13" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="DN13" s="9">
+        <v>200</v>
+      </c>
+      <c r="DO13" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="1:119">
+      <c r="A14" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="T14" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="U14" s="9">
+        <v>0</v>
+      </c>
+      <c r="V14" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="W14" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="X14" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="27"/>
+      <c r="AF14" s="27"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="12"/>
+      <c r="AO14" s="9"/>
+      <c r="AP14" s="9"/>
+      <c r="AQ14" s="9"/>
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="9"/>
+      <c r="AT14" s="9"/>
+      <c r="AU14" s="9"/>
+      <c r="AV14" s="9"/>
+      <c r="AW14" s="12"/>
+      <c r="AX14" s="9"/>
+      <c r="AY14" s="9"/>
+      <c r="AZ14" s="9"/>
+      <c r="BA14" s="9"/>
+      <c r="BB14" s="9"/>
+      <c r="BC14" s="9"/>
+      <c r="BD14" s="9"/>
+      <c r="BE14" s="9"/>
+      <c r="BF14" s="12"/>
+      <c r="BG14" s="9"/>
+      <c r="BH14" s="7"/>
+      <c r="BI14" s="9"/>
+      <c r="BJ14" s="9"/>
+      <c r="BK14" s="37"/>
+      <c r="BL14" s="37"/>
+      <c r="BM14" s="37"/>
+      <c r="BN14" s="37"/>
+      <c r="BO14" s="37"/>
+      <c r="BP14" s="37"/>
+      <c r="BQ14" s="37"/>
+      <c r="BR14" s="37"/>
+      <c r="BS14" s="37"/>
+      <c r="BT14" s="37"/>
+      <c r="BU14" s="37"/>
+      <c r="BV14" s="37"/>
+      <c r="BW14" s="37"/>
+      <c r="BX14" s="37"/>
+      <c r="BY14" s="37"/>
+      <c r="BZ14" s="37"/>
+      <c r="CA14" s="37"/>
+      <c r="CB14" s="37"/>
+      <c r="CC14" s="37"/>
+      <c r="CD14" s="37"/>
+      <c r="CE14" s="37"/>
+      <c r="CF14" s="37"/>
+      <c r="CG14" s="37"/>
+      <c r="CH14" s="37"/>
+      <c r="CI14" s="37"/>
+      <c r="CJ14" s="37"/>
+      <c r="CK14" s="37"/>
+      <c r="CL14" s="37"/>
+      <c r="CM14" s="37"/>
+      <c r="CN14" s="37"/>
+      <c r="CO14" s="37"/>
+      <c r="CP14" s="37"/>
+      <c r="CQ14" s="37"/>
+      <c r="CR14" s="37"/>
+      <c r="CS14" s="37"/>
+      <c r="CT14" s="37"/>
+      <c r="CU14" s="37"/>
+      <c r="CV14" s="37"/>
+      <c r="CW14" s="37"/>
+      <c r="CX14" s="37"/>
+      <c r="CY14" s="37"/>
+      <c r="CZ14" s="37"/>
+      <c r="DA14" s="37"/>
+      <c r="DB14" s="37"/>
+      <c r="DC14" s="37"/>
+      <c r="DD14" s="37"/>
+      <c r="DE14" s="37"/>
+      <c r="DF14" s="37"/>
+      <c r="DG14" s="37"/>
+      <c r="DH14" s="37"/>
+      <c r="DI14" s="37"/>
+      <c r="DJ14" s="37"/>
+      <c r="DK14" s="37"/>
+      <c r="DL14" s="37"/>
+      <c r="DM14" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="DN14" s="9">
+        <v>200</v>
+      </c>
+      <c r="DO14" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="1:119">
+      <c r="A15" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="T15" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="U15" s="9">
+        <v>0</v>
+      </c>
+      <c r="V15" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="W15" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="X15" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="9"/>
+      <c r="AK15" s="9"/>
+      <c r="AL15" s="9"/>
+      <c r="AM15" s="9"/>
+      <c r="AN15" s="12"/>
+      <c r="AO15" s="9"/>
+      <c r="AP15" s="9"/>
+      <c r="AQ15" s="9"/>
+      <c r="AR15" s="9"/>
+      <c r="AS15" s="9"/>
+      <c r="AT15" s="9"/>
+      <c r="AU15" s="9"/>
+      <c r="AV15" s="9"/>
+      <c r="AW15" s="12"/>
+      <c r="AX15" s="9"/>
+      <c r="AY15" s="9"/>
+      <c r="AZ15" s="9"/>
+      <c r="BA15" s="9"/>
+      <c r="BB15" s="9"/>
+      <c r="BC15" s="9"/>
+      <c r="BD15" s="9"/>
+      <c r="BE15" s="9"/>
+      <c r="BF15" s="12"/>
+      <c r="BG15" s="9"/>
+      <c r="BH15" s="7"/>
+      <c r="BI15" s="9"/>
+      <c r="BJ15" s="9"/>
+      <c r="BK15" s="37"/>
+      <c r="BL15" s="37"/>
+      <c r="BM15" s="37"/>
+      <c r="BN15" s="37"/>
+      <c r="BO15" s="37"/>
+      <c r="BP15" s="37"/>
+      <c r="BQ15" s="37"/>
+      <c r="BR15" s="37"/>
+      <c r="BS15" s="37"/>
+      <c r="BT15" s="37"/>
+      <c r="BU15" s="37"/>
+      <c r="BV15" s="37"/>
+      <c r="BW15" s="37"/>
+      <c r="BX15" s="37"/>
+      <c r="BY15" s="37"/>
+      <c r="BZ15" s="37"/>
+      <c r="CA15" s="37"/>
+      <c r="CB15" s="37"/>
+      <c r="CC15" s="37"/>
+      <c r="CD15" s="37"/>
+      <c r="CE15" s="37"/>
+      <c r="CF15" s="37"/>
+      <c r="CG15" s="37"/>
+      <c r="CH15" s="37"/>
+      <c r="CI15" s="37"/>
+      <c r="CJ15" s="37"/>
+      <c r="CK15" s="37"/>
+      <c r="CL15" s="37"/>
+      <c r="CM15" s="37"/>
+      <c r="CN15" s="37"/>
+      <c r="CO15" s="37"/>
+      <c r="CP15" s="37"/>
+      <c r="CQ15" s="37"/>
+      <c r="CR15" s="37"/>
+      <c r="CS15" s="37"/>
+      <c r="CT15" s="37"/>
+      <c r="CU15" s="37"/>
+      <c r="CV15" s="37"/>
+      <c r="CW15" s="37"/>
+      <c r="CX15" s="37"/>
+      <c r="CY15" s="37"/>
+      <c r="CZ15" s="37"/>
+      <c r="DA15" s="37"/>
+      <c r="DB15" s="37"/>
+      <c r="DC15" s="37"/>
+      <c r="DD15" s="37"/>
+      <c r="DE15" s="37"/>
+      <c r="DF15" s="37"/>
+      <c r="DG15" s="37"/>
+      <c r="DH15" s="37"/>
+      <c r="DI15" s="37"/>
+      <c r="DJ15" s="37"/>
+      <c r="DK15" s="37"/>
+      <c r="DL15" s="37"/>
+      <c r="DM15" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="DN15" s="9">
+        <v>200</v>
+      </c>
+      <c r="DO15" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="1:119">
+      <c r="A16" s="6"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="9"/>
+      <c r="AJ16" s="9"/>
+      <c r="AK16" s="9"/>
+      <c r="AL16" s="9"/>
+      <c r="AM16" s="9"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="9"/>
+      <c r="AP16" s="9"/>
+      <c r="AQ16" s="9"/>
+      <c r="AR16" s="9"/>
+      <c r="AS16" s="9"/>
+      <c r="AT16" s="9"/>
+      <c r="AU16" s="9"/>
+      <c r="AV16" s="9"/>
+      <c r="AW16" s="12"/>
+      <c r="AX16" s="9"/>
+      <c r="AY16" s="9"/>
+      <c r="AZ16" s="9"/>
+      <c r="BA16" s="9"/>
+      <c r="BB16" s="9"/>
+      <c r="BC16" s="9"/>
+      <c r="BD16" s="9"/>
+      <c r="BE16" s="9"/>
+      <c r="BF16" s="12"/>
+      <c r="BG16" s="9"/>
+      <c r="BH16" s="7"/>
+      <c r="BI16" s="9"/>
+      <c r="BJ16" s="9"/>
+      <c r="BK16" s="37"/>
+      <c r="BL16" s="37"/>
+      <c r="BM16" s="37"/>
+      <c r="BN16" s="37"/>
+      <c r="BO16" s="37"/>
+      <c r="BP16" s="37"/>
+      <c r="BQ16" s="37"/>
+      <c r="BR16" s="37"/>
+      <c r="BS16" s="37"/>
+      <c r="BT16" s="37"/>
+      <c r="BU16" s="37"/>
+      <c r="BV16" s="37"/>
+      <c r="BW16" s="37"/>
+      <c r="BX16" s="37"/>
+      <c r="BY16" s="37"/>
+      <c r="BZ16" s="37"/>
+      <c r="CA16" s="37"/>
+      <c r="CB16" s="37"/>
+      <c r="CC16" s="37"/>
+      <c r="CD16" s="37"/>
+      <c r="CE16" s="37"/>
+      <c r="CF16" s="37"/>
+      <c r="CG16" s="37"/>
+      <c r="CH16" s="37"/>
+      <c r="CI16" s="37"/>
+      <c r="CJ16" s="37"/>
+      <c r="CK16" s="37"/>
+      <c r="CL16" s="37"/>
+      <c r="CM16" s="37"/>
+      <c r="CN16" s="37"/>
+      <c r="CO16" s="37"/>
+      <c r="CP16" s="37"/>
+      <c r="CQ16" s="37"/>
+      <c r="CR16" s="37"/>
+      <c r="CS16" s="37"/>
+      <c r="CT16" s="37"/>
+      <c r="CU16" s="37"/>
+      <c r="CV16" s="37"/>
+      <c r="CW16" s="37"/>
+      <c r="CX16" s="37"/>
+      <c r="CY16" s="37"/>
+      <c r="CZ16" s="37"/>
+      <c r="DA16" s="37"/>
+      <c r="DB16" s="37"/>
+      <c r="DC16" s="37"/>
+      <c r="DD16" s="37"/>
+      <c r="DE16" s="37"/>
+      <c r="DF16" s="37"/>
+      <c r="DG16" s="37"/>
+      <c r="DH16" s="37"/>
+      <c r="DI16" s="37"/>
+      <c r="DJ16" s="37"/>
+      <c r="DK16" s="37"/>
+      <c r="DL16" s="37"/>
+      <c r="DM16" s="7"/>
+      <c r="DN16" s="9"/>
+      <c r="DO16" s="9"/>
+    </row>
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="1:119">
+      <c r="A17" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="9"/>
+      <c r="AH17" s="9"/>
+      <c r="AI17" s="9"/>
+      <c r="AJ17" s="9"/>
+      <c r="AK17" s="9"/>
+      <c r="AL17" s="9"/>
+      <c r="AM17" s="9"/>
+      <c r="AN17" s="12"/>
+      <c r="AO17" s="9"/>
+      <c r="AP17" s="9"/>
+      <c r="AQ17" s="9"/>
+      <c r="AR17" s="9"/>
+      <c r="AS17" s="9"/>
+      <c r="AT17" s="9"/>
+      <c r="AU17" s="9"/>
+      <c r="AV17" s="9"/>
+      <c r="AW17" s="12"/>
+      <c r="AX17" s="9"/>
+      <c r="AY17" s="9"/>
+      <c r="AZ17" s="9"/>
+      <c r="BA17" s="9"/>
+      <c r="BB17" s="9"/>
+      <c r="BC17" s="9"/>
+      <c r="BD17" s="9"/>
+      <c r="BE17" s="9"/>
+      <c r="BF17" s="12"/>
+      <c r="BG17" s="9"/>
+      <c r="BH17" s="7"/>
+      <c r="BI17" s="9"/>
+      <c r="BJ17" s="9"/>
+      <c r="BK17" s="37"/>
+      <c r="BL17" s="37"/>
+      <c r="BM17" s="37"/>
+      <c r="BN17" s="37"/>
+      <c r="BO17" s="37"/>
+      <c r="BP17" s="37"/>
+      <c r="BQ17" s="37"/>
+      <c r="BR17" s="37"/>
+      <c r="BS17" s="37"/>
+      <c r="BT17" s="37"/>
+      <c r="BU17" s="37"/>
+      <c r="BV17" s="37"/>
+      <c r="BW17" s="37"/>
+      <c r="BX17" s="37"/>
+      <c r="BY17" s="37"/>
+      <c r="BZ17" s="37"/>
+      <c r="CA17" s="37"/>
+      <c r="CB17" s="37"/>
+      <c r="CC17" s="37"/>
+      <c r="CD17" s="37"/>
+      <c r="CE17" s="37"/>
+      <c r="CF17" s="37"/>
+      <c r="CG17" s="37"/>
+      <c r="CH17" s="37"/>
+      <c r="CI17" s="37"/>
+      <c r="CJ17" s="37"/>
+      <c r="CK17" s="37"/>
+      <c r="CL17" s="37"/>
+      <c r="CM17" s="37"/>
+      <c r="CN17" s="37"/>
+      <c r="CO17" s="37"/>
+      <c r="CP17" s="37"/>
+      <c r="CQ17" s="37"/>
+      <c r="CR17" s="37"/>
+      <c r="CS17" s="37"/>
+      <c r="CT17" s="37"/>
+      <c r="CU17" s="37"/>
+      <c r="CV17" s="37"/>
+      <c r="CW17" s="37"/>
+      <c r="CX17" s="37"/>
+      <c r="CY17" s="37"/>
+      <c r="CZ17" s="37"/>
+      <c r="DA17" s="37"/>
+      <c r="DB17" s="37"/>
+      <c r="DC17" s="37"/>
+      <c r="DD17" s="37"/>
+      <c r="DE17" s="37"/>
+      <c r="DF17" s="37"/>
+      <c r="DG17" s="37"/>
+      <c r="DH17" s="37"/>
+      <c r="DI17" s="37"/>
+      <c r="DJ17" s="37"/>
+      <c r="DK17" s="37"/>
+      <c r="DL17" s="37"/>
+      <c r="DM17" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="DN17" s="9">
+        <v>200</v>
+      </c>
+      <c r="DO17" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="1:119">
+      <c r="A18" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="9"/>
+      <c r="AJ18" s="9"/>
+      <c r="AK18" s="9"/>
+      <c r="AL18" s="9"/>
+      <c r="AM18" s="9"/>
+      <c r="AN18" s="12"/>
+      <c r="AO18" s="9"/>
+      <c r="AP18" s="9"/>
+      <c r="AQ18" s="9"/>
+      <c r="AR18" s="9"/>
+      <c r="AS18" s="9"/>
+      <c r="AT18" s="9"/>
+      <c r="AU18" s="9"/>
+      <c r="AV18" s="9"/>
+      <c r="AW18" s="12"/>
+      <c r="AX18" s="9"/>
+      <c r="AY18" s="9"/>
+      <c r="AZ18" s="9"/>
+      <c r="BA18" s="9"/>
+      <c r="BB18" s="9"/>
+      <c r="BC18" s="9"/>
+      <c r="BD18" s="9"/>
+      <c r="BE18" s="9"/>
+      <c r="BF18" s="12"/>
+      <c r="BG18" s="9"/>
+      <c r="BH18" s="7"/>
+      <c r="BI18" s="9"/>
+      <c r="BJ18" s="9"/>
+      <c r="BK18" s="37"/>
+      <c r="BL18" s="37"/>
+      <c r="BM18" s="37"/>
+      <c r="BN18" s="37"/>
+      <c r="BO18" s="37"/>
+      <c r="BP18" s="37"/>
+      <c r="BQ18" s="37"/>
+      <c r="BR18" s="37"/>
+      <c r="BS18" s="37"/>
+      <c r="BT18" s="37"/>
+      <c r="BU18" s="37"/>
+      <c r="BV18" s="37"/>
+      <c r="BW18" s="37"/>
+      <c r="BX18" s="37"/>
+      <c r="BY18" s="37"/>
+      <c r="BZ18" s="37"/>
+      <c r="CA18" s="37"/>
+      <c r="CB18" s="37"/>
+      <c r="CC18" s="37"/>
+      <c r="CD18" s="37"/>
+      <c r="CE18" s="37"/>
+      <c r="CF18" s="37"/>
+      <c r="CG18" s="37"/>
+      <c r="CH18" s="37"/>
+      <c r="CI18" s="37"/>
+      <c r="CJ18" s="37"/>
+      <c r="CK18" s="37"/>
+      <c r="CL18" s="37"/>
+      <c r="CM18" s="37"/>
+      <c r="CN18" s="37"/>
+      <c r="CO18" s="37"/>
+      <c r="CP18" s="37"/>
+      <c r="CQ18" s="37"/>
+      <c r="CR18" s="37"/>
+      <c r="CS18" s="37"/>
+      <c r="CT18" s="37"/>
+      <c r="CU18" s="37"/>
+      <c r="CV18" s="37"/>
+      <c r="CW18" s="37"/>
+      <c r="CX18" s="37"/>
+      <c r="CY18" s="37"/>
+      <c r="CZ18" s="37"/>
+      <c r="DA18" s="37"/>
+      <c r="DB18" s="37"/>
+      <c r="DC18" s="37"/>
+      <c r="DD18" s="37"/>
+      <c r="DE18" s="37"/>
+      <c r="DF18" s="37"/>
+      <c r="DG18" s="37"/>
+      <c r="DH18" s="37"/>
+      <c r="DI18" s="37"/>
+      <c r="DJ18" s="37"/>
+      <c r="DK18" s="37"/>
+      <c r="DL18" s="37"/>
+      <c r="DM18" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="DN18" s="9">
+        <v>200</v>
+      </c>
+      <c r="DO18" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="1:119">
+      <c r="A19" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="9"/>
+      <c r="AJ19" s="9"/>
+      <c r="AK19" s="9"/>
+      <c r="AL19" s="9"/>
+      <c r="AM19" s="9"/>
+      <c r="AN19" s="12"/>
+      <c r="AO19" s="9"/>
+      <c r="AP19" s="6"/>
+      <c r="AQ19" s="6"/>
+      <c r="AR19" s="9"/>
+      <c r="AS19" s="9"/>
+      <c r="AT19" s="9"/>
+      <c r="AU19" s="9"/>
+      <c r="AV19" s="9"/>
+      <c r="AW19" s="12"/>
+      <c r="AX19" s="9"/>
+      <c r="AY19" s="9"/>
+      <c r="AZ19" s="9"/>
+      <c r="BA19" s="9"/>
+      <c r="BB19" s="9"/>
+      <c r="BC19" s="9"/>
+      <c r="BD19" s="9"/>
+      <c r="BE19" s="9"/>
+      <c r="BF19" s="12"/>
+      <c r="BG19" s="9"/>
+      <c r="BH19" s="7"/>
+      <c r="BI19" s="9"/>
+      <c r="BJ19" s="9"/>
+      <c r="BK19" s="37"/>
+      <c r="BL19" s="37"/>
+      <c r="BM19" s="37"/>
+      <c r="BN19" s="37"/>
+      <c r="BO19" s="37"/>
+      <c r="BP19" s="37"/>
+      <c r="BQ19" s="37"/>
+      <c r="BR19" s="37"/>
+      <c r="BS19" s="37"/>
+      <c r="BT19" s="37"/>
+      <c r="BU19" s="37"/>
+      <c r="BV19" s="37"/>
+      <c r="BW19" s="37"/>
+      <c r="BX19" s="37"/>
+      <c r="BY19" s="37"/>
+      <c r="BZ19" s="37"/>
+      <c r="CA19" s="37"/>
+      <c r="CB19" s="37"/>
+      <c r="CC19" s="37"/>
+      <c r="CD19" s="37"/>
+      <c r="CE19" s="37"/>
+      <c r="CF19" s="37"/>
+      <c r="CG19" s="37"/>
+      <c r="CH19" s="37"/>
+      <c r="CI19" s="37"/>
+      <c r="CJ19" s="37"/>
+      <c r="CK19" s="37"/>
+      <c r="CL19" s="37"/>
+      <c r="CM19" s="37"/>
+      <c r="CN19" s="37"/>
+      <c r="CO19" s="37"/>
+      <c r="CP19" s="37"/>
+      <c r="CQ19" s="37"/>
+      <c r="CR19" s="37"/>
+      <c r="CS19" s="37"/>
+      <c r="CT19" s="37"/>
+      <c r="CU19" s="37"/>
+      <c r="CV19" s="37"/>
+      <c r="CW19" s="37"/>
+      <c r="CX19" s="37"/>
+      <c r="CY19" s="37"/>
+      <c r="CZ19" s="37"/>
+      <c r="DA19" s="37"/>
+      <c r="DB19" s="37"/>
+      <c r="DC19" s="37"/>
+      <c r="DD19" s="37"/>
+      <c r="DE19" s="37"/>
+      <c r="DF19" s="37"/>
+      <c r="DG19" s="37"/>
+      <c r="DH19" s="37"/>
+      <c r="DI19" s="37"/>
+      <c r="DJ19" s="37"/>
+      <c r="DK19" s="37"/>
+      <c r="DL19" s="37"/>
+      <c r="DM19" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="DN19" s="9">
+        <v>200</v>
+      </c>
+      <c r="DO19" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="1:119">
+      <c r="A20" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="6"/>
+      <c r="AH20" s="6"/>
+      <c r="AI20" s="9"/>
+      <c r="AJ20" s="9"/>
+      <c r="AK20" s="9"/>
+      <c r="AL20" s="9"/>
+      <c r="AM20" s="9"/>
+      <c r="AN20" s="12"/>
+      <c r="AO20" s="9"/>
+      <c r="AP20" s="6"/>
+      <c r="AQ20" s="6"/>
+      <c r="AR20" s="9"/>
+      <c r="AS20" s="9"/>
+      <c r="AT20" s="9"/>
+      <c r="AU20" s="9"/>
+      <c r="AV20" s="9"/>
+      <c r="AW20" s="12"/>
+      <c r="AX20" s="9"/>
+      <c r="AY20" s="6"/>
+      <c r="AZ20" s="6"/>
+      <c r="BA20" s="9"/>
+      <c r="BB20" s="9"/>
+      <c r="BC20" s="9"/>
+      <c r="BD20" s="9"/>
+      <c r="BE20" s="9"/>
+      <c r="BF20" s="12"/>
+      <c r="BG20" s="9"/>
+      <c r="BH20" s="7"/>
+      <c r="BI20" s="9"/>
+      <c r="BJ20" s="9"/>
+      <c r="BK20" s="37"/>
+      <c r="BL20" s="37"/>
+      <c r="BM20" s="37"/>
+      <c r="BN20" s="37"/>
+      <c r="BO20" s="37"/>
+      <c r="BP20" s="37"/>
+      <c r="BQ20" s="37"/>
+      <c r="BR20" s="37"/>
+      <c r="BS20" s="37"/>
+      <c r="BT20" s="37"/>
+      <c r="BU20" s="37"/>
+      <c r="BV20" s="37"/>
+      <c r="BW20" s="37"/>
+      <c r="BX20" s="37"/>
+      <c r="BY20" s="37"/>
+      <c r="BZ20" s="37"/>
+      <c r="CA20" s="37"/>
+      <c r="CB20" s="37"/>
+      <c r="CC20" s="37"/>
+      <c r="CD20" s="37"/>
+      <c r="CE20" s="37"/>
+      <c r="CF20" s="37"/>
+      <c r="CG20" s="37"/>
+      <c r="CH20" s="37"/>
+      <c r="CI20" s="37"/>
+      <c r="CJ20" s="37"/>
+      <c r="CK20" s="37"/>
+      <c r="CL20" s="37"/>
+      <c r="CM20" s="37"/>
+      <c r="CN20" s="37"/>
+      <c r="CO20" s="37"/>
+      <c r="CP20" s="37"/>
+      <c r="CQ20" s="37"/>
+      <c r="CR20" s="37"/>
+      <c r="CS20" s="37"/>
+      <c r="CT20" s="37"/>
+      <c r="CU20" s="37"/>
+      <c r="CV20" s="37"/>
+      <c r="CW20" s="37"/>
+      <c r="CX20" s="37"/>
+      <c r="CY20" s="37"/>
+      <c r="CZ20" s="37"/>
+      <c r="DA20" s="37"/>
+      <c r="DB20" s="37"/>
+      <c r="DC20" s="37"/>
+      <c r="DD20" s="37"/>
+      <c r="DE20" s="37"/>
+      <c r="DF20" s="37"/>
+      <c r="DG20" s="37"/>
+      <c r="DH20" s="37"/>
+      <c r="DI20" s="37"/>
+      <c r="DJ20" s="37"/>
+      <c r="DK20" s="37"/>
+      <c r="DL20" s="37"/>
+      <c r="DM20" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="DN20" s="9">
+        <v>200</v>
+      </c>
+      <c r="DO20" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="1:119">
+      <c r="A21" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="9"/>
+      <c r="AJ21" s="9"/>
+      <c r="AK21" s="9"/>
+      <c r="AL21" s="9"/>
+      <c r="AM21" s="9"/>
+      <c r="AN21" s="12"/>
+      <c r="AO21" s="9"/>
+      <c r="AP21" s="6"/>
+      <c r="AQ21" s="6"/>
+      <c r="AR21" s="9"/>
+      <c r="AS21" s="9"/>
+      <c r="AT21" s="9"/>
+      <c r="AU21" s="9"/>
+      <c r="AV21" s="9"/>
+      <c r="AW21" s="12"/>
+      <c r="AX21" s="9"/>
+      <c r="AY21" s="6"/>
+      <c r="AZ21" s="6"/>
+      <c r="BA21" s="9"/>
+      <c r="BB21" s="9"/>
+      <c r="BC21" s="9"/>
+      <c r="BD21" s="9"/>
+      <c r="BE21" s="9"/>
+      <c r="BF21" s="12"/>
+      <c r="BG21" s="9"/>
+      <c r="BH21" s="7"/>
+      <c r="BI21" s="9"/>
+      <c r="BJ21" s="9"/>
+      <c r="BK21" s="37"/>
+      <c r="BL21" s="37"/>
+      <c r="BM21" s="37"/>
+      <c r="BN21" s="37"/>
+      <c r="BO21" s="37"/>
+      <c r="BP21" s="37"/>
+      <c r="BQ21" s="37"/>
+      <c r="BR21" s="37"/>
+      <c r="BS21" s="37"/>
+      <c r="BT21" s="37"/>
+      <c r="BU21" s="37"/>
+      <c r="BV21" s="37"/>
+      <c r="BW21" s="37"/>
+      <c r="BX21" s="37"/>
+      <c r="BY21" s="37"/>
+      <c r="BZ21" s="37"/>
+      <c r="CA21" s="37"/>
+      <c r="CB21" s="37"/>
+      <c r="CC21" s="37"/>
+      <c r="CD21" s="37"/>
+      <c r="CE21" s="37"/>
+      <c r="CF21" s="37"/>
+      <c r="CG21" s="37"/>
+      <c r="CH21" s="37"/>
+      <c r="CI21" s="37"/>
+      <c r="CJ21" s="37"/>
+      <c r="CK21" s="37"/>
+      <c r="CL21" s="37"/>
+      <c r="CM21" s="37"/>
+      <c r="CN21" s="37"/>
+      <c r="CO21" s="37"/>
+      <c r="CP21" s="37"/>
+      <c r="CQ21" s="37"/>
+      <c r="CR21" s="37"/>
+      <c r="CS21" s="37"/>
+      <c r="CT21" s="37"/>
+      <c r="CU21" s="37"/>
+      <c r="CV21" s="37"/>
+      <c r="CW21" s="37"/>
+      <c r="CX21" s="37"/>
+      <c r="CY21" s="37"/>
+      <c r="CZ21" s="37"/>
+      <c r="DA21" s="37"/>
+      <c r="DB21" s="37"/>
+      <c r="DC21" s="37"/>
+      <c r="DD21" s="37"/>
+      <c r="DE21" s="37"/>
+      <c r="DF21" s="37"/>
+      <c r="DG21" s="37"/>
+      <c r="DH21" s="37"/>
+      <c r="DI21" s="37"/>
+      <c r="DJ21" s="37"/>
+      <c r="DK21" s="37"/>
+      <c r="DL21" s="37"/>
+      <c r="DM21" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="DN21" s="9">
+        <v>200</v>
+      </c>
+      <c r="DO21" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B9:D9"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
@@ -4062,8 +7128,8 @@
   <sheetPr/>
   <dimension ref="A1:BO5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="BM2" sqref="BM2:BO2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="4"/>
@@ -4110,184 +7176,184 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>234</v>
+        <v>187</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="O1" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="AE1" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF1" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="AG1" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH1" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="AI1" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="AK1" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="AL1" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="AM1" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="T1" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="X1" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y1" s="13" t="s">
+      <c r="AN1" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="Z1" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA1" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="AB1" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="AC1" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="AD1" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="AE1" s="13" t="s">
+      <c r="AO1" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="AF1" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="AG1" s="13" t="s">
+      <c r="AP1" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="AH1" s="13" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="AI1" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="AK1" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="AM1" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="AO1" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="AU1" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="AV1" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="AW1" s="5" t="s">
-        <v>260</v>
-      </c>
       <c r="AX1" s="13" t="s">
-        <v>205</v>
+        <v>266</v>
       </c>
       <c r="AY1" s="13" t="s">
-        <v>206</v>
+        <v>267</v>
       </c>
       <c r="AZ1" s="13" t="s">
-        <v>207</v>
+        <v>268</v>
       </c>
       <c r="BA1" s="13" t="s">
-        <v>208</v>
+        <v>269</v>
       </c>
       <c r="BB1" s="13" t="s">
-        <v>209</v>
+        <v>270</v>
       </c>
       <c r="BC1" s="13" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="BD1" s="14" t="s">
-        <v>212</v>
+        <v>276</v>
       </c>
       <c r="BE1" s="13" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="BF1" s="13" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="BG1" s="13" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="BH1" s="13" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="BI1" s="13" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="BJ1" s="13" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="BK1" s="13" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="BL1" s="13" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="BM1" s="15" t="s">
         <v>14</v>
@@ -4301,16 +7367,16 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:67">
       <c r="A2" s="6" t="s">
-        <v>270</v>
+        <v>329</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>22</v>
@@ -4325,13 +7391,13 @@
         <v>74</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>217</v>
+        <v>298</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>217</v>
+        <v>298</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>219</v>
+        <v>299</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>22</v>
@@ -4349,13 +7415,13 @@
         <v>0</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
@@ -4403,7 +7469,7 @@
       <c r="BK2" s="9"/>
       <c r="BL2" s="9"/>
       <c r="BM2" s="7" t="s">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="BN2" s="9">
         <v>200</v>
@@ -4414,16 +7480,16 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:67">
       <c r="A3" s="6" t="s">
-        <v>273</v>
+        <v>331</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>274</v>
+        <v>332</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>275</v>
+        <v>333</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>22</v>
@@ -4438,13 +7504,13 @@
         <v>74</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>217</v>
+        <v>298</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>217</v>
+        <v>298</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>219</v>
+        <v>299</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>22</v>
@@ -4462,13 +7528,13 @@
         <v>0</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="T3" s="6" t="s">
         <v>22</v>
@@ -4477,19 +7543,19 @@
         <v>21</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>217</v>
+        <v>298</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>217</v>
+        <v>298</v>
       </c>
       <c r="Z3" s="12" t="s">
-        <v>219</v>
+        <v>299</v>
       </c>
       <c r="AA3" s="6" t="s">
         <v>22</v>
@@ -4498,22 +7564,22 @@
         <v>21</v>
       </c>
       <c r="AC3" s="9" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="AE3" s="9">
         <v>0</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="AG3" s="9" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AH3" s="9" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="AI3" s="9"/>
       <c r="AJ3" s="9"/>
@@ -4546,7 +7612,7 @@
       <c r="BK3" s="9"/>
       <c r="BL3" s="9"/>
       <c r="BM3" s="7" t="s">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="BN3" s="9">
         <v>200</v>
@@ -4557,16 +7623,16 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:67">
       <c r="A4" s="6" t="s">
-        <v>276</v>
+        <v>334</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>277</v>
+        <v>335</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>278</v>
+        <v>336</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>22</v>
@@ -4581,13 +7647,13 @@
         <v>74</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>217</v>
+        <v>298</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>217</v>
+        <v>298</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>219</v>
+        <v>299</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>22</v>
@@ -4605,13 +7671,13 @@
         <v>0</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="T4" s="6" t="s">
         <v>22</v>
@@ -4620,19 +7686,19 @@
         <v>21</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="X4" s="9" t="s">
-        <v>217</v>
+        <v>298</v>
       </c>
       <c r="Y4" s="9" t="s">
-        <v>217</v>
+        <v>298</v>
       </c>
       <c r="Z4" s="12" t="s">
-        <v>219</v>
+        <v>299</v>
       </c>
       <c r="AA4" s="6" t="s">
         <v>22</v>
@@ -4641,22 +7707,22 @@
         <v>21</v>
       </c>
       <c r="AC4" s="9" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="AD4" s="9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="AE4" s="9">
         <v>0</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="AG4" s="9" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AH4" s="9" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="AI4" s="6" t="s">
         <v>22</v>
@@ -4665,19 +7731,19 @@
         <v>21</v>
       </c>
       <c r="AK4" s="9" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AL4" s="9" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AM4" s="9" t="s">
-        <v>217</v>
+        <v>298</v>
       </c>
       <c r="AN4" s="9" t="s">
-        <v>217</v>
+        <v>298</v>
       </c>
       <c r="AO4" s="12" t="s">
-        <v>219</v>
+        <v>299</v>
       </c>
       <c r="AP4" s="6" t="s">
         <v>22</v>
@@ -4686,22 +7752,22 @@
         <v>21</v>
       </c>
       <c r="AR4" s="9" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AS4" s="9" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AT4" s="9">
         <v>0</v>
       </c>
       <c r="AU4" s="9" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="AV4" s="9" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AW4" s="9" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="AX4" s="9"/>
       <c r="AY4" s="9"/>
@@ -4719,7 +7785,7 @@
       <c r="BK4" s="9"/>
       <c r="BL4" s="9"/>
       <c r="BM4" s="7" t="s">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="BN4" s="9">
         <v>200</v>
@@ -4730,16 +7796,16 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:67">
       <c r="A5" s="6" t="s">
-        <v>279</v>
+        <v>337</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>280</v>
+        <v>338</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>281</v>
+        <v>339</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>22</v>
@@ -4754,13 +7820,13 @@
         <v>74</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>217</v>
+        <v>298</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>217</v>
+        <v>298</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>219</v>
+        <v>299</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>22</v>
@@ -4778,13 +7844,13 @@
         <v>0</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="T5" s="6" t="s">
         <v>22</v>
@@ -4793,19 +7859,19 @@
         <v>21</v>
       </c>
       <c r="V5" s="9" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="X5" s="9" t="s">
-        <v>217</v>
+        <v>298</v>
       </c>
       <c r="Y5" s="9" t="s">
-        <v>217</v>
+        <v>298</v>
       </c>
       <c r="Z5" s="12" t="s">
-        <v>219</v>
+        <v>299</v>
       </c>
       <c r="AA5" s="6" t="s">
         <v>22</v>
@@ -4814,22 +7880,22 @@
         <v>21</v>
       </c>
       <c r="AC5" s="9" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="AD5" s="9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="AE5" s="9">
         <v>0</v>
       </c>
       <c r="AF5" s="9" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="AG5" s="9" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AH5" s="9" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="AI5" s="6" t="s">
         <v>22</v>
@@ -4838,19 +7904,19 @@
         <v>21</v>
       </c>
       <c r="AK5" s="9" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AL5" s="9" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AM5" s="9" t="s">
-        <v>217</v>
+        <v>298</v>
       </c>
       <c r="AN5" s="9" t="s">
-        <v>217</v>
+        <v>298</v>
       </c>
       <c r="AO5" s="12" t="s">
-        <v>219</v>
+        <v>299</v>
       </c>
       <c r="AP5" s="6" t="s">
         <v>22</v>
@@ -4859,22 +7925,22 @@
         <v>21</v>
       </c>
       <c r="AR5" s="9" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AS5" s="9" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AT5" s="9">
         <v>0</v>
       </c>
       <c r="AU5" s="9" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="AV5" s="9" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AW5" s="9" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="AX5" s="6" t="s">
         <v>22</v>
@@ -4883,19 +7949,19 @@
         <v>21</v>
       </c>
       <c r="AZ5" s="9" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="BA5" s="9" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="BB5" s="9" t="s">
-        <v>217</v>
+        <v>298</v>
       </c>
       <c r="BC5" s="9" t="s">
-        <v>217</v>
+        <v>298</v>
       </c>
       <c r="BD5" s="12" t="s">
-        <v>219</v>
+        <v>299</v>
       </c>
       <c r="BE5" s="6" t="s">
         <v>22</v>
@@ -4904,25 +7970,25 @@
         <v>21</v>
       </c>
       <c r="BG5" s="9" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="BH5" s="9" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="BI5" s="9">
         <v>0</v>
       </c>
       <c r="BJ5" s="9" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="BK5" s="9" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="BL5" s="9" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="BM5" s="7" t="s">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="BN5" s="9">
         <v>200</v>
@@ -4974,7 +8040,7 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="13" t="s">
@@ -4998,13 +8064,13 @@
       <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="56" t="s">
         <v>14</v>
       </c>
       <c r="M1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="45" t="s">
+      <c r="N1" s="57" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5015,10 +8081,10 @@
       <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="23" t="s">
         <v>54</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -5038,13 +8104,13 @@
       <c r="K2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="46" t="s">
+      <c r="L2" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="47">
+      <c r="M2" s="59">
         <v>200</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="60" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5055,10 +8121,10 @@
       <c r="B3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="23" t="s">
         <v>54</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -5081,10 +8147,10 @@
       <c r="L3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="47">
+      <c r="M3" s="59">
         <v>400</v>
       </c>
-      <c r="N3" s="48"/>
+      <c r="N3" s="60"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
       <c r="A4" s="6" t="s">
@@ -5093,10 +8159,10 @@
       <c r="B4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="23" t="s">
         <v>54</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -5119,10 +8185,10 @@
       <c r="L4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="47">
+      <c r="M4" s="59">
         <v>400</v>
       </c>
-      <c r="N4" s="48"/>
+      <c r="N4" s="60"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
       <c r="A5" s="6" t="s">
@@ -5131,10 +8197,10 @@
       <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="23" t="s">
         <v>57</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -5156,13 +8222,13 @@
       <c r="K5" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="46" t="s">
+      <c r="L5" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="47">
+      <c r="M5" s="59">
         <v>200</v>
       </c>
-      <c r="N5" s="48" t="s">
+      <c r="N5" s="60" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5173,10 +8239,10 @@
       <c r="B6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="23" t="s">
         <v>57</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -5201,10 +8267,10 @@
       <c r="L6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="47">
+      <c r="M6" s="59">
         <v>400</v>
       </c>
-      <c r="N6" s="48"/>
+      <c r="N6" s="60"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
       <c r="A7" s="6" t="s">
@@ -5213,10 +8279,10 @@
       <c r="B7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="23" t="s">
         <v>57</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -5241,10 +8307,10 @@
       <c r="L7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="47">
+      <c r="M7" s="59">
         <v>400</v>
       </c>
-      <c r="N7" s="48"/>
+      <c r="N7" s="60"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
       <c r="A8" s="6" t="s">
@@ -5253,10 +8319,10 @@
       <c r="B8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="23" t="s">
         <v>58</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -5280,13 +8346,13 @@
       <c r="K8" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="46" t="s">
+      <c r="L8" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="47">
+      <c r="M8" s="59">
         <v>200</v>
       </c>
-      <c r="N8" s="48" t="s">
+      <c r="N8" s="60" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5297,10 +8363,10 @@
       <c r="B9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="23" t="s">
         <v>58</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -5327,10 +8393,10 @@
       <c r="L9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="47">
+      <c r="M9" s="59">
         <v>400</v>
       </c>
-      <c r="N9" s="48"/>
+      <c r="N9" s="60"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
       <c r="A10" s="6" t="s">
@@ -5339,10 +8405,10 @@
       <c r="B10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="23" t="s">
         <v>58</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -5369,10 +8435,10 @@
       <c r="L10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="47">
+      <c r="M10" s="59">
         <v>400</v>
       </c>
-      <c r="N10" s="48"/>
+      <c r="N10" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5385,8 +8451,8 @@
   <sheetPr/>
   <dimension ref="A1:AZ30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="N13" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
@@ -5421,7 +8487,7 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -5464,82 +8530,82 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" s="19" customFormat="1" ht="21" customHeight="1" spans="1:52">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23" t="s">
+    <row r="2" s="17" customFormat="1" ht="21" customHeight="1" spans="1:52">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="36"/>
-      <c r="AQ2" s="36"/>
-      <c r="AR2" s="36"/>
-      <c r="AS2" s="36"/>
-      <c r="AT2" s="36"/>
-      <c r="AU2" s="36"/>
-      <c r="AV2" s="36"/>
-      <c r="AW2" s="36"/>
-      <c r="AX2" s="36"/>
-      <c r="AY2" s="36"/>
-      <c r="AZ2" s="36"/>
-    </row>
-    <row r="3" s="20" customFormat="1" ht="47" customHeight="1" spans="1:17">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="50"/>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="50"/>
+      <c r="AO2" s="50"/>
+      <c r="AP2" s="50"/>
+      <c r="AQ2" s="50"/>
+      <c r="AR2" s="50"/>
+      <c r="AS2" s="50"/>
+      <c r="AT2" s="50"/>
+      <c r="AU2" s="50"/>
+      <c r="AV2" s="50"/>
+      <c r="AW2" s="50"/>
+      <c r="AX2" s="50"/>
+      <c r="AY2" s="50"/>
+      <c r="AZ2" s="50"/>
+    </row>
+    <row r="3" s="39" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A3" s="41"/>
+      <c r="B3" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
     </row>
     <row r="4" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A4" s="6" t="s">
@@ -5551,7 +8617,7 @@
       <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="23" t="s">
         <v>72</v>
       </c>
       <c r="E4" s="9" t="s">
@@ -5566,10 +8632,10 @@
       <c r="H4" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="38">
+      <c r="I4" s="52">
         <v>35537</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="53" t="s">
         <v>23</v>
       </c>
       <c r="K4" s="9"/>
@@ -5586,26 +8652,26 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" s="20" customFormat="1" ht="47" customHeight="1" spans="1:17">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27" t="s">
+    <row r="5" s="39" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A5" s="41"/>
+      <c r="B5" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A6" s="6" t="s">
@@ -5617,7 +8683,7 @@
       <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="23" t="s">
         <v>72</v>
       </c>
       <c r="E6" s="9" t="s">
@@ -5632,10 +8698,10 @@
       <c r="H6" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="54">
         <v>61351</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="J6" s="53" t="s">
         <v>79</v>
       </c>
       <c r="K6" s="9"/>
@@ -5652,26 +8718,26 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" s="20" customFormat="1" ht="47" customHeight="1" spans="1:17">
-      <c r="A7" s="26"/>
-      <c r="B7" s="27" t="s">
+    <row r="7" s="39" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A7" s="41"/>
+      <c r="B7" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A8" s="6" t="s">
@@ -5683,7 +8749,7 @@
       <c r="C8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="23" t="s">
         <v>72</v>
       </c>
       <c r="E8" s="9" t="s">
@@ -5698,10 +8764,10 @@
       <c r="H8" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I8" s="54">
         <v>35541</v>
       </c>
-      <c r="J8" s="39" t="s">
+      <c r="J8" s="53" t="s">
         <v>82</v>
       </c>
       <c r="K8" s="9"/>
@@ -5718,26 +8784,26 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" s="20" customFormat="1" ht="47" customHeight="1" spans="1:17">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27" t="s">
+    <row r="9" s="39" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A9" s="41"/>
+      <c r="B9" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A10" s="6" t="s">
@@ -5749,7 +8815,7 @@
       <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="23" t="s">
         <v>72</v>
       </c>
       <c r="E10" s="9" t="s">
@@ -5764,10 +8830,10 @@
       <c r="H10" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I10" s="54">
         <v>35540</v>
       </c>
-      <c r="J10" s="39" t="s">
+      <c r="J10" s="53" t="s">
         <v>85</v>
       </c>
       <c r="K10" s="9"/>
@@ -5784,26 +8850,26 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" s="20" customFormat="1" ht="47" customHeight="1" spans="1:17">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27" t="s">
+    <row r="11" s="39" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A11" s="41"/>
+      <c r="B11" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A12" s="6" t="s">
@@ -5815,7 +8881,7 @@
       <c r="C12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="23" t="s">
         <v>72</v>
       </c>
       <c r="E12" s="9" t="s">
@@ -5830,10 +8896,10 @@
       <c r="H12" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="54">
         <v>61353</v>
       </c>
-      <c r="J12" s="39" t="s">
+      <c r="J12" s="53" t="s">
         <v>88</v>
       </c>
       <c r="K12" s="9"/>
@@ -5850,26 +8916,26 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" s="20" customFormat="1" ht="47" customHeight="1" spans="1:17">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27" t="s">
+    <row r="13" s="39" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A13" s="41"/>
+      <c r="B13" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A14" s="6" t="s">
@@ -5881,7 +8947,7 @@
       <c r="C14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="23" t="s">
         <v>72</v>
       </c>
       <c r="E14" s="9" t="s">
@@ -5896,10 +8962,10 @@
       <c r="H14" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="54">
         <v>61357</v>
       </c>
-      <c r="J14" s="39" t="s">
+      <c r="J14" s="53" t="s">
         <v>91</v>
       </c>
       <c r="K14" s="9"/>
@@ -5916,86 +8982,86 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" s="19" customFormat="1" ht="21" customHeight="1" spans="1:52">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23" t="s">
+    <row r="15" s="17" customFormat="1" ht="21" customHeight="1" spans="1:52">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="33"/>
-      <c r="AB15" s="35"/>
-      <c r="AC15" s="36"/>
-      <c r="AD15" s="36"/>
-      <c r="AE15" s="36"/>
-      <c r="AF15" s="36"/>
-      <c r="AG15" s="36"/>
-      <c r="AH15" s="36"/>
-      <c r="AI15" s="36"/>
-      <c r="AJ15" s="36"/>
-      <c r="AK15" s="36"/>
-      <c r="AL15" s="36"/>
-      <c r="AM15" s="36"/>
-      <c r="AN15" s="36"/>
-      <c r="AO15" s="36"/>
-      <c r="AP15" s="36"/>
-      <c r="AQ15" s="36"/>
-      <c r="AR15" s="36"/>
-      <c r="AS15" s="36"/>
-      <c r="AT15" s="36"/>
-      <c r="AU15" s="36"/>
-      <c r="AV15" s="36"/>
-      <c r="AW15" s="36"/>
-      <c r="AX15" s="36"/>
-      <c r="AY15" s="36"/>
-      <c r="AZ15" s="36"/>
-    </row>
-    <row r="16" s="20" customFormat="1" ht="47" customHeight="1" spans="1:17">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="48"/>
+      <c r="Z15" s="48"/>
+      <c r="AA15" s="48"/>
+      <c r="AB15" s="36"/>
+      <c r="AC15" s="50"/>
+      <c r="AD15" s="50"/>
+      <c r="AE15" s="50"/>
+      <c r="AF15" s="50"/>
+      <c r="AG15" s="50"/>
+      <c r="AH15" s="50"/>
+      <c r="AI15" s="50"/>
+      <c r="AJ15" s="50"/>
+      <c r="AK15" s="50"/>
+      <c r="AL15" s="50"/>
+      <c r="AM15" s="50"/>
+      <c r="AN15" s="50"/>
+      <c r="AO15" s="50"/>
+      <c r="AP15" s="50"/>
+      <c r="AQ15" s="50"/>
+      <c r="AR15" s="50"/>
+      <c r="AS15" s="50"/>
+      <c r="AT15" s="50"/>
+      <c r="AU15" s="50"/>
+      <c r="AV15" s="50"/>
+      <c r="AW15" s="50"/>
+      <c r="AX15" s="50"/>
+      <c r="AY15" s="50"/>
+      <c r="AZ15" s="50"/>
+    </row>
+    <row r="16" s="39" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A16" s="41"/>
+      <c r="B16" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A17" s="6" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>71</v>
@@ -6003,7 +9069,7 @@
       <c r="C17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="23" t="s">
         <v>72</v>
       </c>
       <c r="E17" s="9" t="s">
@@ -6018,11 +9084,11 @@
       <c r="H17" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I17" s="41">
+      <c r="I17" s="54">
         <v>61361</v>
       </c>
-      <c r="J17" s="42" t="s">
-        <v>93</v>
+      <c r="J17" s="53" t="s">
+        <v>94</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
@@ -6038,30 +9104,30 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" s="20" customFormat="1" ht="47" customHeight="1" spans="1:17">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27" t="s">
+    <row r="18" s="39" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A18" s="41"/>
+      <c r="B18" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A19" s="6" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>71</v>
@@ -6069,7 +9135,7 @@
       <c r="C19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="23" t="s">
         <v>72</v>
       </c>
       <c r="E19" s="9" t="s">
@@ -6084,11 +9150,11 @@
       <c r="H19" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="41">
+      <c r="I19" s="54">
         <v>61362</v>
       </c>
-      <c r="J19" s="42" t="s">
-        <v>94</v>
+      <c r="J19" s="53" t="s">
+        <v>96</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
@@ -6104,30 +9170,30 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" s="20" customFormat="1" ht="47" customHeight="1" spans="1:17">
-      <c r="A20" s="26"/>
-      <c r="B20" s="27" t="s">
+    <row r="20" s="39" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A20" s="41"/>
+      <c r="B20" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A21" s="6" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>71</v>
@@ -6135,7 +9201,7 @@
       <c r="C21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="23" t="s">
         <v>72</v>
       </c>
       <c r="E21" s="9" t="s">
@@ -6150,11 +9216,11 @@
       <c r="H21" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I21" s="41">
+      <c r="I21" s="54">
         <v>61363</v>
       </c>
-      <c r="J21" s="42" t="s">
-        <v>95</v>
+      <c r="J21" s="53" t="s">
+        <v>98</v>
       </c>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
@@ -6170,30 +9236,30 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" s="20" customFormat="1" ht="47" customHeight="1" spans="1:17">
-      <c r="A22" s="26"/>
-      <c r="B22" s="27" t="s">
+    <row r="22" s="39" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A22" s="41"/>
+      <c r="B22" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A23" s="6" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>71</v>
@@ -6201,7 +9267,7 @@
       <c r="C23" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="23" t="s">
         <v>72</v>
       </c>
       <c r="E23" s="9" t="s">
@@ -6216,11 +9282,11 @@
       <c r="H23" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I23" s="41">
+      <c r="I23" s="54">
         <v>61364</v>
       </c>
-      <c r="J23" s="42" t="s">
-        <v>96</v>
+      <c r="J23" s="53" t="s">
+        <v>100</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
@@ -6236,30 +9302,30 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" s="20" customFormat="1" ht="47" customHeight="1" spans="1:17">
-      <c r="A24" s="26"/>
-      <c r="B24" s="27" t="s">
+    <row r="24" s="39" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A24" s="41"/>
+      <c r="B24" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="46"/>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A25" s="6" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>71</v>
@@ -6267,7 +9333,7 @@
       <c r="C25" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="23" t="s">
         <v>72</v>
       </c>
       <c r="E25" s="9" t="s">
@@ -6282,11 +9348,11 @@
       <c r="H25" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I25" s="41">
+      <c r="I25" s="54">
         <v>61365</v>
       </c>
-      <c r="J25" s="42" t="s">
-        <v>97</v>
+      <c r="J25" s="53" t="s">
+        <v>102</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
@@ -6302,30 +9368,30 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" s="20" customFormat="1" ht="47" customHeight="1" spans="1:17">
-      <c r="A26" s="26"/>
-      <c r="B26" s="27" t="s">
+    <row r="26" s="39" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A26" s="41"/>
+      <c r="B26" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="46"/>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A27" s="6" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>71</v>
@@ -6333,7 +9399,7 @@
       <c r="C27" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="23" t="s">
         <v>72</v>
       </c>
       <c r="E27" s="9" t="s">
@@ -6348,11 +9414,11 @@
       <c r="H27" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I27" s="41">
+      <c r="I27" s="54">
         <v>61366</v>
       </c>
-      <c r="J27" s="42" t="s">
-        <v>98</v>
+      <c r="J27" s="53" t="s">
+        <v>104</v>
       </c>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
@@ -6372,7 +9438,7 @@
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="18"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="9"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -6389,16 +9455,16 @@
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A29" s="6" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="18" t="s">
-        <v>101</v>
+      <c r="D29" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>73</v>
@@ -6438,16 +9504,16 @@
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A30" s="6" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="18" t="s">
-        <v>104</v>
+      <c r="D30" s="23" t="s">
+        <v>110</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>73</v>
@@ -6550,7 +9616,7 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -6595,7 +9661,7 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A2" s="6" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>71</v>
@@ -6603,11 +9669,11 @@
       <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="23" t="s">
         <v>72</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>22</v>
@@ -6616,7 +9682,7 @@
         <v>21</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>23</v>
@@ -6640,19 +9706,19 @@
     </row>
     <row r="3" customHeight="1" spans="1:17">
       <c r="A3" s="6" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>101</v>
+      <c r="D3" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>22</v>
@@ -6661,7 +9727,7 @@
         <v>21</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>23</v>
@@ -6689,19 +9755,19 @@
     </row>
     <row r="4" customHeight="1" spans="1:17">
       <c r="A4" s="6" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>104</v>
+      <c r="D4" s="23" t="s">
+        <v>110</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>22</v>
@@ -6710,7 +9776,7 @@
         <v>21</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>23</v>
@@ -6785,7 +9851,7 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -6830,7 +9896,7 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A2" s="6" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>71</v>
@@ -6838,11 +9904,11 @@
       <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="23" t="s">
         <v>72</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>22</v>
@@ -6851,7 +9917,7 @@
         <v>21</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>23</v>
@@ -6875,19 +9941,19 @@
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A3" s="6" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>101</v>
+      <c r="D3" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>22</v>
@@ -6896,7 +9962,7 @@
         <v>21</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>23</v>
@@ -6924,19 +9990,19 @@
     </row>
     <row r="4" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A4" s="6" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>104</v>
+      <c r="D4" s="23" t="s">
+        <v>110</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>22</v>
@@ -6945,7 +10011,7 @@
         <v>21</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>23</v>
@@ -7020,7 +10086,7 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -7065,7 +10131,7 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A2" s="6" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>71</v>
@@ -7073,11 +10139,11 @@
       <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="23" t="s">
         <v>72</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>22</v>
@@ -7086,7 +10152,7 @@
         <v>21</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>23</v>
@@ -7110,19 +10176,19 @@
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A3" s="6" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>101</v>
+      <c r="D3" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>22</v>
@@ -7131,7 +10197,7 @@
         <v>21</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>23</v>
@@ -7159,19 +10225,19 @@
     </row>
     <row r="4" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A4" s="6" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>104</v>
+      <c r="D4" s="23" t="s">
+        <v>110</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>22</v>
@@ -7180,7 +10246,7 @@
         <v>21</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>23</v>
@@ -7221,8 +10287,8 @@
   <sheetPr/>
   <dimension ref="A1:AZ27"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A19" sqref="$A19:$XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
@@ -7255,32 +10321,32 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" s="21" t="s">
+      <c r="H1" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="21" t="s">
-        <v>115</v>
+      <c r="L1" s="40" t="s">
+        <v>121</v>
       </c>
       <c r="M1" s="15" t="s">
         <v>14</v>
@@ -7292,93 +10358,93 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" s="19" customFormat="1" ht="21" customHeight="1" spans="1:52">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23" t="s">
+    <row r="2" s="17" customFormat="1" ht="21" customHeight="1" spans="1:52">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="36"/>
-      <c r="AQ2" s="36"/>
-      <c r="AR2" s="36"/>
-      <c r="AS2" s="36"/>
-      <c r="AT2" s="36"/>
-      <c r="AU2" s="36"/>
-      <c r="AV2" s="36"/>
-      <c r="AW2" s="36"/>
-      <c r="AX2" s="36"/>
-      <c r="AY2" s="36"/>
-      <c r="AZ2" s="36"/>
-    </row>
-    <row r="3" s="20" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="50"/>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="50"/>
+      <c r="AO2" s="50"/>
+      <c r="AP2" s="50"/>
+      <c r="AQ2" s="50"/>
+      <c r="AR2" s="50"/>
+      <c r="AS2" s="50"/>
+      <c r="AT2" s="50"/>
+      <c r="AU2" s="50"/>
+      <c r="AV2" s="50"/>
+      <c r="AW2" s="50"/>
+      <c r="AX2" s="50"/>
+      <c r="AY2" s="50"/>
+      <c r="AZ2" s="50"/>
+    </row>
+    <row r="3" s="39" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A3" s="41"/>
+      <c r="B3" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
     </row>
     <row r="4" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A4" s="6" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>118</v>
+      <c r="D4" s="23" t="s">
+        <v>124</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>22</v>
@@ -7390,10 +10456,10 @@
         <v>74</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="J4" s="9">
         <v>0</v>
@@ -7402,10 +10468,10 @@
         <v>73</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="N4" s="9">
         <v>200</v>
@@ -7414,37 +10480,37 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" s="20" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27" t="s">
+    <row r="5" s="39" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A5" s="41"/>
+      <c r="B5" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A6" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>118</v>
+      <c r="D6" s="23" t="s">
+        <v>124</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>22</v>
@@ -7456,10 +10522,10 @@
         <v>74</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="J6" s="9">
         <v>0</v>
@@ -7468,10 +10534,10 @@
         <v>73</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>122</v>
+        <v>132</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="N6" s="9">
         <v>200</v>
@@ -7480,37 +10546,37 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" s="20" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A7" s="26"/>
-      <c r="B7" s="27" t="s">
+    <row r="7" s="39" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A7" s="41"/>
+      <c r="B7" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A8" s="6" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>118</v>
+      <c r="D8" s="23" t="s">
+        <v>124</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>22</v>
@@ -7522,10 +10588,10 @@
         <v>74</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="J8" s="9">
         <v>0</v>
@@ -7534,10 +10600,10 @@
         <v>73</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>122</v>
+        <v>136</v>
+      </c>
+      <c r="M8" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="N8" s="9">
         <v>200</v>
@@ -7546,37 +10612,37 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" s="20" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27" t="s">
+    <row r="9" s="39" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A9" s="41"/>
+      <c r="B9" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A10" s="6" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>118</v>
+      <c r="D10" s="23" t="s">
+        <v>124</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>22</v>
@@ -7588,10 +10654,10 @@
         <v>74</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="J10" s="9">
         <v>0</v>
@@ -7600,10 +10666,10 @@
         <v>73</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="M10" s="18" t="s">
-        <v>122</v>
+        <v>140</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="N10" s="9">
         <v>200</v>
@@ -7612,37 +10678,37 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" s="20" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27" t="s">
+    <row r="11" s="39" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A11" s="41"/>
+      <c r="B11" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A12" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>118</v>
+      <c r="D12" s="23" t="s">
+        <v>124</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>22</v>
@@ -7654,10 +10720,10 @@
         <v>74</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="J12" s="9">
         <v>0</v>
@@ -7666,10 +10732,10 @@
         <v>73</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="M12" s="18" t="s">
-        <v>122</v>
+        <v>144</v>
+      </c>
+      <c r="M12" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="N12" s="9">
         <v>200</v>
@@ -7678,37 +10744,37 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" s="20" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27" t="s">
+    <row r="13" s="39" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A13" s="41"/>
+      <c r="B13" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A14" s="6" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="18" t="s">
-        <v>118</v>
+      <c r="D14" s="23" t="s">
+        <v>124</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>22</v>
@@ -7720,10 +10786,10 @@
         <v>74</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="J14" s="9">
         <v>0</v>
@@ -7732,10 +10798,10 @@
         <v>73</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="M14" s="18" t="s">
-        <v>122</v>
+        <v>148</v>
+      </c>
+      <c r="M14" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="N14" s="9">
         <v>200</v>
@@ -7744,93 +10810,93 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" s="19" customFormat="1" ht="21" customHeight="1" spans="1:52">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23" t="s">
+    <row r="15" s="17" customFormat="1" ht="21" customHeight="1" spans="1:52">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="33"/>
-      <c r="AB15" s="35"/>
-      <c r="AC15" s="36"/>
-      <c r="AD15" s="36"/>
-      <c r="AE15" s="36"/>
-      <c r="AF15" s="36"/>
-      <c r="AG15" s="36"/>
-      <c r="AH15" s="36"/>
-      <c r="AI15" s="36"/>
-      <c r="AJ15" s="36"/>
-      <c r="AK15" s="36"/>
-      <c r="AL15" s="36"/>
-      <c r="AM15" s="36"/>
-      <c r="AN15" s="36"/>
-      <c r="AO15" s="36"/>
-      <c r="AP15" s="36"/>
-      <c r="AQ15" s="36"/>
-      <c r="AR15" s="36"/>
-      <c r="AS15" s="36"/>
-      <c r="AT15" s="36"/>
-      <c r="AU15" s="36"/>
-      <c r="AV15" s="36"/>
-      <c r="AW15" s="36"/>
-      <c r="AX15" s="36"/>
-      <c r="AY15" s="36"/>
-      <c r="AZ15" s="36"/>
-    </row>
-    <row r="16" s="20" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="48"/>
+      <c r="Z15" s="48"/>
+      <c r="AA15" s="48"/>
+      <c r="AB15" s="36"/>
+      <c r="AC15" s="50"/>
+      <c r="AD15" s="50"/>
+      <c r="AE15" s="50"/>
+      <c r="AF15" s="50"/>
+      <c r="AG15" s="50"/>
+      <c r="AH15" s="50"/>
+      <c r="AI15" s="50"/>
+      <c r="AJ15" s="50"/>
+      <c r="AK15" s="50"/>
+      <c r="AL15" s="50"/>
+      <c r="AM15" s="50"/>
+      <c r="AN15" s="50"/>
+      <c r="AO15" s="50"/>
+      <c r="AP15" s="50"/>
+      <c r="AQ15" s="50"/>
+      <c r="AR15" s="50"/>
+      <c r="AS15" s="50"/>
+      <c r="AT15" s="50"/>
+      <c r="AU15" s="50"/>
+      <c r="AV15" s="50"/>
+      <c r="AW15" s="50"/>
+      <c r="AX15" s="50"/>
+      <c r="AY15" s="50"/>
+      <c r="AZ15" s="50"/>
+    </row>
+    <row r="16" s="39" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A16" s="41"/>
+      <c r="B16" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A17" s="6" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="18" t="s">
-        <v>118</v>
+      <c r="D17" s="23" t="s">
+        <v>124</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>22</v>
@@ -7842,10 +10908,10 @@
         <v>74</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="J17" s="9">
         <v>0</v>
@@ -7854,10 +10920,10 @@
         <v>73</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="M17" s="18" t="s">
-        <v>122</v>
+        <v>152</v>
+      </c>
+      <c r="M17" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="N17" s="9">
         <v>200</v>
@@ -7866,37 +10932,37 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" s="20" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27" t="s">
+    <row r="18" s="39" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A18" s="41"/>
+      <c r="B18" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A19" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>118</v>
+      <c r="D19" s="23" t="s">
+        <v>124</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>22</v>
@@ -7908,10 +10974,10 @@
         <v>74</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="J19" s="9">
         <v>0</v>
@@ -7920,10 +10986,10 @@
         <v>73</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="M19" s="18" t="s">
-        <v>122</v>
+        <v>156</v>
+      </c>
+      <c r="M19" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="N19" s="9">
         <v>200</v>
@@ -7932,37 +10998,37 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" s="20" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A20" s="26"/>
-      <c r="B20" s="27" t="s">
+    <row r="20" s="39" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A20" s="41"/>
+      <c r="B20" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A21" s="6" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="18" t="s">
-        <v>118</v>
+      <c r="D21" s="23" t="s">
+        <v>124</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>22</v>
@@ -7974,10 +11040,10 @@
         <v>74</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="J21" s="9">
         <v>0</v>
@@ -7986,10 +11052,10 @@
         <v>73</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="M21" s="18" t="s">
-        <v>122</v>
+        <v>160</v>
+      </c>
+      <c r="M21" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="N21" s="9">
         <v>200</v>
@@ -7998,37 +11064,37 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" s="20" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A22" s="26"/>
-      <c r="B22" s="27" t="s">
+    <row r="22" s="39" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A22" s="41"/>
+      <c r="B22" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A23" s="6" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="18" t="s">
-        <v>118</v>
+      <c r="D23" s="23" t="s">
+        <v>124</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>22</v>
@@ -8040,10 +11106,10 @@
         <v>74</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="J23" s="9">
         <v>0</v>
@@ -8052,10 +11118,10 @@
         <v>73</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="M23" s="18" t="s">
-        <v>122</v>
+        <v>164</v>
+      </c>
+      <c r="M23" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="N23" s="9">
         <v>200</v>
@@ -8064,37 +11130,37 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" s="20" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A24" s="26"/>
-      <c r="B24" s="27" t="s">
+    <row r="24" s="39" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A24" s="41"/>
+      <c r="B24" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A25" s="6" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="18" t="s">
-        <v>118</v>
+      <c r="D25" s="23" t="s">
+        <v>124</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>22</v>
@@ -8106,10 +11172,10 @@
         <v>74</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="J25" s="9">
         <v>0</v>
@@ -8118,10 +11184,10 @@
         <v>73</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="M25" s="18" t="s">
-        <v>122</v>
+        <v>168</v>
+      </c>
+      <c r="M25" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="N25" s="9">
         <v>200</v>
@@ -8130,37 +11196,37 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" s="20" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A26" s="26"/>
-      <c r="B26" s="27" t="s">
+    <row r="26" s="39" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A26" s="41"/>
+      <c r="B26" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A27" s="6" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="18" t="s">
-        <v>118</v>
+      <c r="D27" s="23" t="s">
+        <v>124</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>22</v>
@@ -8172,10 +11238,10 @@
         <v>74</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="J27" s="9">
         <v>0</v>
@@ -8184,10 +11250,10 @@
         <v>73</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="M27" s="18" t="s">
-        <v>122</v>
+        <v>172</v>
+      </c>
+      <c r="M27" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="N27" s="9">
         <v>200</v>
@@ -8258,7 +11324,7 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -8271,19 +11337,19 @@
         <v>60</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>59</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="M1" s="15" t="s">
         <v>14</v>
@@ -8297,16 +11363,16 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A2" s="6" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>118</v>
+      <c r="D2" s="23" t="s">
+        <v>124</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>22</v>
@@ -8315,25 +11381,25 @@
         <v>21</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="J2" s="9">
         <v>0</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>122</v>
+        <v>177</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="N2" s="9">
         <v>200</v>
@@ -8388,7 +11454,7 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -8401,19 +11467,19 @@
         <v>60</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>59</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="M1" s="15" t="s">
         <v>14</v>
@@ -8427,16 +11493,16 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A2" s="6" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>118</v>
+      <c r="D2" s="23" t="s">
+        <v>124</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>22</v>
@@ -8445,25 +11511,25 @@
         <v>21</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="J2" s="9">
         <v>0</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>122</v>
+        <v>177</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="N2" s="9">
         <v>200</v>

--- a/src/main/resources/input_excel_file/booking/voucher.xlsx
+++ b/src/main/resources/input_excel_file/booking/voucher.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="7" activeTab="10"/>
+    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Booking_Voucher_Check" sheetId="1" r:id="rId1"/>
@@ -602,7 +602,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="352">
   <si>
     <t>tc_id</t>
   </si>
@@ -817,30 +817,54 @@
     <t>VST_ADD_VC_GREEN_001</t>
   </si>
   <si>
+    <t>Kiểm tra apply 1 voucher round 1</t>
+  </si>
+  <si>
+    <t>voucher_apply_1_voucher_request.json</t>
+  </si>
+  <si>
+    <t>{{CTX:BOOKING_UID_0}}</t>
+  </si>
+  <si>
+    <t>{{CTX:ROUND_ID_0}}</t>
+  </si>
+  <si>
+    <t>GREEN41</t>
+  </si>
+  <si>
+    <t>voucher_apply_expect.json</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>VST_ADD_VC_GREEN_002</t>
+  </si>
+  <si>
+    <t>Kiểm tra apply 1 voucher round 2</t>
+  </si>
+  <si>
+    <t>{{CTX:BOOKING_UID_0_ROUND2}}</t>
+  </si>
+  <si>
+    <t>{{CTX:ROUND_ID_0_ROUND2}}</t>
+  </si>
+  <si>
+    <t>VST_ADD_VC_GREEN_003</t>
+  </si>
+  <si>
+    <t>Kiểm tra apply 1 voucher round 1 khi đã bag đã có 2 round</t>
+  </si>
+  <si>
+    <t>Apply voucher giảm giá thông thường: Giảm 2tr1 cho green + caddie + 1/2 xe + package</t>
+  </si>
+  <si>
+    <t>VST_ADD_VC_4FEE_001</t>
+  </si>
+  <si>
     <t>Kiểm tra apply 1 voucher</t>
   </si>
   <si>
-    <t>voucher_apply_1_voucher_request.json</t>
-  </si>
-  <si>
-    <t>{{CTX:BOOKING_UID_0}}</t>
-  </si>
-  <si>
-    <t>{{CTX:ROUND_ID_0}}</t>
-  </si>
-  <si>
-    <t>voucher_apply_expect.json</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>Apply voucher giảm giá thông thường: Giảm 2tr1 cho green + caddie + 1/2 xe + package</t>
-  </si>
-  <si>
-    <t>VST_ADD_VC_4FEE_001</t>
-  </si>
-  <si>
     <t>CNTT4FEE1</t>
   </si>
   <si>
@@ -973,25 +997,37 @@
     <t>VST_REMOVE_VC_GREEN_001</t>
   </si>
   <si>
+    <t>Remove voucher player 1 round 1</t>
+  </si>
+  <si>
+    <t>voucher_remove_voucher_request.json</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_CODE_GREEN41}}</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_ID_GREEN41}}</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_APPLY_UID_GREEN41_0}}</t>
+  </si>
+  <si>
+    <t>voucher_remove_expect.json</t>
+  </si>
+  <si>
+    <t>VST_REMOVE_VC_GREEN_002</t>
+  </si>
+  <si>
+    <t>Remove voucher player 1 round 2</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_APPLY_UID_GREEN41_0_ROUND2}}</t>
+  </si>
+  <si>
+    <t>VST_REMOVE_VC_4FEE_001</t>
+  </si>
+  <si>
     <t>Remove voucher player 1</t>
-  </si>
-  <si>
-    <t>voucher_remove_voucher_request.json</t>
-  </si>
-  <si>
-    <t>{{CTX:VOUCHER_CODE_GR0001}}</t>
-  </si>
-  <si>
-    <t>{{CTX:VOUCHER_ID_GR0001}}</t>
-  </si>
-  <si>
-    <t>{{CTX:VOUCHER_APPLY_UID_GR0001_0}}</t>
-  </si>
-  <si>
-    <t>voucher_remove_expect.json</t>
-  </si>
-  <si>
-    <t>VST_REMOVE_VC_4FEE_001</t>
   </si>
   <si>
     <t>{{CTX:VOUCHER_CODE_CNTT4FEE1}}</t>
@@ -2378,7 +2414,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2451,9 +2487,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -2488,12 +2521,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2544,6 +2571,9 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -2551,9 +2581,6 @@
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3166,13 +3193,13 @@
       <c r="N1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="56" t="s">
+      <c r="O1" s="54" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="57" t="s">
+      <c r="Q1" s="55" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3183,7 +3210,7 @@
       <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="53" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="23" t="s">
@@ -3209,19 +3236,19 @@
       <c r="L2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="61" t="s">
+      <c r="M2" s="58" t="s">
         <v>26</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="58" t="s">
+      <c r="O2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="59">
+      <c r="P2" s="56">
         <v>200</v>
       </c>
-      <c r="Q2" s="60" t="s">
+      <c r="Q2" s="57" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3232,7 +3259,7 @@
       <c r="B3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="53" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="23" t="s">
@@ -3258,7 +3285,7 @@
       <c r="L3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="61" t="s">
+      <c r="M3" s="58" t="s">
         <v>26</v>
       </c>
       <c r="N3" s="12" t="s">
@@ -3267,10 +3294,10 @@
       <c r="O3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="59">
+      <c r="P3" s="56">
         <v>400</v>
       </c>
-      <c r="Q3" s="60"/>
+      <c r="Q3" s="57"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
       <c r="A4" s="6" t="s">
@@ -3279,7 +3306,7 @@
       <c r="B4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="53" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="23" t="s">
@@ -3305,7 +3332,7 @@
       <c r="L4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="61" t="s">
+      <c r="M4" s="58" t="s">
         <v>26</v>
       </c>
       <c r="N4" s="12" t="s">
@@ -3314,10 +3341,10 @@
       <c r="O4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="59">
+      <c r="P4" s="56">
         <v>400</v>
       </c>
-      <c r="Q4" s="60"/>
+      <c r="Q4" s="57"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
       <c r="A5" s="6" t="s">
@@ -3326,7 +3353,7 @@
       <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="53" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="23" t="s">
@@ -3354,19 +3381,19 @@
       <c r="L5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="61" t="s">
+      <c r="M5" s="58" t="s">
         <v>26</v>
       </c>
       <c r="N5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="58" t="s">
+      <c r="O5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="59">
+      <c r="P5" s="56">
         <v>200</v>
       </c>
-      <c r="Q5" s="60" t="s">
+      <c r="Q5" s="57" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3377,7 +3404,7 @@
       <c r="B6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="53" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="23" t="s">
@@ -3405,7 +3432,7 @@
       <c r="L6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="61" t="s">
+      <c r="M6" s="58" t="s">
         <v>26</v>
       </c>
       <c r="N6" s="12" t="s">
@@ -3414,10 +3441,10 @@
       <c r="O6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="59">
+      <c r="P6" s="56">
         <v>400</v>
       </c>
-      <c r="Q6" s="60"/>
+      <c r="Q6" s="57"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
       <c r="A7" s="6" t="s">
@@ -3426,7 +3453,7 @@
       <c r="B7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="53" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="23" t="s">
@@ -3454,7 +3481,7 @@
       <c r="L7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="61" t="s">
+      <c r="M7" s="58" t="s">
         <v>26</v>
       </c>
       <c r="N7" s="12" t="s">
@@ -3463,10 +3490,10 @@
       <c r="O7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P7" s="59">
+      <c r="P7" s="56">
         <v>400</v>
       </c>
-      <c r="Q7" s="60"/>
+      <c r="Q7" s="57"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
       <c r="A8" s="6" t="s">
@@ -3475,7 +3502,7 @@
       <c r="B8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="53" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -3505,19 +3532,19 @@
       <c r="L8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="61" t="s">
+      <c r="M8" s="58" t="s">
         <v>26</v>
       </c>
       <c r="N8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="58" t="s">
+      <c r="O8" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="59">
+      <c r="P8" s="56">
         <v>200</v>
       </c>
-      <c r="Q8" s="60" t="s">
+      <c r="Q8" s="57" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3528,7 +3555,7 @@
       <c r="B9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="53" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="23" t="s">
@@ -3558,7 +3585,7 @@
       <c r="L9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="61" t="s">
+      <c r="M9" s="58" t="s">
         <v>26</v>
       </c>
       <c r="N9" s="12" t="s">
@@ -3567,10 +3594,10 @@
       <c r="O9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P9" s="59">
+      <c r="P9" s="56">
         <v>400</v>
       </c>
-      <c r="Q9" s="60"/>
+      <c r="Q9" s="57"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
       <c r="A10" s="6" t="s">
@@ -3579,7 +3606,7 @@
       <c r="B10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="53" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="23" t="s">
@@ -3609,7 +3636,7 @@
       <c r="L10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="61" t="s">
+      <c r="M10" s="58" t="s">
         <v>26</v>
       </c>
       <c r="N10" s="12" t="s">
@@ -3618,10 +3645,10 @@
       <c r="O10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="59">
+      <c r="P10" s="56">
         <v>400</v>
       </c>
-      <c r="Q10" s="60"/>
+      <c r="Q10" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3681,19 +3708,19 @@
         <v>60</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>59</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="M1" s="15" t="s">
         <v>14</v>
@@ -3707,16 +3734,16 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A2" s="6" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>22</v>
@@ -3725,31 +3752,31 @@
         <v>21</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="J2" s="9">
         <v>0</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="M2" s="23" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="N2" s="9">
         <v>200</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3764,10 +3791,10 @@
   <sheetPr/>
   <dimension ref="A1:DO21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
@@ -3817,340 +3844,340 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>187</v>
+        <v>198</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>199</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="P1" s="29" t="s">
-        <v>193</v>
+        <v>204</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>205</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="T1" s="11" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="AD1" s="11" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="AE1" s="11" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="AF1" s="11" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="AG1" s="13" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="AH1" s="13" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="AI1" s="13" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="AJ1" s="13" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="AK1" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="AL1" s="32" t="s">
-        <v>215</v>
+        <v>226</v>
+      </c>
+      <c r="AL1" s="31" t="s">
+        <v>227</v>
       </c>
       <c r="AM1" s="13" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="AN1" s="13" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="AO1" s="13" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="AP1" s="13" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="AQ1" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="AR1" s="32" t="s">
-        <v>221</v>
+        <v>232</v>
+      </c>
+      <c r="AR1" s="31" t="s">
+        <v>233</v>
       </c>
       <c r="AS1" s="13" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="AT1" s="13" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="AU1" s="13" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AV1" s="13" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AW1" s="13" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="AX1" s="13" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="AY1" s="13" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="AZ1" s="13" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="BA1" s="13" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="BB1" s="13" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="BC1" s="13" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="BD1" s="13" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="BE1" s="13" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="BF1" s="13" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="BG1" s="13" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="BH1" s="13" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="BI1" s="5" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="BJ1" s="5" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="BK1" s="5" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="BL1" s="5" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="BM1" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="BN1" s="29" t="s">
-        <v>243</v>
+        <v>254</v>
+      </c>
+      <c r="BN1" s="28" t="s">
+        <v>255</v>
       </c>
       <c r="BO1" s="11" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="BP1" s="11" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="BQ1" s="11" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="BR1" s="11" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="BS1" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="BT1" s="29" t="s">
-        <v>249</v>
+        <v>260</v>
+      </c>
+      <c r="BT1" s="28" t="s">
+        <v>261</v>
       </c>
       <c r="BU1" s="11" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="BV1" s="11" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="BW1" s="11" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="BX1" s="11" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="BY1" s="11" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="BZ1" s="11" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="CA1" s="11" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="CB1" s="11" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="CC1" s="11" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="CD1" s="11" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="CE1" s="11" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="CF1" s="11" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="CG1" s="11" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="CH1" s="11" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="CI1" s="11" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="CJ1" s="11" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="CK1" s="13" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="CL1" s="13" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="CM1" s="13" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="CN1" s="13" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="CO1" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="CP1" s="32" t="s">
-        <v>271</v>
+        <v>282</v>
+      </c>
+      <c r="CP1" s="31" t="s">
+        <v>283</v>
       </c>
       <c r="CQ1" s="13" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="CR1" s="13" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="CS1" s="13" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="CT1" s="13" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="CU1" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="CV1" s="32" t="s">
-        <v>277</v>
+        <v>288</v>
+      </c>
+      <c r="CV1" s="31" t="s">
+        <v>289</v>
       </c>
       <c r="CW1" s="13" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="CX1" s="13" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="CY1" s="13" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="CZ1" s="13" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="DA1" s="13" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="DB1" s="13" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="DC1" s="13" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="DD1" s="13" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="DE1" s="13" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="DF1" s="13" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="DG1" s="13" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="DH1" s="13" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="DI1" s="13" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="DJ1" s="13" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="DK1" s="13" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="DL1" s="13" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="DM1" s="15" t="s">
         <v>14</v>
@@ -4165,7 +4192,7 @@
     <row r="2" s="17" customFormat="1" ht="21" customHeight="1" spans="1:119">
       <c r="A2" s="19"/>
       <c r="B2" s="20" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
@@ -4197,106 +4224,106 @@
       <c r="AD2" s="22"/>
       <c r="AE2" s="22"/>
       <c r="AF2" s="22"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35"/>
-      <c r="AR2" s="35"/>
-      <c r="AS2" s="36"/>
-      <c r="AT2" s="35"/>
-      <c r="AU2" s="35"/>
-      <c r="AV2" s="35"/>
-      <c r="AW2" s="35"/>
-      <c r="AX2" s="35"/>
-      <c r="AY2" s="35"/>
-      <c r="AZ2" s="35"/>
-      <c r="BA2" s="35"/>
-      <c r="BB2" s="35"/>
-      <c r="BC2" s="35"/>
-      <c r="BD2" s="35"/>
-      <c r="BE2" s="35"/>
-      <c r="BF2" s="35"/>
-      <c r="BG2" s="35"/>
-      <c r="BH2" s="35"/>
-      <c r="BI2" s="35"/>
-      <c r="BJ2" s="35"/>
-      <c r="BK2" s="35"/>
-      <c r="BL2" s="35"/>
-      <c r="BM2" s="35"/>
-      <c r="BN2" s="35"/>
-      <c r="BO2" s="35"/>
-      <c r="BP2" s="35"/>
-      <c r="BQ2" s="35"/>
-      <c r="BR2" s="38"/>
-      <c r="BS2" s="38"/>
-      <c r="BT2" s="38"/>
-      <c r="BU2" s="38"/>
-      <c r="BV2" s="38"/>
-      <c r="BW2" s="38"/>
-      <c r="BX2" s="38"/>
-      <c r="BY2" s="38"/>
-      <c r="BZ2" s="38"/>
-      <c r="CA2" s="38"/>
-      <c r="CB2" s="38"/>
-      <c r="CC2" s="38"/>
-      <c r="CD2" s="38"/>
-      <c r="CE2" s="38"/>
-      <c r="CF2" s="38"/>
-      <c r="CG2" s="38"/>
-      <c r="CH2" s="38"/>
-      <c r="CI2" s="38"/>
-      <c r="CJ2" s="38"/>
-      <c r="CK2" s="38"/>
-      <c r="CL2" s="38"/>
-      <c r="CM2" s="38"/>
-      <c r="CN2" s="38"/>
-      <c r="CO2" s="38"/>
-      <c r="CP2" s="38"/>
-      <c r="CQ2" s="38"/>
-      <c r="CR2" s="38"/>
-      <c r="CS2" s="38"/>
-      <c r="CT2" s="38"/>
-      <c r="CU2" s="38"/>
-      <c r="CV2" s="38"/>
-      <c r="CW2" s="38"/>
-      <c r="CX2" s="38"/>
-      <c r="CY2" s="38"/>
-      <c r="CZ2" s="38"/>
-      <c r="DA2" s="38"/>
-      <c r="DB2" s="38"/>
-      <c r="DC2" s="38"/>
-      <c r="DD2" s="38"/>
-      <c r="DE2" s="38"/>
-      <c r="DF2" s="38"/>
-      <c r="DG2" s="38"/>
-      <c r="DH2" s="38"/>
-      <c r="DI2" s="38"/>
-      <c r="DJ2" s="38"/>
-      <c r="DK2" s="38"/>
-      <c r="DL2" s="38"/>
-      <c r="DM2" s="38"/>
-      <c r="DN2" s="38"/>
-      <c r="DO2" s="38"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="35"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="34"/>
+      <c r="AQ2" s="34"/>
+      <c r="AR2" s="34"/>
+      <c r="AS2" s="35"/>
+      <c r="AT2" s="34"/>
+      <c r="AU2" s="34"/>
+      <c r="AV2" s="34"/>
+      <c r="AW2" s="34"/>
+      <c r="AX2" s="34"/>
+      <c r="AY2" s="34"/>
+      <c r="AZ2" s="34"/>
+      <c r="BA2" s="34"/>
+      <c r="BB2" s="34"/>
+      <c r="BC2" s="34"/>
+      <c r="BD2" s="34"/>
+      <c r="BE2" s="34"/>
+      <c r="BF2" s="34"/>
+      <c r="BG2" s="34"/>
+      <c r="BH2" s="34"/>
+      <c r="BI2" s="34"/>
+      <c r="BJ2" s="34"/>
+      <c r="BK2" s="34"/>
+      <c r="BL2" s="34"/>
+      <c r="BM2" s="34"/>
+      <c r="BN2" s="34"/>
+      <c r="BO2" s="34"/>
+      <c r="BP2" s="34"/>
+      <c r="BQ2" s="34"/>
+      <c r="BR2" s="34"/>
+      <c r="BS2" s="34"/>
+      <c r="BT2" s="34"/>
+      <c r="BU2" s="34"/>
+      <c r="BV2" s="34"/>
+      <c r="BW2" s="34"/>
+      <c r="BX2" s="34"/>
+      <c r="BY2" s="34"/>
+      <c r="BZ2" s="34"/>
+      <c r="CA2" s="34"/>
+      <c r="CB2" s="34"/>
+      <c r="CC2" s="34"/>
+      <c r="CD2" s="34"/>
+      <c r="CE2" s="34"/>
+      <c r="CF2" s="34"/>
+      <c r="CG2" s="34"/>
+      <c r="CH2" s="34"/>
+      <c r="CI2" s="34"/>
+      <c r="CJ2" s="34"/>
+      <c r="CK2" s="34"/>
+      <c r="CL2" s="34"/>
+      <c r="CM2" s="34"/>
+      <c r="CN2" s="34"/>
+      <c r="CO2" s="34"/>
+      <c r="CP2" s="34"/>
+      <c r="CQ2" s="34"/>
+      <c r="CR2" s="34"/>
+      <c r="CS2" s="34"/>
+      <c r="CT2" s="34"/>
+      <c r="CU2" s="34"/>
+      <c r="CV2" s="34"/>
+      <c r="CW2" s="34"/>
+      <c r="CX2" s="34"/>
+      <c r="CY2" s="34"/>
+      <c r="CZ2" s="34"/>
+      <c r="DA2" s="34"/>
+      <c r="DB2" s="34"/>
+      <c r="DC2" s="34"/>
+      <c r="DD2" s="34"/>
+      <c r="DE2" s="34"/>
+      <c r="DF2" s="34"/>
+      <c r="DG2" s="34"/>
+      <c r="DH2" s="34"/>
+      <c r="DI2" s="34"/>
+      <c r="DJ2" s="34"/>
+      <c r="DK2" s="34"/>
+      <c r="DL2" s="34"/>
+      <c r="DM2" s="34"/>
+      <c r="DN2" s="34"/>
+      <c r="DO2" s="34"/>
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:119">
       <c r="A3" s="6" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>22</v>
@@ -4311,22 +4338,22 @@
         <v>74</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="L3" s="30">
+        <v>310</v>
+      </c>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="L3" s="29">
         <v>61361</v>
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="12" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
@@ -4374,82 +4401,82 @@
       <c r="BH3" s="7"/>
       <c r="BI3" s="9"/>
       <c r="BJ3" s="9"/>
-      <c r="BK3" s="37"/>
-      <c r="BL3" s="37"/>
-      <c r="BM3" s="37"/>
-      <c r="BN3" s="37"/>
-      <c r="BO3" s="37"/>
-      <c r="BP3" s="37"/>
-      <c r="BQ3" s="37"/>
-      <c r="BR3" s="37"/>
-      <c r="BS3" s="37"/>
-      <c r="BT3" s="37"/>
-      <c r="BU3" s="37"/>
-      <c r="BV3" s="37"/>
-      <c r="BW3" s="37"/>
-      <c r="BX3" s="37"/>
-      <c r="BY3" s="37"/>
-      <c r="BZ3" s="37"/>
-      <c r="CA3" s="37"/>
-      <c r="CB3" s="37"/>
-      <c r="CC3" s="37"/>
-      <c r="CD3" s="37"/>
-      <c r="CE3" s="37"/>
-      <c r="CF3" s="37"/>
-      <c r="CG3" s="37"/>
-      <c r="CH3" s="37"/>
-      <c r="CI3" s="37"/>
-      <c r="CJ3" s="37"/>
-      <c r="CK3" s="37"/>
-      <c r="CL3" s="37"/>
-      <c r="CM3" s="37"/>
-      <c r="CN3" s="37"/>
-      <c r="CO3" s="37"/>
-      <c r="CP3" s="37"/>
-      <c r="CQ3" s="37"/>
-      <c r="CR3" s="37"/>
-      <c r="CS3" s="37"/>
-      <c r="CT3" s="37"/>
-      <c r="CU3" s="37"/>
-      <c r="CV3" s="37"/>
-      <c r="CW3" s="37"/>
-      <c r="CX3" s="37"/>
-      <c r="CY3" s="37"/>
-      <c r="CZ3" s="37"/>
-      <c r="DA3" s="37"/>
-      <c r="DB3" s="37"/>
-      <c r="DC3" s="37"/>
-      <c r="DD3" s="37"/>
-      <c r="DE3" s="37"/>
-      <c r="DF3" s="37"/>
-      <c r="DG3" s="37"/>
-      <c r="DH3" s="37"/>
-      <c r="DI3" s="37"/>
-      <c r="DJ3" s="37"/>
-      <c r="DK3" s="37"/>
-      <c r="DL3" s="37"/>
+      <c r="BK3" s="9"/>
+      <c r="BL3" s="9"/>
+      <c r="BM3" s="9"/>
+      <c r="BN3" s="9"/>
+      <c r="BO3" s="9"/>
+      <c r="BP3" s="9"/>
+      <c r="BQ3" s="9"/>
+      <c r="BR3" s="9"/>
+      <c r="BS3" s="9"/>
+      <c r="BT3" s="9"/>
+      <c r="BU3" s="9"/>
+      <c r="BV3" s="9"/>
+      <c r="BW3" s="9"/>
+      <c r="BX3" s="9"/>
+      <c r="BY3" s="9"/>
+      <c r="BZ3" s="9"/>
+      <c r="CA3" s="9"/>
+      <c r="CB3" s="9"/>
+      <c r="CC3" s="9"/>
+      <c r="CD3" s="9"/>
+      <c r="CE3" s="9"/>
+      <c r="CF3" s="9"/>
+      <c r="CG3" s="9"/>
+      <c r="CH3" s="9"/>
+      <c r="CI3" s="9"/>
+      <c r="CJ3" s="9"/>
+      <c r="CK3" s="9"/>
+      <c r="CL3" s="9"/>
+      <c r="CM3" s="9"/>
+      <c r="CN3" s="9"/>
+      <c r="CO3" s="9"/>
+      <c r="CP3" s="9"/>
+      <c r="CQ3" s="9"/>
+      <c r="CR3" s="9"/>
+      <c r="CS3" s="9"/>
+      <c r="CT3" s="9"/>
+      <c r="CU3" s="9"/>
+      <c r="CV3" s="9"/>
+      <c r="CW3" s="9"/>
+      <c r="CX3" s="9"/>
+      <c r="CY3" s="9"/>
+      <c r="CZ3" s="9"/>
+      <c r="DA3" s="9"/>
+      <c r="DB3" s="9"/>
+      <c r="DC3" s="9"/>
+      <c r="DD3" s="9"/>
+      <c r="DE3" s="9"/>
+      <c r="DF3" s="9"/>
+      <c r="DG3" s="9"/>
+      <c r="DH3" s="9"/>
+      <c r="DI3" s="9"/>
+      <c r="DJ3" s="9"/>
+      <c r="DK3" s="9"/>
+      <c r="DL3" s="9"/>
       <c r="DM3" s="7" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="DN3" s="9">
         <v>200</v>
       </c>
       <c r="DO3" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="48" customHeight="1" spans="1:119">
       <c r="A4" s="6" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>22</v>
@@ -4464,22 +4491,22 @@
         <v>74</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="L4" s="30">
+        <v>310</v>
+      </c>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="L4" s="29">
         <v>61362</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="12" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
@@ -4527,82 +4554,82 @@
       <c r="BH4" s="7"/>
       <c r="BI4" s="9"/>
       <c r="BJ4" s="9"/>
-      <c r="BK4" s="37"/>
-      <c r="BL4" s="37"/>
-      <c r="BM4" s="37"/>
-      <c r="BN4" s="37"/>
-      <c r="BO4" s="37"/>
-      <c r="BP4" s="37"/>
-      <c r="BQ4" s="37"/>
-      <c r="BR4" s="37"/>
-      <c r="BS4" s="37"/>
-      <c r="BT4" s="37"/>
-      <c r="BU4" s="37"/>
-      <c r="BV4" s="37"/>
-      <c r="BW4" s="37"/>
-      <c r="BX4" s="37"/>
-      <c r="BY4" s="37"/>
-      <c r="BZ4" s="37"/>
-      <c r="CA4" s="37"/>
-      <c r="CB4" s="37"/>
-      <c r="CC4" s="37"/>
-      <c r="CD4" s="37"/>
-      <c r="CE4" s="37"/>
-      <c r="CF4" s="37"/>
-      <c r="CG4" s="37"/>
-      <c r="CH4" s="37"/>
-      <c r="CI4" s="37"/>
-      <c r="CJ4" s="37"/>
-      <c r="CK4" s="37"/>
-      <c r="CL4" s="37"/>
-      <c r="CM4" s="37"/>
-      <c r="CN4" s="37"/>
-      <c r="CO4" s="37"/>
-      <c r="CP4" s="37"/>
-      <c r="CQ4" s="37"/>
-      <c r="CR4" s="37"/>
-      <c r="CS4" s="37"/>
-      <c r="CT4" s="37"/>
-      <c r="CU4" s="37"/>
-      <c r="CV4" s="37"/>
-      <c r="CW4" s="37"/>
-      <c r="CX4" s="37"/>
-      <c r="CY4" s="37"/>
-      <c r="CZ4" s="37"/>
-      <c r="DA4" s="37"/>
-      <c r="DB4" s="37"/>
-      <c r="DC4" s="37"/>
-      <c r="DD4" s="37"/>
-      <c r="DE4" s="37"/>
-      <c r="DF4" s="37"/>
-      <c r="DG4" s="37"/>
-      <c r="DH4" s="37"/>
-      <c r="DI4" s="37"/>
-      <c r="DJ4" s="37"/>
-      <c r="DK4" s="37"/>
-      <c r="DL4" s="37"/>
+      <c r="BK4" s="9"/>
+      <c r="BL4" s="9"/>
+      <c r="BM4" s="9"/>
+      <c r="BN4" s="9"/>
+      <c r="BO4" s="9"/>
+      <c r="BP4" s="9"/>
+      <c r="BQ4" s="9"/>
+      <c r="BR4" s="9"/>
+      <c r="BS4" s="9"/>
+      <c r="BT4" s="9"/>
+      <c r="BU4" s="9"/>
+      <c r="BV4" s="9"/>
+      <c r="BW4" s="9"/>
+      <c r="BX4" s="9"/>
+      <c r="BY4" s="9"/>
+      <c r="BZ4" s="9"/>
+      <c r="CA4" s="9"/>
+      <c r="CB4" s="9"/>
+      <c r="CC4" s="9"/>
+      <c r="CD4" s="9"/>
+      <c r="CE4" s="9"/>
+      <c r="CF4" s="9"/>
+      <c r="CG4" s="9"/>
+      <c r="CH4" s="9"/>
+      <c r="CI4" s="9"/>
+      <c r="CJ4" s="9"/>
+      <c r="CK4" s="9"/>
+      <c r="CL4" s="9"/>
+      <c r="CM4" s="9"/>
+      <c r="CN4" s="9"/>
+      <c r="CO4" s="9"/>
+      <c r="CP4" s="9"/>
+      <c r="CQ4" s="9"/>
+      <c r="CR4" s="9"/>
+      <c r="CS4" s="9"/>
+      <c r="CT4" s="9"/>
+      <c r="CU4" s="9"/>
+      <c r="CV4" s="9"/>
+      <c r="CW4" s="9"/>
+      <c r="CX4" s="9"/>
+      <c r="CY4" s="9"/>
+      <c r="CZ4" s="9"/>
+      <c r="DA4" s="9"/>
+      <c r="DB4" s="9"/>
+      <c r="DC4" s="9"/>
+      <c r="DD4" s="9"/>
+      <c r="DE4" s="9"/>
+      <c r="DF4" s="9"/>
+      <c r="DG4" s="9"/>
+      <c r="DH4" s="9"/>
+      <c r="DI4" s="9"/>
+      <c r="DJ4" s="9"/>
+      <c r="DK4" s="9"/>
+      <c r="DL4" s="9"/>
       <c r="DM4" s="7" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="DN4" s="9">
         <v>200</v>
       </c>
       <c r="DO4" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" customHeight="1" spans="1:119">
       <c r="A5" s="6" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>22</v>
@@ -4617,22 +4644,22 @@
         <v>74</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="L5" s="30">
+        <v>310</v>
+      </c>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="L5" s="29">
         <v>61363</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="12" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
@@ -4680,82 +4707,82 @@
       <c r="BH5" s="7"/>
       <c r="BI5" s="9"/>
       <c r="BJ5" s="9"/>
-      <c r="BK5" s="37"/>
-      <c r="BL5" s="37"/>
-      <c r="BM5" s="37"/>
-      <c r="BN5" s="37"/>
-      <c r="BO5" s="37"/>
-      <c r="BP5" s="37"/>
-      <c r="BQ5" s="37"/>
-      <c r="BR5" s="37"/>
-      <c r="BS5" s="37"/>
-      <c r="BT5" s="37"/>
-      <c r="BU5" s="37"/>
-      <c r="BV5" s="37"/>
-      <c r="BW5" s="37"/>
-      <c r="BX5" s="37"/>
-      <c r="BY5" s="37"/>
-      <c r="BZ5" s="37"/>
-      <c r="CA5" s="37"/>
-      <c r="CB5" s="37"/>
-      <c r="CC5" s="37"/>
-      <c r="CD5" s="37"/>
-      <c r="CE5" s="37"/>
-      <c r="CF5" s="37"/>
-      <c r="CG5" s="37"/>
-      <c r="CH5" s="37"/>
-      <c r="CI5" s="37"/>
-      <c r="CJ5" s="37"/>
-      <c r="CK5" s="37"/>
-      <c r="CL5" s="37"/>
-      <c r="CM5" s="37"/>
-      <c r="CN5" s="37"/>
-      <c r="CO5" s="37"/>
-      <c r="CP5" s="37"/>
-      <c r="CQ5" s="37"/>
-      <c r="CR5" s="37"/>
-      <c r="CS5" s="37"/>
-      <c r="CT5" s="37"/>
-      <c r="CU5" s="37"/>
-      <c r="CV5" s="37"/>
-      <c r="CW5" s="37"/>
-      <c r="CX5" s="37"/>
-      <c r="CY5" s="37"/>
-      <c r="CZ5" s="37"/>
-      <c r="DA5" s="37"/>
-      <c r="DB5" s="37"/>
-      <c r="DC5" s="37"/>
-      <c r="DD5" s="37"/>
-      <c r="DE5" s="37"/>
-      <c r="DF5" s="37"/>
-      <c r="DG5" s="37"/>
-      <c r="DH5" s="37"/>
-      <c r="DI5" s="37"/>
-      <c r="DJ5" s="37"/>
-      <c r="DK5" s="37"/>
-      <c r="DL5" s="37"/>
+      <c r="BK5" s="9"/>
+      <c r="BL5" s="9"/>
+      <c r="BM5" s="9"/>
+      <c r="BN5" s="9"/>
+      <c r="BO5" s="9"/>
+      <c r="BP5" s="9"/>
+      <c r="BQ5" s="9"/>
+      <c r="BR5" s="9"/>
+      <c r="BS5" s="9"/>
+      <c r="BT5" s="9"/>
+      <c r="BU5" s="9"/>
+      <c r="BV5" s="9"/>
+      <c r="BW5" s="9"/>
+      <c r="BX5" s="9"/>
+      <c r="BY5" s="9"/>
+      <c r="BZ5" s="9"/>
+      <c r="CA5" s="9"/>
+      <c r="CB5" s="9"/>
+      <c r="CC5" s="9"/>
+      <c r="CD5" s="9"/>
+      <c r="CE5" s="9"/>
+      <c r="CF5" s="9"/>
+      <c r="CG5" s="9"/>
+      <c r="CH5" s="9"/>
+      <c r="CI5" s="9"/>
+      <c r="CJ5" s="9"/>
+      <c r="CK5" s="9"/>
+      <c r="CL5" s="9"/>
+      <c r="CM5" s="9"/>
+      <c r="CN5" s="9"/>
+      <c r="CO5" s="9"/>
+      <c r="CP5" s="9"/>
+      <c r="CQ5" s="9"/>
+      <c r="CR5" s="9"/>
+      <c r="CS5" s="9"/>
+      <c r="CT5" s="9"/>
+      <c r="CU5" s="9"/>
+      <c r="CV5" s="9"/>
+      <c r="CW5" s="9"/>
+      <c r="CX5" s="9"/>
+      <c r="CY5" s="9"/>
+      <c r="CZ5" s="9"/>
+      <c r="DA5" s="9"/>
+      <c r="DB5" s="9"/>
+      <c r="DC5" s="9"/>
+      <c r="DD5" s="9"/>
+      <c r="DE5" s="9"/>
+      <c r="DF5" s="9"/>
+      <c r="DG5" s="9"/>
+      <c r="DH5" s="9"/>
+      <c r="DI5" s="9"/>
+      <c r="DJ5" s="9"/>
+      <c r="DK5" s="9"/>
+      <c r="DL5" s="9"/>
       <c r="DM5" s="7" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="DN5" s="9">
         <v>200</v>
       </c>
       <c r="DO5" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="1:119">
       <c r="A6" s="6" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>22</v>
@@ -4770,22 +4797,22 @@
         <v>74</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="L6" s="30">
+        <v>310</v>
+      </c>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="L6" s="29">
         <v>61364</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="12" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
@@ -4833,82 +4860,82 @@
       <c r="BH6" s="7"/>
       <c r="BI6" s="9"/>
       <c r="BJ6" s="9"/>
-      <c r="BK6" s="37"/>
-      <c r="BL6" s="37"/>
-      <c r="BM6" s="37"/>
-      <c r="BN6" s="37"/>
-      <c r="BO6" s="37"/>
-      <c r="BP6" s="37"/>
-      <c r="BQ6" s="37"/>
-      <c r="BR6" s="37"/>
-      <c r="BS6" s="37"/>
-      <c r="BT6" s="37"/>
-      <c r="BU6" s="37"/>
-      <c r="BV6" s="37"/>
-      <c r="BW6" s="37"/>
-      <c r="BX6" s="37"/>
-      <c r="BY6" s="37"/>
-      <c r="BZ6" s="37"/>
-      <c r="CA6" s="37"/>
-      <c r="CB6" s="37"/>
-      <c r="CC6" s="37"/>
-      <c r="CD6" s="37"/>
-      <c r="CE6" s="37"/>
-      <c r="CF6" s="37"/>
-      <c r="CG6" s="37"/>
-      <c r="CH6" s="37"/>
-      <c r="CI6" s="37"/>
-      <c r="CJ6" s="37"/>
-      <c r="CK6" s="37"/>
-      <c r="CL6" s="37"/>
-      <c r="CM6" s="37"/>
-      <c r="CN6" s="37"/>
-      <c r="CO6" s="37"/>
-      <c r="CP6" s="37"/>
-      <c r="CQ6" s="37"/>
-      <c r="CR6" s="37"/>
-      <c r="CS6" s="37"/>
-      <c r="CT6" s="37"/>
-      <c r="CU6" s="37"/>
-      <c r="CV6" s="37"/>
-      <c r="CW6" s="37"/>
-      <c r="CX6" s="37"/>
-      <c r="CY6" s="37"/>
-      <c r="CZ6" s="37"/>
-      <c r="DA6" s="37"/>
-      <c r="DB6" s="37"/>
-      <c r="DC6" s="37"/>
-      <c r="DD6" s="37"/>
-      <c r="DE6" s="37"/>
-      <c r="DF6" s="37"/>
-      <c r="DG6" s="37"/>
-      <c r="DH6" s="37"/>
-      <c r="DI6" s="37"/>
-      <c r="DJ6" s="37"/>
-      <c r="DK6" s="37"/>
-      <c r="DL6" s="37"/>
+      <c r="BK6" s="9"/>
+      <c r="BL6" s="9"/>
+      <c r="BM6" s="9"/>
+      <c r="BN6" s="9"/>
+      <c r="BO6" s="9"/>
+      <c r="BP6" s="9"/>
+      <c r="BQ6" s="9"/>
+      <c r="BR6" s="9"/>
+      <c r="BS6" s="9"/>
+      <c r="BT6" s="9"/>
+      <c r="BU6" s="9"/>
+      <c r="BV6" s="9"/>
+      <c r="BW6" s="9"/>
+      <c r="BX6" s="9"/>
+      <c r="BY6" s="9"/>
+      <c r="BZ6" s="9"/>
+      <c r="CA6" s="9"/>
+      <c r="CB6" s="9"/>
+      <c r="CC6" s="9"/>
+      <c r="CD6" s="9"/>
+      <c r="CE6" s="9"/>
+      <c r="CF6" s="9"/>
+      <c r="CG6" s="9"/>
+      <c r="CH6" s="9"/>
+      <c r="CI6" s="9"/>
+      <c r="CJ6" s="9"/>
+      <c r="CK6" s="9"/>
+      <c r="CL6" s="9"/>
+      <c r="CM6" s="9"/>
+      <c r="CN6" s="9"/>
+      <c r="CO6" s="9"/>
+      <c r="CP6" s="9"/>
+      <c r="CQ6" s="9"/>
+      <c r="CR6" s="9"/>
+      <c r="CS6" s="9"/>
+      <c r="CT6" s="9"/>
+      <c r="CU6" s="9"/>
+      <c r="CV6" s="9"/>
+      <c r="CW6" s="9"/>
+      <c r="CX6" s="9"/>
+      <c r="CY6" s="9"/>
+      <c r="CZ6" s="9"/>
+      <c r="DA6" s="9"/>
+      <c r="DB6" s="9"/>
+      <c r="DC6" s="9"/>
+      <c r="DD6" s="9"/>
+      <c r="DE6" s="9"/>
+      <c r="DF6" s="9"/>
+      <c r="DG6" s="9"/>
+      <c r="DH6" s="9"/>
+      <c r="DI6" s="9"/>
+      <c r="DJ6" s="9"/>
+      <c r="DK6" s="9"/>
+      <c r="DL6" s="9"/>
       <c r="DM6" s="7" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="DN6" s="9">
         <v>200</v>
       </c>
       <c r="DO6" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="1:119">
       <c r="A7" s="6" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>22</v>
@@ -4923,22 +4950,22 @@
         <v>74</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="L7" s="30">
+        <v>310</v>
+      </c>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="L7" s="29">
         <v>61365</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="12" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
@@ -4986,82 +5013,82 @@
       <c r="BH7" s="7"/>
       <c r="BI7" s="9"/>
       <c r="BJ7" s="9"/>
-      <c r="BK7" s="37"/>
-      <c r="BL7" s="37"/>
-      <c r="BM7" s="37"/>
-      <c r="BN7" s="37"/>
-      <c r="BO7" s="37"/>
-      <c r="BP7" s="37"/>
-      <c r="BQ7" s="37"/>
-      <c r="BR7" s="37"/>
-      <c r="BS7" s="37"/>
-      <c r="BT7" s="37"/>
-      <c r="BU7" s="37"/>
-      <c r="BV7" s="37"/>
-      <c r="BW7" s="37"/>
-      <c r="BX7" s="37"/>
-      <c r="BY7" s="37"/>
-      <c r="BZ7" s="37"/>
-      <c r="CA7" s="37"/>
-      <c r="CB7" s="37"/>
-      <c r="CC7" s="37"/>
-      <c r="CD7" s="37"/>
-      <c r="CE7" s="37"/>
-      <c r="CF7" s="37"/>
-      <c r="CG7" s="37"/>
-      <c r="CH7" s="37"/>
-      <c r="CI7" s="37"/>
-      <c r="CJ7" s="37"/>
-      <c r="CK7" s="37"/>
-      <c r="CL7" s="37"/>
-      <c r="CM7" s="37"/>
-      <c r="CN7" s="37"/>
-      <c r="CO7" s="37"/>
-      <c r="CP7" s="37"/>
-      <c r="CQ7" s="37"/>
-      <c r="CR7" s="37"/>
-      <c r="CS7" s="37"/>
-      <c r="CT7" s="37"/>
-      <c r="CU7" s="37"/>
-      <c r="CV7" s="37"/>
-      <c r="CW7" s="37"/>
-      <c r="CX7" s="37"/>
-      <c r="CY7" s="37"/>
-      <c r="CZ7" s="37"/>
-      <c r="DA7" s="37"/>
-      <c r="DB7" s="37"/>
-      <c r="DC7" s="37"/>
-      <c r="DD7" s="37"/>
-      <c r="DE7" s="37"/>
-      <c r="DF7" s="37"/>
-      <c r="DG7" s="37"/>
-      <c r="DH7" s="37"/>
-      <c r="DI7" s="37"/>
-      <c r="DJ7" s="37"/>
-      <c r="DK7" s="37"/>
-      <c r="DL7" s="37"/>
+      <c r="BK7" s="9"/>
+      <c r="BL7" s="9"/>
+      <c r="BM7" s="9"/>
+      <c r="BN7" s="9"/>
+      <c r="BO7" s="9"/>
+      <c r="BP7" s="9"/>
+      <c r="BQ7" s="9"/>
+      <c r="BR7" s="9"/>
+      <c r="BS7" s="9"/>
+      <c r="BT7" s="9"/>
+      <c r="BU7" s="9"/>
+      <c r="BV7" s="9"/>
+      <c r="BW7" s="9"/>
+      <c r="BX7" s="9"/>
+      <c r="BY7" s="9"/>
+      <c r="BZ7" s="9"/>
+      <c r="CA7" s="9"/>
+      <c r="CB7" s="9"/>
+      <c r="CC7" s="9"/>
+      <c r="CD7" s="9"/>
+      <c r="CE7" s="9"/>
+      <c r="CF7" s="9"/>
+      <c r="CG7" s="9"/>
+      <c r="CH7" s="9"/>
+      <c r="CI7" s="9"/>
+      <c r="CJ7" s="9"/>
+      <c r="CK7" s="9"/>
+      <c r="CL7" s="9"/>
+      <c r="CM7" s="9"/>
+      <c r="CN7" s="9"/>
+      <c r="CO7" s="9"/>
+      <c r="CP7" s="9"/>
+      <c r="CQ7" s="9"/>
+      <c r="CR7" s="9"/>
+      <c r="CS7" s="9"/>
+      <c r="CT7" s="9"/>
+      <c r="CU7" s="9"/>
+      <c r="CV7" s="9"/>
+      <c r="CW7" s="9"/>
+      <c r="CX7" s="9"/>
+      <c r="CY7" s="9"/>
+      <c r="CZ7" s="9"/>
+      <c r="DA7" s="9"/>
+      <c r="DB7" s="9"/>
+      <c r="DC7" s="9"/>
+      <c r="DD7" s="9"/>
+      <c r="DE7" s="9"/>
+      <c r="DF7" s="9"/>
+      <c r="DG7" s="9"/>
+      <c r="DH7" s="9"/>
+      <c r="DI7" s="9"/>
+      <c r="DJ7" s="9"/>
+      <c r="DK7" s="9"/>
+      <c r="DL7" s="9"/>
       <c r="DM7" s="7" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="DN7" s="9">
         <v>200</v>
       </c>
       <c r="DO7" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="1:119">
       <c r="A8" s="6" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>22</v>
@@ -5076,22 +5103,22 @@
         <v>74</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="L8" s="30">
+        <v>310</v>
+      </c>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="L8" s="29">
         <v>61366</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="12" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
@@ -5139,74 +5166,74 @@
       <c r="BH8" s="7"/>
       <c r="BI8" s="9"/>
       <c r="BJ8" s="9"/>
-      <c r="BK8" s="37"/>
-      <c r="BL8" s="37"/>
-      <c r="BM8" s="37"/>
-      <c r="BN8" s="37"/>
-      <c r="BO8" s="37"/>
-      <c r="BP8" s="37"/>
-      <c r="BQ8" s="37"/>
-      <c r="BR8" s="37"/>
-      <c r="BS8" s="37"/>
-      <c r="BT8" s="37"/>
-      <c r="BU8" s="37"/>
-      <c r="BV8" s="37"/>
-      <c r="BW8" s="37"/>
-      <c r="BX8" s="37"/>
-      <c r="BY8" s="37"/>
-      <c r="BZ8" s="37"/>
-      <c r="CA8" s="37"/>
-      <c r="CB8" s="37"/>
-      <c r="CC8" s="37"/>
-      <c r="CD8" s="37"/>
-      <c r="CE8" s="37"/>
-      <c r="CF8" s="37"/>
-      <c r="CG8" s="37"/>
-      <c r="CH8" s="37"/>
-      <c r="CI8" s="37"/>
-      <c r="CJ8" s="37"/>
-      <c r="CK8" s="37"/>
-      <c r="CL8" s="37"/>
-      <c r="CM8" s="37"/>
-      <c r="CN8" s="37"/>
-      <c r="CO8" s="37"/>
-      <c r="CP8" s="37"/>
-      <c r="CQ8" s="37"/>
-      <c r="CR8" s="37"/>
-      <c r="CS8" s="37"/>
-      <c r="CT8" s="37"/>
-      <c r="CU8" s="37"/>
-      <c r="CV8" s="37"/>
-      <c r="CW8" s="37"/>
-      <c r="CX8" s="37"/>
-      <c r="CY8" s="37"/>
-      <c r="CZ8" s="37"/>
-      <c r="DA8" s="37"/>
-      <c r="DB8" s="37"/>
-      <c r="DC8" s="37"/>
-      <c r="DD8" s="37"/>
-      <c r="DE8" s="37"/>
-      <c r="DF8" s="37"/>
-      <c r="DG8" s="37"/>
-      <c r="DH8" s="37"/>
-      <c r="DI8" s="37"/>
-      <c r="DJ8" s="37"/>
-      <c r="DK8" s="37"/>
-      <c r="DL8" s="37"/>
+      <c r="BK8" s="9"/>
+      <c r="BL8" s="9"/>
+      <c r="BM8" s="9"/>
+      <c r="BN8" s="9"/>
+      <c r="BO8" s="9"/>
+      <c r="BP8" s="9"/>
+      <c r="BQ8" s="9"/>
+      <c r="BR8" s="9"/>
+      <c r="BS8" s="9"/>
+      <c r="BT8" s="9"/>
+      <c r="BU8" s="9"/>
+      <c r="BV8" s="9"/>
+      <c r="BW8" s="9"/>
+      <c r="BX8" s="9"/>
+      <c r="BY8" s="9"/>
+      <c r="BZ8" s="9"/>
+      <c r="CA8" s="9"/>
+      <c r="CB8" s="9"/>
+      <c r="CC8" s="9"/>
+      <c r="CD8" s="9"/>
+      <c r="CE8" s="9"/>
+      <c r="CF8" s="9"/>
+      <c r="CG8" s="9"/>
+      <c r="CH8" s="9"/>
+      <c r="CI8" s="9"/>
+      <c r="CJ8" s="9"/>
+      <c r="CK8" s="9"/>
+      <c r="CL8" s="9"/>
+      <c r="CM8" s="9"/>
+      <c r="CN8" s="9"/>
+      <c r="CO8" s="9"/>
+      <c r="CP8" s="9"/>
+      <c r="CQ8" s="9"/>
+      <c r="CR8" s="9"/>
+      <c r="CS8" s="9"/>
+      <c r="CT8" s="9"/>
+      <c r="CU8" s="9"/>
+      <c r="CV8" s="9"/>
+      <c r="CW8" s="9"/>
+      <c r="CX8" s="9"/>
+      <c r="CY8" s="9"/>
+      <c r="CZ8" s="9"/>
+      <c r="DA8" s="9"/>
+      <c r="DB8" s="9"/>
+      <c r="DC8" s="9"/>
+      <c r="DD8" s="9"/>
+      <c r="DE8" s="9"/>
+      <c r="DF8" s="9"/>
+      <c r="DG8" s="9"/>
+      <c r="DH8" s="9"/>
+      <c r="DI8" s="9"/>
+      <c r="DJ8" s="9"/>
+      <c r="DK8" s="9"/>
+      <c r="DL8" s="9"/>
       <c r="DM8" s="7" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="DN8" s="9">
         <v>200</v>
       </c>
       <c r="DO8" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" s="17" customFormat="1" ht="21" customHeight="1" spans="1:119">
       <c r="A9" s="19"/>
       <c r="B9" s="20" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -5238,106 +5265,106 @@
       <c r="AD9" s="22"/>
       <c r="AE9" s="22"/>
       <c r="AF9" s="22"/>
-      <c r="AG9" s="33"/>
-      <c r="AH9" s="34"/>
-      <c r="AI9" s="35"/>
-      <c r="AJ9" s="35"/>
-      <c r="AK9" s="35"/>
-      <c r="AL9" s="35"/>
-      <c r="AM9" s="35"/>
-      <c r="AN9" s="36"/>
-      <c r="AO9" s="35"/>
-      <c r="AP9" s="35"/>
-      <c r="AQ9" s="35"/>
-      <c r="AR9" s="35"/>
-      <c r="AS9" s="36"/>
-      <c r="AT9" s="35"/>
-      <c r="AU9" s="35"/>
-      <c r="AV9" s="35"/>
-      <c r="AW9" s="35"/>
-      <c r="AX9" s="35"/>
-      <c r="AY9" s="35"/>
-      <c r="AZ9" s="35"/>
-      <c r="BA9" s="35"/>
-      <c r="BB9" s="35"/>
-      <c r="BC9" s="35"/>
-      <c r="BD9" s="35"/>
-      <c r="BE9" s="35"/>
-      <c r="BF9" s="35"/>
-      <c r="BG9" s="35"/>
-      <c r="BH9" s="35"/>
-      <c r="BI9" s="35"/>
-      <c r="BJ9" s="35"/>
-      <c r="BK9" s="35"/>
-      <c r="BL9" s="35"/>
-      <c r="BM9" s="35"/>
-      <c r="BN9" s="35"/>
-      <c r="BO9" s="35"/>
-      <c r="BP9" s="35"/>
-      <c r="BQ9" s="35"/>
-      <c r="BR9" s="38"/>
-      <c r="BS9" s="38"/>
-      <c r="BT9" s="38"/>
-      <c r="BU9" s="38"/>
-      <c r="BV9" s="38"/>
-      <c r="BW9" s="38"/>
-      <c r="BX9" s="38"/>
-      <c r="BY9" s="38"/>
-      <c r="BZ9" s="38"/>
-      <c r="CA9" s="38"/>
-      <c r="CB9" s="38"/>
-      <c r="CC9" s="38"/>
-      <c r="CD9" s="38"/>
-      <c r="CE9" s="38"/>
-      <c r="CF9" s="38"/>
-      <c r="CG9" s="38"/>
-      <c r="CH9" s="38"/>
-      <c r="CI9" s="38"/>
-      <c r="CJ9" s="38"/>
-      <c r="CK9" s="38"/>
-      <c r="CL9" s="38"/>
-      <c r="CM9" s="38"/>
-      <c r="CN9" s="38"/>
-      <c r="CO9" s="38"/>
-      <c r="CP9" s="38"/>
-      <c r="CQ9" s="38"/>
-      <c r="CR9" s="38"/>
-      <c r="CS9" s="38"/>
-      <c r="CT9" s="38"/>
-      <c r="CU9" s="38"/>
-      <c r="CV9" s="38"/>
-      <c r="CW9" s="38"/>
-      <c r="CX9" s="38"/>
-      <c r="CY9" s="38"/>
-      <c r="CZ9" s="38"/>
-      <c r="DA9" s="38"/>
-      <c r="DB9" s="38"/>
-      <c r="DC9" s="38"/>
-      <c r="DD9" s="38"/>
-      <c r="DE9" s="38"/>
-      <c r="DF9" s="38"/>
-      <c r="DG9" s="38"/>
-      <c r="DH9" s="38"/>
-      <c r="DI9" s="38"/>
-      <c r="DJ9" s="38"/>
-      <c r="DK9" s="38"/>
-      <c r="DL9" s="38"/>
-      <c r="DM9" s="38"/>
-      <c r="DN9" s="38"/>
-      <c r="DO9" s="38"/>
+      <c r="AG9" s="32"/>
+      <c r="AH9" s="33"/>
+      <c r="AI9" s="34"/>
+      <c r="AJ9" s="34"/>
+      <c r="AK9" s="34"/>
+      <c r="AL9" s="34"/>
+      <c r="AM9" s="34"/>
+      <c r="AN9" s="35"/>
+      <c r="AO9" s="34"/>
+      <c r="AP9" s="34"/>
+      <c r="AQ9" s="34"/>
+      <c r="AR9" s="34"/>
+      <c r="AS9" s="35"/>
+      <c r="AT9" s="34"/>
+      <c r="AU9" s="34"/>
+      <c r="AV9" s="34"/>
+      <c r="AW9" s="34"/>
+      <c r="AX9" s="34"/>
+      <c r="AY9" s="34"/>
+      <c r="AZ9" s="34"/>
+      <c r="BA9" s="34"/>
+      <c r="BB9" s="34"/>
+      <c r="BC9" s="34"/>
+      <c r="BD9" s="34"/>
+      <c r="BE9" s="34"/>
+      <c r="BF9" s="34"/>
+      <c r="BG9" s="34"/>
+      <c r="BH9" s="34"/>
+      <c r="BI9" s="34"/>
+      <c r="BJ9" s="34"/>
+      <c r="BK9" s="34"/>
+      <c r="BL9" s="34"/>
+      <c r="BM9" s="34"/>
+      <c r="BN9" s="34"/>
+      <c r="BO9" s="34"/>
+      <c r="BP9" s="34"/>
+      <c r="BQ9" s="34"/>
+      <c r="BR9" s="34"/>
+      <c r="BS9" s="34"/>
+      <c r="BT9" s="34"/>
+      <c r="BU9" s="34"/>
+      <c r="BV9" s="34"/>
+      <c r="BW9" s="34"/>
+      <c r="BX9" s="34"/>
+      <c r="BY9" s="34"/>
+      <c r="BZ9" s="34"/>
+      <c r="CA9" s="34"/>
+      <c r="CB9" s="34"/>
+      <c r="CC9" s="34"/>
+      <c r="CD9" s="34"/>
+      <c r="CE9" s="34"/>
+      <c r="CF9" s="34"/>
+      <c r="CG9" s="34"/>
+      <c r="CH9" s="34"/>
+      <c r="CI9" s="34"/>
+      <c r="CJ9" s="34"/>
+      <c r="CK9" s="34"/>
+      <c r="CL9" s="34"/>
+      <c r="CM9" s="34"/>
+      <c r="CN9" s="34"/>
+      <c r="CO9" s="34"/>
+      <c r="CP9" s="34"/>
+      <c r="CQ9" s="34"/>
+      <c r="CR9" s="34"/>
+      <c r="CS9" s="34"/>
+      <c r="CT9" s="34"/>
+      <c r="CU9" s="34"/>
+      <c r="CV9" s="34"/>
+      <c r="CW9" s="34"/>
+      <c r="CX9" s="34"/>
+      <c r="CY9" s="34"/>
+      <c r="CZ9" s="34"/>
+      <c r="DA9" s="34"/>
+      <c r="DB9" s="34"/>
+      <c r="DC9" s="34"/>
+      <c r="DD9" s="34"/>
+      <c r="DE9" s="34"/>
+      <c r="DF9" s="34"/>
+      <c r="DG9" s="34"/>
+      <c r="DH9" s="34"/>
+      <c r="DI9" s="34"/>
+      <c r="DJ9" s="34"/>
+      <c r="DK9" s="34"/>
+      <c r="DL9" s="34"/>
+      <c r="DM9" s="34"/>
+      <c r="DN9" s="34"/>
+      <c r="DO9" s="34"/>
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="1:119">
       <c r="A10" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>22</v>
@@ -5352,17 +5379,17 @@
         <v>74</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="12"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="12" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="P10" s="9"/>
       <c r="Q10" s="6" t="s">
@@ -5381,13 +5408,13 @@
         <v>0</v>
       </c>
       <c r="V10" s="9" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="X10" s="9" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
@@ -5482,27 +5509,27 @@
       <c r="DK10" s="9"/>
       <c r="DL10" s="9"/>
       <c r="DM10" s="7" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="DN10" s="9">
         <v>200</v>
       </c>
       <c r="DO10" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="1:119">
       <c r="A11" s="6" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>22</v>
@@ -5517,17 +5544,17 @@
         <v>74</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="12"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="12" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="P11" s="9"/>
       <c r="Q11" s="6" t="s">
@@ -5546,13 +5573,13 @@
         <v>0</v>
       </c>
       <c r="V11" s="9" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="X11" s="9" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
@@ -5647,27 +5674,27 @@
       <c r="DK11" s="9"/>
       <c r="DL11" s="9"/>
       <c r="DM11" s="7" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="DN11" s="9">
         <v>200</v>
       </c>
       <c r="DO11" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="1:119">
       <c r="A12" s="6" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>22</v>
@@ -5682,17 +5709,17 @@
         <v>74</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="12"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="12" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="P12" s="9"/>
       <c r="Q12" s="6" t="s">
@@ -5711,13 +5738,13 @@
         <v>0</v>
       </c>
       <c r="V12" s="9" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="W12" s="9" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="X12" s="9" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
@@ -5812,27 +5839,27 @@
       <c r="DK12" s="9"/>
       <c r="DL12" s="9"/>
       <c r="DM12" s="7" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="DN12" s="9">
         <v>200</v>
       </c>
       <c r="DO12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:119">
       <c r="A13" s="6" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>22</v>
@@ -5847,17 +5874,17 @@
         <v>74</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="12"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="12" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="P13" s="9"/>
       <c r="Q13" s="6" t="s">
@@ -5876,13 +5903,13 @@
         <v>0</v>
       </c>
       <c r="V13" s="9" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="X13" s="9" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
@@ -5977,27 +6004,27 @@
       <c r="DK13" s="9"/>
       <c r="DL13" s="9"/>
       <c r="DM13" s="7" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="DN13" s="9">
         <v>200</v>
       </c>
       <c r="DO13" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="1:119">
       <c r="A14" s="6" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>22</v>
@@ -6012,19 +6039,19 @@
         <v>74</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
+        <v>310</v>
+      </c>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
       <c r="O14" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="P14" s="28"/>
+        <v>311</v>
+      </c>
+      <c r="P14" s="27"/>
       <c r="Q14" s="6" t="s">
         <v>22</v>
       </c>
@@ -6041,22 +6068,22 @@
         <v>0</v>
       </c>
       <c r="V14" s="9" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="X14" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y14" s="27"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="27"/>
-      <c r="AB14" s="27"/>
-      <c r="AC14" s="27"/>
-      <c r="AD14" s="27"/>
-      <c r="AE14" s="27"/>
-      <c r="AF14" s="27"/>
+        <v>178</v>
+      </c>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="26"/>
       <c r="AG14" s="6"/>
       <c r="AH14" s="6"/>
       <c r="AI14" s="9"/>
@@ -6087,82 +6114,82 @@
       <c r="BH14" s="7"/>
       <c r="BI14" s="9"/>
       <c r="BJ14" s="9"/>
-      <c r="BK14" s="37"/>
-      <c r="BL14" s="37"/>
-      <c r="BM14" s="37"/>
-      <c r="BN14" s="37"/>
-      <c r="BO14" s="37"/>
-      <c r="BP14" s="37"/>
-      <c r="BQ14" s="37"/>
-      <c r="BR14" s="37"/>
-      <c r="BS14" s="37"/>
-      <c r="BT14" s="37"/>
-      <c r="BU14" s="37"/>
-      <c r="BV14" s="37"/>
-      <c r="BW14" s="37"/>
-      <c r="BX14" s="37"/>
-      <c r="BY14" s="37"/>
-      <c r="BZ14" s="37"/>
-      <c r="CA14" s="37"/>
-      <c r="CB14" s="37"/>
-      <c r="CC14" s="37"/>
-      <c r="CD14" s="37"/>
-      <c r="CE14" s="37"/>
-      <c r="CF14" s="37"/>
-      <c r="CG14" s="37"/>
-      <c r="CH14" s="37"/>
-      <c r="CI14" s="37"/>
-      <c r="CJ14" s="37"/>
-      <c r="CK14" s="37"/>
-      <c r="CL14" s="37"/>
-      <c r="CM14" s="37"/>
-      <c r="CN14" s="37"/>
-      <c r="CO14" s="37"/>
-      <c r="CP14" s="37"/>
-      <c r="CQ14" s="37"/>
-      <c r="CR14" s="37"/>
-      <c r="CS14" s="37"/>
-      <c r="CT14" s="37"/>
-      <c r="CU14" s="37"/>
-      <c r="CV14" s="37"/>
-      <c r="CW14" s="37"/>
-      <c r="CX14" s="37"/>
-      <c r="CY14" s="37"/>
-      <c r="CZ14" s="37"/>
-      <c r="DA14" s="37"/>
-      <c r="DB14" s="37"/>
-      <c r="DC14" s="37"/>
-      <c r="DD14" s="37"/>
-      <c r="DE14" s="37"/>
-      <c r="DF14" s="37"/>
-      <c r="DG14" s="37"/>
-      <c r="DH14" s="37"/>
-      <c r="DI14" s="37"/>
-      <c r="DJ14" s="37"/>
-      <c r="DK14" s="37"/>
-      <c r="DL14" s="37"/>
+      <c r="BK14" s="9"/>
+      <c r="BL14" s="9"/>
+      <c r="BM14" s="9"/>
+      <c r="BN14" s="9"/>
+      <c r="BO14" s="9"/>
+      <c r="BP14" s="9"/>
+      <c r="BQ14" s="9"/>
+      <c r="BR14" s="9"/>
+      <c r="BS14" s="9"/>
+      <c r="BT14" s="9"/>
+      <c r="BU14" s="9"/>
+      <c r="BV14" s="9"/>
+      <c r="BW14" s="9"/>
+      <c r="BX14" s="9"/>
+      <c r="BY14" s="9"/>
+      <c r="BZ14" s="9"/>
+      <c r="CA14" s="9"/>
+      <c r="CB14" s="9"/>
+      <c r="CC14" s="9"/>
+      <c r="CD14" s="9"/>
+      <c r="CE14" s="9"/>
+      <c r="CF14" s="9"/>
+      <c r="CG14" s="9"/>
+      <c r="CH14" s="9"/>
+      <c r="CI14" s="9"/>
+      <c r="CJ14" s="9"/>
+      <c r="CK14" s="9"/>
+      <c r="CL14" s="9"/>
+      <c r="CM14" s="9"/>
+      <c r="CN14" s="9"/>
+      <c r="CO14" s="9"/>
+      <c r="CP14" s="9"/>
+      <c r="CQ14" s="9"/>
+      <c r="CR14" s="9"/>
+      <c r="CS14" s="9"/>
+      <c r="CT14" s="9"/>
+      <c r="CU14" s="9"/>
+      <c r="CV14" s="9"/>
+      <c r="CW14" s="9"/>
+      <c r="CX14" s="9"/>
+      <c r="CY14" s="9"/>
+      <c r="CZ14" s="9"/>
+      <c r="DA14" s="9"/>
+      <c r="DB14" s="9"/>
+      <c r="DC14" s="9"/>
+      <c r="DD14" s="9"/>
+      <c r="DE14" s="9"/>
+      <c r="DF14" s="9"/>
+      <c r="DG14" s="9"/>
+      <c r="DH14" s="9"/>
+      <c r="DI14" s="9"/>
+      <c r="DJ14" s="9"/>
+      <c r="DK14" s="9"/>
+      <c r="DL14" s="9"/>
       <c r="DM14" s="7" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="DN14" s="9">
         <v>200</v>
       </c>
       <c r="DO14" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="1:119">
       <c r="A15" s="6" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>22</v>
@@ -6177,19 +6204,19 @@
         <v>74</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
+        <v>310</v>
+      </c>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
       <c r="O15" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="P15" s="28"/>
+        <v>311</v>
+      </c>
+      <c r="P15" s="27"/>
       <c r="Q15" s="6" t="s">
         <v>22</v>
       </c>
@@ -6206,22 +6233,22 @@
         <v>0</v>
       </c>
       <c r="V15" s="9" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="W15" s="9" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="X15" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="27"/>
-      <c r="AF15" s="27"/>
+        <v>182</v>
+      </c>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="26"/>
+      <c r="AF15" s="26"/>
       <c r="AG15" s="6"/>
       <c r="AH15" s="6"/>
       <c r="AI15" s="9"/>
@@ -6252,103 +6279,103 @@
       <c r="BH15" s="7"/>
       <c r="BI15" s="9"/>
       <c r="BJ15" s="9"/>
-      <c r="BK15" s="37"/>
-      <c r="BL15" s="37"/>
-      <c r="BM15" s="37"/>
-      <c r="BN15" s="37"/>
-      <c r="BO15" s="37"/>
-      <c r="BP15" s="37"/>
-      <c r="BQ15" s="37"/>
-      <c r="BR15" s="37"/>
-      <c r="BS15" s="37"/>
-      <c r="BT15" s="37"/>
-      <c r="BU15" s="37"/>
-      <c r="BV15" s="37"/>
-      <c r="BW15" s="37"/>
-      <c r="BX15" s="37"/>
-      <c r="BY15" s="37"/>
-      <c r="BZ15" s="37"/>
-      <c r="CA15" s="37"/>
-      <c r="CB15" s="37"/>
-      <c r="CC15" s="37"/>
-      <c r="CD15" s="37"/>
-      <c r="CE15" s="37"/>
-      <c r="CF15" s="37"/>
-      <c r="CG15" s="37"/>
-      <c r="CH15" s="37"/>
-      <c r="CI15" s="37"/>
-      <c r="CJ15" s="37"/>
-      <c r="CK15" s="37"/>
-      <c r="CL15" s="37"/>
-      <c r="CM15" s="37"/>
-      <c r="CN15" s="37"/>
-      <c r="CO15" s="37"/>
-      <c r="CP15" s="37"/>
-      <c r="CQ15" s="37"/>
-      <c r="CR15" s="37"/>
-      <c r="CS15" s="37"/>
-      <c r="CT15" s="37"/>
-      <c r="CU15" s="37"/>
-      <c r="CV15" s="37"/>
-      <c r="CW15" s="37"/>
-      <c r="CX15" s="37"/>
-      <c r="CY15" s="37"/>
-      <c r="CZ15" s="37"/>
-      <c r="DA15" s="37"/>
-      <c r="DB15" s="37"/>
-      <c r="DC15" s="37"/>
-      <c r="DD15" s="37"/>
-      <c r="DE15" s="37"/>
-      <c r="DF15" s="37"/>
-      <c r="DG15" s="37"/>
-      <c r="DH15" s="37"/>
-      <c r="DI15" s="37"/>
-      <c r="DJ15" s="37"/>
-      <c r="DK15" s="37"/>
-      <c r="DL15" s="37"/>
+      <c r="BK15" s="9"/>
+      <c r="BL15" s="9"/>
+      <c r="BM15" s="9"/>
+      <c r="BN15" s="9"/>
+      <c r="BO15" s="9"/>
+      <c r="BP15" s="9"/>
+      <c r="BQ15" s="9"/>
+      <c r="BR15" s="9"/>
+      <c r="BS15" s="9"/>
+      <c r="BT15" s="9"/>
+      <c r="BU15" s="9"/>
+      <c r="BV15" s="9"/>
+      <c r="BW15" s="9"/>
+      <c r="BX15" s="9"/>
+      <c r="BY15" s="9"/>
+      <c r="BZ15" s="9"/>
+      <c r="CA15" s="9"/>
+      <c r="CB15" s="9"/>
+      <c r="CC15" s="9"/>
+      <c r="CD15" s="9"/>
+      <c r="CE15" s="9"/>
+      <c r="CF15" s="9"/>
+      <c r="CG15" s="9"/>
+      <c r="CH15" s="9"/>
+      <c r="CI15" s="9"/>
+      <c r="CJ15" s="9"/>
+      <c r="CK15" s="9"/>
+      <c r="CL15" s="9"/>
+      <c r="CM15" s="9"/>
+      <c r="CN15" s="9"/>
+      <c r="CO15" s="9"/>
+      <c r="CP15" s="9"/>
+      <c r="CQ15" s="9"/>
+      <c r="CR15" s="9"/>
+      <c r="CS15" s="9"/>
+      <c r="CT15" s="9"/>
+      <c r="CU15" s="9"/>
+      <c r="CV15" s="9"/>
+      <c r="CW15" s="9"/>
+      <c r="CX15" s="9"/>
+      <c r="CY15" s="9"/>
+      <c r="CZ15" s="9"/>
+      <c r="DA15" s="9"/>
+      <c r="DB15" s="9"/>
+      <c r="DC15" s="9"/>
+      <c r="DD15" s="9"/>
+      <c r="DE15" s="9"/>
+      <c r="DF15" s="9"/>
+      <c r="DG15" s="9"/>
+      <c r="DH15" s="9"/>
+      <c r="DI15" s="9"/>
+      <c r="DJ15" s="9"/>
+      <c r="DK15" s="9"/>
+      <c r="DL15" s="9"/>
       <c r="DM15" s="7" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="DN15" s="9">
         <v>200</v>
       </c>
       <c r="DO15" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="1:119">
       <c r="A16" s="6"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="27"/>
-      <c r="AE16" s="27"/>
-      <c r="AF16" s="27"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="26"/>
       <c r="AG16" s="6"/>
       <c r="AH16" s="6"/>
       <c r="AI16" s="9"/>
@@ -6379,85 +6406,85 @@
       <c r="BH16" s="7"/>
       <c r="BI16" s="9"/>
       <c r="BJ16" s="9"/>
-      <c r="BK16" s="37"/>
-      <c r="BL16" s="37"/>
-      <c r="BM16" s="37"/>
-      <c r="BN16" s="37"/>
-      <c r="BO16" s="37"/>
-      <c r="BP16" s="37"/>
-      <c r="BQ16" s="37"/>
-      <c r="BR16" s="37"/>
-      <c r="BS16" s="37"/>
-      <c r="BT16" s="37"/>
-      <c r="BU16" s="37"/>
-      <c r="BV16" s="37"/>
-      <c r="BW16" s="37"/>
-      <c r="BX16" s="37"/>
-      <c r="BY16" s="37"/>
-      <c r="BZ16" s="37"/>
-      <c r="CA16" s="37"/>
-      <c r="CB16" s="37"/>
-      <c r="CC16" s="37"/>
-      <c r="CD16" s="37"/>
-      <c r="CE16" s="37"/>
-      <c r="CF16" s="37"/>
-      <c r="CG16" s="37"/>
-      <c r="CH16" s="37"/>
-      <c r="CI16" s="37"/>
-      <c r="CJ16" s="37"/>
-      <c r="CK16" s="37"/>
-      <c r="CL16" s="37"/>
-      <c r="CM16" s="37"/>
-      <c r="CN16" s="37"/>
-      <c r="CO16" s="37"/>
-      <c r="CP16" s="37"/>
-      <c r="CQ16" s="37"/>
-      <c r="CR16" s="37"/>
-      <c r="CS16" s="37"/>
-      <c r="CT16" s="37"/>
-      <c r="CU16" s="37"/>
-      <c r="CV16" s="37"/>
-      <c r="CW16" s="37"/>
-      <c r="CX16" s="37"/>
-      <c r="CY16" s="37"/>
-      <c r="CZ16" s="37"/>
-      <c r="DA16" s="37"/>
-      <c r="DB16" s="37"/>
-      <c r="DC16" s="37"/>
-      <c r="DD16" s="37"/>
-      <c r="DE16" s="37"/>
-      <c r="DF16" s="37"/>
-      <c r="DG16" s="37"/>
-      <c r="DH16" s="37"/>
-      <c r="DI16" s="37"/>
-      <c r="DJ16" s="37"/>
-      <c r="DK16" s="37"/>
-      <c r="DL16" s="37"/>
+      <c r="BK16" s="9"/>
+      <c r="BL16" s="9"/>
+      <c r="BM16" s="9"/>
+      <c r="BN16" s="9"/>
+      <c r="BO16" s="9"/>
+      <c r="BP16" s="9"/>
+      <c r="BQ16" s="9"/>
+      <c r="BR16" s="9"/>
+      <c r="BS16" s="9"/>
+      <c r="BT16" s="9"/>
+      <c r="BU16" s="9"/>
+      <c r="BV16" s="9"/>
+      <c r="BW16" s="9"/>
+      <c r="BX16" s="9"/>
+      <c r="BY16" s="9"/>
+      <c r="BZ16" s="9"/>
+      <c r="CA16" s="9"/>
+      <c r="CB16" s="9"/>
+      <c r="CC16" s="9"/>
+      <c r="CD16" s="9"/>
+      <c r="CE16" s="9"/>
+      <c r="CF16" s="9"/>
+      <c r="CG16" s="9"/>
+      <c r="CH16" s="9"/>
+      <c r="CI16" s="9"/>
+      <c r="CJ16" s="9"/>
+      <c r="CK16" s="9"/>
+      <c r="CL16" s="9"/>
+      <c r="CM16" s="9"/>
+      <c r="CN16" s="9"/>
+      <c r="CO16" s="9"/>
+      <c r="CP16" s="9"/>
+      <c r="CQ16" s="9"/>
+      <c r="CR16" s="9"/>
+      <c r="CS16" s="9"/>
+      <c r="CT16" s="9"/>
+      <c r="CU16" s="9"/>
+      <c r="CV16" s="9"/>
+      <c r="CW16" s="9"/>
+      <c r="CX16" s="9"/>
+      <c r="CY16" s="9"/>
+      <c r="CZ16" s="9"/>
+      <c r="DA16" s="9"/>
+      <c r="DB16" s="9"/>
+      <c r="DC16" s="9"/>
+      <c r="DD16" s="9"/>
+      <c r="DE16" s="9"/>
+      <c r="DF16" s="9"/>
+      <c r="DG16" s="9"/>
+      <c r="DH16" s="9"/>
+      <c r="DI16" s="9"/>
+      <c r="DJ16" s="9"/>
+      <c r="DK16" s="9"/>
+      <c r="DL16" s="9"/>
       <c r="DM16" s="7"/>
       <c r="DN16" s="9"/>
       <c r="DO16" s="9"/>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="1:119">
       <c r="A17" s="6" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="12"/>
@@ -6508,82 +6535,82 @@
       <c r="BH17" s="7"/>
       <c r="BI17" s="9"/>
       <c r="BJ17" s="9"/>
-      <c r="BK17" s="37"/>
-      <c r="BL17" s="37"/>
-      <c r="BM17" s="37"/>
-      <c r="BN17" s="37"/>
-      <c r="BO17" s="37"/>
-      <c r="BP17" s="37"/>
-      <c r="BQ17" s="37"/>
-      <c r="BR17" s="37"/>
-      <c r="BS17" s="37"/>
-      <c r="BT17" s="37"/>
-      <c r="BU17" s="37"/>
-      <c r="BV17" s="37"/>
-      <c r="BW17" s="37"/>
-      <c r="BX17" s="37"/>
-      <c r="BY17" s="37"/>
-      <c r="BZ17" s="37"/>
-      <c r="CA17" s="37"/>
-      <c r="CB17" s="37"/>
-      <c r="CC17" s="37"/>
-      <c r="CD17" s="37"/>
-      <c r="CE17" s="37"/>
-      <c r="CF17" s="37"/>
-      <c r="CG17" s="37"/>
-      <c r="CH17" s="37"/>
-      <c r="CI17" s="37"/>
-      <c r="CJ17" s="37"/>
-      <c r="CK17" s="37"/>
-      <c r="CL17" s="37"/>
-      <c r="CM17" s="37"/>
-      <c r="CN17" s="37"/>
-      <c r="CO17" s="37"/>
-      <c r="CP17" s="37"/>
-      <c r="CQ17" s="37"/>
-      <c r="CR17" s="37"/>
-      <c r="CS17" s="37"/>
-      <c r="CT17" s="37"/>
-      <c r="CU17" s="37"/>
-      <c r="CV17" s="37"/>
-      <c r="CW17" s="37"/>
-      <c r="CX17" s="37"/>
-      <c r="CY17" s="37"/>
-      <c r="CZ17" s="37"/>
-      <c r="DA17" s="37"/>
-      <c r="DB17" s="37"/>
-      <c r="DC17" s="37"/>
-      <c r="DD17" s="37"/>
-      <c r="DE17" s="37"/>
-      <c r="DF17" s="37"/>
-      <c r="DG17" s="37"/>
-      <c r="DH17" s="37"/>
-      <c r="DI17" s="37"/>
-      <c r="DJ17" s="37"/>
-      <c r="DK17" s="37"/>
-      <c r="DL17" s="37"/>
+      <c r="BK17" s="9"/>
+      <c r="BL17" s="9"/>
+      <c r="BM17" s="9"/>
+      <c r="BN17" s="9"/>
+      <c r="BO17" s="9"/>
+      <c r="BP17" s="9"/>
+      <c r="BQ17" s="9"/>
+      <c r="BR17" s="9"/>
+      <c r="BS17" s="9"/>
+      <c r="BT17" s="9"/>
+      <c r="BU17" s="9"/>
+      <c r="BV17" s="9"/>
+      <c r="BW17" s="9"/>
+      <c r="BX17" s="9"/>
+      <c r="BY17" s="9"/>
+      <c r="BZ17" s="9"/>
+      <c r="CA17" s="9"/>
+      <c r="CB17" s="9"/>
+      <c r="CC17" s="9"/>
+      <c r="CD17" s="9"/>
+      <c r="CE17" s="9"/>
+      <c r="CF17" s="9"/>
+      <c r="CG17" s="9"/>
+      <c r="CH17" s="9"/>
+      <c r="CI17" s="9"/>
+      <c r="CJ17" s="9"/>
+      <c r="CK17" s="9"/>
+      <c r="CL17" s="9"/>
+      <c r="CM17" s="9"/>
+      <c r="CN17" s="9"/>
+      <c r="CO17" s="9"/>
+      <c r="CP17" s="9"/>
+      <c r="CQ17" s="9"/>
+      <c r="CR17" s="9"/>
+      <c r="CS17" s="9"/>
+      <c r="CT17" s="9"/>
+      <c r="CU17" s="9"/>
+      <c r="CV17" s="9"/>
+      <c r="CW17" s="9"/>
+      <c r="CX17" s="9"/>
+      <c r="CY17" s="9"/>
+      <c r="CZ17" s="9"/>
+      <c r="DA17" s="9"/>
+      <c r="DB17" s="9"/>
+      <c r="DC17" s="9"/>
+      <c r="DD17" s="9"/>
+      <c r="DE17" s="9"/>
+      <c r="DF17" s="9"/>
+      <c r="DG17" s="9"/>
+      <c r="DH17" s="9"/>
+      <c r="DI17" s="9"/>
+      <c r="DJ17" s="9"/>
+      <c r="DK17" s="9"/>
+      <c r="DL17" s="9"/>
       <c r="DM17" s="7" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="DN17" s="9">
         <v>200</v>
       </c>
       <c r="DO17" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="1:119">
       <c r="A18" s="6" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -6643,82 +6670,82 @@
       <c r="BH18" s="7"/>
       <c r="BI18" s="9"/>
       <c r="BJ18" s="9"/>
-      <c r="BK18" s="37"/>
-      <c r="BL18" s="37"/>
-      <c r="BM18" s="37"/>
-      <c r="BN18" s="37"/>
-      <c r="BO18" s="37"/>
-      <c r="BP18" s="37"/>
-      <c r="BQ18" s="37"/>
-      <c r="BR18" s="37"/>
-      <c r="BS18" s="37"/>
-      <c r="BT18" s="37"/>
-      <c r="BU18" s="37"/>
-      <c r="BV18" s="37"/>
-      <c r="BW18" s="37"/>
-      <c r="BX18" s="37"/>
-      <c r="BY18" s="37"/>
-      <c r="BZ18" s="37"/>
-      <c r="CA18" s="37"/>
-      <c r="CB18" s="37"/>
-      <c r="CC18" s="37"/>
-      <c r="CD18" s="37"/>
-      <c r="CE18" s="37"/>
-      <c r="CF18" s="37"/>
-      <c r="CG18" s="37"/>
-      <c r="CH18" s="37"/>
-      <c r="CI18" s="37"/>
-      <c r="CJ18" s="37"/>
-      <c r="CK18" s="37"/>
-      <c r="CL18" s="37"/>
-      <c r="CM18" s="37"/>
-      <c r="CN18" s="37"/>
-      <c r="CO18" s="37"/>
-      <c r="CP18" s="37"/>
-      <c r="CQ18" s="37"/>
-      <c r="CR18" s="37"/>
-      <c r="CS18" s="37"/>
-      <c r="CT18" s="37"/>
-      <c r="CU18" s="37"/>
-      <c r="CV18" s="37"/>
-      <c r="CW18" s="37"/>
-      <c r="CX18" s="37"/>
-      <c r="CY18" s="37"/>
-      <c r="CZ18" s="37"/>
-      <c r="DA18" s="37"/>
-      <c r="DB18" s="37"/>
-      <c r="DC18" s="37"/>
-      <c r="DD18" s="37"/>
-      <c r="DE18" s="37"/>
-      <c r="DF18" s="37"/>
-      <c r="DG18" s="37"/>
-      <c r="DH18" s="37"/>
-      <c r="DI18" s="37"/>
-      <c r="DJ18" s="37"/>
-      <c r="DK18" s="37"/>
-      <c r="DL18" s="37"/>
+      <c r="BK18" s="9"/>
+      <c r="BL18" s="9"/>
+      <c r="BM18" s="9"/>
+      <c r="BN18" s="9"/>
+      <c r="BO18" s="9"/>
+      <c r="BP18" s="9"/>
+      <c r="BQ18" s="9"/>
+      <c r="BR18" s="9"/>
+      <c r="BS18" s="9"/>
+      <c r="BT18" s="9"/>
+      <c r="BU18" s="9"/>
+      <c r="BV18" s="9"/>
+      <c r="BW18" s="9"/>
+      <c r="BX18" s="9"/>
+      <c r="BY18" s="9"/>
+      <c r="BZ18" s="9"/>
+      <c r="CA18" s="9"/>
+      <c r="CB18" s="9"/>
+      <c r="CC18" s="9"/>
+      <c r="CD18" s="9"/>
+      <c r="CE18" s="9"/>
+      <c r="CF18" s="9"/>
+      <c r="CG18" s="9"/>
+      <c r="CH18" s="9"/>
+      <c r="CI18" s="9"/>
+      <c r="CJ18" s="9"/>
+      <c r="CK18" s="9"/>
+      <c r="CL18" s="9"/>
+      <c r="CM18" s="9"/>
+      <c r="CN18" s="9"/>
+      <c r="CO18" s="9"/>
+      <c r="CP18" s="9"/>
+      <c r="CQ18" s="9"/>
+      <c r="CR18" s="9"/>
+      <c r="CS18" s="9"/>
+      <c r="CT18" s="9"/>
+      <c r="CU18" s="9"/>
+      <c r="CV18" s="9"/>
+      <c r="CW18" s="9"/>
+      <c r="CX18" s="9"/>
+      <c r="CY18" s="9"/>
+      <c r="CZ18" s="9"/>
+      <c r="DA18" s="9"/>
+      <c r="DB18" s="9"/>
+      <c r="DC18" s="9"/>
+      <c r="DD18" s="9"/>
+      <c r="DE18" s="9"/>
+      <c r="DF18" s="9"/>
+      <c r="DG18" s="9"/>
+      <c r="DH18" s="9"/>
+      <c r="DI18" s="9"/>
+      <c r="DJ18" s="9"/>
+      <c r="DK18" s="9"/>
+      <c r="DL18" s="9"/>
       <c r="DM18" s="7" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="DN18" s="9">
         <v>200</v>
       </c>
       <c r="DO18" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="1:119">
       <c r="A19" s="6" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -6778,82 +6805,82 @@
       <c r="BH19" s="7"/>
       <c r="BI19" s="9"/>
       <c r="BJ19" s="9"/>
-      <c r="BK19" s="37"/>
-      <c r="BL19" s="37"/>
-      <c r="BM19" s="37"/>
-      <c r="BN19" s="37"/>
-      <c r="BO19" s="37"/>
-      <c r="BP19" s="37"/>
-      <c r="BQ19" s="37"/>
-      <c r="BR19" s="37"/>
-      <c r="BS19" s="37"/>
-      <c r="BT19" s="37"/>
-      <c r="BU19" s="37"/>
-      <c r="BV19" s="37"/>
-      <c r="BW19" s="37"/>
-      <c r="BX19" s="37"/>
-      <c r="BY19" s="37"/>
-      <c r="BZ19" s="37"/>
-      <c r="CA19" s="37"/>
-      <c r="CB19" s="37"/>
-      <c r="CC19" s="37"/>
-      <c r="CD19" s="37"/>
-      <c r="CE19" s="37"/>
-      <c r="CF19" s="37"/>
-      <c r="CG19" s="37"/>
-      <c r="CH19" s="37"/>
-      <c r="CI19" s="37"/>
-      <c r="CJ19" s="37"/>
-      <c r="CK19" s="37"/>
-      <c r="CL19" s="37"/>
-      <c r="CM19" s="37"/>
-      <c r="CN19" s="37"/>
-      <c r="CO19" s="37"/>
-      <c r="CP19" s="37"/>
-      <c r="CQ19" s="37"/>
-      <c r="CR19" s="37"/>
-      <c r="CS19" s="37"/>
-      <c r="CT19" s="37"/>
-      <c r="CU19" s="37"/>
-      <c r="CV19" s="37"/>
-      <c r="CW19" s="37"/>
-      <c r="CX19" s="37"/>
-      <c r="CY19" s="37"/>
-      <c r="CZ19" s="37"/>
-      <c r="DA19" s="37"/>
-      <c r="DB19" s="37"/>
-      <c r="DC19" s="37"/>
-      <c r="DD19" s="37"/>
-      <c r="DE19" s="37"/>
-      <c r="DF19" s="37"/>
-      <c r="DG19" s="37"/>
-      <c r="DH19" s="37"/>
-      <c r="DI19" s="37"/>
-      <c r="DJ19" s="37"/>
-      <c r="DK19" s="37"/>
-      <c r="DL19" s="37"/>
+      <c r="BK19" s="9"/>
+      <c r="BL19" s="9"/>
+      <c r="BM19" s="9"/>
+      <c r="BN19" s="9"/>
+      <c r="BO19" s="9"/>
+      <c r="BP19" s="9"/>
+      <c r="BQ19" s="9"/>
+      <c r="BR19" s="9"/>
+      <c r="BS19" s="9"/>
+      <c r="BT19" s="9"/>
+      <c r="BU19" s="9"/>
+      <c r="BV19" s="9"/>
+      <c r="BW19" s="9"/>
+      <c r="BX19" s="9"/>
+      <c r="BY19" s="9"/>
+      <c r="BZ19" s="9"/>
+      <c r="CA19" s="9"/>
+      <c r="CB19" s="9"/>
+      <c r="CC19" s="9"/>
+      <c r="CD19" s="9"/>
+      <c r="CE19" s="9"/>
+      <c r="CF19" s="9"/>
+      <c r="CG19" s="9"/>
+      <c r="CH19" s="9"/>
+      <c r="CI19" s="9"/>
+      <c r="CJ19" s="9"/>
+      <c r="CK19" s="9"/>
+      <c r="CL19" s="9"/>
+      <c r="CM19" s="9"/>
+      <c r="CN19" s="9"/>
+      <c r="CO19" s="9"/>
+      <c r="CP19" s="9"/>
+      <c r="CQ19" s="9"/>
+      <c r="CR19" s="9"/>
+      <c r="CS19" s="9"/>
+      <c r="CT19" s="9"/>
+      <c r="CU19" s="9"/>
+      <c r="CV19" s="9"/>
+      <c r="CW19" s="9"/>
+      <c r="CX19" s="9"/>
+      <c r="CY19" s="9"/>
+      <c r="CZ19" s="9"/>
+      <c r="DA19" s="9"/>
+      <c r="DB19" s="9"/>
+      <c r="DC19" s="9"/>
+      <c r="DD19" s="9"/>
+      <c r="DE19" s="9"/>
+      <c r="DF19" s="9"/>
+      <c r="DG19" s="9"/>
+      <c r="DH19" s="9"/>
+      <c r="DI19" s="9"/>
+      <c r="DJ19" s="9"/>
+      <c r="DK19" s="9"/>
+      <c r="DL19" s="9"/>
       <c r="DM19" s="7" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="DN19" s="9">
         <v>200</v>
       </c>
       <c r="DO19" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="1:119">
       <c r="A20" s="6" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -6913,82 +6940,82 @@
       <c r="BH20" s="7"/>
       <c r="BI20" s="9"/>
       <c r="BJ20" s="9"/>
-      <c r="BK20" s="37"/>
-      <c r="BL20" s="37"/>
-      <c r="BM20" s="37"/>
-      <c r="BN20" s="37"/>
-      <c r="BO20" s="37"/>
-      <c r="BP20" s="37"/>
-      <c r="BQ20" s="37"/>
-      <c r="BR20" s="37"/>
-      <c r="BS20" s="37"/>
-      <c r="BT20" s="37"/>
-      <c r="BU20" s="37"/>
-      <c r="BV20" s="37"/>
-      <c r="BW20" s="37"/>
-      <c r="BX20" s="37"/>
-      <c r="BY20" s="37"/>
-      <c r="BZ20" s="37"/>
-      <c r="CA20" s="37"/>
-      <c r="CB20" s="37"/>
-      <c r="CC20" s="37"/>
-      <c r="CD20" s="37"/>
-      <c r="CE20" s="37"/>
-      <c r="CF20" s="37"/>
-      <c r="CG20" s="37"/>
-      <c r="CH20" s="37"/>
-      <c r="CI20" s="37"/>
-      <c r="CJ20" s="37"/>
-      <c r="CK20" s="37"/>
-      <c r="CL20" s="37"/>
-      <c r="CM20" s="37"/>
-      <c r="CN20" s="37"/>
-      <c r="CO20" s="37"/>
-      <c r="CP20" s="37"/>
-      <c r="CQ20" s="37"/>
-      <c r="CR20" s="37"/>
-      <c r="CS20" s="37"/>
-      <c r="CT20" s="37"/>
-      <c r="CU20" s="37"/>
-      <c r="CV20" s="37"/>
-      <c r="CW20" s="37"/>
-      <c r="CX20" s="37"/>
-      <c r="CY20" s="37"/>
-      <c r="CZ20" s="37"/>
-      <c r="DA20" s="37"/>
-      <c r="DB20" s="37"/>
-      <c r="DC20" s="37"/>
-      <c r="DD20" s="37"/>
-      <c r="DE20" s="37"/>
-      <c r="DF20" s="37"/>
-      <c r="DG20" s="37"/>
-      <c r="DH20" s="37"/>
-      <c r="DI20" s="37"/>
-      <c r="DJ20" s="37"/>
-      <c r="DK20" s="37"/>
-      <c r="DL20" s="37"/>
+      <c r="BK20" s="9"/>
+      <c r="BL20" s="9"/>
+      <c r="BM20" s="9"/>
+      <c r="BN20" s="9"/>
+      <c r="BO20" s="9"/>
+      <c r="BP20" s="9"/>
+      <c r="BQ20" s="9"/>
+      <c r="BR20" s="9"/>
+      <c r="BS20" s="9"/>
+      <c r="BT20" s="9"/>
+      <c r="BU20" s="9"/>
+      <c r="BV20" s="9"/>
+      <c r="BW20" s="9"/>
+      <c r="BX20" s="9"/>
+      <c r="BY20" s="9"/>
+      <c r="BZ20" s="9"/>
+      <c r="CA20" s="9"/>
+      <c r="CB20" s="9"/>
+      <c r="CC20" s="9"/>
+      <c r="CD20" s="9"/>
+      <c r="CE20" s="9"/>
+      <c r="CF20" s="9"/>
+      <c r="CG20" s="9"/>
+      <c r="CH20" s="9"/>
+      <c r="CI20" s="9"/>
+      <c r="CJ20" s="9"/>
+      <c r="CK20" s="9"/>
+      <c r="CL20" s="9"/>
+      <c r="CM20" s="9"/>
+      <c r="CN20" s="9"/>
+      <c r="CO20" s="9"/>
+      <c r="CP20" s="9"/>
+      <c r="CQ20" s="9"/>
+      <c r="CR20" s="9"/>
+      <c r="CS20" s="9"/>
+      <c r="CT20" s="9"/>
+      <c r="CU20" s="9"/>
+      <c r="CV20" s="9"/>
+      <c r="CW20" s="9"/>
+      <c r="CX20" s="9"/>
+      <c r="CY20" s="9"/>
+      <c r="CZ20" s="9"/>
+      <c r="DA20" s="9"/>
+      <c r="DB20" s="9"/>
+      <c r="DC20" s="9"/>
+      <c r="DD20" s="9"/>
+      <c r="DE20" s="9"/>
+      <c r="DF20" s="9"/>
+      <c r="DG20" s="9"/>
+      <c r="DH20" s="9"/>
+      <c r="DI20" s="9"/>
+      <c r="DJ20" s="9"/>
+      <c r="DK20" s="9"/>
+      <c r="DL20" s="9"/>
       <c r="DM20" s="7" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="DN20" s="9">
         <v>200</v>
       </c>
       <c r="DO20" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="1:119">
       <c r="A21" s="6" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -7048,68 +7075,68 @@
       <c r="BH21" s="7"/>
       <c r="BI21" s="9"/>
       <c r="BJ21" s="9"/>
-      <c r="BK21" s="37"/>
-      <c r="BL21" s="37"/>
-      <c r="BM21" s="37"/>
-      <c r="BN21" s="37"/>
-      <c r="BO21" s="37"/>
-      <c r="BP21" s="37"/>
-      <c r="BQ21" s="37"/>
-      <c r="BR21" s="37"/>
-      <c r="BS21" s="37"/>
-      <c r="BT21" s="37"/>
-      <c r="BU21" s="37"/>
-      <c r="BV21" s="37"/>
-      <c r="BW21" s="37"/>
-      <c r="BX21" s="37"/>
-      <c r="BY21" s="37"/>
-      <c r="BZ21" s="37"/>
-      <c r="CA21" s="37"/>
-      <c r="CB21" s="37"/>
-      <c r="CC21" s="37"/>
-      <c r="CD21" s="37"/>
-      <c r="CE21" s="37"/>
-      <c r="CF21" s="37"/>
-      <c r="CG21" s="37"/>
-      <c r="CH21" s="37"/>
-      <c r="CI21" s="37"/>
-      <c r="CJ21" s="37"/>
-      <c r="CK21" s="37"/>
-      <c r="CL21" s="37"/>
-      <c r="CM21" s="37"/>
-      <c r="CN21" s="37"/>
-      <c r="CO21" s="37"/>
-      <c r="CP21" s="37"/>
-      <c r="CQ21" s="37"/>
-      <c r="CR21" s="37"/>
-      <c r="CS21" s="37"/>
-      <c r="CT21" s="37"/>
-      <c r="CU21" s="37"/>
-      <c r="CV21" s="37"/>
-      <c r="CW21" s="37"/>
-      <c r="CX21" s="37"/>
-      <c r="CY21" s="37"/>
-      <c r="CZ21" s="37"/>
-      <c r="DA21" s="37"/>
-      <c r="DB21" s="37"/>
-      <c r="DC21" s="37"/>
-      <c r="DD21" s="37"/>
-      <c r="DE21" s="37"/>
-      <c r="DF21" s="37"/>
-      <c r="DG21" s="37"/>
-      <c r="DH21" s="37"/>
-      <c r="DI21" s="37"/>
-      <c r="DJ21" s="37"/>
-      <c r="DK21" s="37"/>
-      <c r="DL21" s="37"/>
+      <c r="BK21" s="9"/>
+      <c r="BL21" s="9"/>
+      <c r="BM21" s="9"/>
+      <c r="BN21" s="9"/>
+      <c r="BO21" s="9"/>
+      <c r="BP21" s="9"/>
+      <c r="BQ21" s="9"/>
+      <c r="BR21" s="9"/>
+      <c r="BS21" s="9"/>
+      <c r="BT21" s="9"/>
+      <c r="BU21" s="9"/>
+      <c r="BV21" s="9"/>
+      <c r="BW21" s="9"/>
+      <c r="BX21" s="9"/>
+      <c r="BY21" s="9"/>
+      <c r="BZ21" s="9"/>
+      <c r="CA21" s="9"/>
+      <c r="CB21" s="9"/>
+      <c r="CC21" s="9"/>
+      <c r="CD21" s="9"/>
+      <c r="CE21" s="9"/>
+      <c r="CF21" s="9"/>
+      <c r="CG21" s="9"/>
+      <c r="CH21" s="9"/>
+      <c r="CI21" s="9"/>
+      <c r="CJ21" s="9"/>
+      <c r="CK21" s="9"/>
+      <c r="CL21" s="9"/>
+      <c r="CM21" s="9"/>
+      <c r="CN21" s="9"/>
+      <c r="CO21" s="9"/>
+      <c r="CP21" s="9"/>
+      <c r="CQ21" s="9"/>
+      <c r="CR21" s="9"/>
+      <c r="CS21" s="9"/>
+      <c r="CT21" s="9"/>
+      <c r="CU21" s="9"/>
+      <c r="CV21" s="9"/>
+      <c r="CW21" s="9"/>
+      <c r="CX21" s="9"/>
+      <c r="CY21" s="9"/>
+      <c r="CZ21" s="9"/>
+      <c r="DA21" s="9"/>
+      <c r="DB21" s="9"/>
+      <c r="DC21" s="9"/>
+      <c r="DD21" s="9"/>
+      <c r="DE21" s="9"/>
+      <c r="DF21" s="9"/>
+      <c r="DG21" s="9"/>
+      <c r="DH21" s="9"/>
+      <c r="DI21" s="9"/>
+      <c r="DJ21" s="9"/>
+      <c r="DK21" s="9"/>
+      <c r="DL21" s="9"/>
       <c r="DM21" s="7" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="DN21" s="9">
         <v>200</v>
       </c>
       <c r="DO21" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -7176,184 +7203,184 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="U1" s="13" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="V1" s="13" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="W1" s="13" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="X1" s="13" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="Y1" s="13" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="Z1" s="14" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="AA1" s="13" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="AB1" s="13" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="AC1" s="13" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AD1" s="13" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AE1" s="13" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="AF1" s="13" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="AG1" s="13" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="AH1" s="13" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="AJ1" s="5" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="AK1" s="5" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="AL1" s="5" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="AM1" s="5" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="AN1" s="5" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="AO1" s="10" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="AP1" s="5" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AQ1" s="5" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AR1" s="5" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="AS1" s="5" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="AT1" s="5" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="AU1" s="5" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="AV1" s="5" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="AW1" s="5" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="AX1" s="13" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="AY1" s="13" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="AZ1" s="13" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="BA1" s="13" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="BB1" s="13" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="BC1" s="13" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="BD1" s="14" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="BE1" s="13" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="BF1" s="13" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="BG1" s="13" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="BH1" s="13" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="BI1" s="13" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="BJ1" s="13" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="BK1" s="13" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="BL1" s="13" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="BM1" s="15" t="s">
         <v>14</v>
@@ -7367,16 +7394,16 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:67">
       <c r="A2" s="6" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>22</v>
@@ -7391,13 +7418,13 @@
         <v>74</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>22</v>
@@ -7415,13 +7442,13 @@
         <v>0</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
@@ -7469,27 +7496,27 @@
       <c r="BK2" s="9"/>
       <c r="BL2" s="9"/>
       <c r="BM2" s="7" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="BN2" s="9">
         <v>200</v>
       </c>
       <c r="BO2" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:67">
       <c r="A3" s="6" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>22</v>
@@ -7504,13 +7531,13 @@
         <v>74</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>22</v>
@@ -7528,13 +7555,13 @@
         <v>0</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="T3" s="6" t="s">
         <v>22</v>
@@ -7543,19 +7570,19 @@
         <v>21</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="Z3" s="12" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="AA3" s="6" t="s">
         <v>22</v>
@@ -7564,22 +7591,22 @@
         <v>21</v>
       </c>
       <c r="AC3" s="9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="AE3" s="9">
         <v>0</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="AG3" s="9" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="AH3" s="9" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="AI3" s="9"/>
       <c r="AJ3" s="9"/>
@@ -7612,27 +7639,27 @@
       <c r="BK3" s="9"/>
       <c r="BL3" s="9"/>
       <c r="BM3" s="7" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="BN3" s="9">
         <v>200</v>
       </c>
       <c r="BO3" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:67">
       <c r="A4" s="6" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>22</v>
@@ -7647,13 +7674,13 @@
         <v>74</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>22</v>
@@ -7671,13 +7698,13 @@
         <v>0</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="T4" s="6" t="s">
         <v>22</v>
@@ -7686,19 +7713,19 @@
         <v>21</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="X4" s="9" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="Y4" s="9" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="Z4" s="12" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="AA4" s="6" t="s">
         <v>22</v>
@@ -7707,22 +7734,22 @@
         <v>21</v>
       </c>
       <c r="AC4" s="9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="AD4" s="9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="AE4" s="9">
         <v>0</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="AG4" s="9" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="AH4" s="9" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="AI4" s="6" t="s">
         <v>22</v>
@@ -7731,19 +7758,19 @@
         <v>21</v>
       </c>
       <c r="AK4" s="9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AL4" s="9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="AM4" s="9" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="AN4" s="9" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="AO4" s="12" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="AP4" s="6" t="s">
         <v>22</v>
@@ -7752,22 +7779,22 @@
         <v>21</v>
       </c>
       <c r="AR4" s="9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AS4" s="9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="AT4" s="9">
         <v>0</v>
       </c>
       <c r="AU4" s="9" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="AV4" s="9" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="AW4" s="9" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="AX4" s="9"/>
       <c r="AY4" s="9"/>
@@ -7785,27 +7812,27 @@
       <c r="BK4" s="9"/>
       <c r="BL4" s="9"/>
       <c r="BM4" s="7" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="BN4" s="9">
         <v>200</v>
       </c>
       <c r="BO4" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:67">
       <c r="A5" s="6" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>22</v>
@@ -7820,13 +7847,13 @@
         <v>74</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>22</v>
@@ -7844,13 +7871,13 @@
         <v>0</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="T5" s="6" t="s">
         <v>22</v>
@@ -7859,19 +7886,19 @@
         <v>21</v>
       </c>
       <c r="V5" s="9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="X5" s="9" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="Y5" s="9" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="Z5" s="12" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="AA5" s="6" t="s">
         <v>22</v>
@@ -7880,22 +7907,22 @@
         <v>21</v>
       </c>
       <c r="AC5" s="9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="AD5" s="9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="AE5" s="9">
         <v>0</v>
       </c>
       <c r="AF5" s="9" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="AG5" s="9" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="AH5" s="9" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="AI5" s="6" t="s">
         <v>22</v>
@@ -7904,19 +7931,19 @@
         <v>21</v>
       </c>
       <c r="AK5" s="9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AL5" s="9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="AM5" s="9" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="AN5" s="9" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="AO5" s="12" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="AP5" s="6" t="s">
         <v>22</v>
@@ -7925,22 +7952,22 @@
         <v>21</v>
       </c>
       <c r="AR5" s="9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AS5" s="9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="AT5" s="9">
         <v>0</v>
       </c>
       <c r="AU5" s="9" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="AV5" s="9" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="AW5" s="9" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="AX5" s="6" t="s">
         <v>22</v>
@@ -7949,19 +7976,19 @@
         <v>21</v>
       </c>
       <c r="AZ5" s="9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="BA5" s="9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="BB5" s="9" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="BC5" s="9" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="BD5" s="12" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="BE5" s="6" t="s">
         <v>22</v>
@@ -7970,31 +7997,31 @@
         <v>21</v>
       </c>
       <c r="BG5" s="9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="BH5" s="9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="BI5" s="9">
         <v>0</v>
       </c>
       <c r="BJ5" s="9" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="BK5" s="9" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="BL5" s="9" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="BM5" s="7" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="BN5" s="9">
         <v>200</v>
       </c>
       <c r="BO5" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -8064,13 +8091,13 @@
       <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="L1" s="54" t="s">
         <v>14</v>
       </c>
       <c r="M1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="57" t="s">
+      <c r="N1" s="55" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8081,7 +8108,7 @@
       <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="53" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="23" t="s">
@@ -8104,13 +8131,13 @@
       <c r="K2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="58" t="s">
+      <c r="L2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="59">
+      <c r="M2" s="56">
         <v>200</v>
       </c>
-      <c r="N2" s="60" t="s">
+      <c r="N2" s="57" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8121,7 +8148,7 @@
       <c r="B3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="53" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="23" t="s">
@@ -8147,10 +8174,10 @@
       <c r="L3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="59">
+      <c r="M3" s="56">
         <v>400</v>
       </c>
-      <c r="N3" s="60"/>
+      <c r="N3" s="57"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
       <c r="A4" s="6" t="s">
@@ -8159,7 +8186,7 @@
       <c r="B4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="53" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="23" t="s">
@@ -8185,10 +8212,10 @@
       <c r="L4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="59">
+      <c r="M4" s="56">
         <v>400</v>
       </c>
-      <c r="N4" s="60"/>
+      <c r="N4" s="57"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
       <c r="A5" s="6" t="s">
@@ -8197,7 +8224,7 @@
       <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="53" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="23" t="s">
@@ -8222,13 +8249,13 @@
       <c r="K5" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="58" t="s">
+      <c r="L5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="59">
+      <c r="M5" s="56">
         <v>200</v>
       </c>
-      <c r="N5" s="60" t="s">
+      <c r="N5" s="57" t="s">
         <v>40</v>
       </c>
     </row>
@@ -8239,7 +8266,7 @@
       <c r="B6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="53" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="23" t="s">
@@ -8267,10 +8294,10 @@
       <c r="L6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="59">
+      <c r="M6" s="56">
         <v>400</v>
       </c>
-      <c r="N6" s="60"/>
+      <c r="N6" s="57"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
       <c r="A7" s="6" t="s">
@@ -8279,7 +8306,7 @@
       <c r="B7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="53" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="23" t="s">
@@ -8307,10 +8334,10 @@
       <c r="L7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="59">
+      <c r="M7" s="56">
         <v>400</v>
       </c>
-      <c r="N7" s="60"/>
+      <c r="N7" s="57"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
       <c r="A8" s="6" t="s">
@@ -8319,7 +8346,7 @@
       <c r="B8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="53" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -8346,13 +8373,13 @@
       <c r="K8" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="58" t="s">
+      <c r="L8" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="59">
+      <c r="M8" s="56">
         <v>200</v>
       </c>
-      <c r="N8" s="60" t="s">
+      <c r="N8" s="57" t="s">
         <v>49</v>
       </c>
     </row>
@@ -8363,7 +8390,7 @@
       <c r="B9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="53" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="23" t="s">
@@ -8393,10 +8420,10 @@
       <c r="L9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="59">
+      <c r="M9" s="56">
         <v>400</v>
       </c>
-      <c r="N9" s="60"/>
+      <c r="N9" s="57"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
       <c r="A10" s="6" t="s">
@@ -8405,7 +8432,7 @@
       <c r="B10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="53" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="23" t="s">
@@ -8435,10 +8462,10 @@
       <c r="L10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="59">
+      <c r="M10" s="56">
         <v>400</v>
       </c>
-      <c r="N10" s="60"/>
+      <c r="N10" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8449,10 +8476,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AZ30"/>
+  <dimension ref="A1:AZ32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="N13" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
@@ -8461,10 +8488,10 @@
     <col min="2" max="2" width="24" style="2" customWidth="1"/>
     <col min="3" max="3" width="20" style="2" customWidth="1"/>
     <col min="4" max="4" width="30" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.4285714285714" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.6190476190476" style="2" customWidth="1"/>
     <col min="6" max="6" width="22.4285714285714" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.8571428571429" style="2" customWidth="1"/>
-    <col min="8" max="8" width="25.7142857142857" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.5238095238095" style="2" customWidth="1"/>
+    <col min="8" max="8" width="31.7619047619048" style="2" customWidth="1"/>
     <col min="9" max="9" width="31.8571428571429" style="2" customWidth="1"/>
     <col min="10" max="11" width="28.2857142857143" style="2" customWidth="1"/>
     <col min="12" max="12" width="31.7142857142857" style="2" customWidth="1"/>
@@ -8549,63 +8576,63 @@
       <c r="N2" s="22"/>
       <c r="O2" s="22"/>
       <c r="P2" s="22"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="50"/>
-      <c r="AF2" s="50"/>
-      <c r="AG2" s="50"/>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="50"/>
-      <c r="AO2" s="50"/>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="50"/>
-      <c r="AR2" s="50"/>
-      <c r="AS2" s="50"/>
-      <c r="AT2" s="50"/>
-      <c r="AU2" s="50"/>
-      <c r="AV2" s="50"/>
-      <c r="AW2" s="50"/>
-      <c r="AX2" s="50"/>
-      <c r="AY2" s="50"/>
-      <c r="AZ2" s="50"/>
-    </row>
-    <row r="3" s="39" customFormat="1" ht="47" customHeight="1" spans="1:17">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42" t="s">
+      <c r="Q2" s="44"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="47"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="47"/>
+      <c r="AK2" s="47"/>
+      <c r="AL2" s="47"/>
+      <c r="AM2" s="47"/>
+      <c r="AN2" s="47"/>
+      <c r="AO2" s="47"/>
+      <c r="AP2" s="47"/>
+      <c r="AQ2" s="47"/>
+      <c r="AR2" s="47"/>
+      <c r="AS2" s="47"/>
+      <c r="AT2" s="47"/>
+      <c r="AU2" s="47"/>
+      <c r="AV2" s="47"/>
+      <c r="AW2" s="47"/>
+      <c r="AX2" s="47"/>
+      <c r="AY2" s="47"/>
+      <c r="AZ2" s="47"/>
+    </row>
+    <row r="3" s="36" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A3" s="38"/>
+      <c r="B3" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
     </row>
     <row r="4" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A4" s="6" t="s">
@@ -8632,53 +8659,77 @@
       <c r="H4" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="52">
-        <v>35537</v>
-      </c>
-      <c r="J4" s="53" t="s">
-        <v>23</v>
+      <c r="I4" s="49">
+        <v>61373</v>
+      </c>
+      <c r="J4" s="50" t="s">
+        <v>75</v>
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P4" s="9">
         <v>200</v>
       </c>
       <c r="Q4" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="49">
+        <v>61373</v>
+      </c>
+      <c r="J5" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" s="39" customFormat="1" ht="47" customHeight="1" spans="1:17">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42" t="s">
+      <c r="P5" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q5" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-    </row>
-    <row r="6" s="2" customFormat="1" customHeight="1" spans="1:17">
+    </row>
+    <row r="6" s="2" customFormat="1" ht="50" customHeight="1" spans="1:17">
       <c r="A6" s="6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>19</v>
@@ -8687,7 +8738,7 @@
         <v>72</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>22</v>
@@ -8698,53 +8749,53 @@
       <c r="H6" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="54">
-        <v>61351</v>
-      </c>
-      <c r="J6" s="53" t="s">
-        <v>79</v>
+      <c r="I6" s="49">
+        <v>61373</v>
+      </c>
+      <c r="J6" s="50" t="s">
+        <v>75</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P6" s="9">
         <v>200</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" s="39" customFormat="1" ht="47" customHeight="1" spans="1:17">
-      <c r="A7" s="41"/>
-      <c r="B7" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" s="36" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A7" s="38"/>
+      <c r="B7" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A8" s="6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>19</v>
@@ -8764,53 +8815,53 @@
       <c r="H8" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="54">
-        <v>35541</v>
-      </c>
-      <c r="J8" s="53" t="s">
-        <v>82</v>
+      <c r="I8" s="51">
+        <v>61351</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>87</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P8" s="9">
         <v>200</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" s="39" customFormat="1" ht="47" customHeight="1" spans="1:17">
-      <c r="A9" s="41"/>
-      <c r="B9" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" s="36" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A9" s="38"/>
+      <c r="B9" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A10" s="6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>19</v>
@@ -8830,53 +8881,53 @@
       <c r="H10" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="54">
-        <v>35540</v>
-      </c>
-      <c r="J10" s="53" t="s">
-        <v>85</v>
+      <c r="I10" s="51">
+        <v>35541</v>
+      </c>
+      <c r="J10" s="52" t="s">
+        <v>90</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P10" s="9">
         <v>200</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" s="39" customFormat="1" ht="47" customHeight="1" spans="1:17">
-      <c r="A11" s="41"/>
-      <c r="B11" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="46"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" s="36" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A11" s="38"/>
+      <c r="B11" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A12" s="6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>19</v>
@@ -8896,53 +8947,53 @@
       <c r="H12" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="54">
-        <v>61353</v>
-      </c>
-      <c r="J12" s="53" t="s">
-        <v>88</v>
+      <c r="I12" s="51">
+        <v>35540</v>
+      </c>
+      <c r="J12" s="52" t="s">
+        <v>93</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="9">
         <v>200</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" s="39" customFormat="1" ht="47" customHeight="1" spans="1:17">
-      <c r="A13" s="41"/>
-      <c r="B13" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" s="36" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A13" s="38"/>
+      <c r="B13" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A14" s="6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>19</v>
@@ -8962,175 +9013,175 @@
       <c r="H14" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I14" s="54">
-        <v>61357</v>
-      </c>
-      <c r="J14" s="53" t="s">
-        <v>91</v>
+      <c r="I14" s="51">
+        <v>61353</v>
+      </c>
+      <c r="J14" s="52" t="s">
+        <v>96</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P14" s="9">
         <v>200</v>
       </c>
       <c r="Q14" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" s="36" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A15" s="38"/>
+      <c r="B15" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+    </row>
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A16" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="51">
+        <v>61357</v>
+      </c>
+      <c r="J16" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="15" s="17" customFormat="1" ht="21" customHeight="1" spans="1:52">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="49"/>
-      <c r="X15" s="48"/>
-      <c r="Y15" s="48"/>
-      <c r="Z15" s="48"/>
-      <c r="AA15" s="48"/>
-      <c r="AB15" s="36"/>
-      <c r="AC15" s="50"/>
-      <c r="AD15" s="50"/>
-      <c r="AE15" s="50"/>
-      <c r="AF15" s="50"/>
-      <c r="AG15" s="50"/>
-      <c r="AH15" s="50"/>
-      <c r="AI15" s="50"/>
-      <c r="AJ15" s="50"/>
-      <c r="AK15" s="50"/>
-      <c r="AL15" s="50"/>
-      <c r="AM15" s="50"/>
-      <c r="AN15" s="50"/>
-      <c r="AO15" s="50"/>
-      <c r="AP15" s="50"/>
-      <c r="AQ15" s="50"/>
-      <c r="AR15" s="50"/>
-      <c r="AS15" s="50"/>
-      <c r="AT15" s="50"/>
-      <c r="AU15" s="50"/>
-      <c r="AV15" s="50"/>
-      <c r="AW15" s="50"/>
-      <c r="AX15" s="50"/>
-      <c r="AY15" s="50"/>
-      <c r="AZ15" s="50"/>
-    </row>
-    <row r="16" s="39" customFormat="1" ht="47" customHeight="1" spans="1:17">
-      <c r="A16" s="41"/>
-      <c r="B16" s="42" t="s">
+      <c r="P16" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" s="17" customFormat="1" ht="21" customHeight="1" spans="1:52">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="45"/>
+      <c r="AA17" s="45"/>
+      <c r="AB17" s="35"/>
+      <c r="AC17" s="47"/>
+      <c r="AD17" s="47"/>
+      <c r="AE17" s="47"/>
+      <c r="AF17" s="47"/>
+      <c r="AG17" s="47"/>
+      <c r="AH17" s="47"/>
+      <c r="AI17" s="47"/>
+      <c r="AJ17" s="47"/>
+      <c r="AK17" s="47"/>
+      <c r="AL17" s="47"/>
+      <c r="AM17" s="47"/>
+      <c r="AN17" s="47"/>
+      <c r="AO17" s="47"/>
+      <c r="AP17" s="47"/>
+      <c r="AQ17" s="47"/>
+      <c r="AR17" s="47"/>
+      <c r="AS17" s="47"/>
+      <c r="AT17" s="47"/>
+      <c r="AU17" s="47"/>
+      <c r="AV17" s="47"/>
+      <c r="AW17" s="47"/>
+      <c r="AX17" s="47"/>
+      <c r="AY17" s="47"/>
+      <c r="AZ17" s="47"/>
+    </row>
+    <row r="18" s="36" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A18" s="38"/>
+      <c r="B18" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-    </row>
-    <row r="17" s="2" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A17" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I17" s="54">
-        <v>61361</v>
-      </c>
-      <c r="J17" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="P17" s="9">
-        <v>200</v>
-      </c>
-      <c r="Q17" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" s="39" customFormat="1" ht="47" customHeight="1" spans="1:17">
-      <c r="A18" s="41"/>
-      <c r="B18" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A19" s="6" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>19</v>
@@ -9150,53 +9201,53 @@
       <c r="H19" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="54">
-        <v>61362</v>
-      </c>
-      <c r="J19" s="53" t="s">
-        <v>96</v>
+      <c r="I19" s="51">
+        <v>61361</v>
+      </c>
+      <c r="J19" s="52" t="s">
+        <v>102</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P19" s="9">
         <v>200</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" s="39" customFormat="1" ht="47" customHeight="1" spans="1:17">
-      <c r="A20" s="41"/>
-      <c r="B20" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" s="36" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A20" s="38"/>
+      <c r="B20" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A21" s="6" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>19</v>
@@ -9216,53 +9267,53 @@
       <c r="H21" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I21" s="54">
-        <v>61363</v>
-      </c>
-      <c r="J21" s="53" t="s">
-        <v>98</v>
+      <c r="I21" s="51">
+        <v>61362</v>
+      </c>
+      <c r="J21" s="52" t="s">
+        <v>104</v>
       </c>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P21" s="9">
         <v>200</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" s="39" customFormat="1" ht="47" customHeight="1" spans="1:17">
-      <c r="A22" s="41"/>
-      <c r="B22" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" s="36" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A22" s="38"/>
+      <c r="B22" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A23" s="6" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>19</v>
@@ -9282,53 +9333,53 @@
       <c r="H23" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I23" s="54">
-        <v>61364</v>
-      </c>
-      <c r="J23" s="53" t="s">
-        <v>100</v>
+      <c r="I23" s="51">
+        <v>61363</v>
+      </c>
+      <c r="J23" s="52" t="s">
+        <v>106</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P23" s="9">
         <v>200</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" s="39" customFormat="1" ht="47" customHeight="1" spans="1:17">
-      <c r="A24" s="41"/>
-      <c r="B24" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="46"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" s="36" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A24" s="38"/>
+      <c r="B24" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A25" s="6" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>19</v>
@@ -9348,53 +9399,53 @@
       <c r="H25" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I25" s="54">
-        <v>61365</v>
-      </c>
-      <c r="J25" s="53" t="s">
-        <v>102</v>
+      <c r="I25" s="51">
+        <v>61364</v>
+      </c>
+      <c r="J25" s="52" t="s">
+        <v>108</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P25" s="9">
         <v>200</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" s="39" customFormat="1" ht="47" customHeight="1" spans="1:17">
-      <c r="A26" s="41"/>
-      <c r="B26" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="46"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" s="36" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A26" s="38"/>
+      <c r="B26" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A27" s="6" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>19</v>
@@ -9414,57 +9465,59 @@
       <c r="H27" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I27" s="54">
-        <v>61366</v>
-      </c>
-      <c r="J27" s="53" t="s">
-        <v>104</v>
+      <c r="I27" s="51">
+        <v>61365</v>
+      </c>
+      <c r="J27" s="52" t="s">
+        <v>110</v>
       </c>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
       <c r="O27" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P27" s="9">
         <v>200</v>
       </c>
       <c r="Q27" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" s="2" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" s="36" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A28" s="38"/>
+      <c r="B28" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A29" s="6" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>73</v>
@@ -9478,99 +9531,163 @@
       <c r="H29" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I29" s="9">
-        <v>35537</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K29" s="9">
-        <v>35538</v>
-      </c>
-      <c r="L29" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="I29" s="51">
+        <v>61366</v>
+      </c>
+      <c r="J29" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
       <c r="O29" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P29" s="9">
         <v>200</v>
       </c>
       <c r="Q29" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+    </row>
+    <row r="31" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A31" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I31" s="9">
+        <v>35537</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" s="9">
+        <v>35538</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="30" s="2" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A30" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30" s="8" t="s">
+      <c r="P31" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q31" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A32" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="E30" s="9" t="s">
+      <c r="D32" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F32" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G32" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H32" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I32" s="9">
         <v>35537</v>
       </c>
-      <c r="J30" s="9" t="s">
+      <c r="J32" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K32" s="9">
         <v>35538</v>
       </c>
-      <c r="L30" s="9" t="s">
+      <c r="L32" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="M30" s="9">
+      <c r="M32" s="9">
         <v>35539</v>
       </c>
-      <c r="N30" s="9" t="s">
+      <c r="N32" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="O30" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="P30" s="9">
+      <c r="O32" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P32" s="9">
         <v>200</v>
       </c>
-      <c r="Q30" s="9" t="s">
-        <v>76</v>
+      <c r="Q32" s="9" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B28:D28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -9582,8 +9699,8 @@
   <sheetPr/>
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="3"/>
@@ -9598,10 +9715,8 @@
     <col min="8" max="8" width="25.7142857142857" style="2" customWidth="1"/>
     <col min="9" max="9" width="23" style="2" customWidth="1"/>
     <col min="10" max="10" width="31.4285714285714" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.2857142857143" style="2" customWidth="1"/>
-    <col min="12" max="12" width="19.7142857142857" style="2" customWidth="1"/>
-    <col min="13" max="13" width="15.5714285714286" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.7142857142857" style="2" customWidth="1"/>
+    <col min="11" max="11" width="30.7142857142857" style="2" customWidth="1"/>
+    <col min="12" max="14" width="24.2857142857143" style="2" customWidth="1"/>
     <col min="15" max="15" width="17.4285714285714" style="2" customWidth="1"/>
     <col min="16" max="16384" width="9.14285714285714" style="2"/>
   </cols>
@@ -9661,10 +9776,10 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A2" s="6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>19</v>
@@ -9673,7 +9788,7 @@
         <v>72</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>22</v>
@@ -9682,7 +9797,7 @@
         <v>21</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>23</v>
@@ -9695,30 +9810,30 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P2" s="9">
         <v>200</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:17">
       <c r="A3" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>22</v>
@@ -9727,7 +9842,7 @@
         <v>21</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>23</v>
@@ -9744,30 +9859,30 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P3" s="9">
         <v>200</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:17">
       <c r="A4" s="6" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>22</v>
@@ -9776,7 +9891,7 @@
         <v>21</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>23</v>
@@ -9797,13 +9912,13 @@
         <v>35539</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P4" s="9">
         <v>200</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -9896,10 +10011,10 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A2" s="6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>19</v>
@@ -9908,7 +10023,7 @@
         <v>72</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>22</v>
@@ -9917,7 +10032,7 @@
         <v>21</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>23</v>
@@ -9930,30 +10045,30 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P2" s="9">
         <v>200</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A3" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>22</v>
@@ -9962,7 +10077,7 @@
         <v>21</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>23</v>
@@ -9979,30 +10094,30 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P3" s="9">
         <v>200</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A4" s="6" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>22</v>
@@ -10011,7 +10126,7 @@
         <v>21</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>23</v>
@@ -10032,13 +10147,13 @@
         <v>35539</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P4" s="9">
         <v>200</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -10131,10 +10246,10 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A2" s="6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>19</v>
@@ -10143,7 +10258,7 @@
         <v>72</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>22</v>
@@ -10152,7 +10267,7 @@
         <v>21</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>23</v>
@@ -10165,30 +10280,30 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P2" s="9">
         <v>200</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A3" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>22</v>
@@ -10197,7 +10312,7 @@
         <v>21</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>23</v>
@@ -10214,30 +10329,30 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P3" s="9">
         <v>200</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A4" s="6" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>22</v>
@@ -10246,7 +10361,7 @@
         <v>21</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>23</v>
@@ -10267,13 +10382,13 @@
         <v>35539</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P4" s="9">
         <v>200</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -10285,10 +10400,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AZ27"/>
+  <dimension ref="A1:AZ28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A19" sqref="$A19:$XFD19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
@@ -10299,12 +10414,12 @@
     <col min="4" max="4" width="30" style="2" customWidth="1"/>
     <col min="5" max="5" width="23.4285714285714" style="2" customWidth="1"/>
     <col min="6" max="6" width="20.7142857142857" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.4285714285714" style="2" customWidth="1"/>
+    <col min="7" max="7" width="36.1333333333333" style="2" customWidth="1"/>
     <col min="8" max="8" width="24.7047619047619" style="2" customWidth="1"/>
     <col min="9" max="9" width="18.8190476190476" style="2" customWidth="1"/>
     <col min="10" max="10" width="17.4285714285714" style="2" customWidth="1"/>
     <col min="11" max="11" width="23.5714285714286" style="2" customWidth="1"/>
-    <col min="12" max="12" width="25.2095238095238" style="2" customWidth="1"/>
+    <col min="12" max="12" width="45.5428571428571" style="2" customWidth="1"/>
     <col min="13" max="13" width="36.1238095238095" style="2" customWidth="1"/>
     <col min="14" max="14" width="14.2857142857143" style="2" customWidth="1"/>
     <col min="15" max="15" width="14.5714285714286" style="2" customWidth="1"/>
@@ -10324,29 +10439,29 @@
       <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="I1" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="J1" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="K1" s="40" t="s">
+      <c r="H1" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="K1" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="40" t="s">
-        <v>121</v>
+      <c r="L1" s="37" t="s">
+        <v>129</v>
       </c>
       <c r="M1" s="15" t="s">
         <v>14</v>
@@ -10377,74 +10492,74 @@
       <c r="N2" s="22"/>
       <c r="O2" s="22"/>
       <c r="P2" s="22"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="50"/>
-      <c r="AF2" s="50"/>
-      <c r="AG2" s="50"/>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="50"/>
-      <c r="AO2" s="50"/>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="50"/>
-      <c r="AR2" s="50"/>
-      <c r="AS2" s="50"/>
-      <c r="AT2" s="50"/>
-      <c r="AU2" s="50"/>
-      <c r="AV2" s="50"/>
-      <c r="AW2" s="50"/>
-      <c r="AX2" s="50"/>
-      <c r="AY2" s="50"/>
-      <c r="AZ2" s="50"/>
-    </row>
-    <row r="3" s="39" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42" t="s">
+      <c r="Q2" s="44"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="47"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="47"/>
+      <c r="AK2" s="47"/>
+      <c r="AL2" s="47"/>
+      <c r="AM2" s="47"/>
+      <c r="AN2" s="47"/>
+      <c r="AO2" s="47"/>
+      <c r="AP2" s="47"/>
+      <c r="AQ2" s="47"/>
+      <c r="AR2" s="47"/>
+      <c r="AS2" s="47"/>
+      <c r="AT2" s="47"/>
+      <c r="AU2" s="47"/>
+      <c r="AV2" s="47"/>
+      <c r="AW2" s="47"/>
+      <c r="AX2" s="47"/>
+      <c r="AY2" s="47"/>
+      <c r="AZ2" s="47"/>
+    </row>
+    <row r="3" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A3" s="38"/>
+      <c r="B3" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
     </row>
     <row r="4" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A4" s="6" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>22</v>
@@ -10456,10 +10571,10 @@
         <v>74</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="J4" s="9">
         <v>0</v>
@@ -10468,816 +10583,863 @@
         <v>73</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="M4" s="23" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="N4" s="9">
         <v>200</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" s="39" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-    </row>
-    <row r="6" s="2" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A6" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" s="8" t="s">
+    </row>
+    <row r="5" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A5" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="D5" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G5" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="N5" s="9">
+        <v>200</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A6" s="38"/>
+      <c r="B6" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+    </row>
+    <row r="7" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A7" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="J6" s="9">
+      <c r="H7" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J7" s="9">
         <v>0</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K7" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L7" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="M7" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="N7" s="9">
+        <v>200</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A8" s="38"/>
+      <c r="B8" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+    </row>
+    <row r="9" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A9" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="M6" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="N6" s="9">
+      <c r="E9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="M9" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="N9" s="9">
         <v>200</v>
       </c>
-      <c r="O6" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" s="39" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A7" s="41"/>
-      <c r="B7" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-    </row>
-    <row r="8" s="2" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A8" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="O9" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A10" s="38"/>
+      <c r="B10" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A11" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="D11" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G11" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="J8" s="9">
+      <c r="H11" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="J11" s="9">
         <v>0</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K11" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L11" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="M11" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="M8" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="N8" s="9">
+      <c r="N11" s="9">
         <v>200</v>
       </c>
-      <c r="O8" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" s="39" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A9" s="41"/>
-      <c r="B9" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-    </row>
-    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A10" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="O11" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A12" s="38"/>
+      <c r="B12" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+    </row>
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A13" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="D13" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G13" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="J10" s="9">
+      <c r="H13" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="J13" s="9">
         <v>0</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K13" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="L10" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="M10" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="N10" s="9">
+      <c r="L13" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="M13" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="N13" s="9">
         <v>200</v>
       </c>
-      <c r="O10" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" s="39" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A11" s="41"/>
-      <c r="B11" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
-    </row>
-    <row r="12" s="2" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A12" s="6" t="s">
+      <c r="O13" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A14" s="38"/>
+      <c r="B14" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+    </row>
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A15" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="D15" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G15" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="J12" s="9">
+      <c r="H15" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="J15" s="9">
         <v>0</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K15" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="L12" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="M12" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="N12" s="9">
+      <c r="L15" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="M15" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="N15" s="9">
         <v>200</v>
       </c>
-      <c r="O12" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" s="39" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A13" s="41"/>
-      <c r="B13" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-    </row>
-    <row r="14" s="2" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A14" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="O15" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" s="17" customFormat="1" ht="21" customHeight="1" spans="1:52">
+      <c r="A16" s="19"/>
+      <c r="B16" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="45"/>
+      <c r="AA16" s="45"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="47"/>
+      <c r="AD16" s="47"/>
+      <c r="AE16" s="47"/>
+      <c r="AF16" s="47"/>
+      <c r="AG16" s="47"/>
+      <c r="AH16" s="47"/>
+      <c r="AI16" s="47"/>
+      <c r="AJ16" s="47"/>
+      <c r="AK16" s="47"/>
+      <c r="AL16" s="47"/>
+      <c r="AM16" s="47"/>
+      <c r="AN16" s="47"/>
+      <c r="AO16" s="47"/>
+      <c r="AP16" s="47"/>
+      <c r="AQ16" s="47"/>
+      <c r="AR16" s="47"/>
+      <c r="AS16" s="47"/>
+      <c r="AT16" s="47"/>
+      <c r="AU16" s="47"/>
+      <c r="AV16" s="47"/>
+      <c r="AW16" s="47"/>
+      <c r="AX16" s="47"/>
+      <c r="AY16" s="47"/>
+      <c r="AZ16" s="47"/>
+    </row>
+    <row r="17" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A17" s="38"/>
+      <c r="B17" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+    </row>
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A18" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="D18" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G18" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="J14" s="9">
+      <c r="H18" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="J18" s="9">
         <v>0</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K18" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="L14" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="M14" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="N14" s="9">
+      <c r="L18" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="M18" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="N18" s="9">
         <v>200</v>
       </c>
-      <c r="O14" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" s="17" customFormat="1" ht="21" customHeight="1" spans="1:52">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="49"/>
-      <c r="X15" s="48"/>
-      <c r="Y15" s="48"/>
-      <c r="Z15" s="48"/>
-      <c r="AA15" s="48"/>
-      <c r="AB15" s="36"/>
-      <c r="AC15" s="50"/>
-      <c r="AD15" s="50"/>
-      <c r="AE15" s="50"/>
-      <c r="AF15" s="50"/>
-      <c r="AG15" s="50"/>
-      <c r="AH15" s="50"/>
-      <c r="AI15" s="50"/>
-      <c r="AJ15" s="50"/>
-      <c r="AK15" s="50"/>
-      <c r="AL15" s="50"/>
-      <c r="AM15" s="50"/>
-      <c r="AN15" s="50"/>
-      <c r="AO15" s="50"/>
-      <c r="AP15" s="50"/>
-      <c r="AQ15" s="50"/>
-      <c r="AR15" s="50"/>
-      <c r="AS15" s="50"/>
-      <c r="AT15" s="50"/>
-      <c r="AU15" s="50"/>
-      <c r="AV15" s="50"/>
-      <c r="AW15" s="50"/>
-      <c r="AX15" s="50"/>
-      <c r="AY15" s="50"/>
-      <c r="AZ15" s="50"/>
-    </row>
-    <row r="16" s="39" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A16" s="41"/>
-      <c r="B16" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-    </row>
-    <row r="17" s="2" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A17" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C17" s="8" t="s">
+      <c r="O18" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A19" s="38"/>
+      <c r="B19" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+    </row>
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A20" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="E17" s="6" t="s">
+      <c r="D20" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G20" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="J17" s="9">
+      <c r="H20" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="J20" s="9">
         <v>0</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K20" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="L17" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="M17" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="N17" s="9">
+      <c r="L20" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="M20" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="N20" s="9">
         <v>200</v>
       </c>
-      <c r="O17" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" s="39" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A18" s="41"/>
-      <c r="B18" s="42" t="s">
+      <c r="O20" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-    </row>
-    <row r="19" s="2" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A19" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" s="8" t="s">
+    </row>
+    <row r="21" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A21" s="38"/>
+      <c r="B21" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+    </row>
+    <row r="22" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A22" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="E19" s="6" t="s">
+      <c r="D22" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G22" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H19" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="J19" s="9">
+      <c r="H22" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="J22" s="9">
         <v>0</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="K22" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="L19" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="M19" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="N19" s="9">
+      <c r="L22" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="M22" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="N22" s="9">
         <v>200</v>
       </c>
-      <c r="O19" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" s="39" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A20" s="41"/>
-      <c r="B20" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-    </row>
-    <row r="21" s="2" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A21" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" s="8" t="s">
+      <c r="O22" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A23" s="38"/>
+      <c r="B23" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+    </row>
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A24" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="E21" s="6" t="s">
+      <c r="D24" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F24" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G24" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H21" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="J21" s="9">
+      <c r="H24" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="J24" s="9">
         <v>0</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="K24" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="L21" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="M21" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="N21" s="9">
+      <c r="L24" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="M24" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="N24" s="9">
         <v>200</v>
       </c>
-      <c r="O21" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" s="39" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A22" s="41"/>
-      <c r="B22" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-    </row>
-    <row r="23" s="2" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A23" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="8" t="s">
+      <c r="O24" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A25" s="38"/>
+      <c r="B25" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+    </row>
+    <row r="26" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A26" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="E23" s="6" t="s">
+      <c r="D26" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F26" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G26" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H23" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="J23" s="9">
+      <c r="H26" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="J26" s="9">
         <v>0</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K26" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="L23" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="M23" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="N23" s="9">
+      <c r="L26" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="M26" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="N26" s="9">
         <v>200</v>
       </c>
-      <c r="O23" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" s="39" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A24" s="41"/>
-      <c r="B24" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-    </row>
-    <row r="25" s="2" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A25" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="8" t="s">
+      <c r="O26" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A27" s="38"/>
+      <c r="B27" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+    </row>
+    <row r="28" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A28" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="E25" s="6" t="s">
+      <c r="D28" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F28" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G28" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H25" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="J25" s="9">
+      <c r="H28" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="J28" s="9">
         <v>0</v>
       </c>
-      <c r="K25" s="9" t="s">
+      <c r="K28" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="L25" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="M25" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="N25" s="9">
+      <c r="L28" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="M28" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="N28" s="9">
         <v>200</v>
       </c>
-      <c r="O25" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" s="39" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A26" s="41"/>
-      <c r="B26" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="46"/>
-    </row>
-    <row r="27" s="2" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A27" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="J27" s="9">
-        <v>0</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L27" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="M27" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="N27" s="9">
-        <v>200</v>
-      </c>
-      <c r="O27" s="9" t="s">
-        <v>76</v>
+      <c r="O28" s="9" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B14:D14"/>
     <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B27:D27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -11337,19 +11499,19 @@
         <v>60</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>59</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="M1" s="15" t="s">
         <v>14</v>
@@ -11363,16 +11525,16 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A2" s="6" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>22</v>
@@ -11381,31 +11543,31 @@
         <v>21</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="J2" s="9">
         <v>0</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="M2" s="23" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="N2" s="9">
         <v>200</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -11467,19 +11629,19 @@
         <v>60</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>59</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="M1" s="15" t="s">
         <v>14</v>
@@ -11493,16 +11655,16 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A2" s="6" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>22</v>
@@ -11511,31 +11673,31 @@
         <v>21</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="J2" s="9">
         <v>0</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="M2" s="23" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="N2" s="9">
         <v>200</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/input_excel_file/booking/voucher.xlsx
+++ b/src/main/resources/input_excel_file/booking/voucher.xlsx
@@ -8479,7 +8479,7 @@
   <dimension ref="A1:AZ32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>

--- a/src/main/resources/input_excel_file/booking/voucher.xlsx
+++ b/src/main/resources/input_excel_file/booking/voucher.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="2" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Booking_Voucher_Check" sheetId="1" r:id="rId1"/>
@@ -602,7 +602,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="360">
   <si>
     <t>tc_id</t>
   </si>
@@ -862,19 +862,31 @@
     <t>VST_ADD_VC_4FEE_001</t>
   </si>
   <si>
+    <t>CNTT4FEE21</t>
+  </si>
+  <si>
+    <t>VST_ADD_VC_4FEE_002</t>
+  </si>
+  <si>
+    <t>VST_ADD_VC_4FEE_003</t>
+  </si>
+  <si>
+    <t>Apply voucher giảm giá thông thường: Giảm 10% green</t>
+  </si>
+  <si>
+    <t>VST_ADD_VC_GREEN_10_001</t>
+  </si>
+  <si>
     <t>Kiểm tra apply 1 voucher</t>
   </si>
   <si>
-    <t>CNTT4FEE1</t>
-  </si>
-  <si>
-    <t>Apply voucher giảm giá thông thường: Giảm 10% green</t>
-  </si>
-  <si>
-    <t>VST_ADD_VC_GREEN_10_001</t>
-  </si>
-  <si>
-    <t>GR10001</t>
+    <t>GREEN51</t>
+  </si>
+  <si>
+    <t>VST_ADD_VC_GREEN_10_002</t>
+  </si>
+  <si>
+    <t>VST_ADD_VC_GREEN_10_003</t>
   </si>
   <si>
     <t>Apply voucher giảm giá thông thường: Giảm 10% all fee</t>
@@ -1027,28 +1039,40 @@
     <t>VST_REMOVE_VC_4FEE_001</t>
   </si>
   <si>
+    <t>{{CTX:VOUCHER_CODE_CNTT4FEE21}}</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_ID_CNTT4FEE21}}</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_APPLY_UID_CNTT4FEE21_0}}</t>
+  </si>
+  <si>
+    <t>VST_REMOVE_VC_4FEE_002</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_APPLY_UID_CNTT4FEE21_0_ROUND2}}</t>
+  </si>
+  <si>
+    <t>VST_REMOVE_VC_GREEN_10_001</t>
+  </si>
+  <si>
     <t>Remove voucher player 1</t>
   </si>
   <si>
-    <t>{{CTX:VOUCHER_CODE_CNTT4FEE1}}</t>
-  </si>
-  <si>
-    <t>{{CTX:VOUCHER_ID_CNTT4FEE1}}</t>
-  </si>
-  <si>
-    <t>{{CTX:VOUCHER_APPLY_UID_CNTT4FEE1_0}}</t>
-  </si>
-  <si>
-    <t>VST_REMOVE_VC_GREEN_10_001</t>
-  </si>
-  <si>
-    <t>{{CTX:VOUCHER_CODE_GR10001}}</t>
-  </si>
-  <si>
-    <t>{{CTX:VOUCHER_ID_GR10001}}</t>
-  </si>
-  <si>
-    <t>{{CTX:VOUCHER_APPLY_UID_GR10001_0}}</t>
+    <t>{{CTX:VOUCHER_CODE_GREEN51}}</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_ID_GREEN51}}</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_APPLY_UID_GREEN51_0}}</t>
+  </si>
+  <si>
+    <t>VST_REMOVE_VC_GREEN_10_002</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_APPLY_UID_GREEN51_0_ROUND2}}</t>
   </si>
   <si>
     <t>VST_REMOVE_VC_ALL_10_001</t>
@@ -2414,7 +2438,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2567,6 +2591,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
@@ -3193,13 +3220,13 @@
       <c r="N1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="54" t="s">
+      <c r="O1" s="55" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="55" t="s">
+      <c r="Q1" s="56" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3210,7 +3237,7 @@
       <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="54" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="23" t="s">
@@ -3236,7 +3263,7 @@
       <c r="L2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="58" t="s">
+      <c r="M2" s="59" t="s">
         <v>26</v>
       </c>
       <c r="N2" s="12" t="s">
@@ -3245,10 +3272,10 @@
       <c r="O2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="56">
+      <c r="P2" s="57">
         <v>200</v>
       </c>
-      <c r="Q2" s="57" t="s">
+      <c r="Q2" s="58" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3259,7 +3286,7 @@
       <c r="B3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="54" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="23" t="s">
@@ -3285,7 +3312,7 @@
       <c r="L3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="58" t="s">
+      <c r="M3" s="59" t="s">
         <v>26</v>
       </c>
       <c r="N3" s="12" t="s">
@@ -3294,10 +3321,10 @@
       <c r="O3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="56">
+      <c r="P3" s="57">
         <v>400</v>
       </c>
-      <c r="Q3" s="57"/>
+      <c r="Q3" s="58"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
       <c r="A4" s="6" t="s">
@@ -3306,7 +3333,7 @@
       <c r="B4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="54" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="23" t="s">
@@ -3332,7 +3359,7 @@
       <c r="L4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="58" t="s">
+      <c r="M4" s="59" t="s">
         <v>26</v>
       </c>
       <c r="N4" s="12" t="s">
@@ -3341,10 +3368,10 @@
       <c r="O4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="56">
+      <c r="P4" s="57">
         <v>400</v>
       </c>
-      <c r="Q4" s="57"/>
+      <c r="Q4" s="58"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
       <c r="A5" s="6" t="s">
@@ -3353,7 +3380,7 @@
       <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="54" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="23" t="s">
@@ -3381,7 +3408,7 @@
       <c r="L5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="58" t="s">
+      <c r="M5" s="59" t="s">
         <v>26</v>
       </c>
       <c r="N5" s="12" t="s">
@@ -3390,10 +3417,10 @@
       <c r="O5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="56">
+      <c r="P5" s="57">
         <v>200</v>
       </c>
-      <c r="Q5" s="57" t="s">
+      <c r="Q5" s="58" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3404,7 +3431,7 @@
       <c r="B6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="54" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="23" t="s">
@@ -3432,7 +3459,7 @@
       <c r="L6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="58" t="s">
+      <c r="M6" s="59" t="s">
         <v>26</v>
       </c>
       <c r="N6" s="12" t="s">
@@ -3441,10 +3468,10 @@
       <c r="O6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="56">
+      <c r="P6" s="57">
         <v>400</v>
       </c>
-      <c r="Q6" s="57"/>
+      <c r="Q6" s="58"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
       <c r="A7" s="6" t="s">
@@ -3453,7 +3480,7 @@
       <c r="B7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="54" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="23" t="s">
@@ -3481,7 +3508,7 @@
       <c r="L7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="58" t="s">
+      <c r="M7" s="59" t="s">
         <v>26</v>
       </c>
       <c r="N7" s="12" t="s">
@@ -3490,10 +3517,10 @@
       <c r="O7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P7" s="56">
+      <c r="P7" s="57">
         <v>400</v>
       </c>
-      <c r="Q7" s="57"/>
+      <c r="Q7" s="58"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
       <c r="A8" s="6" t="s">
@@ -3502,7 +3529,7 @@
       <c r="B8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="54" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -3532,7 +3559,7 @@
       <c r="L8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="58" t="s">
+      <c r="M8" s="59" t="s">
         <v>26</v>
       </c>
       <c r="N8" s="12" t="s">
@@ -3541,10 +3568,10 @@
       <c r="O8" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="56">
+      <c r="P8" s="57">
         <v>200</v>
       </c>
-      <c r="Q8" s="57" t="s">
+      <c r="Q8" s="58" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3555,7 +3582,7 @@
       <c r="B9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="54" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="23" t="s">
@@ -3585,7 +3612,7 @@
       <c r="L9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="58" t="s">
+      <c r="M9" s="59" t="s">
         <v>26</v>
       </c>
       <c r="N9" s="12" t="s">
@@ -3594,10 +3621,10 @@
       <c r="O9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P9" s="56">
+      <c r="P9" s="57">
         <v>400</v>
       </c>
-      <c r="Q9" s="57"/>
+      <c r="Q9" s="58"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
       <c r="A10" s="6" t="s">
@@ -3606,7 +3633,7 @@
       <c r="B10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="54" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="23" t="s">
@@ -3636,7 +3663,7 @@
       <c r="L10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="58" t="s">
+      <c r="M10" s="59" t="s">
         <v>26</v>
       </c>
       <c r="N10" s="12" t="s">
@@ -3645,10 +3672,10 @@
       <c r="O10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="56">
+      <c r="P10" s="57">
         <v>400</v>
       </c>
-      <c r="Q10" s="57"/>
+      <c r="Q10" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3708,19 +3735,19 @@
         <v>60</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>59</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="M1" s="15" t="s">
         <v>14</v>
@@ -3734,16 +3761,16 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A2" s="6" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>22</v>
@@ -3752,25 +3779,25 @@
         <v>21</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="J2" s="9">
         <v>0</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="M2" s="23" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="N2" s="9">
         <v>200</v>
@@ -3844,340 +3871,340 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="P1" s="28" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="T1" s="11" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="AD1" s="11" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="AE1" s="11" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="AF1" s="11" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="AG1" s="13" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="AH1" s="13" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="AI1" s="13" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="AJ1" s="13" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="AK1" s="13" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="AL1" s="31" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="AM1" s="13" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="AN1" s="13" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="AO1" s="13" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="AP1" s="13" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="AQ1" s="14" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="AR1" s="31" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="AS1" s="13" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="AT1" s="13" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="AU1" s="13" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="AV1" s="13" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="AW1" s="13" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="AX1" s="13" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="AY1" s="13" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="AZ1" s="13" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="BA1" s="13" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="BB1" s="13" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="BC1" s="13" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="BD1" s="13" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="BE1" s="13" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="BF1" s="13" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="BG1" s="13" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="BH1" s="13" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="BI1" s="5" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="BJ1" s="5" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="BK1" s="5" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="BL1" s="5" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="BM1" s="5" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="BN1" s="28" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="BO1" s="11" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="BP1" s="11" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="BQ1" s="11" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="BR1" s="11" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="BS1" s="10" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="BT1" s="28" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="BU1" s="11" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="BV1" s="11" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="BW1" s="11" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="BX1" s="11" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="BY1" s="11" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="BZ1" s="11" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="CA1" s="11" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="CB1" s="11" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="CC1" s="11" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="CD1" s="11" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="CE1" s="11" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="CF1" s="11" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="CG1" s="11" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="CH1" s="11" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="CI1" s="11" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="CJ1" s="11" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="CK1" s="13" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="CL1" s="13" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="CM1" s="13" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="CN1" s="13" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="CO1" s="13" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="CP1" s="31" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="CQ1" s="13" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="CR1" s="13" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="CS1" s="13" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="CT1" s="13" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="CU1" s="14" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="CV1" s="31" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="CW1" s="13" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="CX1" s="13" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="CY1" s="13" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="CZ1" s="13" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="DA1" s="13" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="DB1" s="13" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="DC1" s="13" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="DD1" s="13" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="DE1" s="13" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="DF1" s="13" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="DG1" s="13" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="DH1" s="13" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="DI1" s="13" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="DJ1" s="13" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="DK1" s="13" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="DL1" s="13" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="DM1" s="15" t="s">
         <v>14</v>
@@ -4192,7 +4219,7 @@
     <row r="2" s="17" customFormat="1" ht="21" customHeight="1" spans="1:119">
       <c r="A2" s="19"/>
       <c r="B2" s="20" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
@@ -4314,16 +4341,16 @@
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:119">
       <c r="A3" s="6" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>22</v>
@@ -4338,11 +4365,11 @@
         <v>74</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="J3" s="29"/>
       <c r="K3" s="29" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="L3" s="29">
         <v>61361</v>
@@ -4350,10 +4377,10 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="12" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
@@ -4456,7 +4483,7 @@
       <c r="DK3" s="9"/>
       <c r="DL3" s="9"/>
       <c r="DM3" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="DN3" s="9">
         <v>200</v>
@@ -4467,16 +4494,16 @@
     </row>
     <row r="4" s="2" customFormat="1" ht="48" customHeight="1" spans="1:119">
       <c r="A4" s="6" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>22</v>
@@ -4491,11 +4518,11 @@
         <v>74</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="J4" s="29"/>
       <c r="K4" s="29" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L4" s="29">
         <v>61362</v>
@@ -4503,10 +4530,10 @@
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="12" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
@@ -4609,7 +4636,7 @@
       <c r="DK4" s="9"/>
       <c r="DL4" s="9"/>
       <c r="DM4" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="DN4" s="9">
         <v>200</v>
@@ -4620,16 +4647,16 @@
     </row>
     <row r="5" s="2" customFormat="1" customHeight="1" spans="1:119">
       <c r="A5" s="6" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>22</v>
@@ -4644,11 +4671,11 @@
         <v>74</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="J5" s="29"/>
       <c r="K5" s="29" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L5" s="29">
         <v>61363</v>
@@ -4656,10 +4683,10 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="12" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
@@ -4762,7 +4789,7 @@
       <c r="DK5" s="9"/>
       <c r="DL5" s="9"/>
       <c r="DM5" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="DN5" s="9">
         <v>200</v>
@@ -4773,16 +4800,16 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="1:119">
       <c r="A6" s="6" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>22</v>
@@ -4797,11 +4824,11 @@
         <v>74</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="J6" s="29"/>
       <c r="K6" s="29" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L6" s="29">
         <v>61364</v>
@@ -4809,10 +4836,10 @@
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="12" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
@@ -4915,7 +4942,7 @@
       <c r="DK6" s="9"/>
       <c r="DL6" s="9"/>
       <c r="DM6" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="DN6" s="9">
         <v>200</v>
@@ -4926,16 +4953,16 @@
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="1:119">
       <c r="A7" s="6" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>22</v>
@@ -4950,11 +4977,11 @@
         <v>74</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="J7" s="29"/>
       <c r="K7" s="29" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L7" s="29">
         <v>61365</v>
@@ -4962,10 +4989,10 @@
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="12" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
@@ -5068,7 +5095,7 @@
       <c r="DK7" s="9"/>
       <c r="DL7" s="9"/>
       <c r="DM7" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="DN7" s="9">
         <v>200</v>
@@ -5079,16 +5106,16 @@
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="1:119">
       <c r="A8" s="6" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>22</v>
@@ -5103,11 +5130,11 @@
         <v>74</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="J8" s="29"/>
       <c r="K8" s="29" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="L8" s="29">
         <v>61366</v>
@@ -5115,10 +5142,10 @@
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="12" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
@@ -5221,7 +5248,7 @@
       <c r="DK8" s="9"/>
       <c r="DL8" s="9"/>
       <c r="DM8" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="DN8" s="9">
         <v>200</v>
@@ -5233,7 +5260,7 @@
     <row r="9" s="17" customFormat="1" ht="21" customHeight="1" spans="1:119">
       <c r="A9" s="19"/>
       <c r="B9" s="20" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -5355,16 +5382,16 @@
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="1:119">
       <c r="A10" s="6" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>22</v>
@@ -5379,17 +5406,17 @@
         <v>74</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="12"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="12" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="P10" s="9"/>
       <c r="Q10" s="6" t="s">
@@ -5408,13 +5435,13 @@
         <v>0</v>
       </c>
       <c r="V10" s="9" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="X10" s="9" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
@@ -5509,7 +5536,7 @@
       <c r="DK10" s="9"/>
       <c r="DL10" s="9"/>
       <c r="DM10" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="DN10" s="9">
         <v>200</v>
@@ -5520,16 +5547,16 @@
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="1:119">
       <c r="A11" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>22</v>
@@ -5544,17 +5571,17 @@
         <v>74</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="12"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="12" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="P11" s="9"/>
       <c r="Q11" s="6" t="s">
@@ -5573,13 +5600,13 @@
         <v>0</v>
       </c>
       <c r="V11" s="9" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="X11" s="9" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
@@ -5674,7 +5701,7 @@
       <c r="DK11" s="9"/>
       <c r="DL11" s="9"/>
       <c r="DM11" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="DN11" s="9">
         <v>200</v>
@@ -5685,16 +5712,16 @@
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="1:119">
       <c r="A12" s="6" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>22</v>
@@ -5709,17 +5736,17 @@
         <v>74</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="12"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="12" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="P12" s="9"/>
       <c r="Q12" s="6" t="s">
@@ -5738,13 +5765,13 @@
         <v>0</v>
       </c>
       <c r="V12" s="9" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="W12" s="9" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="X12" s="9" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
@@ -5839,7 +5866,7 @@
       <c r="DK12" s="9"/>
       <c r="DL12" s="9"/>
       <c r="DM12" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="DN12" s="9">
         <v>200</v>
@@ -5850,16 +5877,16 @@
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:119">
       <c r="A13" s="6" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>22</v>
@@ -5874,17 +5901,17 @@
         <v>74</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="12"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="12" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="P13" s="9"/>
       <c r="Q13" s="6" t="s">
@@ -5903,13 +5930,13 @@
         <v>0</v>
       </c>
       <c r="V13" s="9" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="X13" s="9" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
@@ -6004,7 +6031,7 @@
       <c r="DK13" s="9"/>
       <c r="DL13" s="9"/>
       <c r="DM13" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="DN13" s="9">
         <v>200</v>
@@ -6015,16 +6042,16 @@
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="1:119">
       <c r="A14" s="6" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>22</v>
@@ -6039,17 +6066,17 @@
         <v>74</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
       <c r="M14" s="27"/>
       <c r="N14" s="27"/>
       <c r="O14" s="12" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="P14" s="27"/>
       <c r="Q14" s="6" t="s">
@@ -6068,13 +6095,13 @@
         <v>0</v>
       </c>
       <c r="V14" s="9" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="X14" s="9" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="Y14" s="26"/>
       <c r="Z14" s="26"/>
@@ -6169,7 +6196,7 @@
       <c r="DK14" s="9"/>
       <c r="DL14" s="9"/>
       <c r="DM14" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="DN14" s="9">
         <v>200</v>
@@ -6180,16 +6207,16 @@
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="1:119">
       <c r="A15" s="6" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>22</v>
@@ -6204,17 +6231,17 @@
         <v>74</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
       <c r="M15" s="27"/>
       <c r="N15" s="27"/>
       <c r="O15" s="12" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="P15" s="27"/>
       <c r="Q15" s="6" t="s">
@@ -6233,13 +6260,13 @@
         <v>0</v>
       </c>
       <c r="V15" s="9" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="W15" s="9" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="X15" s="9" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="Y15" s="26"/>
       <c r="Z15" s="26"/>
@@ -6334,7 +6361,7 @@
       <c r="DK15" s="9"/>
       <c r="DL15" s="9"/>
       <c r="DM15" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="DN15" s="9">
         <v>200</v>
@@ -6466,16 +6493,16 @@
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="1:119">
       <c r="A17" s="6" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -6590,7 +6617,7 @@
       <c r="DK17" s="9"/>
       <c r="DL17" s="9"/>
       <c r="DM17" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="DN17" s="9">
         <v>200</v>
@@ -6601,16 +6628,16 @@
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="1:119">
       <c r="A18" s="6" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -6725,7 +6752,7 @@
       <c r="DK18" s="9"/>
       <c r="DL18" s="9"/>
       <c r="DM18" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="DN18" s="9">
         <v>200</v>
@@ -6736,16 +6763,16 @@
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="1:119">
       <c r="A19" s="6" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -6860,7 +6887,7 @@
       <c r="DK19" s="9"/>
       <c r="DL19" s="9"/>
       <c r="DM19" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="DN19" s="9">
         <v>200</v>
@@ -6871,16 +6898,16 @@
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="1:119">
       <c r="A20" s="6" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -6995,7 +7022,7 @@
       <c r="DK20" s="9"/>
       <c r="DL20" s="9"/>
       <c r="DM20" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="DN20" s="9">
         <v>200</v>
@@ -7006,16 +7033,16 @@
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="1:119">
       <c r="A21" s="6" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -7130,7 +7157,7 @@
       <c r="DK21" s="9"/>
       <c r="DL21" s="9"/>
       <c r="DM21" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="DN21" s="9">
         <v>200</v>
@@ -7203,184 +7230,184 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="U1" s="13" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="V1" s="13" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="W1" s="13" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="X1" s="13" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="Y1" s="13" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="Z1" s="14" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="AA1" s="13" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="AB1" s="13" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="AC1" s="13" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="AD1" s="13" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="AE1" s="13" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="AF1" s="13" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="AG1" s="13" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="AH1" s="13" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="AJ1" s="5" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="AK1" s="5" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="AL1" s="5" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="AM1" s="5" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="AN1" s="5" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="AO1" s="10" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="AP1" s="5" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="AQ1" s="5" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="AR1" s="5" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="AS1" s="5" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="AT1" s="5" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="AU1" s="5" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="AV1" s="5" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="AW1" s="5" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="AX1" s="13" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="AY1" s="13" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AZ1" s="13" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="BA1" s="13" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="BB1" s="13" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="BC1" s="13" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="BD1" s="14" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="BE1" s="13" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="BF1" s="13" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="BG1" s="13" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="BH1" s="13" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="BI1" s="13" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="BJ1" s="13" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="BK1" s="13" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="BL1" s="13" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="BM1" s="15" t="s">
         <v>14</v>
@@ -7394,16 +7421,16 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:67">
       <c r="A2" s="6" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>22</v>
@@ -7418,13 +7445,13 @@
         <v>74</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>22</v>
@@ -7442,13 +7469,13 @@
         <v>0</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
@@ -7496,7 +7523,7 @@
       <c r="BK2" s="9"/>
       <c r="BL2" s="9"/>
       <c r="BM2" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="BN2" s="9">
         <v>200</v>
@@ -7507,16 +7534,16 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:67">
       <c r="A3" s="6" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>22</v>
@@ -7531,13 +7558,13 @@
         <v>74</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>22</v>
@@ -7555,13 +7582,13 @@
         <v>0</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="T3" s="6" t="s">
         <v>22</v>
@@ -7570,19 +7597,19 @@
         <v>21</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="Z3" s="12" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="AA3" s="6" t="s">
         <v>22</v>
@@ -7591,22 +7618,22 @@
         <v>21</v>
       </c>
       <c r="AC3" s="9" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AE3" s="9">
         <v>0</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AG3" s="9" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="AH3" s="9" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="AI3" s="9"/>
       <c r="AJ3" s="9"/>
@@ -7639,7 +7666,7 @@
       <c r="BK3" s="9"/>
       <c r="BL3" s="9"/>
       <c r="BM3" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="BN3" s="9">
         <v>200</v>
@@ -7650,16 +7677,16 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:67">
       <c r="A4" s="6" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>22</v>
@@ -7674,13 +7701,13 @@
         <v>74</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>22</v>
@@ -7698,13 +7725,13 @@
         <v>0</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="T4" s="6" t="s">
         <v>22</v>
@@ -7713,19 +7740,19 @@
         <v>21</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="X4" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="Y4" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="Z4" s="12" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="AA4" s="6" t="s">
         <v>22</v>
@@ -7734,22 +7761,22 @@
         <v>21</v>
       </c>
       <c r="AC4" s="9" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AD4" s="9" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AE4" s="9">
         <v>0</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AG4" s="9" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="AH4" s="9" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="AI4" s="6" t="s">
         <v>22</v>
@@ -7758,19 +7785,19 @@
         <v>21</v>
       </c>
       <c r="AK4" s="9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AL4" s="9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AM4" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="AN4" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="AO4" s="12" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="AP4" s="6" t="s">
         <v>22</v>
@@ -7779,22 +7806,22 @@
         <v>21</v>
       </c>
       <c r="AR4" s="9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AS4" s="9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AT4" s="9">
         <v>0</v>
       </c>
       <c r="AU4" s="9" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AV4" s="9" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="AW4" s="9" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="AX4" s="9"/>
       <c r="AY4" s="9"/>
@@ -7812,7 +7839,7 @@
       <c r="BK4" s="9"/>
       <c r="BL4" s="9"/>
       <c r="BM4" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="BN4" s="9">
         <v>200</v>
@@ -7823,16 +7850,16 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:67">
       <c r="A5" s="6" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>22</v>
@@ -7847,13 +7874,13 @@
         <v>74</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>22</v>
@@ -7871,13 +7898,13 @@
         <v>0</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="T5" s="6" t="s">
         <v>22</v>
@@ -7886,19 +7913,19 @@
         <v>21</v>
       </c>
       <c r="V5" s="9" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="X5" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="Y5" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="Z5" s="12" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="AA5" s="6" t="s">
         <v>22</v>
@@ -7907,22 +7934,22 @@
         <v>21</v>
       </c>
       <c r="AC5" s="9" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AD5" s="9" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AE5" s="9">
         <v>0</v>
       </c>
       <c r="AF5" s="9" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AG5" s="9" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="AH5" s="9" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="AI5" s="6" t="s">
         <v>22</v>
@@ -7931,19 +7958,19 @@
         <v>21</v>
       </c>
       <c r="AK5" s="9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AL5" s="9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AM5" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="AN5" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="AO5" s="12" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="AP5" s="6" t="s">
         <v>22</v>
@@ -7952,22 +7979,22 @@
         <v>21</v>
       </c>
       <c r="AR5" s="9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AS5" s="9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AT5" s="9">
         <v>0</v>
       </c>
       <c r="AU5" s="9" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AV5" s="9" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="AW5" s="9" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="AX5" s="6" t="s">
         <v>22</v>
@@ -7976,19 +8003,19 @@
         <v>21</v>
       </c>
       <c r="AZ5" s="9" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="BA5" s="9" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="BB5" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="BC5" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="BD5" s="12" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="BE5" s="6" t="s">
         <v>22</v>
@@ -7997,25 +8024,25 @@
         <v>21</v>
       </c>
       <c r="BG5" s="9" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="BH5" s="9" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="BI5" s="9">
         <v>0</v>
       </c>
       <c r="BJ5" s="9" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="BK5" s="9" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="BL5" s="9" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="BM5" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="BN5" s="9">
         <v>200</v>
@@ -8091,13 +8118,13 @@
       <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="L1" s="55" t="s">
         <v>14</v>
       </c>
       <c r="M1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="55" t="s">
+      <c r="N1" s="56" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8108,7 +8135,7 @@
       <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="54" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="23" t="s">
@@ -8134,10 +8161,10 @@
       <c r="L2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="56">
+      <c r="M2" s="57">
         <v>200</v>
       </c>
-      <c r="N2" s="57" t="s">
+      <c r="N2" s="58" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8148,7 +8175,7 @@
       <c r="B3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="54" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="23" t="s">
@@ -8174,10 +8201,10 @@
       <c r="L3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="56">
+      <c r="M3" s="57">
         <v>400</v>
       </c>
-      <c r="N3" s="57"/>
+      <c r="N3" s="58"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
       <c r="A4" s="6" t="s">
@@ -8186,7 +8213,7 @@
       <c r="B4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="54" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="23" t="s">
@@ -8212,10 +8239,10 @@
       <c r="L4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="56">
+      <c r="M4" s="57">
         <v>400</v>
       </c>
-      <c r="N4" s="57"/>
+      <c r="N4" s="58"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
       <c r="A5" s="6" t="s">
@@ -8224,7 +8251,7 @@
       <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="54" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="23" t="s">
@@ -8252,10 +8279,10 @@
       <c r="L5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="56">
+      <c r="M5" s="57">
         <v>200</v>
       </c>
-      <c r="N5" s="57" t="s">
+      <c r="N5" s="58" t="s">
         <v>40</v>
       </c>
     </row>
@@ -8266,7 +8293,7 @@
       <c r="B6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="54" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="23" t="s">
@@ -8294,10 +8321,10 @@
       <c r="L6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="56">
+      <c r="M6" s="57">
         <v>400</v>
       </c>
-      <c r="N6" s="57"/>
+      <c r="N6" s="58"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
       <c r="A7" s="6" t="s">
@@ -8306,7 +8333,7 @@
       <c r="B7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="54" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="23" t="s">
@@ -8334,10 +8361,10 @@
       <c r="L7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="56">
+      <c r="M7" s="57">
         <v>400</v>
       </c>
-      <c r="N7" s="57"/>
+      <c r="N7" s="58"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
       <c r="A8" s="6" t="s">
@@ -8346,7 +8373,7 @@
       <c r="B8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="54" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -8376,10 +8403,10 @@
       <c r="L8" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="56">
+      <c r="M8" s="57">
         <v>200</v>
       </c>
-      <c r="N8" s="57" t="s">
+      <c r="N8" s="58" t="s">
         <v>49</v>
       </c>
     </row>
@@ -8390,7 +8417,7 @@
       <c r="B9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="54" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="23" t="s">
@@ -8420,10 +8447,10 @@
       <c r="L9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="56">
+      <c r="M9" s="57">
         <v>400</v>
       </c>
-      <c r="N9" s="57"/>
+      <c r="N9" s="58"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
       <c r="A10" s="6" t="s">
@@ -8432,7 +8459,7 @@
       <c r="B10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="54" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="23" t="s">
@@ -8462,10 +8489,10 @@
       <c r="L10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="56">
+      <c r="M10" s="57">
         <v>400</v>
       </c>
-      <c r="N10" s="57"/>
+      <c r="N10" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8476,10 +8503,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AZ32"/>
+  <dimension ref="A1:AZ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
@@ -8795,7 +8822,7 @@
         <v>85</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>19</v>
@@ -8816,10 +8843,10 @@
         <v>74</v>
       </c>
       <c r="I8" s="51">
-        <v>61351</v>
-      </c>
-      <c r="J8" s="52" t="s">
-        <v>87</v>
+        <v>61375</v>
+      </c>
+      <c r="J8" s="50" t="s">
+        <v>86</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -8835,33 +8862,57 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" s="36" customFormat="1" ht="47" customHeight="1" spans="1:17">
-      <c r="A9" s="38"/>
-      <c r="B9" s="39" t="s">
+    <row r="9" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A9" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="51">
+        <v>61375</v>
+      </c>
+      <c r="J9" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="59" customHeight="1" spans="1:17">
+      <c r="A10" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-    </row>
-    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A10" s="6" t="s">
-        <v>89</v>
-      </c>
       <c r="B10" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>19</v>
@@ -8870,7 +8921,7 @@
         <v>72</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>22</v>
@@ -8882,10 +8933,10 @@
         <v>74</v>
       </c>
       <c r="I10" s="51">
-        <v>35541</v>
-      </c>
-      <c r="J10" s="52" t="s">
-        <v>90</v>
+        <v>61375</v>
+      </c>
+      <c r="J10" s="50" t="s">
+        <v>86</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
@@ -8904,7 +8955,7 @@
     <row r="11" s="36" customFormat="1" ht="47" customHeight="1" spans="1:17">
       <c r="A11" s="38"/>
       <c r="B11" s="39" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
@@ -8924,10 +8975,10 @@
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A12" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>19</v>
@@ -8947,11 +8998,11 @@
       <c r="H12" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="51">
-        <v>35540</v>
-      </c>
-      <c r="J12" s="52" t="s">
-        <v>93</v>
+      <c r="I12" s="52">
+        <v>61377</v>
+      </c>
+      <c r="J12" s="53" t="s">
+        <v>92</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
@@ -8967,33 +9018,57 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" s="36" customFormat="1" ht="47" customHeight="1" spans="1:17">
-      <c r="A13" s="38"/>
-      <c r="B13" s="39" t="s">
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A13" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="52">
+        <v>61377</v>
+      </c>
+      <c r="J13" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="59" customHeight="1" spans="1:17">
+      <c r="A14" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-    </row>
-    <row r="14" s="2" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A14" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="B14" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>19</v>
@@ -9002,7 +9077,7 @@
         <v>72</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>22</v>
@@ -9013,11 +9088,11 @@
       <c r="H14" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I14" s="51">
-        <v>61353</v>
-      </c>
-      <c r="J14" s="52" t="s">
-        <v>96</v>
+      <c r="I14" s="52">
+        <v>61377</v>
+      </c>
+      <c r="J14" s="53" t="s">
+        <v>92</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
@@ -9036,7 +9111,7 @@
     <row r="15" s="36" customFormat="1" ht="47" customHeight="1" spans="1:17">
       <c r="A15" s="38"/>
       <c r="B15" s="39" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
@@ -9056,10 +9131,10 @@
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A16" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>19</v>
@@ -9080,10 +9155,10 @@
         <v>74</v>
       </c>
       <c r="I16" s="51">
-        <v>61357</v>
-      </c>
-      <c r="J16" s="52" t="s">
-        <v>99</v>
+        <v>35540</v>
+      </c>
+      <c r="J16" s="50" t="s">
+        <v>97</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
@@ -9099,198 +9174,198 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" s="17" customFormat="1" ht="21" customHeight="1" spans="1:52">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20" t="s">
+    <row r="17" s="36" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A17" s="38"/>
+      <c r="B17" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+    </row>
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A18" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="51">
+        <v>61353</v>
+      </c>
+      <c r="J18" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="45"/>
-      <c r="W17" s="46"/>
-      <c r="X17" s="45"/>
-      <c r="Y17" s="45"/>
-      <c r="Z17" s="45"/>
-      <c r="AA17" s="45"/>
-      <c r="AB17" s="35"/>
-      <c r="AC17" s="47"/>
-      <c r="AD17" s="47"/>
-      <c r="AE17" s="47"/>
-      <c r="AF17" s="47"/>
-      <c r="AG17" s="47"/>
-      <c r="AH17" s="47"/>
-      <c r="AI17" s="47"/>
-      <c r="AJ17" s="47"/>
-      <c r="AK17" s="47"/>
-      <c r="AL17" s="47"/>
-      <c r="AM17" s="47"/>
-      <c r="AN17" s="47"/>
-      <c r="AO17" s="47"/>
-      <c r="AP17" s="47"/>
-      <c r="AQ17" s="47"/>
-      <c r="AR17" s="47"/>
-      <c r="AS17" s="47"/>
-      <c r="AT17" s="47"/>
-      <c r="AU17" s="47"/>
-      <c r="AV17" s="47"/>
-      <c r="AW17" s="47"/>
-      <c r="AX17" s="47"/>
-      <c r="AY17" s="47"/>
-      <c r="AZ17" s="47"/>
-    </row>
-    <row r="18" s="36" customFormat="1" ht="47" customHeight="1" spans="1:17">
-      <c r="A18" s="38"/>
-      <c r="B18" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-    </row>
-    <row r="19" s="2" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A19" s="6" t="s">
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P18" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" s="36" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A19" s="38"/>
+      <c r="B19" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+    </row>
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A20" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D20" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E20" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H20" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="51">
-        <v>61361</v>
-      </c>
-      <c r="J19" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="7" t="s">
+      <c r="I20" s="51">
+        <v>61357</v>
+      </c>
+      <c r="J20" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P19" s="9">
+      <c r="P20" s="9">
         <v>200</v>
       </c>
-      <c r="Q19" s="9" t="s">
+      <c r="Q20" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" s="36" customFormat="1" ht="47" customHeight="1" spans="1:17">
-      <c r="A20" s="38"/>
-      <c r="B20" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-    </row>
-    <row r="21" s="2" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A21" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I21" s="51">
-        <v>61362</v>
-      </c>
-      <c r="J21" s="52" t="s">
+    <row r="21" s="17" customFormat="1" ht="21" customHeight="1" spans="1:52">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P21" s="9">
-        <v>200</v>
-      </c>
-      <c r="Q21" s="9" t="s">
-        <v>77</v>
-      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="45"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="45"/>
+      <c r="Y21" s="45"/>
+      <c r="Z21" s="45"/>
+      <c r="AA21" s="45"/>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="47"/>
+      <c r="AD21" s="47"/>
+      <c r="AE21" s="47"/>
+      <c r="AF21" s="47"/>
+      <c r="AG21" s="47"/>
+      <c r="AH21" s="47"/>
+      <c r="AI21" s="47"/>
+      <c r="AJ21" s="47"/>
+      <c r="AK21" s="47"/>
+      <c r="AL21" s="47"/>
+      <c r="AM21" s="47"/>
+      <c r="AN21" s="47"/>
+      <c r="AO21" s="47"/>
+      <c r="AP21" s="47"/>
+      <c r="AQ21" s="47"/>
+      <c r="AR21" s="47"/>
+      <c r="AS21" s="47"/>
+      <c r="AT21" s="47"/>
+      <c r="AU21" s="47"/>
+      <c r="AV21" s="47"/>
+      <c r="AW21" s="47"/>
+      <c r="AX21" s="47"/>
+      <c r="AY21" s="47"/>
+      <c r="AZ21" s="47"/>
     </row>
     <row r="22" s="36" customFormat="1" ht="47" customHeight="1" spans="1:17">
       <c r="A22" s="38"/>
       <c r="B22" s="39" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C22" s="40"/>
       <c r="D22" s="40"/>
@@ -9313,7 +9388,7 @@
         <v>105</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>19</v>
@@ -9334,9 +9409,9 @@
         <v>74</v>
       </c>
       <c r="I23" s="51">
-        <v>61363</v>
-      </c>
-      <c r="J23" s="52" t="s">
+        <v>61361</v>
+      </c>
+      <c r="J23" s="50" t="s">
         <v>106</v>
       </c>
       <c r="K23" s="9"/>
@@ -9356,7 +9431,7 @@
     <row r="24" s="36" customFormat="1" ht="47" customHeight="1" spans="1:17">
       <c r="A24" s="38"/>
       <c r="B24" s="39" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
@@ -9379,7 +9454,7 @@
         <v>107</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>19</v>
@@ -9400,9 +9475,9 @@
         <v>74</v>
       </c>
       <c r="I25" s="51">
-        <v>61364</v>
-      </c>
-      <c r="J25" s="52" t="s">
+        <v>61362</v>
+      </c>
+      <c r="J25" s="50" t="s">
         <v>108</v>
       </c>
       <c r="K25" s="9"/>
@@ -9422,7 +9497,7 @@
     <row r="26" s="36" customFormat="1" ht="47" customHeight="1" spans="1:17">
       <c r="A26" s="38"/>
       <c r="B26" s="39" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C26" s="40"/>
       <c r="D26" s="40"/>
@@ -9445,7 +9520,7 @@
         <v>109</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>19</v>
@@ -9466,9 +9541,9 @@
         <v>74</v>
       </c>
       <c r="I27" s="51">
-        <v>61365</v>
-      </c>
-      <c r="J27" s="52" t="s">
+        <v>61363</v>
+      </c>
+      <c r="J27" s="50" t="s">
         <v>110</v>
       </c>
       <c r="K27" s="9"/>
@@ -9488,7 +9563,7 @@
     <row r="28" s="36" customFormat="1" ht="47" customHeight="1" spans="1:17">
       <c r="A28" s="38"/>
       <c r="B28" s="39" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C28" s="40"/>
       <c r="D28" s="40"/>
@@ -9511,7 +9586,7 @@
         <v>111</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>19</v>
@@ -9532,9 +9607,9 @@
         <v>74</v>
       </c>
       <c r="I29" s="51">
-        <v>61366</v>
-      </c>
-      <c r="J29" s="52" t="s">
+        <v>61364</v>
+      </c>
+      <c r="J29" s="50" t="s">
         <v>112</v>
       </c>
       <c r="K29" s="9"/>
@@ -9551,37 +9626,39 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
+    <row r="30" s="36" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A30" s="38"/>
+      <c r="B30" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A31" s="6" t="s">
         <v>113</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>73</v>
@@ -9595,18 +9672,14 @@
       <c r="H31" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I31" s="9">
-        <v>35537</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K31" s="9">
-        <v>35538</v>
-      </c>
-      <c r="L31" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="I31" s="51">
+        <v>61365</v>
+      </c>
+      <c r="J31" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
       <c r="O31" s="7" t="s">
@@ -9619,56 +9692,190 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A32" s="6" t="s">
+    <row r="32" s="36" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A32" s="38"/>
+      <c r="B32" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+    </row>
+    <row r="33" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A33" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I33" s="51">
+        <v>61366</v>
+      </c>
+      <c r="J33" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P33" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q33" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+    </row>
+    <row r="35" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A35" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="B35" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="E32" s="9" t="s">
+      <c r="D35" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F35" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G35" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H35" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I35" s="9">
         <v>35537</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="J35" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K32" s="9">
+      <c r="K35" s="9">
         <v>35538</v>
       </c>
-      <c r="L32" s="9" t="s">
+      <c r="L35" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="M32" s="9">
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P35" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q35" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A36" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I36" s="9">
+        <v>35537</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36" s="9">
+        <v>35538</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M36" s="9">
         <v>35539</v>
       </c>
-      <c r="N32" s="9" t="s">
+      <c r="N36" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="O32" s="7" t="s">
+      <c r="O36" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P32" s="9">
+      <c r="P36" s="9">
         <v>200</v>
       </c>
-      <c r="Q32" s="9" t="s">
+      <c r="Q36" s="9" t="s">
         <v>77</v>
       </c>
     </row>
@@ -9677,17 +9884,17 @@
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B9:D9"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B13:D13"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B32:D32"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -9776,10 +9983,10 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A2" s="6" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>19</v>
@@ -9788,7 +9995,7 @@
         <v>72</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>22</v>
@@ -9797,7 +10004,7 @@
         <v>21</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>23</v>
@@ -9821,19 +10028,19 @@
     </row>
     <row r="3" customHeight="1" spans="1:17">
       <c r="A3" s="6" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>22</v>
@@ -9842,7 +10049,7 @@
         <v>21</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>23</v>
@@ -9870,19 +10077,19 @@
     </row>
     <row r="4" customHeight="1" spans="1:17">
       <c r="A4" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>22</v>
@@ -9891,7 +10098,7 @@
         <v>21</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>23</v>
@@ -10011,10 +10218,10 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A2" s="6" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>19</v>
@@ -10023,7 +10230,7 @@
         <v>72</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>22</v>
@@ -10032,7 +10239,7 @@
         <v>21</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>23</v>
@@ -10056,19 +10263,19 @@
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A3" s="6" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>22</v>
@@ -10077,7 +10284,7 @@
         <v>21</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>23</v>
@@ -10105,19 +10312,19 @@
     </row>
     <row r="4" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A4" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>22</v>
@@ -10126,7 +10333,7 @@
         <v>21</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>23</v>
@@ -10246,10 +10453,10 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A2" s="6" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>19</v>
@@ -10258,7 +10465,7 @@
         <v>72</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>22</v>
@@ -10267,7 +10474,7 @@
         <v>21</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>23</v>
@@ -10291,19 +10498,19 @@
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A3" s="6" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>22</v>
@@ -10312,7 +10519,7 @@
         <v>21</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>23</v>
@@ -10340,19 +10547,19 @@
     </row>
     <row r="4" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A4" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>22</v>
@@ -10361,7 +10568,7 @@
         <v>21</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>23</v>
@@ -10400,10 +10607,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AZ28"/>
+  <dimension ref="A1:AZ30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
@@ -10415,11 +10622,11 @@
     <col min="5" max="5" width="23.4285714285714" style="2" customWidth="1"/>
     <col min="6" max="6" width="20.7142857142857" style="2" customWidth="1"/>
     <col min="7" max="7" width="36.1333333333333" style="2" customWidth="1"/>
-    <col min="8" max="8" width="24.7047619047619" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.8190476190476" style="2" customWidth="1"/>
+    <col min="8" max="8" width="40.1714285714286" style="2" customWidth="1"/>
+    <col min="9" max="9" width="33.1047619047619" style="2" customWidth="1"/>
     <col min="10" max="10" width="17.4285714285714" style="2" customWidth="1"/>
-    <col min="11" max="11" width="23.5714285714286" style="2" customWidth="1"/>
-    <col min="12" max="12" width="45.5428571428571" style="2" customWidth="1"/>
+    <col min="11" max="11" width="30.5809523809524" style="2" customWidth="1"/>
+    <col min="12" max="12" width="48.4" style="2" customWidth="1"/>
     <col min="13" max="13" width="36.1238095238095" style="2" customWidth="1"/>
     <col min="14" max="14" width="14.2857142857143" style="2" customWidth="1"/>
     <col min="15" max="15" width="14.5714285714286" style="2" customWidth="1"/>
@@ -10449,19 +10656,19 @@
         <v>60</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="I1" s="37" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K1" s="37" t="s">
         <v>59</v>
       </c>
       <c r="L1" s="37" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="M1" s="15" t="s">
         <v>14</v>
@@ -10550,16 +10757,16 @@
     </row>
     <row r="4" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A4" s="6" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>22</v>
@@ -10571,10 +10778,10 @@
         <v>74</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="J4" s="9">
         <v>0</v>
@@ -10583,10 +10790,10 @@
         <v>73</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M4" s="23" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="N4" s="9">
         <v>200</v>
@@ -10597,16 +10804,16 @@
     </row>
     <row r="5" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A5" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>22</v>
@@ -10618,10 +10825,10 @@
         <v>81</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="J5" s="9">
         <v>0</v>
@@ -10630,10 +10837,10 @@
         <v>80</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M5" s="23" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="N5" s="9">
         <v>200</v>
@@ -10661,18 +10868,18 @@
       <c r="N6" s="43"/>
       <c r="O6" s="43"/>
     </row>
-    <row r="7" s="2" customFormat="1" customHeight="1" spans="1:15">
+    <row r="7" s="2" customFormat="1" ht="46" customHeight="1" spans="1:15">
       <c r="A7" s="6" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>22</v>
@@ -10684,10 +10891,10 @@
         <v>74</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J7" s="9">
         <v>0</v>
@@ -10696,10 +10903,10 @@
         <v>73</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M7" s="23" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="N7" s="9">
         <v>200</v>
@@ -10708,103 +10915,131 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A8" s="38"/>
-      <c r="B8" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-    </row>
-    <row r="9" s="2" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A9" s="6" t="s">
+    <row r="8" s="2" customFormat="1" ht="46" customHeight="1" spans="1:15">
+      <c r="A8" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="I8" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="M8" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="N8" s="9">
+        <v>200</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A9" s="38"/>
+      <c r="B9" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+    </row>
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A10" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="D10" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="J9" s="9">
+      <c r="H10" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="J10" s="9">
         <v>0</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K10" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="L9" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="M9" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="N9" s="9">
+      <c r="L10" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="N10" s="9">
         <v>200</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="O10" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A10" s="38"/>
-      <c r="B10" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-    </row>
-    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:15">
+    <row r="11" s="2" customFormat="1" ht="33" customHeight="1" spans="1:15">
       <c r="A11" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>22</v>
@@ -10813,25 +11048,25 @@
         <v>21</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="J11" s="9">
         <v>0</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M11" s="23" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="N11" s="9">
         <v>200</v>
@@ -10843,7 +11078,7 @@
     <row r="12" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
       <c r="A12" s="38"/>
       <c r="B12" s="39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
@@ -10861,16 +11096,16 @@
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A13" s="6" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>22</v>
@@ -10882,10 +11117,10 @@
         <v>74</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="J13" s="9">
         <v>0</v>
@@ -10894,10 +11129,10 @@
         <v>73</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="N13" s="9">
         <v>200</v>
@@ -10909,7 +11144,7 @@
     <row r="14" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
       <c r="A14" s="38"/>
       <c r="B14" s="39" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="40"/>
@@ -10927,16 +11162,16 @@
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A15" s="6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>22</v>
@@ -10948,10 +11183,10 @@
         <v>74</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="J15" s="9">
         <v>0</v>
@@ -10960,10 +11195,10 @@
         <v>73</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M15" s="23" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="N15" s="9">
         <v>200</v>
@@ -10972,132 +11207,132 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" s="17" customFormat="1" ht="21" customHeight="1" spans="1:52">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="46"/>
-      <c r="X16" s="45"/>
-      <c r="Y16" s="45"/>
-      <c r="Z16" s="45"/>
-      <c r="AA16" s="45"/>
-      <c r="AB16" s="35"/>
-      <c r="AC16" s="47"/>
-      <c r="AD16" s="47"/>
-      <c r="AE16" s="47"/>
-      <c r="AF16" s="47"/>
-      <c r="AG16" s="47"/>
-      <c r="AH16" s="47"/>
-      <c r="AI16" s="47"/>
-      <c r="AJ16" s="47"/>
-      <c r="AK16" s="47"/>
-      <c r="AL16" s="47"/>
-      <c r="AM16" s="47"/>
-      <c r="AN16" s="47"/>
-      <c r="AO16" s="47"/>
-      <c r="AP16" s="47"/>
-      <c r="AQ16" s="47"/>
-      <c r="AR16" s="47"/>
-      <c r="AS16" s="47"/>
-      <c r="AT16" s="47"/>
-      <c r="AU16" s="47"/>
-      <c r="AV16" s="47"/>
-      <c r="AW16" s="47"/>
-      <c r="AX16" s="47"/>
-      <c r="AY16" s="47"/>
-      <c r="AZ16" s="47"/>
-    </row>
-    <row r="17" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A17" s="38"/>
-      <c r="B17" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-    </row>
-    <row r="18" s="2" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A18" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C18" s="8" t="s">
+    <row r="16" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A16" s="38"/>
+      <c r="B16" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+    </row>
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A17" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="E18" s="6" t="s">
+      <c r="D17" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G17" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="J18" s="9">
+      <c r="H17" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="J17" s="9">
         <v>0</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K17" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="L18" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="M18" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="N18" s="9">
+      <c r="L17" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="M17" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="N17" s="9">
         <v>200</v>
       </c>
-      <c r="O18" s="9" t="s">
+      <c r="O17" s="9" t="s">
         <v>77</v>
       </c>
+    </row>
+    <row r="18" s="17" customFormat="1" ht="21" customHeight="1" spans="1:52">
+      <c r="A18" s="19"/>
+      <c r="B18" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="45"/>
+      <c r="V18" s="45"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="45"/>
+      <c r="Y18" s="45"/>
+      <c r="Z18" s="45"/>
+      <c r="AA18" s="45"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="47"/>
+      <c r="AD18" s="47"/>
+      <c r="AE18" s="47"/>
+      <c r="AF18" s="47"/>
+      <c r="AG18" s="47"/>
+      <c r="AH18" s="47"/>
+      <c r="AI18" s="47"/>
+      <c r="AJ18" s="47"/>
+      <c r="AK18" s="47"/>
+      <c r="AL18" s="47"/>
+      <c r="AM18" s="47"/>
+      <c r="AN18" s="47"/>
+      <c r="AO18" s="47"/>
+      <c r="AP18" s="47"/>
+      <c r="AQ18" s="47"/>
+      <c r="AR18" s="47"/>
+      <c r="AS18" s="47"/>
+      <c r="AT18" s="47"/>
+      <c r="AU18" s="47"/>
+      <c r="AV18" s="47"/>
+      <c r="AW18" s="47"/>
+      <c r="AX18" s="47"/>
+      <c r="AY18" s="47"/>
+      <c r="AZ18" s="47"/>
     </row>
     <row r="19" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
       <c r="A19" s="38"/>
       <c r="B19" s="39" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
@@ -11115,16 +11350,16 @@
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A20" s="6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>22</v>
@@ -11136,10 +11371,10 @@
         <v>74</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="J20" s="9">
         <v>0</v>
@@ -11148,10 +11383,10 @@
         <v>73</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M20" s="23" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="N20" s="9">
         <v>200</v>
@@ -11163,7 +11398,7 @@
     <row r="21" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
       <c r="A21" s="38"/>
       <c r="B21" s="39" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C21" s="40"/>
       <c r="D21" s="40"/>
@@ -11181,16 +11416,16 @@
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A22" s="6" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>22</v>
@@ -11202,10 +11437,10 @@
         <v>74</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="J22" s="9">
         <v>0</v>
@@ -11214,10 +11449,10 @@
         <v>73</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M22" s="23" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="N22" s="9">
         <v>200</v>
@@ -11229,7 +11464,7 @@
     <row r="23" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
       <c r="A23" s="38"/>
       <c r="B23" s="39" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
@@ -11247,16 +11482,16 @@
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A24" s="6" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>22</v>
@@ -11268,10 +11503,10 @@
         <v>74</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="J24" s="9">
         <v>0</v>
@@ -11280,10 +11515,10 @@
         <v>73</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M24" s="23" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="N24" s="9">
         <v>200</v>
@@ -11295,7 +11530,7 @@
     <row r="25" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
       <c r="A25" s="38"/>
       <c r="B25" s="39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C25" s="40"/>
       <c r="D25" s="40"/>
@@ -11313,16 +11548,16 @@
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A26" s="6" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>22</v>
@@ -11334,10 +11569,10 @@
         <v>74</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="J26" s="9">
         <v>0</v>
@@ -11346,10 +11581,10 @@
         <v>73</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M26" s="23" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="N26" s="9">
         <v>200</v>
@@ -11361,7 +11596,7 @@
     <row r="27" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
       <c r="A27" s="38"/>
       <c r="B27" s="39" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C27" s="40"/>
       <c r="D27" s="40"/>
@@ -11379,16 +11614,16 @@
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A28" s="6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>22</v>
@@ -11400,10 +11635,10 @@
         <v>74</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="J28" s="9">
         <v>0</v>
@@ -11412,15 +11647,81 @@
         <v>73</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M28" s="23" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="N28" s="9">
         <v>200</v>
       </c>
       <c r="O28" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A29" s="38"/>
+      <c r="B29" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+    </row>
+    <row r="30" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A30" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="J30" s="9">
+        <v>0</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="M30" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="N30" s="9">
+        <v>200</v>
+      </c>
+      <c r="O30" s="9" t="s">
         <v>77</v>
       </c>
     </row>
@@ -11429,17 +11730,17 @@
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B9:D9"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B29:D29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -11499,19 +11800,19 @@
         <v>60</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>59</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="M1" s="15" t="s">
         <v>14</v>
@@ -11525,16 +11826,16 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A2" s="6" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>22</v>
@@ -11543,25 +11844,25 @@
         <v>21</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="J2" s="9">
         <v>0</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="M2" s="23" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="N2" s="9">
         <v>200</v>
@@ -11629,19 +11930,19 @@
         <v>60</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>59</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="M1" s="15" t="s">
         <v>14</v>
@@ -11655,16 +11956,16 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A2" s="6" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>22</v>
@@ -11673,25 +11974,25 @@
         <v>21</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="J2" s="9">
         <v>0</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="M2" s="23" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="N2" s="9">
         <v>200</v>

--- a/src/main/resources/input_excel_file/booking/voucher.xlsx
+++ b/src/main/resources/input_excel_file/booking/voucher.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="2" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Booking_Voucher_Check" sheetId="1" r:id="rId1"/>
@@ -602,7 +602,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="373">
   <si>
     <t>tc_id</t>
   </si>
@@ -877,51 +877,69 @@
     <t>VST_ADD_VC_GREEN_10_001</t>
   </si>
   <si>
+    <t>GREEN51</t>
+  </si>
+  <si>
+    <t>VST_ADD_VC_GREEN_10_002</t>
+  </si>
+  <si>
+    <t>VST_ADD_VC_GREEN_10_003</t>
+  </si>
+  <si>
+    <t>Apply voucher giảm giá thông thường: Giảm 10% all fee</t>
+  </si>
+  <si>
+    <t>VST_ADD_VC_ALL_10_001</t>
+  </si>
+  <si>
+    <t>ALLFEE1</t>
+  </si>
+  <si>
+    <t>VST_ADD_VC_ALL_10_002</t>
+  </si>
+  <si>
+    <t>VST_ADD_VC_ALL_10_003</t>
+  </si>
+  <si>
+    <t>Apply voucher giảm giá cố định: Green + Caddie + 1/2 xe + Package</t>
+  </si>
+  <si>
+    <t>VST_ADD_VC_CD4FEE_001</t>
+  </si>
+  <si>
+    <t>CD4FEE21</t>
+  </si>
+  <si>
+    <t>VST_ADD_VC_CD4FEE_002</t>
+  </si>
+  <si>
+    <t>VST_ADD_VC_CD4FEE_003</t>
+  </si>
+  <si>
+    <t>Apply voucher trả trước: Green + Caddie + 1/2 xe + Package</t>
+  </si>
+  <si>
+    <t>VST_ADD_VC_TT4FEE_001</t>
+  </si>
+  <si>
+    <t>TT4FEE11</t>
+  </si>
+  <si>
+    <t>VST_ADD_VC_TT4FEE_002</t>
+  </si>
+  <si>
+    <t>VST_ADD_VC_TT4FEE_003</t>
+  </si>
+  <si>
+    <t>Đại lý</t>
+  </si>
+  <si>
+    <t>AGENT_ADD_VC_GREEN_001</t>
+  </si>
+  <si>
     <t>Kiểm tra apply 1 voucher</t>
   </si>
   <si>
-    <t>GREEN51</t>
-  </si>
-  <si>
-    <t>VST_ADD_VC_GREEN_10_002</t>
-  </si>
-  <si>
-    <t>VST_ADD_VC_GREEN_10_003</t>
-  </si>
-  <si>
-    <t>Apply voucher giảm giá thông thường: Giảm 10% all fee</t>
-  </si>
-  <si>
-    <t>VST_ADD_VC_ALL_10_001</t>
-  </si>
-  <si>
-    <t>CN10001</t>
-  </si>
-  <si>
-    <t>Apply voucher giảm giá cố định: Green + Caddie + 1/2 xe + Package</t>
-  </si>
-  <si>
-    <t>VST_ADD_VC_CD4FEE_001</t>
-  </si>
-  <si>
-    <t>CD4FEE1</t>
-  </si>
-  <si>
-    <t>Apply voucher trả trước: Green + Caddie + 1/2 xe + Package</t>
-  </si>
-  <si>
-    <t>VST_ADD_VC_TT4FEE_001</t>
-  </si>
-  <si>
-    <t>TT4FEE11</t>
-  </si>
-  <si>
-    <t>Đại lý</t>
-  </si>
-  <si>
-    <t>AGENT_ADD_VC_GREEN_001</t>
-  </si>
-  <si>
     <t>GREEN21</t>
   </si>
   <si>
@@ -1057,61 +1075,82 @@
     <t>VST_REMOVE_VC_GREEN_10_001</t>
   </si>
   <si>
+    <t>{{CTX:VOUCHER_CODE_GREEN51}}</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_ID_GREEN51}}</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_APPLY_UID_GREEN51_0}}</t>
+  </si>
+  <si>
+    <t>VST_REMOVE_VC_GREEN_10_002</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_APPLY_UID_GREEN51_0_ROUND2}}</t>
+  </si>
+  <si>
+    <t>VST_REMOVE_VC_ALL_10_001</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_CODE_ALLFEE1}}</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_ID_ALLFEE1}}</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_APPLY_UID_ALLFEE1_0}}</t>
+  </si>
+  <si>
+    <t>VST_REMOVE_VC_ALL_10_002</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_APPLY_UID_ALLFEE1_0_ROUND2}}</t>
+  </si>
+  <si>
+    <t>VST_REMOVE_VC_CD4FEE_001</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_CODE_CD4FEE21}}</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_ID_CD4FEE21}}</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_APPLY_UID_CD4FEE21_0}}</t>
+  </si>
+  <si>
+    <t>VST_REMOVE_VC_CD4FEE_002</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_APPLY_UID_CD4FEE21_0_ROUND2}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>VST_REMOVE_VC_TT4FEE_001</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_CODE_TT4FEE11}}</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_ID_TT4FEE11}}</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_APPLY_UID_TT4FEE11_0}}</t>
+  </si>
+  <si>
+    <t>VST_REMOVE_VC_TT4FEE_002</t>
+  </si>
+  <si>
+    <t>{{CTX:VOUCHER_APPLY_UID_TT4FEE11_0_ROUND2}}</t>
+  </si>
+  <si>
+    <t>AGENT_REMOVE_VC_GREEN_001</t>
+  </si>
+  <si>
     <t>Remove voucher player 1</t>
-  </si>
-  <si>
-    <t>{{CTX:VOUCHER_CODE_GREEN51}}</t>
-  </si>
-  <si>
-    <t>{{CTX:VOUCHER_ID_GREEN51}}</t>
-  </si>
-  <si>
-    <t>{{CTX:VOUCHER_APPLY_UID_GREEN51_0}}</t>
-  </si>
-  <si>
-    <t>VST_REMOVE_VC_GREEN_10_002</t>
-  </si>
-  <si>
-    <t>{{CTX:VOUCHER_APPLY_UID_GREEN51_0_ROUND2}}</t>
-  </si>
-  <si>
-    <t>VST_REMOVE_VC_ALL_10_001</t>
-  </si>
-  <si>
-    <t>{{CTX:VOUCHER_CODE_CN10001}}</t>
-  </si>
-  <si>
-    <t>{{CTX:VOUCHER_ID_CN10001}}</t>
-  </si>
-  <si>
-    <t>{{CTX:VOUCHER_APPLY_UID_CN10001_0}}</t>
-  </si>
-  <si>
-    <t>VST_REMOVE_VC_CD4FEE_001</t>
-  </si>
-  <si>
-    <t>{{CTX:VOUCHER_CODE_CD4FEE1}}</t>
-  </si>
-  <si>
-    <t>{{CTX:VOUCHER_ID_CD4FEE1}}</t>
-  </si>
-  <si>
-    <t>{{CTX:VOUCHER_APPLY_UID_CD4FEE1_0}}</t>
-  </si>
-  <si>
-    <t>VST_REMOVE_VC_TT4FEE_001</t>
-  </si>
-  <si>
-    <t>{{CTX:VOUCHER_CODE_TT4FEE11}}</t>
-  </si>
-  <si>
-    <t>{{CTX:VOUCHER_ID_TT4FEE11}}</t>
-  </si>
-  <si>
-    <t>{{CTX:VOUCHER_APPLY_UID_TT4FEE11_0}}</t>
-  </si>
-  <si>
-    <t>AGENT_REMOVE_VC_GREEN_001</t>
   </si>
   <si>
     <t>{{CTX:VOUCHER_CODE_GREEN21}}</t>
@@ -1882,12 +1921,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -2438,7 +2477,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2594,6 +2633,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
@@ -3154,8 +3196,8 @@
   <sheetPr/>
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
@@ -3220,13 +3262,13 @@
       <c r="N1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="55" t="s">
+      <c r="O1" s="56" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="56" t="s">
+      <c r="Q1" s="57" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3237,7 +3279,7 @@
       <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="55" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="23" t="s">
@@ -3263,7 +3305,7 @@
       <c r="L2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="59" t="s">
+      <c r="M2" s="60" t="s">
         <v>26</v>
       </c>
       <c r="N2" s="12" t="s">
@@ -3272,10 +3314,10 @@
       <c r="O2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="57">
+      <c r="P2" s="58">
         <v>200</v>
       </c>
-      <c r="Q2" s="58" t="s">
+      <c r="Q2" s="59" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3286,7 +3328,7 @@
       <c r="B3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="55" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="23" t="s">
@@ -3312,7 +3354,7 @@
       <c r="L3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="59" t="s">
+      <c r="M3" s="60" t="s">
         <v>26</v>
       </c>
       <c r="N3" s="12" t="s">
@@ -3321,10 +3363,10 @@
       <c r="O3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="57">
+      <c r="P3" s="58">
         <v>400</v>
       </c>
-      <c r="Q3" s="58"/>
+      <c r="Q3" s="59"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
       <c r="A4" s="6" t="s">
@@ -3333,7 +3375,7 @@
       <c r="B4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="55" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="23" t="s">
@@ -3359,7 +3401,7 @@
       <c r="L4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="59" t="s">
+      <c r="M4" s="60" t="s">
         <v>26</v>
       </c>
       <c r="N4" s="12" t="s">
@@ -3368,10 +3410,10 @@
       <c r="O4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="57">
+      <c r="P4" s="58">
         <v>400</v>
       </c>
-      <c r="Q4" s="58"/>
+      <c r="Q4" s="59"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
       <c r="A5" s="6" t="s">
@@ -3380,7 +3422,7 @@
       <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="55" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="23" t="s">
@@ -3408,7 +3450,7 @@
       <c r="L5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="59" t="s">
+      <c r="M5" s="60" t="s">
         <v>26</v>
       </c>
       <c r="N5" s="12" t="s">
@@ -3417,10 +3459,10 @@
       <c r="O5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="57">
+      <c r="P5" s="58">
         <v>200</v>
       </c>
-      <c r="Q5" s="58" t="s">
+      <c r="Q5" s="59" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3431,7 +3473,7 @@
       <c r="B6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="55" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="23" t="s">
@@ -3459,7 +3501,7 @@
       <c r="L6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="59" t="s">
+      <c r="M6" s="60" t="s">
         <v>26</v>
       </c>
       <c r="N6" s="12" t="s">
@@ -3468,10 +3510,10 @@
       <c r="O6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="57">
+      <c r="P6" s="58">
         <v>400</v>
       </c>
-      <c r="Q6" s="58"/>
+      <c r="Q6" s="59"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
       <c r="A7" s="6" t="s">
@@ -3480,7 +3522,7 @@
       <c r="B7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="55" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="23" t="s">
@@ -3508,7 +3550,7 @@
       <c r="L7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="59" t="s">
+      <c r="M7" s="60" t="s">
         <v>26</v>
       </c>
       <c r="N7" s="12" t="s">
@@ -3517,10 +3559,10 @@
       <c r="O7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P7" s="57">
+      <c r="P7" s="58">
         <v>400</v>
       </c>
-      <c r="Q7" s="58"/>
+      <c r="Q7" s="59"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
       <c r="A8" s="6" t="s">
@@ -3529,7 +3571,7 @@
       <c r="B8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="55" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -3559,7 +3601,7 @@
       <c r="L8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="59" t="s">
+      <c r="M8" s="60" t="s">
         <v>26</v>
       </c>
       <c r="N8" s="12" t="s">
@@ -3568,10 +3610,10 @@
       <c r="O8" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="57">
+      <c r="P8" s="58">
         <v>200</v>
       </c>
-      <c r="Q8" s="58" t="s">
+      <c r="Q8" s="59" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3582,7 +3624,7 @@
       <c r="B9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="55" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="23" t="s">
@@ -3612,7 +3654,7 @@
       <c r="L9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="59" t="s">
+      <c r="M9" s="60" t="s">
         <v>26</v>
       </c>
       <c r="N9" s="12" t="s">
@@ -3621,10 +3663,10 @@
       <c r="O9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P9" s="57">
+      <c r="P9" s="58">
         <v>400</v>
       </c>
-      <c r="Q9" s="58"/>
+      <c r="Q9" s="59"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
       <c r="A10" s="6" t="s">
@@ -3633,7 +3675,7 @@
       <c r="B10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="55" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="23" t="s">
@@ -3663,7 +3705,7 @@
       <c r="L10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="59" t="s">
+      <c r="M10" s="60" t="s">
         <v>26</v>
       </c>
       <c r="N10" s="12" t="s">
@@ -3672,10 +3714,10 @@
       <c r="O10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="57">
+      <c r="P10" s="58">
         <v>400</v>
       </c>
-      <c r="Q10" s="58"/>
+      <c r="Q10" s="59"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3735,19 +3777,19 @@
         <v>60</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>59</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="M1" s="15" t="s">
         <v>14</v>
@@ -3761,16 +3803,16 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A2" s="6" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>22</v>
@@ -3779,25 +3821,25 @@
         <v>21</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="J2" s="9">
         <v>0</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="M2" s="23" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="N2" s="9">
         <v>200</v>
@@ -3871,340 +3913,340 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="P1" s="28" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="T1" s="11" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="AD1" s="11" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="AE1" s="11" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="AF1" s="11" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="AG1" s="13" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="AH1" s="13" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="AI1" s="13" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="AJ1" s="13" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="AK1" s="13" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="AL1" s="31" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="AM1" s="13" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="AN1" s="13" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="AO1" s="13" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="AP1" s="13" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="AQ1" s="14" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="AR1" s="31" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="AS1" s="13" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="AT1" s="13" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="AU1" s="13" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="AV1" s="13" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="AW1" s="13" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="AX1" s="13" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AY1" s="13" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="AZ1" s="13" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="BA1" s="13" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="BB1" s="13" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="BC1" s="13" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="BD1" s="13" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="BE1" s="13" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="BF1" s="13" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="BG1" s="13" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="BH1" s="13" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="BI1" s="5" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="BJ1" s="5" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="BK1" s="5" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="BL1" s="5" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="BM1" s="5" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="BN1" s="28" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="BO1" s="11" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="BP1" s="11" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="BQ1" s="11" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="BR1" s="11" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="BS1" s="10" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="BT1" s="28" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="BU1" s="11" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="BV1" s="11" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="BW1" s="11" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="BX1" s="11" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="BY1" s="11" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="BZ1" s="11" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="CA1" s="11" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="CB1" s="11" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="CC1" s="11" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="CD1" s="11" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="CE1" s="11" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="CF1" s="11" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="CG1" s="11" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="CH1" s="11" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="CI1" s="11" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="CJ1" s="11" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="CK1" s="13" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="CL1" s="13" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="CM1" s="13" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="CN1" s="13" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="CO1" s="13" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="CP1" s="31" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="CQ1" s="13" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="CR1" s="13" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="CS1" s="13" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="CT1" s="13" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="CU1" s="14" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="CV1" s="31" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="CW1" s="13" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="CX1" s="13" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="CY1" s="13" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="CZ1" s="13" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="DA1" s="13" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="DB1" s="13" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="DC1" s="13" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="DD1" s="13" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="DE1" s="13" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="DF1" s="13" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="DG1" s="13" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="DH1" s="13" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="DI1" s="13" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="DJ1" s="13" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="DK1" s="13" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="DL1" s="13" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="DM1" s="15" t="s">
         <v>14</v>
@@ -4219,7 +4261,7 @@
     <row r="2" s="17" customFormat="1" ht="21" customHeight="1" spans="1:119">
       <c r="A2" s="19"/>
       <c r="B2" s="20" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
@@ -4341,16 +4383,16 @@
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:119">
       <c r="A3" s="6" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>22</v>
@@ -4365,11 +4407,11 @@
         <v>74</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="J3" s="29"/>
       <c r="K3" s="29" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L3" s="29">
         <v>61361</v>
@@ -4377,10 +4419,10 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="12" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
@@ -4483,7 +4525,7 @@
       <c r="DK3" s="9"/>
       <c r="DL3" s="9"/>
       <c r="DM3" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="DN3" s="9">
         <v>200</v>
@@ -4494,16 +4536,16 @@
     </row>
     <row r="4" s="2" customFormat="1" ht="48" customHeight="1" spans="1:119">
       <c r="A4" s="6" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>22</v>
@@ -4518,11 +4560,11 @@
         <v>74</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="J4" s="29"/>
       <c r="K4" s="29" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="L4" s="29">
         <v>61362</v>
@@ -4530,10 +4572,10 @@
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="12" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
@@ -4636,7 +4678,7 @@
       <c r="DK4" s="9"/>
       <c r="DL4" s="9"/>
       <c r="DM4" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="DN4" s="9">
         <v>200</v>
@@ -4647,7 +4689,7 @@
     </row>
     <row r="5" s="2" customFormat="1" customHeight="1" spans="1:119">
       <c r="A5" s="6" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>89</v>
@@ -4656,7 +4698,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>22</v>
@@ -4671,11 +4713,11 @@
         <v>74</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="J5" s="29"/>
       <c r="K5" s="29" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="L5" s="29">
         <v>61363</v>
@@ -4683,10 +4725,10 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="12" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
@@ -4789,7 +4831,7 @@
       <c r="DK5" s="9"/>
       <c r="DL5" s="9"/>
       <c r="DM5" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="DN5" s="9">
         <v>200</v>
@@ -4800,16 +4842,16 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="1:119">
       <c r="A6" s="6" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>22</v>
@@ -4824,11 +4866,11 @@
         <v>74</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="J6" s="29"/>
       <c r="K6" s="29" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="L6" s="29">
         <v>61364</v>
@@ -4836,10 +4878,10 @@
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="12" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
@@ -4942,7 +4984,7 @@
       <c r="DK6" s="9"/>
       <c r="DL6" s="9"/>
       <c r="DM6" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="DN6" s="9">
         <v>200</v>
@@ -4953,16 +4995,16 @@
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="1:119">
       <c r="A7" s="6" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>22</v>
@@ -4977,11 +5019,11 @@
         <v>74</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="J7" s="29"/>
       <c r="K7" s="29" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="L7" s="29">
         <v>61365</v>
@@ -4989,10 +5031,10 @@
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="12" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
@@ -5095,7 +5137,7 @@
       <c r="DK7" s="9"/>
       <c r="DL7" s="9"/>
       <c r="DM7" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="DN7" s="9">
         <v>200</v>
@@ -5106,16 +5148,16 @@
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="1:119">
       <c r="A8" s="6" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>22</v>
@@ -5130,11 +5172,11 @@
         <v>74</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="J8" s="29"/>
       <c r="K8" s="29" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="L8" s="29">
         <v>61366</v>
@@ -5142,10 +5184,10 @@
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="12" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
@@ -5248,7 +5290,7 @@
       <c r="DK8" s="9"/>
       <c r="DL8" s="9"/>
       <c r="DM8" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="DN8" s="9">
         <v>200</v>
@@ -5260,7 +5302,7 @@
     <row r="9" s="17" customFormat="1" ht="21" customHeight="1" spans="1:119">
       <c r="A9" s="19"/>
       <c r="B9" s="20" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -5382,16 +5424,16 @@
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="1:119">
       <c r="A10" s="6" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>22</v>
@@ -5406,17 +5448,17 @@
         <v>74</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="12"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="12" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="P10" s="9"/>
       <c r="Q10" s="6" t="s">
@@ -5435,13 +5477,13 @@
         <v>0</v>
       </c>
       <c r="V10" s="9" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="X10" s="9" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
@@ -5536,7 +5578,7 @@
       <c r="DK10" s="9"/>
       <c r="DL10" s="9"/>
       <c r="DM10" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="DN10" s="9">
         <v>200</v>
@@ -5547,16 +5589,16 @@
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="1:119">
       <c r="A11" s="6" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>22</v>
@@ -5571,17 +5613,17 @@
         <v>74</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="12"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="12" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="P11" s="9"/>
       <c r="Q11" s="6" t="s">
@@ -5600,13 +5642,13 @@
         <v>0</v>
       </c>
       <c r="V11" s="9" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="X11" s="9" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
@@ -5701,7 +5743,7 @@
       <c r="DK11" s="9"/>
       <c r="DL11" s="9"/>
       <c r="DM11" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="DN11" s="9">
         <v>200</v>
@@ -5712,7 +5754,7 @@
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="1:119">
       <c r="A12" s="6" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>89</v>
@@ -5721,7 +5763,7 @@
         <v>19</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>22</v>
@@ -5736,17 +5778,17 @@
         <v>74</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="12"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="12" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="P12" s="9"/>
       <c r="Q12" s="6" t="s">
@@ -5765,13 +5807,13 @@
         <v>0</v>
       </c>
       <c r="V12" s="9" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="W12" s="9" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="X12" s="9" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
@@ -5866,7 +5908,7 @@
       <c r="DK12" s="9"/>
       <c r="DL12" s="9"/>
       <c r="DM12" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="DN12" s="9">
         <v>200</v>
@@ -5877,16 +5919,16 @@
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:119">
       <c r="A13" s="6" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>22</v>
@@ -5901,17 +5943,17 @@
         <v>74</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="12"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="12" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="P13" s="9"/>
       <c r="Q13" s="6" t="s">
@@ -5930,13 +5972,13 @@
         <v>0</v>
       </c>
       <c r="V13" s="9" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="X13" s="9" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
@@ -6031,7 +6073,7 @@
       <c r="DK13" s="9"/>
       <c r="DL13" s="9"/>
       <c r="DM13" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="DN13" s="9">
         <v>200</v>
@@ -6042,16 +6084,16 @@
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="1:119">
       <c r="A14" s="6" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>22</v>
@@ -6066,17 +6108,17 @@
         <v>74</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
       <c r="M14" s="27"/>
       <c r="N14" s="27"/>
       <c r="O14" s="12" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="P14" s="27"/>
       <c r="Q14" s="6" t="s">
@@ -6095,13 +6137,13 @@
         <v>0</v>
       </c>
       <c r="V14" s="9" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="X14" s="9" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="Y14" s="26"/>
       <c r="Z14" s="26"/>
@@ -6196,7 +6238,7 @@
       <c r="DK14" s="9"/>
       <c r="DL14" s="9"/>
       <c r="DM14" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="DN14" s="9">
         <v>200</v>
@@ -6207,16 +6249,16 @@
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="1:119">
       <c r="A15" s="6" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>22</v>
@@ -6231,17 +6273,17 @@
         <v>74</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
       <c r="M15" s="27"/>
       <c r="N15" s="27"/>
       <c r="O15" s="12" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="P15" s="27"/>
       <c r="Q15" s="6" t="s">
@@ -6260,13 +6302,13 @@
         <v>0</v>
       </c>
       <c r="V15" s="9" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="W15" s="9" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="X15" s="9" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="Y15" s="26"/>
       <c r="Z15" s="26"/>
@@ -6361,7 +6403,7 @@
       <c r="DK15" s="9"/>
       <c r="DL15" s="9"/>
       <c r="DM15" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="DN15" s="9">
         <v>200</v>
@@ -6493,16 +6535,16 @@
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="1:119">
       <c r="A17" s="6" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -6617,7 +6659,7 @@
       <c r="DK17" s="9"/>
       <c r="DL17" s="9"/>
       <c r="DM17" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="DN17" s="9">
         <v>200</v>
@@ -6628,16 +6670,16 @@
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="1:119">
       <c r="A18" s="6" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -6752,7 +6794,7 @@
       <c r="DK18" s="9"/>
       <c r="DL18" s="9"/>
       <c r="DM18" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="DN18" s="9">
         <v>200</v>
@@ -6763,16 +6805,16 @@
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="1:119">
       <c r="A19" s="6" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -6887,7 +6929,7 @@
       <c r="DK19" s="9"/>
       <c r="DL19" s="9"/>
       <c r="DM19" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="DN19" s="9">
         <v>200</v>
@@ -6898,16 +6940,16 @@
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="1:119">
       <c r="A20" s="6" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -7022,7 +7064,7 @@
       <c r="DK20" s="9"/>
       <c r="DL20" s="9"/>
       <c r="DM20" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="DN20" s="9">
         <v>200</v>
@@ -7033,16 +7075,16 @@
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="1:119">
       <c r="A21" s="6" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -7157,7 +7199,7 @@
       <c r="DK21" s="9"/>
       <c r="DL21" s="9"/>
       <c r="DM21" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="DN21" s="9">
         <v>200</v>
@@ -7230,184 +7272,184 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="U1" s="13" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="V1" s="13" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="W1" s="13" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="X1" s="13" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="Y1" s="13" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="Z1" s="14" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="AA1" s="13" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="AB1" s="13" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="AC1" s="13" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="AD1" s="13" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="AE1" s="13" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="AF1" s="13" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AG1" s="13" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="AH1" s="13" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="AJ1" s="5" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="AK1" s="5" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="AL1" s="5" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="AM1" s="5" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="AN1" s="5" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="AO1" s="10" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="AP1" s="5" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="AQ1" s="5" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="AR1" s="5" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="AS1" s="5" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="AT1" s="5" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="AU1" s="5" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="AV1" s="5" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="AW1" s="5" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="AX1" s="13" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="AY1" s="13" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="AZ1" s="13" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="BA1" s="13" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="BB1" s="13" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="BC1" s="13" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="BD1" s="14" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="BE1" s="13" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="BF1" s="13" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="BG1" s="13" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="BH1" s="13" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="BI1" s="13" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="BJ1" s="13" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="BK1" s="13" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="BL1" s="13" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="BM1" s="15" t="s">
         <v>14</v>
@@ -7421,16 +7463,16 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:67">
       <c r="A2" s="6" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>22</v>
@@ -7445,13 +7487,13 @@
         <v>74</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>22</v>
@@ -7469,13 +7511,13 @@
         <v>0</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
@@ -7523,7 +7565,7 @@
       <c r="BK2" s="9"/>
       <c r="BL2" s="9"/>
       <c r="BM2" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="BN2" s="9">
         <v>200</v>
@@ -7534,16 +7576,16 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:67">
       <c r="A3" s="6" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>22</v>
@@ -7558,13 +7600,13 @@
         <v>74</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>22</v>
@@ -7582,13 +7624,13 @@
         <v>0</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="T3" s="6" t="s">
         <v>22</v>
@@ -7597,19 +7639,19 @@
         <v>21</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="Z3" s="12" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="AA3" s="6" t="s">
         <v>22</v>
@@ -7618,22 +7660,22 @@
         <v>21</v>
       </c>
       <c r="AC3" s="9" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AE3" s="9">
         <v>0</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="AG3" s="9" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="AH3" s="9" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="AI3" s="9"/>
       <c r="AJ3" s="9"/>
@@ -7666,7 +7708,7 @@
       <c r="BK3" s="9"/>
       <c r="BL3" s="9"/>
       <c r="BM3" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="BN3" s="9">
         <v>200</v>
@@ -7677,16 +7719,16 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:67">
       <c r="A4" s="6" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>22</v>
@@ -7701,13 +7743,13 @@
         <v>74</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>22</v>
@@ -7725,13 +7767,13 @@
         <v>0</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="T4" s="6" t="s">
         <v>22</v>
@@ -7740,19 +7782,19 @@
         <v>21</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="X4" s="9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="Y4" s="9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="Z4" s="12" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="AA4" s="6" t="s">
         <v>22</v>
@@ -7761,22 +7803,22 @@
         <v>21</v>
       </c>
       <c r="AC4" s="9" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="AD4" s="9" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AE4" s="9">
         <v>0</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="AG4" s="9" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="AH4" s="9" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="AI4" s="6" t="s">
         <v>22</v>
@@ -7785,19 +7827,19 @@
         <v>21</v>
       </c>
       <c r="AK4" s="9" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AL4" s="9" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AM4" s="9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="AN4" s="9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="AO4" s="12" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="AP4" s="6" t="s">
         <v>22</v>
@@ -7806,22 +7848,22 @@
         <v>21</v>
       </c>
       <c r="AR4" s="9" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AS4" s="9" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AT4" s="9">
         <v>0</v>
       </c>
       <c r="AU4" s="9" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="AV4" s="9" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="AW4" s="9" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="AX4" s="9"/>
       <c r="AY4" s="9"/>
@@ -7839,7 +7881,7 @@
       <c r="BK4" s="9"/>
       <c r="BL4" s="9"/>
       <c r="BM4" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="BN4" s="9">
         <v>200</v>
@@ -7850,16 +7892,16 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:67">
       <c r="A5" s="6" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>22</v>
@@ -7874,13 +7916,13 @@
         <v>74</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>22</v>
@@ -7898,13 +7940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="T5" s="6" t="s">
         <v>22</v>
@@ -7913,19 +7955,19 @@
         <v>21</v>
       </c>
       <c r="V5" s="9" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="X5" s="9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="Y5" s="9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="Z5" s="12" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="AA5" s="6" t="s">
         <v>22</v>
@@ -7934,22 +7976,22 @@
         <v>21</v>
       </c>
       <c r="AC5" s="9" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="AD5" s="9" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AE5" s="9">
         <v>0</v>
       </c>
       <c r="AF5" s="9" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="AG5" s="9" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="AH5" s="9" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="AI5" s="6" t="s">
         <v>22</v>
@@ -7958,19 +8000,19 @@
         <v>21</v>
       </c>
       <c r="AK5" s="9" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AL5" s="9" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AM5" s="9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="AN5" s="9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="AO5" s="12" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="AP5" s="6" t="s">
         <v>22</v>
@@ -7979,22 +8021,22 @@
         <v>21</v>
       </c>
       <c r="AR5" s="9" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AS5" s="9" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AT5" s="9">
         <v>0</v>
       </c>
       <c r="AU5" s="9" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="AV5" s="9" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="AW5" s="9" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="AX5" s="6" t="s">
         <v>22</v>
@@ -8003,19 +8045,19 @@
         <v>21</v>
       </c>
       <c r="AZ5" s="9" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="BA5" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="BB5" s="9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="BC5" s="9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="BD5" s="12" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="BE5" s="6" t="s">
         <v>22</v>
@@ -8024,25 +8066,25 @@
         <v>21</v>
       </c>
       <c r="BG5" s="9" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="BH5" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="BI5" s="9">
         <v>0</v>
       </c>
       <c r="BJ5" s="9" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="BK5" s="9" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="BL5" s="9" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="BM5" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="BN5" s="9">
         <v>200</v>
@@ -8118,13 +8160,13 @@
       <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="55" t="s">
+      <c r="L1" s="56" t="s">
         <v>14</v>
       </c>
       <c r="M1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="56" t="s">
+      <c r="N1" s="57" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8135,7 +8177,7 @@
       <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="55" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="23" t="s">
@@ -8161,10 +8203,10 @@
       <c r="L2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="57">
+      <c r="M2" s="58">
         <v>200</v>
       </c>
-      <c r="N2" s="58" t="s">
+      <c r="N2" s="59" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8175,7 +8217,7 @@
       <c r="B3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="55" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="23" t="s">
@@ -8201,10 +8243,10 @@
       <c r="L3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="57">
+      <c r="M3" s="58">
         <v>400</v>
       </c>
-      <c r="N3" s="58"/>
+      <c r="N3" s="59"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
       <c r="A4" s="6" t="s">
@@ -8213,7 +8255,7 @@
       <c r="B4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="55" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="23" t="s">
@@ -8239,10 +8281,10 @@
       <c r="L4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="57">
+      <c r="M4" s="58">
         <v>400</v>
       </c>
-      <c r="N4" s="58"/>
+      <c r="N4" s="59"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
       <c r="A5" s="6" t="s">
@@ -8251,7 +8293,7 @@
       <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="55" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="23" t="s">
@@ -8279,10 +8321,10 @@
       <c r="L5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="57">
+      <c r="M5" s="58">
         <v>200</v>
       </c>
-      <c r="N5" s="58" t="s">
+      <c r="N5" s="59" t="s">
         <v>40</v>
       </c>
     </row>
@@ -8293,7 +8335,7 @@
       <c r="B6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="55" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="23" t="s">
@@ -8321,10 +8363,10 @@
       <c r="L6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="57">
+      <c r="M6" s="58">
         <v>400</v>
       </c>
-      <c r="N6" s="58"/>
+      <c r="N6" s="59"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
       <c r="A7" s="6" t="s">
@@ -8333,7 +8375,7 @@
       <c r="B7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="55" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="23" t="s">
@@ -8361,10 +8403,10 @@
       <c r="L7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="57">
+      <c r="M7" s="58">
         <v>400</v>
       </c>
-      <c r="N7" s="58"/>
+      <c r="N7" s="59"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
       <c r="A8" s="6" t="s">
@@ -8373,7 +8415,7 @@
       <c r="B8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="55" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -8403,10 +8445,10 @@
       <c r="L8" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="57">
+      <c r="M8" s="58">
         <v>200</v>
       </c>
-      <c r="N8" s="58" t="s">
+      <c r="N8" s="59" t="s">
         <v>49</v>
       </c>
     </row>
@@ -8417,7 +8459,7 @@
       <c r="B9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="55" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="23" t="s">
@@ -8447,10 +8489,10 @@
       <c r="L9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="57">
+      <c r="M9" s="58">
         <v>400</v>
       </c>
-      <c r="N9" s="58"/>
+      <c r="N9" s="59"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
       <c r="A10" s="6" t="s">
@@ -8459,7 +8501,7 @@
       <c r="B10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="55" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="23" t="s">
@@ -8489,10 +8531,10 @@
       <c r="L10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="57">
+      <c r="M10" s="58">
         <v>400</v>
       </c>
-      <c r="N10" s="58"/>
+      <c r="N10" s="59"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8503,10 +8545,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AZ36"/>
+  <dimension ref="A1:AZ42"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
@@ -8978,7 +9020,7 @@
         <v>90</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>19</v>
@@ -8998,11 +9040,11 @@
       <c r="H12" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="52">
+      <c r="I12" s="51">
         <v>61377</v>
       </c>
-      <c r="J12" s="53" t="s">
-        <v>92</v>
+      <c r="J12" s="50" t="s">
+        <v>91</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
@@ -9020,7 +9062,7 @@
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A13" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>79</v>
@@ -9043,11 +9085,11 @@
       <c r="H13" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="I13" s="52">
+      <c r="I13" s="51">
         <v>61377</v>
       </c>
-      <c r="J13" s="53" t="s">
-        <v>92</v>
+      <c r="J13" s="50" t="s">
+        <v>91</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
@@ -9065,7 +9107,7 @@
     </row>
     <row r="14" s="2" customFormat="1" ht="59" customHeight="1" spans="1:17">
       <c r="A14" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>83</v>
@@ -9088,11 +9130,11 @@
       <c r="H14" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I14" s="52">
+      <c r="I14" s="51">
         <v>61377</v>
       </c>
-      <c r="J14" s="53" t="s">
-        <v>92</v>
+      <c r="J14" s="50" t="s">
+        <v>91</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
@@ -9111,7 +9153,7 @@
     <row r="15" s="36" customFormat="1" ht="47" customHeight="1" spans="1:17">
       <c r="A15" s="38"/>
       <c r="B15" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
@@ -9131,10 +9173,10 @@
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A16" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>19</v>
@@ -9154,11 +9196,11 @@
       <c r="H16" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="51">
-        <v>35540</v>
-      </c>
-      <c r="J16" s="50" t="s">
-        <v>97</v>
+      <c r="I16" s="49">
+        <v>61378</v>
+      </c>
+      <c r="J16" s="52" t="s">
+        <v>96</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
@@ -9174,33 +9216,57 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" s="36" customFormat="1" ht="47" customHeight="1" spans="1:17">
-      <c r="A17" s="38"/>
-      <c r="B17" s="39" t="s">
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A17" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" s="49">
+        <v>61378</v>
+      </c>
+      <c r="J17" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="59" customHeight="1" spans="1:17">
+      <c r="A18" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-    </row>
-    <row r="18" s="2" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A18" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="B18" s="7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>19</v>
@@ -9209,7 +9275,7 @@
         <v>72</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>22</v>
@@ -9220,11 +9286,11 @@
       <c r="H18" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I18" s="51">
-        <v>61353</v>
-      </c>
-      <c r="J18" s="50" t="s">
-        <v>100</v>
+      <c r="I18" s="49">
+        <v>61378</v>
+      </c>
+      <c r="J18" s="52" t="s">
+        <v>96</v>
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
@@ -9243,7 +9309,7 @@
     <row r="19" s="36" customFormat="1" ht="47" customHeight="1" spans="1:17">
       <c r="A19" s="38"/>
       <c r="B19" s="39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
@@ -9263,10 +9329,10 @@
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A20" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>19</v>
@@ -9286,11 +9352,11 @@
       <c r="H20" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I20" s="51">
-        <v>61357</v>
-      </c>
-      <c r="J20" s="50" t="s">
-        <v>103</v>
+      <c r="I20" s="53">
+        <v>61379</v>
+      </c>
+      <c r="J20" s="54" t="s">
+        <v>101</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
@@ -9306,10 +9372,2368 @@
         <v>77</v>
       </c>
     </row>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A21" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="53">
+        <v>61379</v>
+      </c>
+      <c r="J21" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P21" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="59" customHeight="1" spans="1:17">
+      <c r="A22" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" s="53">
+        <v>61379</v>
+      </c>
+      <c r="J22" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P22" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" s="36" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A23" s="38"/>
+      <c r="B23" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+    </row>
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A24" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" s="51">
+        <v>61357</v>
+      </c>
+      <c r="J24" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P24" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A25" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25" s="51">
+        <v>61357</v>
+      </c>
+      <c r="J25" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P25" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="59" customHeight="1" spans="1:17">
+      <c r="A26" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" s="51">
+        <v>61357</v>
+      </c>
+      <c r="J26" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P26" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" s="17" customFormat="1" ht="21" customHeight="1" spans="1:52">
+      <c r="A27" s="19"/>
+      <c r="B27" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="45"/>
+      <c r="U27" s="45"/>
+      <c r="V27" s="45"/>
+      <c r="W27" s="46"/>
+      <c r="X27" s="45"/>
+      <c r="Y27" s="45"/>
+      <c r="Z27" s="45"/>
+      <c r="AA27" s="45"/>
+      <c r="AB27" s="35"/>
+      <c r="AC27" s="47"/>
+      <c r="AD27" s="47"/>
+      <c r="AE27" s="47"/>
+      <c r="AF27" s="47"/>
+      <c r="AG27" s="47"/>
+      <c r="AH27" s="47"/>
+      <c r="AI27" s="47"/>
+      <c r="AJ27" s="47"/>
+      <c r="AK27" s="47"/>
+      <c r="AL27" s="47"/>
+      <c r="AM27" s="47"/>
+      <c r="AN27" s="47"/>
+      <c r="AO27" s="47"/>
+      <c r="AP27" s="47"/>
+      <c r="AQ27" s="47"/>
+      <c r="AR27" s="47"/>
+      <c r="AS27" s="47"/>
+      <c r="AT27" s="47"/>
+      <c r="AU27" s="47"/>
+      <c r="AV27" s="47"/>
+      <c r="AW27" s="47"/>
+      <c r="AX27" s="47"/>
+      <c r="AY27" s="47"/>
+      <c r="AZ27" s="47"/>
+    </row>
+    <row r="28" s="36" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A28" s="38"/>
+      <c r="B28" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
+    </row>
+    <row r="29" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A29" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I29" s="51">
+        <v>61361</v>
+      </c>
+      <c r="J29" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P29" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q29" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" s="36" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A30" s="38"/>
+      <c r="B30" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+    </row>
+    <row r="31" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A31" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I31" s="51">
+        <v>61362</v>
+      </c>
+      <c r="J31" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P31" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q31" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" s="36" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A32" s="38"/>
+      <c r="B32" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+    </row>
+    <row r="33" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A33" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I33" s="51">
+        <v>61363</v>
+      </c>
+      <c r="J33" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P33" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q33" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" s="36" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A34" s="38"/>
+      <c r="B34" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
+    </row>
+    <row r="35" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A35" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I35" s="51">
+        <v>61364</v>
+      </c>
+      <c r="J35" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P35" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q35" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" s="36" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A36" s="38"/>
+      <c r="B36" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="48"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="43"/>
+    </row>
+    <row r="37" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A37" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I37" s="51">
+        <v>61365</v>
+      </c>
+      <c r="J37" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P37" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q37" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" s="36" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A38" s="38"/>
+      <c r="B38" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="43"/>
+    </row>
+    <row r="39" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A39" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I39" s="51">
+        <v>61366</v>
+      </c>
+      <c r="J39" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P39" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q39" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+    </row>
+    <row r="41" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A41" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I41" s="9">
+        <v>35537</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K41" s="9">
+        <v>35538</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P41" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q41" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A42" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I42" s="9">
+        <v>35537</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K42" s="9">
+        <v>35538</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M42" s="9">
+        <v>35539</v>
+      </c>
+      <c r="N42" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P42" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q42" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B38:D38"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q4"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="19.4285714285714" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.4285714285714" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.4285714285714" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.8571428571429" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25.7142857142857" style="2" customWidth="1"/>
+    <col min="9" max="9" width="23" style="2" customWidth="1"/>
+    <col min="10" max="10" width="31.4285714285714" style="2" customWidth="1"/>
+    <col min="11" max="11" width="30.7142857142857" style="2" customWidth="1"/>
+    <col min="12" max="14" width="24.2857142857143" style="2" customWidth="1"/>
+    <col min="15" max="15" width="17.4285714285714" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9.14285714285714" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="2" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A2" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="9">
+        <v>35537</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:17">
+      <c r="A3" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="9">
+        <v>35537</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="9">
+        <v>35538</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P3" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:17">
+      <c r="A4" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="9">
+        <v>35537</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="9">
+        <v>35538</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="9">
+        <v>35539</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P4" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="19.4285714285714" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.4285714285714" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.4285714285714" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.7142857142857" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.5714285714286" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.8380952380952" style="2" customWidth="1"/>
+    <col min="10" max="10" width="31.4285714285714" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.2857142857143" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.7142857142857" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.5714285714286" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.7142857142857" style="2" customWidth="1"/>
+    <col min="15" max="15" width="17.4285714285714" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9.14285714285714" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="2" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A2" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="9">
+        <v>35537</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A3" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="9">
+        <v>35537</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="9">
+        <v>35538</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P3" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A4" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="9">
+        <v>35537</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="9">
+        <v>35538</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="9">
+        <v>35539</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P4" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q4"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="19.4285714285714" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.4285714285714" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.7142857142857" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.7142857142857" style="2" customWidth="1"/>
+    <col min="8" max="8" width="23.4285714285714" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.8380952380952" style="2" customWidth="1"/>
+    <col min="10" max="10" width="31.4285714285714" style="2" customWidth="1"/>
+    <col min="11" max="11" width="17" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.7142857142857" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.5714285714286" style="2" customWidth="1"/>
+    <col min="14" max="14" width="24.7142857142857" style="2" customWidth="1"/>
+    <col min="15" max="15" width="17.4285714285714" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9.14285714285714" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="2" customFormat="1" ht="47" customHeight="1" spans="1:17">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A2" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="9">
+        <v>35537</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A3" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="9">
+        <v>35537</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="9">
+        <v>35538</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P3" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A4" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="9">
+        <v>35537</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="9">
+        <v>35538</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="9">
+        <v>35539</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P4" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AZ33"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A16" sqref="$A16:$XFD17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="31.9333333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.4285714285714" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.7142857142857" style="2" customWidth="1"/>
+    <col min="7" max="7" width="36.1333333333333" style="2" customWidth="1"/>
+    <col min="8" max="8" width="40.1714285714286" style="2" customWidth="1"/>
+    <col min="9" max="9" width="33.1047619047619" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.4285714285714" style="2" customWidth="1"/>
+    <col min="11" max="11" width="30.5809523809524" style="2" customWidth="1"/>
+    <col min="12" max="12" width="48.4" style="2" customWidth="1"/>
+    <col min="13" max="13" width="36.1238095238095" style="2" customWidth="1"/>
+    <col min="14" max="14" width="14.2857142857143" style="2" customWidth="1"/>
+    <col min="15" max="15" width="14.5714285714286" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9.14285714285714" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="2" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" s="17" customFormat="1" ht="21" customHeight="1" spans="1:52">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="47"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="47"/>
+      <c r="AK2" s="47"/>
+      <c r="AL2" s="47"/>
+      <c r="AM2" s="47"/>
+      <c r="AN2" s="47"/>
+      <c r="AO2" s="47"/>
+      <c r="AP2" s="47"/>
+      <c r="AQ2" s="47"/>
+      <c r="AR2" s="47"/>
+      <c r="AS2" s="47"/>
+      <c r="AT2" s="47"/>
+      <c r="AU2" s="47"/>
+      <c r="AV2" s="47"/>
+      <c r="AW2" s="47"/>
+      <c r="AX2" s="47"/>
+      <c r="AY2" s="47"/>
+      <c r="AZ2" s="47"/>
+    </row>
+    <row r="3" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A3" s="38"/>
+      <c r="B3" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+    </row>
+    <row r="4" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A4" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="N4" s="9">
+        <v>200</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="N5" s="9">
+        <v>200</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A6" s="38"/>
+      <c r="B6" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="46" customHeight="1" spans="1:15">
+      <c r="A7" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="M7" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="N7" s="9">
+        <v>200</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="46" customHeight="1" spans="1:15">
+      <c r="A8" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="M8" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="N8" s="9">
+        <v>200</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A9" s="38"/>
+      <c r="B9" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+    </row>
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A10" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="N10" s="9">
+        <v>200</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="33" customHeight="1" spans="1:15">
+      <c r="A11" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="N11" s="9">
+        <v>200</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A12" s="38"/>
+      <c r="B12" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+    </row>
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A13" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="M13" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="N13" s="9">
+        <v>200</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="33" customHeight="1" spans="1:15">
+      <c r="A14" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="M14" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="N14" s="9">
+        <v>200</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A15" s="38"/>
+      <c r="B15" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+    </row>
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A16" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="M16" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="N16" s="9">
+        <v>200</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="33" customHeight="1" spans="1:15">
+      <c r="A17" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="M17" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="N17" s="9">
+        <v>200</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A18" s="38"/>
+      <c r="B18" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
+    </row>
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A19" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="M19" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="N19" s="9">
+        <v>200</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="33" customHeight="1" spans="1:15">
+      <c r="A20" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="M20" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="N20" s="9">
+        <v>200</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
     <row r="21" s="17" customFormat="1" ht="21" customHeight="1" spans="1:52">
       <c r="A21" s="19"/>
       <c r="B21" s="20" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -9362,7 +11786,7 @@
       <c r="AY21" s="47"/>
       <c r="AZ21" s="47"/>
     </row>
-    <row r="22" s="36" customFormat="1" ht="47" customHeight="1" spans="1:17">
+    <row r="22" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
       <c r="A22" s="38"/>
       <c r="B22" s="39" t="s">
         <v>69</v>
@@ -9377,58 +11801,58 @@
       <c r="J22" s="41"/>
       <c r="K22" s="41"/>
       <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43"/>
-    </row>
-    <row r="23" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="M22" s="42"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+    </row>
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A23" s="6" t="s">
-        <v>105</v>
+        <v>181</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="J23" s="9">
+        <v>0</v>
+      </c>
+      <c r="K23" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I23" s="51">
-        <v>61361</v>
-      </c>
-      <c r="J23" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P23" s="9">
+      <c r="L23" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="M23" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="N23" s="9">
         <v>200</v>
       </c>
-      <c r="Q23" s="9" t="s">
+      <c r="O23" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" s="36" customFormat="1" ht="47" customHeight="1" spans="1:17">
+    <row r="24" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
       <c r="A24" s="38"/>
       <c r="B24" s="39" t="s">
         <v>84</v>
@@ -9443,58 +11867,58 @@
       <c r="J24" s="41"/>
       <c r="K24" s="41"/>
       <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43"/>
-    </row>
-    <row r="25" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="M24" s="42"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+    </row>
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A25" s="6" t="s">
-        <v>107</v>
+        <v>186</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0</v>
+      </c>
+      <c r="K25" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I25" s="51">
-        <v>61362</v>
-      </c>
-      <c r="J25" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P25" s="9">
+      <c r="L25" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="M25" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="N25" s="9">
         <v>200</v>
       </c>
-      <c r="Q25" s="9" t="s">
+      <c r="O25" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="26" s="36" customFormat="1" ht="47" customHeight="1" spans="1:17">
+    <row r="26" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
       <c r="A26" s="38"/>
       <c r="B26" s="39" t="s">
         <v>89</v>
@@ -9509,61 +11933,61 @@
       <c r="J26" s="41"/>
       <c r="K26" s="41"/>
       <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-    </row>
-    <row r="27" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="M26" s="42"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+    </row>
+    <row r="27" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A27" s="6" t="s">
-        <v>109</v>
+        <v>190</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="J27" s="9">
+        <v>0</v>
+      </c>
+      <c r="K27" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I27" s="51">
-        <v>61363</v>
-      </c>
-      <c r="J27" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P27" s="9">
+      <c r="L27" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="M27" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="N27" s="9">
         <v>200</v>
       </c>
-      <c r="Q27" s="9" t="s">
+      <c r="O27" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" s="36" customFormat="1" ht="47" customHeight="1" spans="1:17">
+    <row r="28" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
       <c r="A28" s="38"/>
       <c r="B28" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C28" s="40"/>
       <c r="D28" s="40"/>
@@ -9575,61 +11999,61 @@
       <c r="J28" s="41"/>
       <c r="K28" s="41"/>
       <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="43"/>
-    </row>
-    <row r="29" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="M28" s="42"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+    </row>
+    <row r="29" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A29" s="6" t="s">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="J29" s="9">
+        <v>0</v>
+      </c>
+      <c r="K29" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I29" s="51">
-        <v>61364</v>
-      </c>
-      <c r="J29" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P29" s="9">
+      <c r="L29" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M29" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="N29" s="9">
         <v>200</v>
       </c>
-      <c r="Q29" s="9" t="s">
+      <c r="O29" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" s="36" customFormat="1" ht="47" customHeight="1" spans="1:17">
+    <row r="30" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
       <c r="A30" s="38"/>
       <c r="B30" s="39" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C30" s="40"/>
       <c r="D30" s="40"/>
@@ -9641,61 +12065,61 @@
       <c r="J30" s="41"/>
       <c r="K30" s="41"/>
       <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="43"/>
-    </row>
-    <row r="31" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="M30" s="42"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+    </row>
+    <row r="31" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A31" s="6" t="s">
-        <v>113</v>
+        <v>198</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="J31" s="9">
+        <v>0</v>
+      </c>
+      <c r="K31" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I31" s="51">
-        <v>61365</v>
-      </c>
-      <c r="J31" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P31" s="9">
+      <c r="L31" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="M31" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="N31" s="9">
         <v>200</v>
       </c>
-      <c r="Q31" s="9" t="s">
+      <c r="O31" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="32" s="36" customFormat="1" ht="47" customHeight="1" spans="1:17">
+    <row r="32" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
       <c r="A32" s="38"/>
       <c r="B32" s="39" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C32" s="40"/>
       <c r="D32" s="40"/>
@@ -9707,175 +12131,54 @@
       <c r="J32" s="41"/>
       <c r="K32" s="41"/>
       <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="43"/>
-    </row>
-    <row r="33" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="M32" s="42"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+    </row>
+    <row r="33" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A33" s="6" t="s">
-        <v>115</v>
+        <v>202</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="J33" s="9">
+        <v>0</v>
+      </c>
+      <c r="K33" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F33" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I33" s="51">
-        <v>61366</v>
-      </c>
-      <c r="J33" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P33" s="9">
+      <c r="L33" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="M33" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="N33" s="9">
         <v>200</v>
       </c>
-      <c r="Q33" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" s="2" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-    </row>
-    <row r="35" s="2" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A35" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I35" s="9">
-        <v>35537</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K35" s="9">
-        <v>35538</v>
-      </c>
-      <c r="L35" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P35" s="9">
-        <v>200</v>
-      </c>
-      <c r="Q35" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" s="2" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A36" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I36" s="9">
-        <v>35537</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K36" s="9">
-        <v>35538</v>
-      </c>
-      <c r="L36" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M36" s="9">
-        <v>35539</v>
-      </c>
-      <c r="N36" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P36" s="9">
-        <v>200</v>
-      </c>
-      <c r="Q36" s="9" t="s">
+      <c r="O33" s="9" t="s">
         <v>77</v>
       </c>
     </row>
@@ -9883,11 +12186,11 @@
   <mergeCells count="14">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B12:D12"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B24:D24"/>
@@ -9895,1852 +12198,6 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B32:D32"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:Q4"/>
-  <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="3"/>
-  <cols>
-    <col min="1" max="1" width="19.4285714285714" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.4285714285714" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.4285714285714" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.8571428571429" style="2" customWidth="1"/>
-    <col min="8" max="8" width="25.7142857142857" style="2" customWidth="1"/>
-    <col min="9" max="9" width="23" style="2" customWidth="1"/>
-    <col min="10" max="10" width="31.4285714285714" style="2" customWidth="1"/>
-    <col min="11" max="11" width="30.7142857142857" style="2" customWidth="1"/>
-    <col min="12" max="14" width="24.2857142857143" style="2" customWidth="1"/>
-    <col min="15" max="15" width="17.4285714285714" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9.14285714285714" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="2" customFormat="1" ht="47" customHeight="1" spans="1:17">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A2" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="9">
-        <v>35537</v>
-      </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P2" s="9">
-        <v>200</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:17">
-      <c r="A3" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="9">
-        <v>35537</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="9">
-        <v>35538</v>
-      </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P3" s="9">
-        <v>200</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:17">
-      <c r="A4" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="9">
-        <v>35537</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="9">
-        <v>35538</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="N4" s="9">
-        <v>35539</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P4" s="9">
-        <v>200</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:Q4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="3"/>
-  <cols>
-    <col min="1" max="1" width="19.4285714285714" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.4285714285714" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.4285714285714" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.7142857142857" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21.5714285714286" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.8380952380952" style="2" customWidth="1"/>
-    <col min="10" max="10" width="31.4285714285714" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.2857142857143" style="2" customWidth="1"/>
-    <col min="12" max="12" width="19.7142857142857" style="2" customWidth="1"/>
-    <col min="13" max="13" width="15.5714285714286" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.7142857142857" style="2" customWidth="1"/>
-    <col min="15" max="15" width="17.4285714285714" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9.14285714285714" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="2" customFormat="1" ht="47" customHeight="1" spans="1:17">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A2" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="9">
-        <v>35537</v>
-      </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P2" s="9">
-        <v>200</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A3" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="9">
-        <v>35537</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="9">
-        <v>35538</v>
-      </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P3" s="9">
-        <v>200</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A4" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="9">
-        <v>35537</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="9">
-        <v>35538</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="N4" s="9">
-        <v>35539</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P4" s="9">
-        <v>200</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:Q4"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="3"/>
-  <cols>
-    <col min="1" max="1" width="19.4285714285714" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.4285714285714" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.7142857142857" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.7142857142857" style="2" customWidth="1"/>
-    <col min="8" max="8" width="23.4285714285714" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.8380952380952" style="2" customWidth="1"/>
-    <col min="10" max="10" width="31.4285714285714" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17" style="2" customWidth="1"/>
-    <col min="12" max="12" width="19.7142857142857" style="2" customWidth="1"/>
-    <col min="13" max="13" width="15.5714285714286" style="2" customWidth="1"/>
-    <col min="14" max="14" width="24.7142857142857" style="2" customWidth="1"/>
-    <col min="15" max="15" width="17.4285714285714" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9.14285714285714" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="2" customFormat="1" ht="47" customHeight="1" spans="1:17">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A2" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="9">
-        <v>35537</v>
-      </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P2" s="9">
-        <v>200</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A3" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="9">
-        <v>35537</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="9">
-        <v>35538</v>
-      </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P3" s="9">
-        <v>200</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A4" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="9">
-        <v>35537</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="9">
-        <v>35538</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="N4" s="9">
-        <v>35539</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P4" s="9">
-        <v>200</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AZ30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="31.9333333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.4285714285714" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.7142857142857" style="2" customWidth="1"/>
-    <col min="7" max="7" width="36.1333333333333" style="2" customWidth="1"/>
-    <col min="8" max="8" width="40.1714285714286" style="2" customWidth="1"/>
-    <col min="9" max="9" width="33.1047619047619" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.4285714285714" style="2" customWidth="1"/>
-    <col min="11" max="11" width="30.5809523809524" style="2" customWidth="1"/>
-    <col min="12" max="12" width="48.4" style="2" customWidth="1"/>
-    <col min="13" max="13" width="36.1238095238095" style="2" customWidth="1"/>
-    <col min="14" max="14" width="14.2857142857143" style="2" customWidth="1"/>
-    <col min="15" max="15" width="14.5714285714286" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9.14285714285714" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="2" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="J1" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="K1" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" s="17" customFormat="1" ht="21" customHeight="1" spans="1:52">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="47"/>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="47"/>
-      <c r="AI2" s="47"/>
-      <c r="AJ2" s="47"/>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="47"/>
-      <c r="AM2" s="47"/>
-      <c r="AN2" s="47"/>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="47"/>
-      <c r="AQ2" s="47"/>
-      <c r="AR2" s="47"/>
-      <c r="AS2" s="47"/>
-      <c r="AT2" s="47"/>
-      <c r="AU2" s="47"/>
-      <c r="AV2" s="47"/>
-      <c r="AW2" s="47"/>
-      <c r="AX2" s="47"/>
-      <c r="AY2" s="47"/>
-      <c r="AZ2" s="47"/>
-    </row>
-    <row r="3" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-    </row>
-    <row r="4" s="2" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A4" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="J4" s="9">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="M4" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="N4" s="9">
-        <v>200</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A5" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="J5" s="9">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="M5" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="N5" s="9">
-        <v>200</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A6" s="38"/>
-      <c r="B6" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="46" customHeight="1" spans="1:15">
-      <c r="A7" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="J7" s="9">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="M7" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="N7" s="9">
-        <v>200</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="46" customHeight="1" spans="1:15">
-      <c r="A8" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="J8" s="9">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="M8" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="N8" s="9">
-        <v>200</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A9" s="38"/>
-      <c r="B9" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-    </row>
-    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A10" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="J10" s="9">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="M10" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="N10" s="9">
-        <v>200</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="33" customHeight="1" spans="1:15">
-      <c r="A11" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="J11" s="9">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="M11" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="N11" s="9">
-        <v>200</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A12" s="38"/>
-      <c r="B12" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-    </row>
-    <row r="13" s="2" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A13" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="J13" s="9">
-        <v>0</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="M13" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="N13" s="9">
-        <v>200</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A14" s="38"/>
-      <c r="B14" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-    </row>
-    <row r="15" s="2" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A15" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="J15" s="9">
-        <v>0</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="M15" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="N15" s="9">
-        <v>200</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A16" s="38"/>
-      <c r="B16" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-    </row>
-    <row r="17" s="2" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A17" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="J17" s="9">
-        <v>0</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="M17" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="N17" s="9">
-        <v>200</v>
-      </c>
-      <c r="O17" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" s="17" customFormat="1" ht="21" customHeight="1" spans="1:52">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="45"/>
-      <c r="V18" s="45"/>
-      <c r="W18" s="46"/>
-      <c r="X18" s="45"/>
-      <c r="Y18" s="45"/>
-      <c r="Z18" s="45"/>
-      <c r="AA18" s="45"/>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="47"/>
-      <c r="AD18" s="47"/>
-      <c r="AE18" s="47"/>
-      <c r="AF18" s="47"/>
-      <c r="AG18" s="47"/>
-      <c r="AH18" s="47"/>
-      <c r="AI18" s="47"/>
-      <c r="AJ18" s="47"/>
-      <c r="AK18" s="47"/>
-      <c r="AL18" s="47"/>
-      <c r="AM18" s="47"/>
-      <c r="AN18" s="47"/>
-      <c r="AO18" s="47"/>
-      <c r="AP18" s="47"/>
-      <c r="AQ18" s="47"/>
-      <c r="AR18" s="47"/>
-      <c r="AS18" s="47"/>
-      <c r="AT18" s="47"/>
-      <c r="AU18" s="47"/>
-      <c r="AV18" s="47"/>
-      <c r="AW18" s="47"/>
-      <c r="AX18" s="47"/>
-      <c r="AY18" s="47"/>
-      <c r="AZ18" s="47"/>
-    </row>
-    <row r="19" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A19" s="38"/>
-      <c r="B19" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-    </row>
-    <row r="20" s="2" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A20" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="J20" s="9">
-        <v>0</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="M20" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="N20" s="9">
-        <v>200</v>
-      </c>
-      <c r="O20" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A21" s="38"/>
-      <c r="B21" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-    </row>
-    <row r="22" s="2" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A22" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="J22" s="9">
-        <v>0</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L22" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="M22" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="N22" s="9">
-        <v>200</v>
-      </c>
-      <c r="O22" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A23" s="38"/>
-      <c r="B23" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-    </row>
-    <row r="24" s="2" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A24" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="J24" s="9">
-        <v>0</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="M24" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="N24" s="9">
-        <v>200</v>
-      </c>
-      <c r="O24" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A25" s="38"/>
-      <c r="B25" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-    </row>
-    <row r="26" s="2" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A26" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="J26" s="9">
-        <v>0</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="M26" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="N26" s="9">
-        <v>200</v>
-      </c>
-      <c r="O26" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A27" s="38"/>
-      <c r="B27" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-    </row>
-    <row r="28" s="2" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A28" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="J28" s="9">
-        <v>0</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L28" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="M28" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="N28" s="9">
-        <v>200</v>
-      </c>
-      <c r="O28" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" s="36" customFormat="1" ht="47" customHeight="1" spans="1:15">
-      <c r="A29" s="38"/>
-      <c r="B29" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-    </row>
-    <row r="30" s="2" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A30" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="J30" s="9">
-        <v>0</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L30" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="M30" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="N30" s="9">
-        <v>200</v>
-      </c>
-      <c r="O30" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B29:D29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -11800,19 +12257,19 @@
         <v>60</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>59</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="M1" s="15" t="s">
         <v>14</v>
@@ -11826,16 +12283,16 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A2" s="6" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>22</v>
@@ -11844,25 +12301,25 @@
         <v>21</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="J2" s="9">
         <v>0</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="M2" s="23" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="N2" s="9">
         <v>200</v>
@@ -11930,19 +12387,19 @@
         <v>60</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>59</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="M1" s="15" t="s">
         <v>14</v>
@@ -11956,16 +12413,16 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A2" s="6" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>22</v>
@@ -11974,25 +12431,25 @@
         <v>21</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="J2" s="9">
         <v>0</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="M2" s="23" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="N2" s="9">
         <v>200</v>

--- a/src/main/resources/input_excel_file/booking/voucher.xlsx
+++ b/src/main/resources/input_excel_file/booking/voucher.xlsx
@@ -1921,12 +1921,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -2477,7 +2477,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2635,12 +2635,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3262,13 +3256,13 @@
       <c r="N1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="56" t="s">
+      <c r="O1" s="54" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="57" t="s">
+      <c r="Q1" s="55" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3279,7 +3273,7 @@
       <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="53" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="23" t="s">
@@ -3305,7 +3299,7 @@
       <c r="L2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="60" t="s">
+      <c r="M2" s="58" t="s">
         <v>26</v>
       </c>
       <c r="N2" s="12" t="s">
@@ -3314,10 +3308,10 @@
       <c r="O2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="58">
+      <c r="P2" s="56">
         <v>200</v>
       </c>
-      <c r="Q2" s="59" t="s">
+      <c r="Q2" s="57" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3328,7 +3322,7 @@
       <c r="B3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="53" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="23" t="s">
@@ -3354,7 +3348,7 @@
       <c r="L3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="60" t="s">
+      <c r="M3" s="58" t="s">
         <v>26</v>
       </c>
       <c r="N3" s="12" t="s">
@@ -3363,10 +3357,10 @@
       <c r="O3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="58">
+      <c r="P3" s="56">
         <v>400</v>
       </c>
-      <c r="Q3" s="59"/>
+      <c r="Q3" s="57"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
       <c r="A4" s="6" t="s">
@@ -3375,7 +3369,7 @@
       <c r="B4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="53" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="23" t="s">
@@ -3401,7 +3395,7 @@
       <c r="L4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="60" t="s">
+      <c r="M4" s="58" t="s">
         <v>26</v>
       </c>
       <c r="N4" s="12" t="s">
@@ -3410,10 +3404,10 @@
       <c r="O4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="58">
+      <c r="P4" s="56">
         <v>400</v>
       </c>
-      <c r="Q4" s="59"/>
+      <c r="Q4" s="57"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
       <c r="A5" s="6" t="s">
@@ -3422,7 +3416,7 @@
       <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="53" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="23" t="s">
@@ -3450,7 +3444,7 @@
       <c r="L5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="60" t="s">
+      <c r="M5" s="58" t="s">
         <v>26</v>
       </c>
       <c r="N5" s="12" t="s">
@@ -3459,10 +3453,10 @@
       <c r="O5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="58">
+      <c r="P5" s="56">
         <v>200</v>
       </c>
-      <c r="Q5" s="59" t="s">
+      <c r="Q5" s="57" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3473,7 +3467,7 @@
       <c r="B6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="53" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="23" t="s">
@@ -3501,7 +3495,7 @@
       <c r="L6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="60" t="s">
+      <c r="M6" s="58" t="s">
         <v>26</v>
       </c>
       <c r="N6" s="12" t="s">
@@ -3510,10 +3504,10 @@
       <c r="O6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="58">
+      <c r="P6" s="56">
         <v>400</v>
       </c>
-      <c r="Q6" s="59"/>
+      <c r="Q6" s="57"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
       <c r="A7" s="6" t="s">
@@ -3522,7 +3516,7 @@
       <c r="B7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="53" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="23" t="s">
@@ -3550,7 +3544,7 @@
       <c r="L7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="60" t="s">
+      <c r="M7" s="58" t="s">
         <v>26</v>
       </c>
       <c r="N7" s="12" t="s">
@@ -3559,10 +3553,10 @@
       <c r="O7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P7" s="58">
+      <c r="P7" s="56">
         <v>400</v>
       </c>
-      <c r="Q7" s="59"/>
+      <c r="Q7" s="57"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
       <c r="A8" s="6" t="s">
@@ -3571,7 +3565,7 @@
       <c r="B8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="53" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -3601,7 +3595,7 @@
       <c r="L8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="60" t="s">
+      <c r="M8" s="58" t="s">
         <v>26</v>
       </c>
       <c r="N8" s="12" t="s">
@@ -3610,10 +3604,10 @@
       <c r="O8" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="58">
+      <c r="P8" s="56">
         <v>200</v>
       </c>
-      <c r="Q8" s="59" t="s">
+      <c r="Q8" s="57" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3624,7 +3618,7 @@
       <c r="B9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="53" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="23" t="s">
@@ -3654,7 +3648,7 @@
       <c r="L9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="60" t="s">
+      <c r="M9" s="58" t="s">
         <v>26</v>
       </c>
       <c r="N9" s="12" t="s">
@@ -3663,10 +3657,10 @@
       <c r="O9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P9" s="58">
+      <c r="P9" s="56">
         <v>400</v>
       </c>
-      <c r="Q9" s="59"/>
+      <c r="Q9" s="57"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="69" customHeight="1" spans="1:17">
       <c r="A10" s="6" t="s">
@@ -3675,7 +3669,7 @@
       <c r="B10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="53" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="23" t="s">
@@ -3705,7 +3699,7 @@
       <c r="L10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="60" t="s">
+      <c r="M10" s="58" t="s">
         <v>26</v>
       </c>
       <c r="N10" s="12" t="s">
@@ -3714,10 +3708,10 @@
       <c r="O10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="58">
+      <c r="P10" s="56">
         <v>400</v>
       </c>
-      <c r="Q10" s="59"/>
+      <c r="Q10" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8160,13 +8154,13 @@
       <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="L1" s="54" t="s">
         <v>14</v>
       </c>
       <c r="M1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="57" t="s">
+      <c r="N1" s="55" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8177,7 +8171,7 @@
       <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="53" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="23" t="s">
@@ -8203,10 +8197,10 @@
       <c r="L2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="58">
+      <c r="M2" s="56">
         <v>200</v>
       </c>
-      <c r="N2" s="59" t="s">
+      <c r="N2" s="57" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8217,7 +8211,7 @@
       <c r="B3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="53" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="23" t="s">
@@ -8243,10 +8237,10 @@
       <c r="L3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="58">
+      <c r="M3" s="56">
         <v>400</v>
       </c>
-      <c r="N3" s="59"/>
+      <c r="N3" s="57"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
       <c r="A4" s="6" t="s">
@@ -8255,7 +8249,7 @@
       <c r="B4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="53" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="23" t="s">
@@ -8281,10 +8275,10 @@
       <c r="L4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="58">
+      <c r="M4" s="56">
         <v>400</v>
       </c>
-      <c r="N4" s="59"/>
+      <c r="N4" s="57"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
       <c r="A5" s="6" t="s">
@@ -8293,7 +8287,7 @@
       <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="53" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="23" t="s">
@@ -8321,10 +8315,10 @@
       <c r="L5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="58">
+      <c r="M5" s="56">
         <v>200</v>
       </c>
-      <c r="N5" s="59" t="s">
+      <c r="N5" s="57" t="s">
         <v>40</v>
       </c>
     </row>
@@ -8335,7 +8329,7 @@
       <c r="B6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="53" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="23" t="s">
@@ -8363,10 +8357,10 @@
       <c r="L6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="58">
+      <c r="M6" s="56">
         <v>400</v>
       </c>
-      <c r="N6" s="59"/>
+      <c r="N6" s="57"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
       <c r="A7" s="6" t="s">
@@ -8375,7 +8369,7 @@
       <c r="B7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="53" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="23" t="s">
@@ -8403,10 +8397,10 @@
       <c r="L7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="58">
+      <c r="M7" s="56">
         <v>400</v>
       </c>
-      <c r="N7" s="59"/>
+      <c r="N7" s="57"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
       <c r="A8" s="6" t="s">
@@ -8415,7 +8409,7 @@
       <c r="B8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="53" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -8445,10 +8439,10 @@
       <c r="L8" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="58">
+      <c r="M8" s="56">
         <v>200</v>
       </c>
-      <c r="N8" s="59" t="s">
+      <c r="N8" s="57" t="s">
         <v>49</v>
       </c>
     </row>
@@ -8459,7 +8453,7 @@
       <c r="B9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="53" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="23" t="s">
@@ -8489,10 +8483,10 @@
       <c r="L9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="58">
+      <c r="M9" s="56">
         <v>400</v>
       </c>
-      <c r="N9" s="59"/>
+      <c r="N9" s="57"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="69" customHeight="1" spans="1:14">
       <c r="A10" s="6" t="s">
@@ -8501,7 +8495,7 @@
       <c r="B10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="53" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="23" t="s">
@@ -8531,10 +8525,10 @@
       <c r="L10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="58">
+      <c r="M10" s="56">
         <v>400</v>
       </c>
-      <c r="N10" s="59"/>
+      <c r="N10" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8547,8 +8541,10 @@
   <sheetPr/>
   <dimension ref="A1:AZ42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
@@ -9352,10 +9348,10 @@
       <c r="H20" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I20" s="53">
+      <c r="I20" s="51">
         <v>61379</v>
       </c>
-      <c r="J20" s="54" t="s">
+      <c r="J20" s="50" t="s">
         <v>101</v>
       </c>
       <c r="K20" s="9"/>
@@ -9397,10 +9393,10 @@
       <c r="H21" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="I21" s="53">
+      <c r="I21" s="51">
         <v>61379</v>
       </c>
-      <c r="J21" s="54" t="s">
+      <c r="J21" s="50" t="s">
         <v>101</v>
       </c>
       <c r="K21" s="9"/>
@@ -9442,10 +9438,10 @@
       <c r="H22" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I22" s="53">
+      <c r="I22" s="51">
         <v>61379</v>
       </c>
-      <c r="J22" s="54" t="s">
+      <c r="J22" s="50" t="s">
         <v>101</v>
       </c>
       <c r="K22" s="9"/>
@@ -10921,8 +10917,8 @@
   <sheetPr/>
   <dimension ref="A1:AZ33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A16" sqref="$A16:$XFD17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
